--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2637400</v>
+        <v>2444500</v>
       </c>
       <c r="E8" s="3">
-        <v>2863600</v>
+        <v>2670400</v>
       </c>
       <c r="F8" s="3">
-        <v>2893200</v>
+        <v>2660500</v>
       </c>
       <c r="G8" s="3">
+        <v>2888600</v>
+      </c>
+      <c r="H8" s="3">
         <v>2918500</v>
       </c>
-      <c r="H8" s="3">
-        <v>2838300</v>
-      </c>
       <c r="I8" s="3">
+        <v>2944000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2863100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2925100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2831700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2817300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2815100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2836400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2931000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2861700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2172900</v>
+        <v>2025800</v>
       </c>
       <c r="E9" s="3">
-        <v>2336500</v>
+        <v>2320400</v>
       </c>
       <c r="F9" s="3">
-        <v>2305800</v>
+        <v>2191900</v>
       </c>
       <c r="G9" s="3">
-        <v>2388200</v>
+        <v>2357000</v>
       </c>
       <c r="H9" s="3">
-        <v>2205900</v>
+        <v>2326000</v>
       </c>
       <c r="I9" s="3">
+        <v>2409000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2225200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2333300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2179500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1934300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1910700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1950000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2019000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2006000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>464500</v>
+        <v>418700</v>
       </c>
       <c r="E10" s="3">
-        <v>527000</v>
+        <v>350000</v>
       </c>
       <c r="F10" s="3">
-        <v>587400</v>
+        <v>468500</v>
       </c>
       <c r="G10" s="3">
-        <v>530300</v>
+        <v>531600</v>
       </c>
       <c r="H10" s="3">
-        <v>632400</v>
+        <v>592600</v>
       </c>
       <c r="I10" s="3">
+        <v>535000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>638000</v>
+      </c>
+      <c r="K10" s="3">
         <v>591800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>652200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>883000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>904300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>886400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>912100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>855700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>32900</v>
+        <v>-129600</v>
       </c>
       <c r="E14" s="3">
+        <v>-481800</v>
+      </c>
+      <c r="F14" s="3">
+        <v>33200</v>
+      </c>
+      <c r="G14" s="3">
         <v>5500</v>
       </c>
-      <c r="F14" s="3">
-        <v>17600</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I14" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>22200</v>
+      </c>
+      <c r="K14" s="3">
         <v>18700</v>
       </c>
-      <c r="H14" s="3">
-        <v>22000</v>
-      </c>
-      <c r="I14" s="3">
-        <v>18700</v>
-      </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>15400</v>
-      </c>
-      <c r="K14" s="3">
-        <v>22400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>22400</v>
       </c>
       <c r="M14" s="3">
         <v>22400</v>
       </c>
       <c r="N14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="O14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="P14" s="3">
         <v>14100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>237100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>143800</v>
+        <v>152800</v>
       </c>
       <c r="E15" s="3">
-        <v>147100</v>
+        <v>157300</v>
       </c>
       <c r="F15" s="3">
-        <v>146000</v>
+        <v>145100</v>
       </c>
       <c r="G15" s="3">
-        <v>125200</v>
+        <v>148400</v>
       </c>
       <c r="H15" s="3">
-        <v>134000</v>
+        <v>147300</v>
       </c>
       <c r="I15" s="3">
+        <v>126300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>135100</v>
+      </c>
+      <c r="K15" s="3">
         <v>132900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>132900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>145900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>139100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>133500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>166700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>71600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2450700</v>
+        <v>2154300</v>
       </c>
       <c r="E17" s="3">
-        <v>2707700</v>
+        <v>1916100</v>
       </c>
       <c r="F17" s="3">
-        <v>2549600</v>
+        <v>2472200</v>
       </c>
       <c r="G17" s="3">
-        <v>2527600</v>
+        <v>2731300</v>
       </c>
       <c r="H17" s="3">
-        <v>2439800</v>
+        <v>2571800</v>
       </c>
       <c r="I17" s="3">
+        <v>2549700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2461100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2577000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2442000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2552500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2512100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2606400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2704500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2691500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>186700</v>
+        <v>290200</v>
       </c>
       <c r="E18" s="3">
-        <v>155900</v>
+        <v>754300</v>
       </c>
       <c r="F18" s="3">
-        <v>343700</v>
+        <v>188300</v>
       </c>
       <c r="G18" s="3">
-        <v>390900</v>
+        <v>157300</v>
       </c>
       <c r="H18" s="3">
-        <v>398600</v>
+        <v>346700</v>
       </c>
       <c r="I18" s="3">
+        <v>394300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>402100</v>
+      </c>
+      <c r="K18" s="3">
         <v>348100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>389800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>264800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>302900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>230000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>226500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>170200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1243,110 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-60400</v>
+        <v>-58700</v>
       </c>
       <c r="E20" s="3">
-        <v>-53800</v>
+        <v>-37700</v>
       </c>
       <c r="F20" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-34300</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-45400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-64200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-65900</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-24200</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-51600</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="P20" s="3">
         <v>-34000</v>
       </c>
-      <c r="G20" s="3">
-        <v>-45000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-63700</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-65900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-24200</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-30300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-51600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-67300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-34000</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-81000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>123000</v>
+        <v>384300</v>
       </c>
       <c r="E21" s="3">
-        <v>103200</v>
+        <v>1232800</v>
       </c>
       <c r="F21" s="3">
-        <v>455700</v>
+        <v>124100</v>
       </c>
       <c r="G21" s="3">
-        <v>337100</v>
+        <v>104100</v>
       </c>
       <c r="H21" s="3">
-        <v>336000</v>
+        <v>459700</v>
       </c>
       <c r="I21" s="3">
+        <v>340000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>338900</v>
+      </c>
+      <c r="K21" s="3">
         <v>282200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>498500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>241200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>256900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>136900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>359200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>403800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>126300</v>
+        <v>231500</v>
       </c>
       <c r="E23" s="3">
-        <v>102100</v>
+        <v>716600</v>
       </c>
       <c r="F23" s="3">
-        <v>309600</v>
+        <v>127400</v>
       </c>
       <c r="G23" s="3">
-        <v>345900</v>
+        <v>103000</v>
       </c>
       <c r="H23" s="3">
-        <v>334900</v>
+        <v>312300</v>
       </c>
       <c r="I23" s="3">
+        <v>348900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>337800</v>
+      </c>
+      <c r="K23" s="3">
         <v>282200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>365600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>234500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>251300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>162700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>192500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>89200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>62600</v>
+        <v>65300</v>
       </c>
       <c r="E24" s="3">
-        <v>45000</v>
+        <v>140700</v>
       </c>
       <c r="F24" s="3">
-        <v>61500</v>
+        <v>63100</v>
       </c>
       <c r="G24" s="3">
-        <v>17600</v>
+        <v>45400</v>
       </c>
       <c r="H24" s="3">
-        <v>110900</v>
+        <v>62000</v>
       </c>
       <c r="I24" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J24" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K24" s="3">
         <v>48300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>65900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>40400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>37000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>66900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>23500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>63700</v>
+        <v>166100</v>
       </c>
       <c r="E26" s="3">
-        <v>57100</v>
+        <v>576000</v>
       </c>
       <c r="F26" s="3">
-        <v>248100</v>
+        <v>64200</v>
       </c>
       <c r="G26" s="3">
-        <v>328300</v>
+        <v>57600</v>
       </c>
       <c r="H26" s="3">
-        <v>224000</v>
+        <v>250300</v>
       </c>
       <c r="I26" s="3">
+        <v>331200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>226000</v>
+      </c>
+      <c r="K26" s="3">
         <v>233900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>299800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>194100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>214300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>160400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>125600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>65700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>76900</v>
+        <v>168400</v>
       </c>
       <c r="E27" s="3">
-        <v>64800</v>
+        <v>576000</v>
       </c>
       <c r="F27" s="3">
-        <v>254700</v>
+        <v>77500</v>
       </c>
       <c r="G27" s="3">
-        <v>333800</v>
+        <v>65300</v>
       </c>
       <c r="H27" s="3">
-        <v>235000</v>
+        <v>257000</v>
       </c>
       <c r="I27" s="3">
+        <v>336700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>237000</v>
+      </c>
+      <c r="K27" s="3">
         <v>242700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>300900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>195200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>214300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>163800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>133800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>106800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>60400</v>
+        <v>58700</v>
       </c>
       <c r="E32" s="3">
-        <v>53800</v>
+        <v>37700</v>
       </c>
       <c r="F32" s="3">
+        <v>60900</v>
+      </c>
+      <c r="G32" s="3">
+        <v>54300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>34300</v>
+      </c>
+      <c r="I32" s="3">
+        <v>45400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>64200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>65900</v>
+      </c>
+      <c r="L32" s="3">
+        <v>24200</v>
+      </c>
+      <c r="M32" s="3">
+        <v>30300</v>
+      </c>
+      <c r="N32" s="3">
+        <v>51600</v>
+      </c>
+      <c r="O32" s="3">
+        <v>67300</v>
+      </c>
+      <c r="P32" s="3">
         <v>34000</v>
       </c>
-      <c r="G32" s="3">
-        <v>45000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>63700</v>
-      </c>
-      <c r="I32" s="3">
-        <v>65900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>24200</v>
-      </c>
-      <c r="K32" s="3">
-        <v>30300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>51600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>67300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>34000</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>81000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>76900</v>
+        <v>168400</v>
       </c>
       <c r="E33" s="3">
-        <v>64800</v>
+        <v>576000</v>
       </c>
       <c r="F33" s="3">
-        <v>254700</v>
+        <v>77500</v>
       </c>
       <c r="G33" s="3">
-        <v>333800</v>
+        <v>65300</v>
       </c>
       <c r="H33" s="3">
-        <v>235000</v>
+        <v>257000</v>
       </c>
       <c r="I33" s="3">
+        <v>336700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>237000</v>
+      </c>
+      <c r="K33" s="3">
         <v>242700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>300900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>195200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>214300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>163800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>133800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>106800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>76900</v>
+        <v>168400</v>
       </c>
       <c r="E35" s="3">
-        <v>64800</v>
+        <v>576000</v>
       </c>
       <c r="F35" s="3">
-        <v>254700</v>
+        <v>77500</v>
       </c>
       <c r="G35" s="3">
-        <v>333800</v>
+        <v>65300</v>
       </c>
       <c r="H35" s="3">
-        <v>235000</v>
+        <v>257000</v>
       </c>
       <c r="I35" s="3">
+        <v>336700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>237000</v>
+      </c>
+      <c r="K35" s="3">
         <v>242700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>300900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>195200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>214300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>163800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>133800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>106800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>782900</v>
+        <v>837300</v>
       </c>
       <c r="E41" s="3">
-        <v>914600</v>
+        <v>970300</v>
       </c>
       <c r="F41" s="3">
-        <v>1342900</v>
+        <v>789700</v>
       </c>
       <c r="G41" s="3">
-        <v>1240700</v>
+        <v>922600</v>
       </c>
       <c r="H41" s="3">
-        <v>1103500</v>
+        <v>1354600</v>
       </c>
       <c r="I41" s="3">
+        <v>1251600</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1113100</v>
+      </c>
+      <c r="K41" s="3">
         <v>690600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>754300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>681000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>469000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>559900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1094000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1118600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,113 +2234,131 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1463600</v>
+        <v>1418800</v>
       </c>
       <c r="E43" s="3">
-        <v>1648100</v>
+        <v>1443200</v>
       </c>
       <c r="F43" s="3">
-        <v>1741400</v>
+        <v>1476400</v>
       </c>
       <c r="G43" s="3">
-        <v>1703000</v>
+        <v>1662500</v>
       </c>
       <c r="H43" s="3">
-        <v>1665700</v>
+        <v>1756700</v>
       </c>
       <c r="I43" s="3">
+        <v>1717900</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1680200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1681000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1631600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1579800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1576400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1580900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1618700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1558800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1667900</v>
+        <v>1547300</v>
       </c>
       <c r="E44" s="3">
-        <v>1710700</v>
+        <v>1540700</v>
       </c>
       <c r="F44" s="3">
-        <v>1829300</v>
+        <v>1682400</v>
       </c>
       <c r="G44" s="3">
-        <v>1720600</v>
+        <v>1725600</v>
       </c>
       <c r="H44" s="3">
-        <v>1650300</v>
+        <v>1845300</v>
       </c>
       <c r="I44" s="3">
+        <v>1735600</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1664700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1559200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1592100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1482100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1493400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1515800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1687900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1579900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>12100</v>
+        <v>11100</v>
       </c>
       <c r="E45" s="3">
-        <v>18700</v>
+        <v>22200</v>
       </c>
       <c r="F45" s="3">
-        <v>23100</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
+        <v>12200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>18800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>23300</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
@@ -2169,11 +2366,11 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2187,184 +2384,214 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3926400</v>
+        <v>3814600</v>
       </c>
       <c r="E46" s="3">
-        <v>4292100</v>
+        <v>3976300</v>
       </c>
       <c r="F46" s="3">
-        <v>4936600</v>
+        <v>3960800</v>
       </c>
       <c r="G46" s="3">
-        <v>4664300</v>
+        <v>4329600</v>
       </c>
       <c r="H46" s="3">
-        <v>4419500</v>
+        <v>4979800</v>
       </c>
       <c r="I46" s="3">
+        <v>4705100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>4458100</v>
+      </c>
+      <c r="K46" s="3">
         <v>3930800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3978100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3743000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3538800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3656600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4400600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4257400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1281400</v>
+        <v>913800</v>
       </c>
       <c r="E47" s="3">
-        <v>1186900</v>
+        <v>1210600</v>
       </c>
       <c r="F47" s="3">
-        <v>2384900</v>
+        <v>1292600</v>
       </c>
       <c r="G47" s="3">
-        <v>2435400</v>
+        <v>1197300</v>
       </c>
       <c r="H47" s="3">
-        <v>2351900</v>
+        <v>2405700</v>
       </c>
       <c r="I47" s="3">
+        <v>2456700</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2372500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2127900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>2109300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2237200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2186800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2076800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2217300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2225500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9928100</v>
+        <v>10539900</v>
       </c>
       <c r="E48" s="3">
-        <v>9974200</v>
+        <v>10793600</v>
       </c>
       <c r="F48" s="3">
-        <v>6922900</v>
+        <v>10014900</v>
       </c>
       <c r="G48" s="3">
-        <v>6248700</v>
+        <v>10061400</v>
       </c>
       <c r="H48" s="3">
-        <v>6101600</v>
+        <v>6983400</v>
       </c>
       <c r="I48" s="3">
+        <v>6303400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6154900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6126800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6149900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6460400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6440200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6509800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7095700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>7160200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>569900</v>
+        <v>593700</v>
       </c>
       <c r="E49" s="3">
-        <v>588500</v>
+        <v>562700</v>
       </c>
       <c r="F49" s="3">
-        <v>542400</v>
+        <v>574800</v>
       </c>
       <c r="G49" s="3">
-        <v>574300</v>
+        <v>593700</v>
       </c>
       <c r="H49" s="3">
-        <v>564400</v>
+        <v>547200</v>
       </c>
       <c r="I49" s="3">
+        <v>579300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>569300</v>
+      </c>
+      <c r="K49" s="3">
         <v>565500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>557800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>536300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>476800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>490300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>521200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>507100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>140500</v>
+        <v>152800</v>
       </c>
       <c r="E52" s="3">
-        <v>144900</v>
+        <v>129600</v>
       </c>
       <c r="F52" s="3">
-        <v>154800</v>
+        <v>141800</v>
       </c>
       <c r="G52" s="3">
-        <v>185600</v>
+        <v>146200</v>
       </c>
       <c r="H52" s="3">
-        <v>138300</v>
+        <v>156200</v>
       </c>
       <c r="I52" s="3">
+        <v>187200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>139600</v>
+      </c>
+      <c r="K52" s="3">
         <v>175700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>186700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>228900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>226600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>270400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>301700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>318100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>15846300</v>
+        <v>16014800</v>
       </c>
       <c r="E54" s="3">
-        <v>16186700</v>
+        <v>16672700</v>
       </c>
       <c r="F54" s="3">
-        <v>14941600</v>
+        <v>15984900</v>
       </c>
       <c r="G54" s="3">
-        <v>14108200</v>
+        <v>16328200</v>
       </c>
       <c r="H54" s="3">
-        <v>13575700</v>
+        <v>15072200</v>
       </c>
       <c r="I54" s="3">
+        <v>14231600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>13694400</v>
+      </c>
+      <c r="K54" s="3">
         <v>12926800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12981700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>13205800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>12869200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>13003900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>14536500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>14468400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,228 +2924,264 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>385400</v>
+        <v>389900</v>
       </c>
       <c r="E58" s="3">
-        <v>396400</v>
+        <v>1002400</v>
       </c>
       <c r="F58" s="3">
-        <v>353600</v>
+        <v>388800</v>
       </c>
       <c r="G58" s="3">
-        <v>443600</v>
+        <v>399800</v>
       </c>
       <c r="H58" s="3">
-        <v>489700</v>
+        <v>356600</v>
       </c>
       <c r="I58" s="3">
+        <v>447500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>494000</v>
+      </c>
+      <c r="K58" s="3">
         <v>428200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>457900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1088300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1067000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1128700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1629200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1313500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2664800</v>
+        <v>2864300</v>
       </c>
       <c r="E59" s="3">
-        <v>2779000</v>
+        <v>2228500</v>
       </c>
       <c r="F59" s="3">
-        <v>3042600</v>
+        <v>2688100</v>
       </c>
       <c r="G59" s="3">
-        <v>3011800</v>
+        <v>2803300</v>
       </c>
       <c r="H59" s="3">
-        <v>2801000</v>
+        <v>3069200</v>
       </c>
       <c r="I59" s="3">
+        <v>3038100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2825500</v>
+      </c>
+      <c r="K59" s="3">
         <v>2747200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2742800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2236100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2022900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2008400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2225500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2195000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3050200</v>
+        <v>3254100</v>
       </c>
       <c r="E60" s="3">
+        <v>3230900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3076900</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3203200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3425800</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3485600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3319500</v>
+      </c>
+      <c r="K60" s="3">
         <v>3175400</v>
       </c>
-      <c r="F60" s="3">
-        <v>3396100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3455400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3290700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3175400</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3200700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3324500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3090000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3137100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3854800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3508500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3851800</v>
+        <v>3482300</v>
       </c>
       <c r="E61" s="3">
-        <v>4197700</v>
+        <v>3579800</v>
       </c>
       <c r="F61" s="3">
-        <v>3619000</v>
+        <v>3885500</v>
       </c>
       <c r="G61" s="3">
-        <v>2487000</v>
+        <v>4234400</v>
       </c>
       <c r="H61" s="3">
-        <v>2462800</v>
+        <v>3650600</v>
       </c>
       <c r="I61" s="3">
+        <v>2508700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>2484300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2375000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2269600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2295600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2347200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2597400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2739700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3116500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1415300</v>
+        <v>1518500</v>
       </c>
       <c r="E62" s="3">
-        <v>1431800</v>
+        <v>1640400</v>
       </c>
       <c r="F62" s="3">
-        <v>751000</v>
+        <v>1427700</v>
       </c>
       <c r="G62" s="3">
-        <v>774100</v>
+        <v>1444300</v>
       </c>
       <c r="H62" s="3">
-        <v>730200</v>
+        <v>757600</v>
       </c>
       <c r="I62" s="3">
+        <v>780900</v>
+      </c>
+      <c r="J62" s="3">
+        <v>736600</v>
+      </c>
+      <c r="K62" s="3">
         <v>699400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>717000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>792100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>871800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>916700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>936700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>955500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8297600</v>
+        <v>8242800</v>
       </c>
       <c r="E66" s="3">
-        <v>8806000</v>
+        <v>8443200</v>
       </c>
       <c r="F66" s="3">
-        <v>7780400</v>
+        <v>8370100</v>
       </c>
       <c r="G66" s="3">
-        <v>6736200</v>
+        <v>8883000</v>
       </c>
       <c r="H66" s="3">
-        <v>6508900</v>
+        <v>7848500</v>
       </c>
       <c r="I66" s="3">
+        <v>6795100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6565900</v>
+      </c>
+      <c r="K66" s="3">
         <v>6291500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6237700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6464900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>6362800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6707300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7594600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>7653200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5121100</v>
+        <v>5849200</v>
       </c>
       <c r="E72" s="3">
-        <v>5048600</v>
+        <v>6106200</v>
       </c>
       <c r="F72" s="3">
-        <v>4982700</v>
+        <v>5165800</v>
       </c>
       <c r="G72" s="3">
-        <v>5168300</v>
+        <v>5092700</v>
       </c>
       <c r="H72" s="3">
-        <v>4851000</v>
+        <v>5026300</v>
       </c>
       <c r="I72" s="3">
+        <v>5213500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>4893400</v>
+      </c>
+      <c r="K72" s="3">
         <v>4618200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>4729100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>4526100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>4275900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>4057100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>4415900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>4284400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7548800</v>
+        <v>7772000</v>
       </c>
       <c r="E76" s="3">
-        <v>7380800</v>
+        <v>8229500</v>
       </c>
       <c r="F76" s="3">
-        <v>7161200</v>
+        <v>7614800</v>
       </c>
       <c r="G76" s="3">
-        <v>7372000</v>
+        <v>7445300</v>
       </c>
       <c r="H76" s="3">
-        <v>7066700</v>
+        <v>7223800</v>
       </c>
       <c r="I76" s="3">
+        <v>7436400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>7128500</v>
+      </c>
+      <c r="K76" s="3">
         <v>6635200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>6743900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>6740900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>6506400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6296600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6941900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>6815100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>76900</v>
+        <v>168400</v>
       </c>
       <c r="E81" s="3">
-        <v>64800</v>
+        <v>576000</v>
       </c>
       <c r="F81" s="3">
-        <v>254700</v>
+        <v>77500</v>
       </c>
       <c r="G81" s="3">
-        <v>333800</v>
+        <v>65300</v>
       </c>
       <c r="H81" s="3">
-        <v>235000</v>
+        <v>257000</v>
       </c>
       <c r="I81" s="3">
+        <v>336700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>237000</v>
+      </c>
+      <c r="K81" s="3">
         <v>242700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>300900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>195200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>214300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>163800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>133800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>106800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>462300</v>
+        <v>78600</v>
       </c>
       <c r="E89" s="3">
-        <v>508400</v>
+        <v>710000</v>
       </c>
       <c r="F89" s="3">
-        <v>136200</v>
+        <v>466300</v>
       </c>
       <c r="G89" s="3">
-        <v>299800</v>
+        <v>512800</v>
       </c>
       <c r="H89" s="3">
-        <v>448000</v>
+        <v>137300</v>
       </c>
       <c r="I89" s="3">
+        <v>302400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>451900</v>
+      </c>
+      <c r="K89" s="3">
         <v>312900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>138300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>529600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>408400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>317500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>97400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>489500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-196000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>340000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-132900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-136200</v>
+      </c>
+      <c r="I91" s="3">
+        <v>317900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-142900</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-137300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-127400</v>
+      </c>
+      <c r="M91" s="3">
+        <v>360200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-154800</v>
       </c>
-      <c r="E91" s="3">
-        <v>-131800</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-135100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>315100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-141600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-137300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-127400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>360200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-154800</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-143600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-158500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-258200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-173500</v>
+        <v>-220400</v>
       </c>
       <c r="E94" s="3">
-        <v>-636800</v>
+        <v>-237000</v>
       </c>
       <c r="F94" s="3">
-        <v>-137300</v>
+        <v>-175000</v>
       </c>
       <c r="G94" s="3">
-        <v>-183400</v>
+        <v>-642400</v>
       </c>
       <c r="H94" s="3">
-        <v>-151500</v>
+        <v>-138500</v>
       </c>
       <c r="I94" s="3">
+        <v>-185000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-152800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-94400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-116400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-304100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-218800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-140200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-123300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-77500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4160,13 +4627,13 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-432600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-436400</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-440300</v>
+        <v>23300</v>
       </c>
       <c r="E100" s="3">
-        <v>-303000</v>
+        <v>-286900</v>
       </c>
       <c r="F100" s="3">
-        <v>87800</v>
+        <v>-444100</v>
       </c>
       <c r="G100" s="3">
-        <v>41700</v>
+        <v>-305700</v>
       </c>
       <c r="H100" s="3">
-        <v>110900</v>
+        <v>88600</v>
       </c>
       <c r="I100" s="3">
+        <v>42100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>111900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-294300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>61500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-5600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-278300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-640700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-5900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-219500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F101" s="3">
         <v>5500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-2200</v>
       </c>
-      <c r="F101" s="3">
-        <v>16500</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>16600</v>
+      </c>
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K101" s="3">
         <v>6600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-6700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-3400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-18000</v>
-      </c>
-      <c r="N101" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O101" s="3">
-        <v>11700</v>
       </c>
       <c r="P101" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>11700</v>
+      </c>
+      <c r="R101" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-146000</v>
+        <v>-119600</v>
       </c>
       <c r="E102" s="3">
-        <v>-433700</v>
+        <v>187200</v>
       </c>
       <c r="F102" s="3">
-        <v>103200</v>
+        <v>-147300</v>
       </c>
       <c r="G102" s="3">
-        <v>160300</v>
+        <v>-437500</v>
       </c>
       <c r="H102" s="3">
-        <v>398600</v>
+        <v>104100</v>
       </c>
       <c r="I102" s="3">
+        <v>161700</v>
+      </c>
+      <c r="J102" s="3">
+        <v>402100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-69200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>87800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>213200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-92000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-481300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-29300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>204200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2444500</v>
+        <v>2500700</v>
       </c>
       <c r="E8" s="3">
-        <v>2670400</v>
+        <v>2610700</v>
       </c>
       <c r="F8" s="3">
-        <v>2660500</v>
+        <v>2852000</v>
       </c>
       <c r="G8" s="3">
-        <v>2888600</v>
+        <v>2841300</v>
       </c>
       <c r="H8" s="3">
-        <v>2918500</v>
+        <v>3085000</v>
       </c>
       <c r="I8" s="3">
-        <v>2944000</v>
+        <v>3116900</v>
       </c>
       <c r="J8" s="3">
+        <v>3144100</v>
+      </c>
+      <c r="K8" s="3">
         <v>2863100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2925100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2831700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2817300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2815100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2836400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2931000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2861700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2025800</v>
+        <v>2084300</v>
       </c>
       <c r="E9" s="3">
-        <v>2320400</v>
+        <v>2163500</v>
       </c>
       <c r="F9" s="3">
-        <v>2191900</v>
+        <v>2478200</v>
       </c>
       <c r="G9" s="3">
-        <v>2357000</v>
+        <v>2341000</v>
       </c>
       <c r="H9" s="3">
-        <v>2326000</v>
+        <v>2517200</v>
       </c>
       <c r="I9" s="3">
-        <v>2409000</v>
+        <v>2484100</v>
       </c>
       <c r="J9" s="3">
+        <v>2572800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2225200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2333300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2179500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1934300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1910700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1950000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2019000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2006000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>418700</v>
+        <v>416400</v>
       </c>
       <c r="E10" s="3">
-        <v>350000</v>
+        <v>447100</v>
       </c>
       <c r="F10" s="3">
-        <v>468500</v>
+        <v>373800</v>
       </c>
       <c r="G10" s="3">
-        <v>531600</v>
+        <v>500400</v>
       </c>
       <c r="H10" s="3">
-        <v>592600</v>
+        <v>567800</v>
       </c>
       <c r="I10" s="3">
-        <v>535000</v>
+        <v>632900</v>
       </c>
       <c r="J10" s="3">
+        <v>571300</v>
+      </c>
+      <c r="K10" s="3">
         <v>638000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>591800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>652200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>883000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>904300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>886400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>912100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>855700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,40 +1025,43 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-129600</v>
+        <v>-75700</v>
       </c>
       <c r="E14" s="3">
-        <v>-481800</v>
+        <v>-138400</v>
       </c>
       <c r="F14" s="3">
-        <v>33200</v>
+        <v>-520500</v>
       </c>
       <c r="G14" s="3">
-        <v>5500</v>
+        <v>35500</v>
       </c>
       <c r="H14" s="3">
-        <v>17700</v>
+        <v>5900</v>
       </c>
       <c r="I14" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="J14" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K14" s="3">
         <v>22200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>15400</v>
-      </c>
-      <c r="M14" s="3">
-        <v>22400</v>
       </c>
       <c r="N14" s="3">
         <v>22400</v>
@@ -1050,66 +1070,72 @@
         <v>22400</v>
       </c>
       <c r="P14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="Q14" s="3">
         <v>14100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>237100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>152800</v>
+        <v>160900</v>
       </c>
       <c r="E15" s="3">
+        <v>163200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>173900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>155000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>158500</v>
+      </c>
+      <c r="I15" s="3">
         <v>157300</v>
       </c>
-      <c r="F15" s="3">
-        <v>145100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>148400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>147300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>126300</v>
-      </c>
       <c r="J15" s="3">
+        <v>134900</v>
+      </c>
+      <c r="K15" s="3">
         <v>135100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>132900</v>
       </c>
       <c r="L15" s="3">
         <v>132900</v>
       </c>
       <c r="M15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="N15" s="3">
         <v>145900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>139100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>133500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>166700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>71600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2154300</v>
+        <v>2233300</v>
       </c>
       <c r="E17" s="3">
-        <v>1916100</v>
+        <v>2300700</v>
       </c>
       <c r="F17" s="3">
-        <v>2472200</v>
+        <v>2046400</v>
       </c>
       <c r="G17" s="3">
-        <v>2731300</v>
+        <v>2640200</v>
       </c>
       <c r="H17" s="3">
-        <v>2571800</v>
+        <v>2917000</v>
       </c>
       <c r="I17" s="3">
-        <v>2549700</v>
+        <v>2746700</v>
       </c>
       <c r="J17" s="3">
+        <v>2723000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2461100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2577000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2442000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2552500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2512100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2606400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2704500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2691500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>290200</v>
+        <v>267300</v>
       </c>
       <c r="E18" s="3">
-        <v>754300</v>
+        <v>309900</v>
       </c>
       <c r="F18" s="3">
-        <v>188300</v>
+        <v>805600</v>
       </c>
       <c r="G18" s="3">
-        <v>157300</v>
+        <v>201100</v>
       </c>
       <c r="H18" s="3">
-        <v>346700</v>
+        <v>168000</v>
       </c>
       <c r="I18" s="3">
-        <v>394300</v>
+        <v>370200</v>
       </c>
       <c r="J18" s="3">
+        <v>421100</v>
+      </c>
+      <c r="K18" s="3">
         <v>402100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>348100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>389800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>264800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>302900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>230000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>226500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>170200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-58700</v>
+        <v>-42600</v>
       </c>
       <c r="E20" s="3">
-        <v>-37700</v>
+        <v>-62700</v>
       </c>
       <c r="F20" s="3">
-        <v>-60900</v>
+        <v>-40200</v>
       </c>
       <c r="G20" s="3">
-        <v>-54300</v>
+        <v>-65100</v>
       </c>
       <c r="H20" s="3">
-        <v>-34300</v>
+        <v>-58000</v>
       </c>
       <c r="I20" s="3">
-        <v>-45400</v>
+        <v>-36700</v>
       </c>
       <c r="J20" s="3">
+        <v>-48500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-64200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-65900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-30300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-51600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-67300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-34000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-81000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>384300</v>
+        <v>222400</v>
       </c>
       <c r="E21" s="3">
-        <v>1232800</v>
+        <v>410500</v>
       </c>
       <c r="F21" s="3">
-        <v>124100</v>
+        <v>1316600</v>
       </c>
       <c r="G21" s="3">
-        <v>104100</v>
+        <v>132500</v>
       </c>
       <c r="H21" s="3">
-        <v>459700</v>
+        <v>111200</v>
       </c>
       <c r="I21" s="3">
-        <v>340000</v>
+        <v>490900</v>
       </c>
       <c r="J21" s="3">
+        <v>363200</v>
+      </c>
+      <c r="K21" s="3">
         <v>338900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>282200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>498500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>241200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>256900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>136900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>359200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>403800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>231500</v>
+        <v>224800</v>
       </c>
       <c r="E23" s="3">
-        <v>716600</v>
+        <v>247200</v>
       </c>
       <c r="F23" s="3">
-        <v>127400</v>
+        <v>765300</v>
       </c>
       <c r="G23" s="3">
-        <v>103000</v>
+        <v>136000</v>
       </c>
       <c r="H23" s="3">
-        <v>312300</v>
+        <v>110000</v>
       </c>
       <c r="I23" s="3">
-        <v>348900</v>
+        <v>333600</v>
       </c>
       <c r="J23" s="3">
+        <v>372600</v>
+      </c>
+      <c r="K23" s="3">
         <v>337800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>282200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>365600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>234500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>251300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>162700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>192500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>89200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>65300</v>
+        <v>54400</v>
       </c>
       <c r="E24" s="3">
-        <v>140700</v>
+        <v>69800</v>
       </c>
       <c r="F24" s="3">
-        <v>63100</v>
+        <v>150200</v>
       </c>
       <c r="G24" s="3">
-        <v>45400</v>
+        <v>67400</v>
       </c>
       <c r="H24" s="3">
-        <v>62000</v>
+        <v>48500</v>
       </c>
       <c r="I24" s="3">
-        <v>17700</v>
+        <v>66200</v>
       </c>
       <c r="J24" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K24" s="3">
         <v>111900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>48300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>65900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>37000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>66900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>166100</v>
+        <v>170300</v>
       </c>
       <c r="E26" s="3">
-        <v>576000</v>
+        <v>177400</v>
       </c>
       <c r="F26" s="3">
-        <v>64200</v>
+        <v>615100</v>
       </c>
       <c r="G26" s="3">
-        <v>57600</v>
+        <v>68600</v>
       </c>
       <c r="H26" s="3">
-        <v>250300</v>
+        <v>61500</v>
       </c>
       <c r="I26" s="3">
-        <v>331200</v>
+        <v>267300</v>
       </c>
       <c r="J26" s="3">
+        <v>353700</v>
+      </c>
+      <c r="K26" s="3">
         <v>226000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>233900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>299800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>194100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>214300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>160400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>125600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>65700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>168400</v>
+        <v>173900</v>
       </c>
       <c r="E27" s="3">
-        <v>576000</v>
+        <v>179800</v>
       </c>
       <c r="F27" s="3">
-        <v>77500</v>
+        <v>615100</v>
       </c>
       <c r="G27" s="3">
-        <v>65300</v>
+        <v>82800</v>
       </c>
       <c r="H27" s="3">
-        <v>257000</v>
+        <v>69800</v>
       </c>
       <c r="I27" s="3">
-        <v>336700</v>
+        <v>274400</v>
       </c>
       <c r="J27" s="3">
+        <v>359600</v>
+      </c>
+      <c r="K27" s="3">
         <v>237000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>242700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>195200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>214300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>163800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>133800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>106800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>58700</v>
+        <v>42600</v>
       </c>
       <c r="E32" s="3">
-        <v>37700</v>
+        <v>62700</v>
       </c>
       <c r="F32" s="3">
-        <v>60900</v>
+        <v>40200</v>
       </c>
       <c r="G32" s="3">
-        <v>54300</v>
+        <v>65100</v>
       </c>
       <c r="H32" s="3">
-        <v>34300</v>
+        <v>58000</v>
       </c>
       <c r="I32" s="3">
-        <v>45400</v>
+        <v>36700</v>
       </c>
       <c r="J32" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K32" s="3">
         <v>64200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>65900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>30300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>51600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>67300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>34000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>81000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>168400</v>
+        <v>173900</v>
       </c>
       <c r="E33" s="3">
-        <v>576000</v>
+        <v>179800</v>
       </c>
       <c r="F33" s="3">
-        <v>77500</v>
+        <v>615100</v>
       </c>
       <c r="G33" s="3">
-        <v>65300</v>
+        <v>82800</v>
       </c>
       <c r="H33" s="3">
-        <v>257000</v>
+        <v>69800</v>
       </c>
       <c r="I33" s="3">
-        <v>336700</v>
+        <v>274400</v>
       </c>
       <c r="J33" s="3">
+        <v>359600</v>
+      </c>
+      <c r="K33" s="3">
         <v>237000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>242700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>195200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>214300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>163800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>133800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>106800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>168400</v>
+        <v>173900</v>
       </c>
       <c r="E35" s="3">
-        <v>576000</v>
+        <v>179800</v>
       </c>
       <c r="F35" s="3">
-        <v>77500</v>
+        <v>615100</v>
       </c>
       <c r="G35" s="3">
-        <v>65300</v>
+        <v>82800</v>
       </c>
       <c r="H35" s="3">
-        <v>257000</v>
+        <v>69800</v>
       </c>
       <c r="I35" s="3">
-        <v>336700</v>
+        <v>274400</v>
       </c>
       <c r="J35" s="3">
+        <v>359600</v>
+      </c>
+      <c r="K35" s="3">
         <v>237000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>242700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>195200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>214300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>163800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>133800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>106800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>837300</v>
+        <v>1256200</v>
       </c>
       <c r="E41" s="3">
-        <v>970300</v>
+        <v>894300</v>
       </c>
       <c r="F41" s="3">
-        <v>789700</v>
+        <v>1036200</v>
       </c>
       <c r="G41" s="3">
-        <v>922600</v>
+        <v>843400</v>
       </c>
       <c r="H41" s="3">
-        <v>1354600</v>
+        <v>985400</v>
       </c>
       <c r="I41" s="3">
-        <v>1251600</v>
+        <v>1446700</v>
       </c>
       <c r="J41" s="3">
+        <v>1336700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1113100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>690600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>754300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>681000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>469000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>559900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1094000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1118600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,128 +2330,137 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1418800</v>
+        <v>1443100</v>
       </c>
       <c r="E43" s="3">
-        <v>1443200</v>
+        <v>1515300</v>
       </c>
       <c r="F43" s="3">
-        <v>1476400</v>
+        <v>1541300</v>
       </c>
       <c r="G43" s="3">
-        <v>1662500</v>
+        <v>1576800</v>
       </c>
       <c r="H43" s="3">
-        <v>1756700</v>
+        <v>1775500</v>
       </c>
       <c r="I43" s="3">
-        <v>1717900</v>
+        <v>1876100</v>
       </c>
       <c r="J43" s="3">
+        <v>1834700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1680200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1681000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1631600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1579800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1576400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1580900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1618700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1558800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1547300</v>
+        <v>1613500</v>
       </c>
       <c r="E44" s="3">
-        <v>1540700</v>
+        <v>1652500</v>
       </c>
       <c r="F44" s="3">
-        <v>1682400</v>
+        <v>1645400</v>
       </c>
       <c r="G44" s="3">
-        <v>1725600</v>
+        <v>1796800</v>
       </c>
       <c r="H44" s="3">
-        <v>1845300</v>
+        <v>1843000</v>
       </c>
       <c r="I44" s="3">
-        <v>1735600</v>
+        <v>1970700</v>
       </c>
       <c r="J44" s="3">
+        <v>1853600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1664700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1559200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1592100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1482100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1493400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1515800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1687900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1579900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>11100</v>
+        <v>28400</v>
       </c>
       <c r="E45" s="3">
-        <v>22200</v>
+        <v>11800</v>
       </c>
       <c r="F45" s="3">
-        <v>12200</v>
+        <v>23700</v>
       </c>
       <c r="G45" s="3">
-        <v>18800</v>
+        <v>13000</v>
       </c>
       <c r="H45" s="3">
-        <v>23300</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
+        <v>20100</v>
+      </c>
+      <c r="I45" s="3">
+        <v>24800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -2372,8 +2471,8 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2390,208 +2489,223 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3814600</v>
+        <v>4341200</v>
       </c>
       <c r="E46" s="3">
-        <v>3976300</v>
+        <v>4073900</v>
       </c>
       <c r="F46" s="3">
-        <v>3960800</v>
+        <v>4246600</v>
       </c>
       <c r="G46" s="3">
-        <v>4329600</v>
+        <v>4230100</v>
       </c>
       <c r="H46" s="3">
-        <v>4979800</v>
+        <v>4624000</v>
       </c>
       <c r="I46" s="3">
-        <v>4705100</v>
+        <v>5318300</v>
       </c>
       <c r="J46" s="3">
+        <v>5025000</v>
+      </c>
+      <c r="K46" s="3">
         <v>4458100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3930800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3978100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3743000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3538800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3656600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4400600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4257400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>913800</v>
+        <v>1032700</v>
       </c>
       <c r="E47" s="3">
-        <v>1210600</v>
+        <v>975900</v>
       </c>
       <c r="F47" s="3">
-        <v>1292600</v>
+        <v>1292900</v>
       </c>
       <c r="G47" s="3">
-        <v>1197300</v>
+        <v>1380400</v>
       </c>
       <c r="H47" s="3">
-        <v>2405700</v>
+        <v>1278700</v>
       </c>
       <c r="I47" s="3">
-        <v>2456700</v>
+        <v>2569300</v>
       </c>
       <c r="J47" s="3">
+        <v>2623700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2372500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2127900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2109300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2237200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2186800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2076800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2217300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2225500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>10539900</v>
+        <v>11578200</v>
       </c>
       <c r="E48" s="3">
-        <v>10793600</v>
+        <v>11256500</v>
       </c>
       <c r="F48" s="3">
-        <v>10014900</v>
+        <v>11527400</v>
       </c>
       <c r="G48" s="3">
-        <v>10061400</v>
+        <v>10695800</v>
       </c>
       <c r="H48" s="3">
-        <v>6983400</v>
+        <v>10745500</v>
       </c>
       <c r="I48" s="3">
-        <v>6303400</v>
+        <v>7458200</v>
       </c>
       <c r="J48" s="3">
+        <v>6731900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6154900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6126800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6149900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6460400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6440200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6509800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7095700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7160200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>593700</v>
+        <v>578400</v>
       </c>
       <c r="E49" s="3">
-        <v>562700</v>
+        <v>634000</v>
       </c>
       <c r="F49" s="3">
-        <v>574800</v>
+        <v>600900</v>
       </c>
       <c r="G49" s="3">
-        <v>593700</v>
+        <v>613900</v>
       </c>
       <c r="H49" s="3">
-        <v>547200</v>
+        <v>634000</v>
       </c>
       <c r="I49" s="3">
-        <v>579300</v>
+        <v>584400</v>
       </c>
       <c r="J49" s="3">
+        <v>618700</v>
+      </c>
+      <c r="K49" s="3">
         <v>569300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>565500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>557800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>536300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>476800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>490300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>521200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>507100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>152800</v>
+        <v>179800</v>
       </c>
       <c r="E52" s="3">
-        <v>129600</v>
+        <v>163200</v>
       </c>
       <c r="F52" s="3">
-        <v>141800</v>
+        <v>138400</v>
       </c>
       <c r="G52" s="3">
-        <v>146200</v>
+        <v>151400</v>
       </c>
       <c r="H52" s="3">
-        <v>156200</v>
+        <v>156100</v>
       </c>
       <c r="I52" s="3">
-        <v>187200</v>
+        <v>166800</v>
       </c>
       <c r="J52" s="3">
+        <v>199900</v>
+      </c>
+      <c r="K52" s="3">
         <v>139600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>175700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>186700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>228900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>226600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>270400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>301700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>318100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>16014800</v>
+        <v>17710400</v>
       </c>
       <c r="E54" s="3">
-        <v>16672700</v>
+        <v>17103600</v>
       </c>
       <c r="F54" s="3">
-        <v>15984900</v>
+        <v>17806200</v>
       </c>
       <c r="G54" s="3">
-        <v>16328200</v>
+        <v>17071600</v>
       </c>
       <c r="H54" s="3">
-        <v>15072200</v>
+        <v>17438300</v>
       </c>
       <c r="I54" s="3">
-        <v>14231600</v>
+        <v>16096900</v>
       </c>
       <c r="J54" s="3">
+        <v>15199100</v>
+      </c>
+      <c r="K54" s="3">
         <v>13694400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12926800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12981700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13205800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12869200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13003900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>14536500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14468400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,258 +3061,276 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>389900</v>
+        <v>324100</v>
       </c>
       <c r="E58" s="3">
-        <v>1002400</v>
+        <v>416400</v>
       </c>
       <c r="F58" s="3">
-        <v>388800</v>
+        <v>1070500</v>
       </c>
       <c r="G58" s="3">
-        <v>399800</v>
+        <v>415200</v>
       </c>
       <c r="H58" s="3">
-        <v>356600</v>
+        <v>427000</v>
       </c>
       <c r="I58" s="3">
-        <v>447500</v>
+        <v>380900</v>
       </c>
       <c r="J58" s="3">
+        <v>477900</v>
+      </c>
+      <c r="K58" s="3">
         <v>494000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>428200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>457900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1088300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1067000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1128700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1629200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1313500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2864300</v>
+        <v>2697000</v>
       </c>
       <c r="E59" s="3">
-        <v>2228500</v>
+        <v>3059000</v>
       </c>
       <c r="F59" s="3">
-        <v>2688100</v>
+        <v>2380000</v>
       </c>
       <c r="G59" s="3">
-        <v>2803300</v>
+        <v>2870900</v>
       </c>
       <c r="H59" s="3">
-        <v>3069200</v>
+        <v>2993900</v>
       </c>
       <c r="I59" s="3">
-        <v>3038100</v>
+        <v>3277800</v>
       </c>
       <c r="J59" s="3">
+        <v>3244700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2825500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2747200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2742800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2236100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2022900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2008400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2225500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2195000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3254100</v>
+        <v>3021100</v>
       </c>
       <c r="E60" s="3">
-        <v>3230900</v>
+        <v>3475400</v>
       </c>
       <c r="F60" s="3">
-        <v>3076900</v>
+        <v>3450500</v>
       </c>
       <c r="G60" s="3">
-        <v>3203200</v>
+        <v>3286100</v>
       </c>
       <c r="H60" s="3">
-        <v>3425800</v>
+        <v>3420900</v>
       </c>
       <c r="I60" s="3">
-        <v>3485600</v>
+        <v>3658700</v>
       </c>
       <c r="J60" s="3">
+        <v>3722600</v>
+      </c>
+      <c r="K60" s="3">
         <v>3319500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3175400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3200700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3324500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3090000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3137100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3854800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3508500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3482300</v>
+        <v>4275000</v>
       </c>
       <c r="E61" s="3">
-        <v>3579800</v>
+        <v>3719000</v>
       </c>
       <c r="F61" s="3">
-        <v>3885500</v>
+        <v>3823100</v>
       </c>
       <c r="G61" s="3">
-        <v>4234400</v>
+        <v>4149600</v>
       </c>
       <c r="H61" s="3">
-        <v>3650600</v>
+        <v>4522200</v>
       </c>
       <c r="I61" s="3">
-        <v>2508700</v>
+        <v>3898800</v>
       </c>
       <c r="J61" s="3">
+        <v>2679300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2484300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2375000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2269600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2295600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2347200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2597400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2739700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3116500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1518500</v>
+        <v>1860700</v>
       </c>
       <c r="E62" s="3">
-        <v>1640400</v>
+        <v>1621800</v>
       </c>
       <c r="F62" s="3">
-        <v>1427700</v>
+        <v>1751900</v>
       </c>
       <c r="G62" s="3">
-        <v>1444300</v>
+        <v>1524800</v>
       </c>
       <c r="H62" s="3">
-        <v>757600</v>
+        <v>1542500</v>
       </c>
       <c r="I62" s="3">
-        <v>780900</v>
+        <v>809100</v>
       </c>
       <c r="J62" s="3">
+        <v>833900</v>
+      </c>
+      <c r="K62" s="3">
         <v>736600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>699400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>717000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>792100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>871800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>916700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>936700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>955500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8242800</v>
+        <v>9141500</v>
       </c>
       <c r="E66" s="3">
-        <v>8443200</v>
+        <v>8803100</v>
       </c>
       <c r="F66" s="3">
-        <v>8370100</v>
+        <v>9017200</v>
       </c>
       <c r="G66" s="3">
-        <v>8883000</v>
+        <v>8939200</v>
       </c>
       <c r="H66" s="3">
-        <v>7848500</v>
+        <v>9486900</v>
       </c>
       <c r="I66" s="3">
-        <v>6795100</v>
+        <v>8382000</v>
       </c>
       <c r="J66" s="3">
+        <v>7257100</v>
+      </c>
+      <c r="K66" s="3">
         <v>6565900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6291500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6237700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6464900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6362800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6707300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7594600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7653200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>5849200</v>
+        <v>6219700</v>
       </c>
       <c r="E72" s="3">
-        <v>6106200</v>
+        <v>6246900</v>
       </c>
       <c r="F72" s="3">
-        <v>5165800</v>
+        <v>6521300</v>
       </c>
       <c r="G72" s="3">
-        <v>5092700</v>
+        <v>5517000</v>
       </c>
       <c r="H72" s="3">
-        <v>5026300</v>
+        <v>5439000</v>
       </c>
       <c r="I72" s="3">
-        <v>5213500</v>
+        <v>5368000</v>
       </c>
       <c r="J72" s="3">
+        <v>5567900</v>
+      </c>
+      <c r="K72" s="3">
         <v>4893400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4618200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4729100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4526100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4275900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4057100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4415900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4284400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7772000</v>
+        <v>8568900</v>
       </c>
       <c r="E76" s="3">
-        <v>8229500</v>
+        <v>8300400</v>
       </c>
       <c r="F76" s="3">
-        <v>7614800</v>
+        <v>8788900</v>
       </c>
       <c r="G76" s="3">
-        <v>7445300</v>
+        <v>8132400</v>
       </c>
       <c r="H76" s="3">
-        <v>7223800</v>
+        <v>7951500</v>
       </c>
       <c r="I76" s="3">
-        <v>7436400</v>
+        <v>7714900</v>
       </c>
       <c r="J76" s="3">
+        <v>7942000</v>
+      </c>
+      <c r="K76" s="3">
         <v>7128500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6635200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6743900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6740900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6506400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6296600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6941900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6815100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>168400</v>
+        <v>173900</v>
       </c>
       <c r="E81" s="3">
-        <v>576000</v>
+        <v>179800</v>
       </c>
       <c r="F81" s="3">
-        <v>77500</v>
+        <v>615100</v>
       </c>
       <c r="G81" s="3">
-        <v>65300</v>
+        <v>82800</v>
       </c>
       <c r="H81" s="3">
-        <v>257000</v>
+        <v>69800</v>
       </c>
       <c r="I81" s="3">
-        <v>336700</v>
+        <v>274400</v>
       </c>
       <c r="J81" s="3">
+        <v>359600</v>
+      </c>
+      <c r="K81" s="3">
         <v>237000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>242700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>195200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>214300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>163800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>133800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>106800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>78600</v>
+        <v>344200</v>
       </c>
       <c r="E89" s="3">
-        <v>710000</v>
+        <v>84000</v>
       </c>
       <c r="F89" s="3">
-        <v>466300</v>
+        <v>758200</v>
       </c>
       <c r="G89" s="3">
-        <v>512800</v>
+        <v>498000</v>
       </c>
       <c r="H89" s="3">
-        <v>137300</v>
+        <v>547700</v>
       </c>
       <c r="I89" s="3">
-        <v>302400</v>
+        <v>146700</v>
       </c>
       <c r="J89" s="3">
+        <v>322900</v>
+      </c>
+      <c r="K89" s="3">
         <v>451900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>312900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>138300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>529600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>408400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>317500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>97400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>489500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-196000</v>
+        <v>-146700</v>
       </c>
       <c r="E91" s="3">
-        <v>340000</v>
+        <v>-209400</v>
       </c>
       <c r="F91" s="3">
-        <v>-156200</v>
+        <v>363200</v>
       </c>
       <c r="G91" s="3">
-        <v>-132900</v>
+        <v>-166800</v>
       </c>
       <c r="H91" s="3">
-        <v>-136200</v>
+        <v>-141900</v>
       </c>
       <c r="I91" s="3">
-        <v>317900</v>
+        <v>-145500</v>
       </c>
       <c r="J91" s="3">
+        <v>339500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-142900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-137300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-127400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>360200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-154800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-143600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-158500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-258200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-220400</v>
+        <v>-141900</v>
       </c>
       <c r="E94" s="3">
-        <v>-237000</v>
+        <v>-235400</v>
       </c>
       <c r="F94" s="3">
-        <v>-175000</v>
+        <v>-253100</v>
       </c>
       <c r="G94" s="3">
-        <v>-642400</v>
+        <v>-186900</v>
       </c>
       <c r="H94" s="3">
-        <v>-138500</v>
+        <v>-686100</v>
       </c>
       <c r="I94" s="3">
-        <v>-185000</v>
+        <v>-147900</v>
       </c>
       <c r="J94" s="3">
+        <v>-197500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-152800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-94400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-116400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-304100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-218800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-140200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-123300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-77500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,13 +4848,14 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-139600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -4633,10 +4867,10 @@
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-436400</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-466100</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>23300</v>
+        <v>162100</v>
       </c>
       <c r="E100" s="3">
-        <v>-286900</v>
+        <v>24800</v>
       </c>
       <c r="F100" s="3">
-        <v>-444100</v>
+        <v>-306400</v>
       </c>
       <c r="G100" s="3">
-        <v>-305700</v>
+        <v>-474300</v>
       </c>
       <c r="H100" s="3">
-        <v>88600</v>
+        <v>-326500</v>
       </c>
       <c r="I100" s="3">
-        <v>42100</v>
+        <v>94600</v>
       </c>
       <c r="J100" s="3">
+        <v>45000</v>
+      </c>
+      <c r="K100" s="3">
         <v>111900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-294300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>61500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-278300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-640700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-219500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>1100</v>
+        <v>-1200</v>
       </c>
       <c r="F101" s="3">
-        <v>5500</v>
+        <v>1200</v>
       </c>
       <c r="G101" s="3">
-        <v>-2200</v>
+        <v>5900</v>
       </c>
       <c r="H101" s="3">
-        <v>16600</v>
+        <v>-2400</v>
       </c>
       <c r="I101" s="3">
-        <v>2200</v>
+        <v>17700</v>
       </c>
       <c r="J101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-8900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-6700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-18000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-119600</v>
+        <v>363200</v>
       </c>
       <c r="E102" s="3">
-        <v>187200</v>
+        <v>-127800</v>
       </c>
       <c r="F102" s="3">
-        <v>-147300</v>
+        <v>199900</v>
       </c>
       <c r="G102" s="3">
-        <v>-437500</v>
+        <v>-157300</v>
       </c>
       <c r="H102" s="3">
-        <v>104100</v>
+        <v>-467200</v>
       </c>
       <c r="I102" s="3">
-        <v>161700</v>
+        <v>111200</v>
       </c>
       <c r="J102" s="3">
+        <v>172700</v>
+      </c>
+      <c r="K102" s="3">
         <v>402100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-69200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>87800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>213200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-92000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-481300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-29300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>204200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2500700</v>
+        <v>2486900</v>
       </c>
       <c r="E8" s="3">
-        <v>2610700</v>
+        <v>2528800</v>
       </c>
       <c r="F8" s="3">
-        <v>2852000</v>
+        <v>2640000</v>
       </c>
       <c r="G8" s="3">
-        <v>2841300</v>
+        <v>2884000</v>
       </c>
       <c r="H8" s="3">
-        <v>3085000</v>
+        <v>2873300</v>
       </c>
       <c r="I8" s="3">
-        <v>3116900</v>
+        <v>3119700</v>
       </c>
       <c r="J8" s="3">
+        <v>3152000</v>
+      </c>
+      <c r="K8" s="3">
         <v>3144100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2863100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2925100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2831700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2817300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2815100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2836400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2931000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2861700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2084300</v>
+        <v>2079000</v>
       </c>
       <c r="E9" s="3">
-        <v>2163500</v>
+        <v>2107700</v>
       </c>
       <c r="F9" s="3">
-        <v>2478200</v>
+        <v>2187800</v>
       </c>
       <c r="G9" s="3">
-        <v>2341000</v>
+        <v>2506000</v>
       </c>
       <c r="H9" s="3">
-        <v>2517200</v>
+        <v>2367300</v>
       </c>
       <c r="I9" s="3">
-        <v>2484100</v>
+        <v>2545500</v>
       </c>
       <c r="J9" s="3">
+        <v>2512000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2572800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2225200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2333300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2179500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1934300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1910700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1950000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2019000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2006000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>416400</v>
+        <v>407900</v>
       </c>
       <c r="E10" s="3">
-        <v>447100</v>
+        <v>421100</v>
       </c>
       <c r="F10" s="3">
-        <v>373800</v>
+        <v>452200</v>
       </c>
       <c r="G10" s="3">
-        <v>500400</v>
+        <v>378000</v>
       </c>
       <c r="H10" s="3">
-        <v>567800</v>
+        <v>506000</v>
       </c>
       <c r="I10" s="3">
-        <v>632900</v>
+        <v>574200</v>
       </c>
       <c r="J10" s="3">
+        <v>640000</v>
+      </c>
+      <c r="K10" s="3">
         <v>571300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>638000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>591800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>652200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>883000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>904300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>886400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>912100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>855700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,43 +1045,46 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-75700</v>
+        <v>16700</v>
       </c>
       <c r="E14" s="3">
-        <v>-138400</v>
+        <v>-76600</v>
       </c>
       <c r="F14" s="3">
-        <v>-520500</v>
+        <v>-140000</v>
       </c>
       <c r="G14" s="3">
-        <v>35500</v>
+        <v>-526300</v>
       </c>
       <c r="H14" s="3">
-        <v>5900</v>
+        <v>35900</v>
       </c>
       <c r="I14" s="3">
-        <v>18900</v>
+        <v>6000</v>
       </c>
       <c r="J14" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K14" s="3">
         <v>20100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>22200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>15400</v>
-      </c>
-      <c r="N14" s="3">
-        <v>22400</v>
       </c>
       <c r="O14" s="3">
         <v>22400</v>
@@ -1073,69 +1093,75 @@
         <v>22400</v>
       </c>
       <c r="Q14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="R14" s="3">
         <v>14100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>237100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>160900</v>
+        <v>161500</v>
       </c>
       <c r="E15" s="3">
-        <v>163200</v>
+        <v>162700</v>
       </c>
       <c r="F15" s="3">
-        <v>173900</v>
+        <v>165100</v>
       </c>
       <c r="G15" s="3">
-        <v>155000</v>
+        <v>175800</v>
       </c>
       <c r="H15" s="3">
-        <v>158500</v>
+        <v>156700</v>
       </c>
       <c r="I15" s="3">
-        <v>157300</v>
+        <v>160300</v>
       </c>
       <c r="J15" s="3">
+        <v>159100</v>
+      </c>
+      <c r="K15" s="3">
         <v>134900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>135100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>132900</v>
       </c>
       <c r="M15" s="3">
         <v>132900</v>
       </c>
       <c r="N15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="O15" s="3">
         <v>145900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>139100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>133500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>166700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>71600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2233300</v>
+        <v>2313500</v>
       </c>
       <c r="E17" s="3">
-        <v>2300700</v>
+        <v>2258400</v>
       </c>
       <c r="F17" s="3">
-        <v>2046400</v>
+        <v>2326600</v>
       </c>
       <c r="G17" s="3">
-        <v>2640200</v>
+        <v>2069400</v>
       </c>
       <c r="H17" s="3">
-        <v>2917000</v>
+        <v>2669900</v>
       </c>
       <c r="I17" s="3">
-        <v>2746700</v>
+        <v>2949800</v>
       </c>
       <c r="J17" s="3">
+        <v>2777600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2723000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2461100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2577000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2442000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2552500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2512100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2606400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2704500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2691500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>267300</v>
+        <v>173400</v>
       </c>
       <c r="E18" s="3">
-        <v>309900</v>
+        <v>270300</v>
       </c>
       <c r="F18" s="3">
-        <v>805600</v>
+        <v>313400</v>
       </c>
       <c r="G18" s="3">
-        <v>201100</v>
+        <v>814600</v>
       </c>
       <c r="H18" s="3">
-        <v>168000</v>
+        <v>203400</v>
       </c>
       <c r="I18" s="3">
-        <v>370200</v>
+        <v>169900</v>
       </c>
       <c r="J18" s="3">
+        <v>374400</v>
+      </c>
+      <c r="K18" s="3">
         <v>421100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>402100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>348100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>389800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>264800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>302900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>230000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>226500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>170200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-42600</v>
+        <v>-35900</v>
       </c>
       <c r="E20" s="3">
-        <v>-62700</v>
+        <v>-43100</v>
       </c>
       <c r="F20" s="3">
-        <v>-40200</v>
+        <v>-63400</v>
       </c>
       <c r="G20" s="3">
-        <v>-65100</v>
+        <v>-40700</v>
       </c>
       <c r="H20" s="3">
-        <v>-58000</v>
+        <v>-65800</v>
       </c>
       <c r="I20" s="3">
-        <v>-36700</v>
+        <v>-58600</v>
       </c>
       <c r="J20" s="3">
+        <v>-37100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-48500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-64200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-65900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-24200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-30300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-51600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-67300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-34000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-81000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>222400</v>
+        <v>136400</v>
       </c>
       <c r="E21" s="3">
-        <v>410500</v>
+        <v>224900</v>
       </c>
       <c r="F21" s="3">
-        <v>1316600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>132500</v>
-      </c>
-      <c r="H21" s="3">
-        <v>111200</v>
+        <v>415100</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I21" s="3">
-        <v>490900</v>
+        <v>112400</v>
       </c>
       <c r="J21" s="3">
+        <v>496400</v>
+      </c>
+      <c r="K21" s="3">
         <v>363200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>338900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>282200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>498500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>241200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>256900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>136900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>359200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>403800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>224800</v>
+        <v>137600</v>
       </c>
       <c r="E23" s="3">
-        <v>247200</v>
+        <v>227300</v>
       </c>
       <c r="F23" s="3">
-        <v>765300</v>
+        <v>250000</v>
       </c>
       <c r="G23" s="3">
-        <v>136000</v>
+        <v>773900</v>
       </c>
       <c r="H23" s="3">
-        <v>110000</v>
+        <v>137600</v>
       </c>
       <c r="I23" s="3">
-        <v>333600</v>
+        <v>111200</v>
       </c>
       <c r="J23" s="3">
+        <v>337300</v>
+      </c>
+      <c r="K23" s="3">
         <v>372600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>337800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>282200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>365600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>234500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>251300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>162700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>192500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>89200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54400</v>
+        <v>33500</v>
       </c>
       <c r="E24" s="3">
-        <v>69800</v>
+        <v>55000</v>
       </c>
       <c r="F24" s="3">
-        <v>150200</v>
+        <v>70600</v>
       </c>
       <c r="G24" s="3">
-        <v>67400</v>
+        <v>151900</v>
       </c>
       <c r="H24" s="3">
-        <v>48500</v>
+        <v>68200</v>
       </c>
       <c r="I24" s="3">
-        <v>66200</v>
+        <v>49000</v>
       </c>
       <c r="J24" s="3">
+        <v>67000</v>
+      </c>
+      <c r="K24" s="3">
         <v>18900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>111900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>48300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>65900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>37000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>66900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>170300</v>
+        <v>104100</v>
       </c>
       <c r="E26" s="3">
-        <v>177400</v>
+        <v>172300</v>
       </c>
       <c r="F26" s="3">
-        <v>615100</v>
+        <v>179400</v>
       </c>
       <c r="G26" s="3">
-        <v>68600</v>
+        <v>622000</v>
       </c>
       <c r="H26" s="3">
-        <v>61500</v>
+        <v>69400</v>
       </c>
       <c r="I26" s="3">
-        <v>267300</v>
+        <v>62200</v>
       </c>
       <c r="J26" s="3">
+        <v>270300</v>
+      </c>
+      <c r="K26" s="3">
         <v>353700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>226000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>233900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>299800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>194100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>214300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>160400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>125600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>65700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>173900</v>
+        <v>105300</v>
       </c>
       <c r="E27" s="3">
-        <v>179800</v>
+        <v>175800</v>
       </c>
       <c r="F27" s="3">
-        <v>615100</v>
+        <v>181800</v>
       </c>
       <c r="G27" s="3">
-        <v>82800</v>
+        <v>622000</v>
       </c>
       <c r="H27" s="3">
-        <v>69800</v>
+        <v>83700</v>
       </c>
       <c r="I27" s="3">
-        <v>274400</v>
+        <v>70600</v>
       </c>
       <c r="J27" s="3">
+        <v>277500</v>
+      </c>
+      <c r="K27" s="3">
         <v>359600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>237000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>242700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>195200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>214300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>163800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>133800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>106800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>42600</v>
+        <v>35900</v>
       </c>
       <c r="E32" s="3">
-        <v>62700</v>
+        <v>43100</v>
       </c>
       <c r="F32" s="3">
-        <v>40200</v>
+        <v>63400</v>
       </c>
       <c r="G32" s="3">
-        <v>65100</v>
+        <v>40700</v>
       </c>
       <c r="H32" s="3">
-        <v>58000</v>
+        <v>65800</v>
       </c>
       <c r="I32" s="3">
-        <v>36700</v>
+        <v>58600</v>
       </c>
       <c r="J32" s="3">
+        <v>37100</v>
+      </c>
+      <c r="K32" s="3">
         <v>48500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>64200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>65900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>24200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>30300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>51600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>67300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>34000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>81000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>173900</v>
+        <v>105300</v>
       </c>
       <c r="E33" s="3">
-        <v>179800</v>
+        <v>175800</v>
       </c>
       <c r="F33" s="3">
-        <v>615100</v>
+        <v>181800</v>
       </c>
       <c r="G33" s="3">
-        <v>82800</v>
+        <v>622000</v>
       </c>
       <c r="H33" s="3">
-        <v>69800</v>
+        <v>83700</v>
       </c>
       <c r="I33" s="3">
-        <v>274400</v>
+        <v>70600</v>
       </c>
       <c r="J33" s="3">
+        <v>277500</v>
+      </c>
+      <c r="K33" s="3">
         <v>359600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>237000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>242700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>195200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>214300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>163800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>133800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>106800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>173900</v>
+        <v>105300</v>
       </c>
       <c r="E35" s="3">
-        <v>179800</v>
+        <v>175800</v>
       </c>
       <c r="F35" s="3">
-        <v>615100</v>
+        <v>181800</v>
       </c>
       <c r="G35" s="3">
-        <v>82800</v>
+        <v>622000</v>
       </c>
       <c r="H35" s="3">
-        <v>69800</v>
+        <v>83700</v>
       </c>
       <c r="I35" s="3">
-        <v>274400</v>
+        <v>70600</v>
       </c>
       <c r="J35" s="3">
+        <v>277500</v>
+      </c>
+      <c r="K35" s="3">
         <v>359600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>237000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>242700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>195200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>214300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>163800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>133800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>106800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1256200</v>
+        <v>1631600</v>
       </c>
       <c r="E41" s="3">
-        <v>894300</v>
+        <v>1270400</v>
       </c>
       <c r="F41" s="3">
-        <v>1036200</v>
+        <v>904300</v>
       </c>
       <c r="G41" s="3">
-        <v>843400</v>
+        <v>1047900</v>
       </c>
       <c r="H41" s="3">
-        <v>985400</v>
+        <v>852900</v>
       </c>
       <c r="I41" s="3">
-        <v>1446700</v>
+        <v>996400</v>
       </c>
       <c r="J41" s="3">
+        <v>1463000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1336700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1113100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>690600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>754300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>681000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>469000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>559900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1094000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1118600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,137 +2423,146 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1443100</v>
+        <v>1416300</v>
       </c>
       <c r="E43" s="3">
-        <v>1515300</v>
+        <v>1459400</v>
       </c>
       <c r="F43" s="3">
-        <v>1541300</v>
+        <v>1532300</v>
       </c>
       <c r="G43" s="3">
-        <v>1576800</v>
+        <v>1558600</v>
       </c>
       <c r="H43" s="3">
-        <v>1775500</v>
+        <v>1594500</v>
       </c>
       <c r="I43" s="3">
-        <v>1876100</v>
+        <v>1795500</v>
       </c>
       <c r="J43" s="3">
+        <v>1897200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1834700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1680200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1681000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1631600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1579800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1576400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1580900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1618700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1558800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1613500</v>
+        <v>1557500</v>
       </c>
       <c r="E44" s="3">
-        <v>1652500</v>
+        <v>1631600</v>
       </c>
       <c r="F44" s="3">
-        <v>1645400</v>
+        <v>1671100</v>
       </c>
       <c r="G44" s="3">
-        <v>1796800</v>
+        <v>1663900</v>
       </c>
       <c r="H44" s="3">
-        <v>1843000</v>
+        <v>1817000</v>
       </c>
       <c r="I44" s="3">
-        <v>1970700</v>
+        <v>1863700</v>
       </c>
       <c r="J44" s="3">
+        <v>1992900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1853600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1664700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1559200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1592100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1482100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1493400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1515800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1687900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1579900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28400</v>
+        <v>20300</v>
       </c>
       <c r="E45" s="3">
-        <v>11800</v>
+        <v>28700</v>
       </c>
       <c r="F45" s="3">
-        <v>23700</v>
+        <v>12000</v>
       </c>
       <c r="G45" s="3">
-        <v>13000</v>
+        <v>23900</v>
       </c>
       <c r="H45" s="3">
-        <v>20100</v>
+        <v>13200</v>
       </c>
       <c r="I45" s="3">
-        <v>24800</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
+        <v>20300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>25100</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
@@ -2474,8 +2573,8 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -2492,220 +2591,235 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4341200</v>
+        <v>4625700</v>
       </c>
       <c r="E46" s="3">
-        <v>4073900</v>
+        <v>4390100</v>
       </c>
       <c r="F46" s="3">
-        <v>4246600</v>
+        <v>4119700</v>
       </c>
       <c r="G46" s="3">
-        <v>4230100</v>
+        <v>4294400</v>
       </c>
       <c r="H46" s="3">
-        <v>4624000</v>
+        <v>4277600</v>
       </c>
       <c r="I46" s="3">
-        <v>5318300</v>
+        <v>4675900</v>
       </c>
       <c r="J46" s="3">
+        <v>5378100</v>
+      </c>
+      <c r="K46" s="3">
         <v>5025000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4458100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3930800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3978100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3743000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3538800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3656600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4400600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4257400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1032700</v>
+        <v>1100500</v>
       </c>
       <c r="E47" s="3">
-        <v>975900</v>
+        <v>1044300</v>
       </c>
       <c r="F47" s="3">
-        <v>1292900</v>
+        <v>986900</v>
       </c>
       <c r="G47" s="3">
-        <v>1380400</v>
+        <v>1307400</v>
       </c>
       <c r="H47" s="3">
-        <v>1278700</v>
+        <v>1396000</v>
       </c>
       <c r="I47" s="3">
-        <v>2569300</v>
+        <v>1293100</v>
       </c>
       <c r="J47" s="3">
+        <v>2598100</v>
+      </c>
+      <c r="K47" s="3">
         <v>2623700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2372500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2127900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2109300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2237200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2186800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2076800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2217300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2225500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11578200</v>
+        <v>11560100</v>
       </c>
       <c r="E48" s="3">
-        <v>11256500</v>
+        <v>11708400</v>
       </c>
       <c r="F48" s="3">
-        <v>11527400</v>
+        <v>11383000</v>
       </c>
       <c r="G48" s="3">
-        <v>10695800</v>
+        <v>11657000</v>
       </c>
       <c r="H48" s="3">
-        <v>10745500</v>
+        <v>10816000</v>
       </c>
       <c r="I48" s="3">
-        <v>7458200</v>
+        <v>10866300</v>
       </c>
       <c r="J48" s="3">
+        <v>7542000</v>
+      </c>
+      <c r="K48" s="3">
         <v>6731900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6154900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6126800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6149900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6460400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6440200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6509800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7095700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7160200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>578400</v>
+        <v>564600</v>
       </c>
       <c r="E49" s="3">
-        <v>634000</v>
+        <v>584900</v>
       </c>
       <c r="F49" s="3">
-        <v>600900</v>
+        <v>641200</v>
       </c>
       <c r="G49" s="3">
-        <v>613900</v>
+        <v>607700</v>
       </c>
       <c r="H49" s="3">
-        <v>634000</v>
+        <v>620800</v>
       </c>
       <c r="I49" s="3">
-        <v>584400</v>
+        <v>641200</v>
       </c>
       <c r="J49" s="3">
+        <v>590900</v>
+      </c>
+      <c r="K49" s="3">
         <v>618700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>569300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>565500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>557800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>536300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>476800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>490300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>521200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>507100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>179800</v>
+        <v>155500</v>
       </c>
       <c r="E52" s="3">
-        <v>163200</v>
+        <v>181800</v>
       </c>
       <c r="F52" s="3">
-        <v>138400</v>
+        <v>165100</v>
       </c>
       <c r="G52" s="3">
-        <v>151400</v>
+        <v>140000</v>
       </c>
       <c r="H52" s="3">
-        <v>156100</v>
+        <v>153100</v>
       </c>
       <c r="I52" s="3">
-        <v>166800</v>
+        <v>157900</v>
       </c>
       <c r="J52" s="3">
+        <v>168700</v>
+      </c>
+      <c r="K52" s="3">
         <v>199900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>139600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>175700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>186700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>228900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>226600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>270400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>301700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>318100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>17710400</v>
+        <v>18006400</v>
       </c>
       <c r="E54" s="3">
-        <v>17103600</v>
+        <v>17909500</v>
       </c>
       <c r="F54" s="3">
-        <v>17806200</v>
+        <v>17295900</v>
       </c>
       <c r="G54" s="3">
-        <v>17071600</v>
+        <v>18006400</v>
       </c>
       <c r="H54" s="3">
-        <v>17438300</v>
+        <v>17263600</v>
       </c>
       <c r="I54" s="3">
-        <v>16096900</v>
+        <v>17634400</v>
       </c>
       <c r="J54" s="3">
+        <v>16277900</v>
+      </c>
+      <c r="K54" s="3">
         <v>15199100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>13694400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12926800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12981700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13205800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12869200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13003900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>14536500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14468400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,273 +3195,291 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>324100</v>
+        <v>573000</v>
       </c>
       <c r="E58" s="3">
-        <v>416400</v>
+        <v>327800</v>
       </c>
       <c r="F58" s="3">
-        <v>1070500</v>
+        <v>421100</v>
       </c>
       <c r="G58" s="3">
-        <v>415200</v>
+        <v>1082600</v>
       </c>
       <c r="H58" s="3">
-        <v>427000</v>
+        <v>419900</v>
       </c>
       <c r="I58" s="3">
-        <v>380900</v>
+        <v>431800</v>
       </c>
       <c r="J58" s="3">
+        <v>385200</v>
+      </c>
+      <c r="K58" s="3">
         <v>477900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>494000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>428200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>457900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1088300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1067000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1128700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1629200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1313500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2697000</v>
+        <v>2785900</v>
       </c>
       <c r="E59" s="3">
-        <v>3059000</v>
+        <v>2727300</v>
       </c>
       <c r="F59" s="3">
-        <v>2380000</v>
+        <v>3093400</v>
       </c>
       <c r="G59" s="3">
-        <v>2870900</v>
+        <v>2406800</v>
       </c>
       <c r="H59" s="3">
-        <v>2993900</v>
+        <v>2903200</v>
       </c>
       <c r="I59" s="3">
-        <v>3277800</v>
+        <v>3027600</v>
       </c>
       <c r="J59" s="3">
+        <v>3314700</v>
+      </c>
+      <c r="K59" s="3">
         <v>3244700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2825500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2747200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2742800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2236100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2022900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2008400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2225500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2195000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3021100</v>
+        <v>3358900</v>
       </c>
       <c r="E60" s="3">
-        <v>3475400</v>
+        <v>3055100</v>
       </c>
       <c r="F60" s="3">
-        <v>3450500</v>
+        <v>3514400</v>
       </c>
       <c r="G60" s="3">
-        <v>3286100</v>
+        <v>3489300</v>
       </c>
       <c r="H60" s="3">
-        <v>3420900</v>
+        <v>3323000</v>
       </c>
       <c r="I60" s="3">
-        <v>3658700</v>
+        <v>3459400</v>
       </c>
       <c r="J60" s="3">
+        <v>3699800</v>
+      </c>
+      <c r="K60" s="3">
         <v>3722600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3319500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3175400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3200700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3324500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3090000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3137100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3854800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3508500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4275000</v>
+        <v>4148400</v>
       </c>
       <c r="E61" s="3">
-        <v>3719000</v>
+        <v>4323100</v>
       </c>
       <c r="F61" s="3">
-        <v>3823100</v>
+        <v>3760900</v>
       </c>
       <c r="G61" s="3">
-        <v>4149600</v>
+        <v>3866100</v>
       </c>
       <c r="H61" s="3">
-        <v>4522200</v>
+        <v>4196300</v>
       </c>
       <c r="I61" s="3">
-        <v>3898800</v>
+        <v>4573100</v>
       </c>
       <c r="J61" s="3">
+        <v>3942700</v>
+      </c>
+      <c r="K61" s="3">
         <v>2679300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2484300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2375000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2269600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2295600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2347200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2597400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2739700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3116500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1860700</v>
+        <v>1851700</v>
       </c>
       <c r="E62" s="3">
-        <v>1621800</v>
+        <v>1881600</v>
       </c>
       <c r="F62" s="3">
-        <v>1751900</v>
+        <v>1640000</v>
       </c>
       <c r="G62" s="3">
-        <v>1524800</v>
+        <v>1771600</v>
       </c>
       <c r="H62" s="3">
-        <v>1542500</v>
+        <v>1541900</v>
       </c>
       <c r="I62" s="3">
-        <v>809100</v>
+        <v>1559800</v>
       </c>
       <c r="J62" s="3">
+        <v>818200</v>
+      </c>
+      <c r="K62" s="3">
         <v>833900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>736600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>699400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>717000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>792100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>871800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>916700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>936700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>955500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9141500</v>
+        <v>9342300</v>
       </c>
       <c r="E66" s="3">
-        <v>8803100</v>
+        <v>9244200</v>
       </c>
       <c r="F66" s="3">
-        <v>9017200</v>
+        <v>8902100</v>
       </c>
       <c r="G66" s="3">
-        <v>8939200</v>
+        <v>9118600</v>
       </c>
       <c r="H66" s="3">
-        <v>9486900</v>
+        <v>9039700</v>
       </c>
       <c r="I66" s="3">
-        <v>8382000</v>
+        <v>9593500</v>
       </c>
       <c r="J66" s="3">
+        <v>8476300</v>
+      </c>
+      <c r="K66" s="3">
         <v>7257100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6565900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6291500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6237700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6464900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6362800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6707300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7594600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7653200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6219700</v>
+        <v>6376900</v>
       </c>
       <c r="E72" s="3">
-        <v>6246900</v>
+        <v>6289600</v>
       </c>
       <c r="F72" s="3">
-        <v>6521300</v>
+        <v>6317100</v>
       </c>
       <c r="G72" s="3">
-        <v>5517000</v>
+        <v>6594700</v>
       </c>
       <c r="H72" s="3">
-        <v>5439000</v>
+        <v>5579100</v>
       </c>
       <c r="I72" s="3">
-        <v>5368000</v>
+        <v>5500100</v>
       </c>
       <c r="J72" s="3">
+        <v>5428400</v>
+      </c>
+      <c r="K72" s="3">
         <v>5567900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>4893400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4618200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4729100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4526100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4275900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4057100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4415900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4284400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8568900</v>
+        <v>8664100</v>
       </c>
       <c r="E76" s="3">
-        <v>8300400</v>
+        <v>8665300</v>
       </c>
       <c r="F76" s="3">
-        <v>8788900</v>
+        <v>8393700</v>
       </c>
       <c r="G76" s="3">
-        <v>8132400</v>
+        <v>8887800</v>
       </c>
       <c r="H76" s="3">
-        <v>7951500</v>
+        <v>8223900</v>
       </c>
       <c r="I76" s="3">
-        <v>7714900</v>
+        <v>8040900</v>
       </c>
       <c r="J76" s="3">
+        <v>7801600</v>
+      </c>
+      <c r="K76" s="3">
         <v>7942000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7128500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6635200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6743900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6740900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6506400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6296600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6941900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6815100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>173900</v>
+        <v>105300</v>
       </c>
       <c r="E81" s="3">
-        <v>179800</v>
+        <v>175800</v>
       </c>
       <c r="F81" s="3">
-        <v>615100</v>
+        <v>181800</v>
       </c>
       <c r="G81" s="3">
-        <v>82800</v>
+        <v>622000</v>
       </c>
       <c r="H81" s="3">
-        <v>69800</v>
+        <v>83700</v>
       </c>
       <c r="I81" s="3">
-        <v>274400</v>
+        <v>70600</v>
       </c>
       <c r="J81" s="3">
+        <v>277500</v>
+      </c>
+      <c r="K81" s="3">
         <v>359600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>237000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>242700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>195200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>214300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>163800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>133800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>106800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>344200</v>
+        <v>459300</v>
       </c>
       <c r="E89" s="3">
-        <v>84000</v>
+        <v>348100</v>
       </c>
       <c r="F89" s="3">
-        <v>758200</v>
+        <v>84900</v>
       </c>
       <c r="G89" s="3">
-        <v>498000</v>
+        <v>758400</v>
       </c>
       <c r="H89" s="3">
-        <v>547700</v>
+        <v>512000</v>
       </c>
       <c r="I89" s="3">
-        <v>146700</v>
+        <v>553800</v>
       </c>
       <c r="J89" s="3">
+        <v>148300</v>
+      </c>
+      <c r="K89" s="3">
         <v>322900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>451900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>312900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>138300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>529600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>408400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>317500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>97400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>489500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-146700</v>
+        <v>-175800</v>
       </c>
       <c r="E91" s="3">
-        <v>-209400</v>
+        <v>-148300</v>
       </c>
       <c r="F91" s="3">
-        <v>363200</v>
+        <v>-211700</v>
       </c>
       <c r="G91" s="3">
-        <v>-166800</v>
+        <v>367200</v>
       </c>
       <c r="H91" s="3">
-        <v>-141900</v>
+        <v>-168700</v>
       </c>
       <c r="I91" s="3">
-        <v>-145500</v>
+        <v>-143500</v>
       </c>
       <c r="J91" s="3">
+        <v>-147100</v>
+      </c>
+      <c r="K91" s="3">
         <v>339500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-142900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-137300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-127400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>360200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-154800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-143600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-158500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-258200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-141900</v>
+        <v>-175800</v>
       </c>
       <c r="E94" s="3">
-        <v>-235400</v>
+        <v>-143500</v>
       </c>
       <c r="F94" s="3">
-        <v>-253100</v>
+        <v>-238000</v>
       </c>
       <c r="G94" s="3">
-        <v>-186900</v>
+        <v>-256000</v>
       </c>
       <c r="H94" s="3">
-        <v>-686100</v>
+        <v>-189000</v>
       </c>
       <c r="I94" s="3">
-        <v>-147900</v>
+        <v>-693800</v>
       </c>
       <c r="J94" s="3">
+        <v>-149500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-197500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-152800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-94400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-116400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-304100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-218800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-140200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-123300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-77500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,16 +5082,17 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-139600</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-141200</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
@@ -4870,10 +5104,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-466100</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-471300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>162100</v>
+        <v>73000</v>
       </c>
       <c r="E100" s="3">
-        <v>24800</v>
+        <v>163900</v>
       </c>
       <c r="F100" s="3">
-        <v>-306400</v>
+        <v>25100</v>
       </c>
       <c r="G100" s="3">
-        <v>-474300</v>
+        <v>-309800</v>
       </c>
       <c r="H100" s="3">
-        <v>-326500</v>
+        <v>-479700</v>
       </c>
       <c r="I100" s="3">
-        <v>94600</v>
+        <v>-330200</v>
       </c>
       <c r="J100" s="3">
+        <v>95700</v>
+      </c>
+      <c r="K100" s="3">
         <v>45000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>111900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-294300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>61500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-278300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-640700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-219500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-1200</v>
+        <v>-4800</v>
       </c>
       <c r="E101" s="3">
         <v>-1200</v>
       </c>
       <c r="F101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>5900</v>
-      </c>
       <c r="H101" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2400</v>
       </c>
-      <c r="I101" s="3">
-        <v>17700</v>
-      </c>
       <c r="J101" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K101" s="3">
         <v>2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>363200</v>
+        <v>351700</v>
       </c>
       <c r="E102" s="3">
-        <v>-127800</v>
+        <v>367200</v>
       </c>
       <c r="F102" s="3">
-        <v>199900</v>
+        <v>-129200</v>
       </c>
       <c r="G102" s="3">
-        <v>-157300</v>
+        <v>202200</v>
       </c>
       <c r="H102" s="3">
-        <v>-467200</v>
+        <v>-159100</v>
       </c>
       <c r="I102" s="3">
-        <v>111200</v>
+        <v>-472500</v>
       </c>
       <c r="J102" s="3">
+        <v>112400</v>
+      </c>
+      <c r="K102" s="3">
         <v>172700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>402100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-69200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>87800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>213200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-92000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-481300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-29300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>204200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2532800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2445700</v>
+      </c>
+      <c r="F8" s="3">
         <v>2486900</v>
       </c>
-      <c r="E8" s="3">
-        <v>2528800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2640000</v>
-      </c>
       <c r="G8" s="3">
-        <v>2884000</v>
+        <v>2596300</v>
       </c>
       <c r="H8" s="3">
-        <v>2873300</v>
+        <v>2836300</v>
       </c>
       <c r="I8" s="3">
-        <v>3119700</v>
+        <v>2825700</v>
       </c>
       <c r="J8" s="3">
+        <v>3068100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3152000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3144100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2863100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2925100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2831700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2817300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2815100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2836400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2931000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2861700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2079000</v>
+        <v>2203400</v>
       </c>
       <c r="E9" s="3">
-        <v>2107700</v>
+        <v>2044600</v>
       </c>
       <c r="F9" s="3">
-        <v>2187800</v>
+        <v>2072800</v>
       </c>
       <c r="G9" s="3">
-        <v>2506000</v>
+        <v>2151600</v>
       </c>
       <c r="H9" s="3">
-        <v>2367300</v>
+        <v>2464600</v>
       </c>
       <c r="I9" s="3">
-        <v>2545500</v>
+        <v>2328100</v>
       </c>
       <c r="J9" s="3">
+        <v>2503400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2512000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2572800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2225200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2333300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2179500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1934300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1910700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1950000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2019000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2006000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>407900</v>
+        <v>329400</v>
       </c>
       <c r="E10" s="3">
-        <v>421100</v>
+        <v>401200</v>
       </c>
       <c r="F10" s="3">
-        <v>452200</v>
+        <v>414100</v>
       </c>
       <c r="G10" s="3">
-        <v>378000</v>
+        <v>444700</v>
       </c>
       <c r="H10" s="3">
-        <v>506000</v>
+        <v>371700</v>
       </c>
       <c r="I10" s="3">
-        <v>574200</v>
+        <v>497600</v>
       </c>
       <c r="J10" s="3">
+        <v>564700</v>
+      </c>
+      <c r="K10" s="3">
         <v>640000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>571300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>638000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>591800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>652200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>883000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>904300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>886400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>912100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>855700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,46 +1064,49 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>16700</v>
+        <v>-247000</v>
       </c>
       <c r="E14" s="3">
-        <v>-76600</v>
+        <v>16500</v>
       </c>
       <c r="F14" s="3">
-        <v>-140000</v>
+        <v>-75300</v>
       </c>
       <c r="G14" s="3">
-        <v>-526300</v>
+        <v>-137600</v>
       </c>
       <c r="H14" s="3">
-        <v>35900</v>
+        <v>-517600</v>
       </c>
       <c r="I14" s="3">
-        <v>6000</v>
+        <v>35300</v>
       </c>
       <c r="J14" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K14" s="3">
         <v>19100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>20100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>15400</v>
-      </c>
-      <c r="O14" s="3">
-        <v>22400</v>
       </c>
       <c r="P14" s="3">
         <v>22400</v>
@@ -1096,72 +1115,78 @@
         <v>22400</v>
       </c>
       <c r="R14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="S14" s="3">
         <v>14100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>237100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>161500</v>
+        <v>176500</v>
       </c>
       <c r="E15" s="3">
-        <v>162700</v>
+        <v>158800</v>
       </c>
       <c r="F15" s="3">
-        <v>165100</v>
+        <v>160000</v>
       </c>
       <c r="G15" s="3">
-        <v>175800</v>
+        <v>162300</v>
       </c>
       <c r="H15" s="3">
-        <v>156700</v>
+        <v>172900</v>
       </c>
       <c r="I15" s="3">
-        <v>160300</v>
+        <v>154100</v>
       </c>
       <c r="J15" s="3">
+        <v>157600</v>
+      </c>
+      <c r="K15" s="3">
         <v>159100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>134900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>135100</v>
-      </c>
-      <c r="M15" s="3">
-        <v>132900</v>
       </c>
       <c r="N15" s="3">
         <v>132900</v>
       </c>
       <c r="O15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="P15" s="3">
         <v>145900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>139100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>133500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>166700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>71600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2313500</v>
+        <v>2192800</v>
       </c>
       <c r="E17" s="3">
-        <v>2258400</v>
+        <v>2275200</v>
       </c>
       <c r="F17" s="3">
-        <v>2326600</v>
+        <v>2221000</v>
       </c>
       <c r="G17" s="3">
-        <v>2069400</v>
+        <v>2288100</v>
       </c>
       <c r="H17" s="3">
-        <v>2669900</v>
+        <v>2035200</v>
       </c>
       <c r="I17" s="3">
-        <v>2949800</v>
+        <v>2625700</v>
       </c>
       <c r="J17" s="3">
+        <v>2901000</v>
+      </c>
+      <c r="K17" s="3">
         <v>2777600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2723000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2461100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2577000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2442000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2552500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2512100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2606400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2704500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2691500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>173400</v>
+        <v>340000</v>
       </c>
       <c r="E18" s="3">
-        <v>270300</v>
+        <v>170600</v>
       </c>
       <c r="F18" s="3">
-        <v>313400</v>
+        <v>265900</v>
       </c>
       <c r="G18" s="3">
-        <v>814600</v>
+        <v>308200</v>
       </c>
       <c r="H18" s="3">
-        <v>203400</v>
+        <v>801100</v>
       </c>
       <c r="I18" s="3">
-        <v>169900</v>
+        <v>200000</v>
       </c>
       <c r="J18" s="3">
+        <v>167000</v>
+      </c>
+      <c r="K18" s="3">
         <v>374400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>421100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>402100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>348100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>389800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>264800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>302900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>230000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>226500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>170200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1345,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-35900</v>
+        <v>-34100</v>
       </c>
       <c r="E20" s="3">
-        <v>-43100</v>
+        <v>-35300</v>
       </c>
       <c r="F20" s="3">
-        <v>-63400</v>
+        <v>-42400</v>
       </c>
       <c r="G20" s="3">
-        <v>-40700</v>
+        <v>-62300</v>
       </c>
       <c r="H20" s="3">
-        <v>-65800</v>
+        <v>-40000</v>
       </c>
       <c r="I20" s="3">
-        <v>-58600</v>
+        <v>-64700</v>
       </c>
       <c r="J20" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-37100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-48500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-64200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-65900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-30300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-51600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-67300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-34000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-81000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>136400</v>
+        <v>863500</v>
       </c>
       <c r="E21" s="3">
-        <v>224900</v>
+        <v>134100</v>
       </c>
       <c r="F21" s="3">
-        <v>415100</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
+        <v>221200</v>
+      </c>
+      <c r="G21" s="3">
+        <v>408200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3">
-        <v>112400</v>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J21" s="3">
+        <v>110600</v>
+      </c>
+      <c r="K21" s="3">
         <v>496400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>363200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>338900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>282200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>498500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>241200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>256900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>136900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>359200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>403800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>137600</v>
+        <v>305900</v>
       </c>
       <c r="E23" s="3">
-        <v>227300</v>
+        <v>135300</v>
       </c>
       <c r="F23" s="3">
-        <v>250000</v>
+        <v>223500</v>
       </c>
       <c r="G23" s="3">
-        <v>773900</v>
+        <v>245900</v>
       </c>
       <c r="H23" s="3">
-        <v>137600</v>
+        <v>761100</v>
       </c>
       <c r="I23" s="3">
-        <v>111200</v>
+        <v>135300</v>
       </c>
       <c r="J23" s="3">
+        <v>109400</v>
+      </c>
+      <c r="K23" s="3">
         <v>337300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>372600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>337800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>282200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>365600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>234500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>251300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>162700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>192500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>89200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>33500</v>
+        <v>27100</v>
       </c>
       <c r="E24" s="3">
-        <v>55000</v>
+        <v>32900</v>
       </c>
       <c r="F24" s="3">
-        <v>70600</v>
+        <v>54100</v>
       </c>
       <c r="G24" s="3">
-        <v>151900</v>
+        <v>69400</v>
       </c>
       <c r="H24" s="3">
-        <v>68200</v>
+        <v>149400</v>
       </c>
       <c r="I24" s="3">
-        <v>49000</v>
+        <v>67100</v>
       </c>
       <c r="J24" s="3">
+        <v>48200</v>
+      </c>
+      <c r="K24" s="3">
         <v>67000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>111900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>48300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>65900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>40400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>37000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>66900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>104100</v>
+        <v>278800</v>
       </c>
       <c r="E26" s="3">
-        <v>172300</v>
+        <v>102300</v>
       </c>
       <c r="F26" s="3">
-        <v>179400</v>
+        <v>169400</v>
       </c>
       <c r="G26" s="3">
-        <v>622000</v>
+        <v>176500</v>
       </c>
       <c r="H26" s="3">
-        <v>69400</v>
+        <v>611700</v>
       </c>
       <c r="I26" s="3">
-        <v>62200</v>
+        <v>68200</v>
       </c>
       <c r="J26" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K26" s="3">
         <v>270300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>353700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>226000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>233900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>299800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>194100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>214300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>160400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>125600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>65700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>105300</v>
+        <v>281200</v>
       </c>
       <c r="E27" s="3">
-        <v>175800</v>
+        <v>103500</v>
       </c>
       <c r="F27" s="3">
-        <v>181800</v>
+        <v>172900</v>
       </c>
       <c r="G27" s="3">
-        <v>622000</v>
+        <v>178800</v>
       </c>
       <c r="H27" s="3">
-        <v>83700</v>
+        <v>611700</v>
       </c>
       <c r="I27" s="3">
-        <v>70600</v>
+        <v>82300</v>
       </c>
       <c r="J27" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K27" s="3">
         <v>277500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>359600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>237000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>242700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>195200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>214300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>163800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>133800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>106800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>35900</v>
+        <v>34100</v>
       </c>
       <c r="E32" s="3">
-        <v>43100</v>
+        <v>35300</v>
       </c>
       <c r="F32" s="3">
-        <v>63400</v>
+        <v>42400</v>
       </c>
       <c r="G32" s="3">
-        <v>40700</v>
+        <v>62300</v>
       </c>
       <c r="H32" s="3">
-        <v>65800</v>
+        <v>40000</v>
       </c>
       <c r="I32" s="3">
-        <v>58600</v>
+        <v>64700</v>
       </c>
       <c r="J32" s="3">
+        <v>57600</v>
+      </c>
+      <c r="K32" s="3">
         <v>37100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>48500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>64200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>65900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>30300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>51600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>67300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>34000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>81000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>105300</v>
+        <v>281200</v>
       </c>
       <c r="E33" s="3">
-        <v>175800</v>
+        <v>103500</v>
       </c>
       <c r="F33" s="3">
-        <v>181800</v>
+        <v>172900</v>
       </c>
       <c r="G33" s="3">
-        <v>622000</v>
+        <v>178800</v>
       </c>
       <c r="H33" s="3">
-        <v>83700</v>
+        <v>611700</v>
       </c>
       <c r="I33" s="3">
-        <v>70600</v>
+        <v>82300</v>
       </c>
       <c r="J33" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K33" s="3">
         <v>277500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>359600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>237000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>242700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>195200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>214300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>163800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>133800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>106800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>105300</v>
+        <v>281200</v>
       </c>
       <c r="E35" s="3">
-        <v>175800</v>
+        <v>103500</v>
       </c>
       <c r="F35" s="3">
-        <v>181800</v>
+        <v>172900</v>
       </c>
       <c r="G35" s="3">
-        <v>622000</v>
+        <v>178800</v>
       </c>
       <c r="H35" s="3">
-        <v>83700</v>
+        <v>611700</v>
       </c>
       <c r="I35" s="3">
-        <v>70600</v>
+        <v>82300</v>
       </c>
       <c r="J35" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K35" s="3">
         <v>277500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>359600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>237000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>242700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>195200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>214300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>163800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>133800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>106800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1631600</v>
+        <v>1954000</v>
       </c>
       <c r="E41" s="3">
-        <v>1270400</v>
+        <v>1604600</v>
       </c>
       <c r="F41" s="3">
-        <v>904300</v>
+        <v>1249300</v>
       </c>
       <c r="G41" s="3">
-        <v>1047900</v>
+        <v>889400</v>
       </c>
       <c r="H41" s="3">
-        <v>852900</v>
+        <v>1030500</v>
       </c>
       <c r="I41" s="3">
-        <v>996400</v>
+        <v>838800</v>
       </c>
       <c r="J41" s="3">
+        <v>979900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1463000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1336700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1113100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>690600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>754300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>681000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>469000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>559900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1094000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1118600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,146 +2515,155 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1416300</v>
+        <v>1364600</v>
       </c>
       <c r="E43" s="3">
-        <v>1459400</v>
+        <v>1392900</v>
       </c>
       <c r="F43" s="3">
-        <v>1532300</v>
+        <v>1435200</v>
       </c>
       <c r="G43" s="3">
-        <v>1558600</v>
+        <v>1507000</v>
       </c>
       <c r="H43" s="3">
-        <v>1594500</v>
+        <v>1532800</v>
       </c>
       <c r="I43" s="3">
-        <v>1795500</v>
+        <v>1568100</v>
       </c>
       <c r="J43" s="3">
+        <v>1765800</v>
+      </c>
+      <c r="K43" s="3">
         <v>1897200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1834700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1680200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1681000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1631600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1579800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1576400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1580900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1618700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1558800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1557500</v>
+        <v>1494000</v>
       </c>
       <c r="E44" s="3">
-        <v>1631600</v>
+        <v>1531700</v>
       </c>
       <c r="F44" s="3">
-        <v>1671100</v>
+        <v>1604600</v>
       </c>
       <c r="G44" s="3">
-        <v>1663900</v>
+        <v>1643400</v>
       </c>
       <c r="H44" s="3">
-        <v>1817000</v>
+        <v>1636400</v>
       </c>
       <c r="I44" s="3">
-        <v>1863700</v>
+        <v>1787000</v>
       </c>
       <c r="J44" s="3">
+        <v>1832800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1992900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1853600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1664700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1559200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1592100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1482100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1493400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1515800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1687900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1579900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>20300</v>
+        <v>75300</v>
       </c>
       <c r="E45" s="3">
-        <v>28700</v>
+        <v>20000</v>
       </c>
       <c r="F45" s="3">
-        <v>12000</v>
+        <v>28200</v>
       </c>
       <c r="G45" s="3">
-        <v>23900</v>
+        <v>11800</v>
       </c>
       <c r="H45" s="3">
-        <v>13200</v>
+        <v>23500</v>
       </c>
       <c r="I45" s="3">
-        <v>20300</v>
+        <v>12900</v>
       </c>
       <c r="J45" s="3">
+        <v>20000</v>
+      </c>
+      <c r="K45" s="3">
         <v>25100</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
@@ -2576,8 +2674,8 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2594,232 +2692,247 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4625700</v>
+        <v>4887900</v>
       </c>
       <c r="E46" s="3">
-        <v>4390100</v>
+        <v>4549100</v>
       </c>
       <c r="F46" s="3">
-        <v>4119700</v>
+        <v>4317400</v>
       </c>
       <c r="G46" s="3">
-        <v>4294400</v>
+        <v>4051500</v>
       </c>
       <c r="H46" s="3">
-        <v>4277600</v>
+        <v>4223300</v>
       </c>
       <c r="I46" s="3">
-        <v>4675900</v>
+        <v>4206800</v>
       </c>
       <c r="J46" s="3">
+        <v>4598500</v>
+      </c>
+      <c r="K46" s="3">
         <v>5378100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5025000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4458100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3930800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3978100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3743000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3538800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3656600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4400600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4257400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1100500</v>
+        <v>1136400</v>
       </c>
       <c r="E47" s="3">
-        <v>1044300</v>
+        <v>1082300</v>
       </c>
       <c r="F47" s="3">
-        <v>986900</v>
+        <v>1027000</v>
       </c>
       <c r="G47" s="3">
-        <v>1307400</v>
+        <v>970500</v>
       </c>
       <c r="H47" s="3">
-        <v>1396000</v>
+        <v>1285800</v>
       </c>
       <c r="I47" s="3">
-        <v>1293100</v>
+        <v>1372900</v>
       </c>
       <c r="J47" s="3">
+        <v>1271700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2598100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2623700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2372500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2127900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2109300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2237200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2186800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2076800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2217300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2225500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>11560100</v>
+        <v>13780300</v>
       </c>
       <c r="E48" s="3">
-        <v>11708400</v>
+        <v>11368700</v>
       </c>
       <c r="F48" s="3">
-        <v>11383000</v>
+        <v>11514600</v>
       </c>
       <c r="G48" s="3">
-        <v>11657000</v>
+        <v>11194600</v>
       </c>
       <c r="H48" s="3">
-        <v>10816000</v>
+        <v>11464000</v>
       </c>
       <c r="I48" s="3">
-        <v>10866300</v>
+        <v>10637000</v>
       </c>
       <c r="J48" s="3">
+        <v>10686400</v>
+      </c>
+      <c r="K48" s="3">
         <v>7542000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6731900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6154900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6126800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6149900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6460400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6440200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6509800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7095700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7160200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>564600</v>
+        <v>530600</v>
       </c>
       <c r="E49" s="3">
-        <v>584900</v>
+        <v>555300</v>
       </c>
       <c r="F49" s="3">
-        <v>641200</v>
+        <v>575300</v>
       </c>
       <c r="G49" s="3">
-        <v>607700</v>
+        <v>630600</v>
       </c>
       <c r="H49" s="3">
-        <v>620800</v>
+        <v>597600</v>
       </c>
       <c r="I49" s="3">
-        <v>641200</v>
+        <v>610600</v>
       </c>
       <c r="J49" s="3">
+        <v>630600</v>
+      </c>
+      <c r="K49" s="3">
         <v>590900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>618700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>569300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>565500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>557800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>536300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>476800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>490300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>521200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>507100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>155500</v>
+        <v>170600</v>
       </c>
       <c r="E52" s="3">
-        <v>181800</v>
+        <v>152900</v>
       </c>
       <c r="F52" s="3">
-        <v>165100</v>
+        <v>178800</v>
       </c>
       <c r="G52" s="3">
-        <v>140000</v>
+        <v>162300</v>
       </c>
       <c r="H52" s="3">
-        <v>153100</v>
+        <v>137600</v>
       </c>
       <c r="I52" s="3">
-        <v>157900</v>
+        <v>150600</v>
       </c>
       <c r="J52" s="3">
+        <v>155300</v>
+      </c>
+      <c r="K52" s="3">
         <v>168700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>199900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>139600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>175700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>186700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>228900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>226600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>270400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>301700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>318100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>18006400</v>
+        <v>20505800</v>
       </c>
       <c r="E54" s="3">
-        <v>17909500</v>
+        <v>17708300</v>
       </c>
       <c r="F54" s="3">
-        <v>17295900</v>
+        <v>17613100</v>
       </c>
       <c r="G54" s="3">
-        <v>18006400</v>
+        <v>17009600</v>
       </c>
       <c r="H54" s="3">
-        <v>17263600</v>
+        <v>17708300</v>
       </c>
       <c r="I54" s="3">
-        <v>17634400</v>
+        <v>16977800</v>
       </c>
       <c r="J54" s="3">
+        <v>17342500</v>
+      </c>
+      <c r="K54" s="3">
         <v>16277900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15199100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13694400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12926800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12981700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13205800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12869200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13003900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>14536500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14468400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,288 +3328,306 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>573000</v>
+        <v>1048200</v>
       </c>
       <c r="E58" s="3">
-        <v>327800</v>
+        <v>563500</v>
       </c>
       <c r="F58" s="3">
-        <v>421100</v>
+        <v>322300</v>
       </c>
       <c r="G58" s="3">
-        <v>1082600</v>
+        <v>414100</v>
       </c>
       <c r="H58" s="3">
-        <v>419900</v>
+        <v>1064600</v>
       </c>
       <c r="I58" s="3">
-        <v>431800</v>
+        <v>412900</v>
       </c>
       <c r="J58" s="3">
+        <v>424700</v>
+      </c>
+      <c r="K58" s="3">
         <v>385200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>477900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>494000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>428200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>457900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1088300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1067000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1128700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1629200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1313500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2785900</v>
+        <v>2357500</v>
       </c>
       <c r="E59" s="3">
-        <v>2727300</v>
+        <v>2739800</v>
       </c>
       <c r="F59" s="3">
-        <v>3093400</v>
+        <v>2682200</v>
       </c>
       <c r="G59" s="3">
-        <v>2406800</v>
+        <v>3042200</v>
       </c>
       <c r="H59" s="3">
-        <v>2903200</v>
+        <v>2366900</v>
       </c>
       <c r="I59" s="3">
-        <v>3027600</v>
+        <v>2855100</v>
       </c>
       <c r="J59" s="3">
+        <v>2977500</v>
+      </c>
+      <c r="K59" s="3">
         <v>3314700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3244700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2825500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2747200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2742800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2236100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2022900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2008400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2225500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2195000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3358900</v>
+        <v>3405700</v>
       </c>
       <c r="E60" s="3">
-        <v>3055100</v>
+        <v>3303300</v>
       </c>
       <c r="F60" s="3">
-        <v>3514400</v>
+        <v>3004500</v>
       </c>
       <c r="G60" s="3">
-        <v>3489300</v>
+        <v>3456300</v>
       </c>
       <c r="H60" s="3">
-        <v>3323000</v>
+        <v>3431600</v>
       </c>
       <c r="I60" s="3">
-        <v>3459400</v>
+        <v>3268000</v>
       </c>
       <c r="J60" s="3">
+        <v>3402100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3699800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3722600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3319500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3175400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3200700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3324500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3090000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3137100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3854800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3508500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4148400</v>
+        <v>4496200</v>
       </c>
       <c r="E61" s="3">
-        <v>4323100</v>
+        <v>4079800</v>
       </c>
       <c r="F61" s="3">
-        <v>3760900</v>
+        <v>4251500</v>
       </c>
       <c r="G61" s="3">
-        <v>3866100</v>
+        <v>3698600</v>
       </c>
       <c r="H61" s="3">
-        <v>4196300</v>
+        <v>3802100</v>
       </c>
       <c r="I61" s="3">
-        <v>4573100</v>
+        <v>4126800</v>
       </c>
       <c r="J61" s="3">
+        <v>4497400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3942700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2679300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2484300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2375000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2269600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2295600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2347200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2597400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2739700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3116500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1851700</v>
+        <v>2259900</v>
       </c>
       <c r="E62" s="3">
-        <v>1881600</v>
+        <v>1821100</v>
       </c>
       <c r="F62" s="3">
-        <v>1640000</v>
+        <v>1850500</v>
       </c>
       <c r="G62" s="3">
-        <v>1771600</v>
+        <v>1612800</v>
       </c>
       <c r="H62" s="3">
-        <v>1541900</v>
+        <v>1742200</v>
       </c>
       <c r="I62" s="3">
-        <v>1559800</v>
+        <v>1516400</v>
       </c>
       <c r="J62" s="3">
+        <v>1534000</v>
+      </c>
+      <c r="K62" s="3">
         <v>818200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>833900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>736600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>699400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>717000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>792100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>871800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>916700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>936700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>955500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9342300</v>
+        <v>10142900</v>
       </c>
       <c r="E66" s="3">
-        <v>9244200</v>
+        <v>9187700</v>
       </c>
       <c r="F66" s="3">
-        <v>8902100</v>
+        <v>9091200</v>
       </c>
       <c r="G66" s="3">
-        <v>9118600</v>
+        <v>8754800</v>
       </c>
       <c r="H66" s="3">
-        <v>9039700</v>
+        <v>8967700</v>
       </c>
       <c r="I66" s="3">
-        <v>9593500</v>
+        <v>8890100</v>
       </c>
       <c r="J66" s="3">
+        <v>9434700</v>
+      </c>
+      <c r="K66" s="3">
         <v>8476300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7257100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6565900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6291500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6237700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6464900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6362800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6707300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7594600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7653200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6376900</v>
+        <v>8261900</v>
       </c>
       <c r="E72" s="3">
-        <v>6289600</v>
+        <v>6271400</v>
       </c>
       <c r="F72" s="3">
-        <v>6317100</v>
+        <v>6185500</v>
       </c>
       <c r="G72" s="3">
-        <v>6594700</v>
+        <v>6212600</v>
       </c>
       <c r="H72" s="3">
-        <v>5579100</v>
+        <v>6485500</v>
       </c>
       <c r="I72" s="3">
-        <v>5500100</v>
+        <v>5486700</v>
       </c>
       <c r="J72" s="3">
+        <v>5409100</v>
+      </c>
+      <c r="K72" s="3">
         <v>5428400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5567900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>4893400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4618200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4729100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4526100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4275900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4057100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4415900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4284400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8664100</v>
+        <v>10362900</v>
       </c>
       <c r="E76" s="3">
-        <v>8665300</v>
+        <v>8520700</v>
       </c>
       <c r="F76" s="3">
-        <v>8393700</v>
+        <v>8521800</v>
       </c>
       <c r="G76" s="3">
-        <v>8887800</v>
+        <v>8254800</v>
       </c>
       <c r="H76" s="3">
-        <v>8223900</v>
+        <v>8740700</v>
       </c>
       <c r="I76" s="3">
-        <v>8040900</v>
+        <v>8087800</v>
       </c>
       <c r="J76" s="3">
+        <v>7907800</v>
+      </c>
+      <c r="K76" s="3">
         <v>7801600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7942000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7128500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6635200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6743900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6740900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6506400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6296600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6941900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6815100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>105300</v>
+        <v>281200</v>
       </c>
       <c r="E81" s="3">
-        <v>175800</v>
+        <v>103500</v>
       </c>
       <c r="F81" s="3">
-        <v>181800</v>
+        <v>172900</v>
       </c>
       <c r="G81" s="3">
-        <v>622000</v>
+        <v>178800</v>
       </c>
       <c r="H81" s="3">
-        <v>83700</v>
+        <v>611700</v>
       </c>
       <c r="I81" s="3">
-        <v>70600</v>
+        <v>82300</v>
       </c>
       <c r="J81" s="3">
+        <v>69400</v>
+      </c>
+      <c r="K81" s="3">
         <v>277500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>359600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>237000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>242700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>195200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>214300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>163800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>133800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>106800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>459300</v>
+        <v>449400</v>
       </c>
       <c r="E89" s="3">
-        <v>348100</v>
+        <v>451700</v>
       </c>
       <c r="F89" s="3">
-        <v>84900</v>
+        <v>342300</v>
       </c>
       <c r="G89" s="3">
-        <v>758400</v>
+        <v>83500</v>
       </c>
       <c r="H89" s="3">
-        <v>512000</v>
+        <v>758800</v>
       </c>
       <c r="I89" s="3">
-        <v>553800</v>
+        <v>503500</v>
       </c>
       <c r="J89" s="3">
+        <v>544700</v>
+      </c>
+      <c r="K89" s="3">
         <v>148300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>322900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>451900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>312900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>138300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>529600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>408400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>317500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>97400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>489500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-175800</v>
+        <v>434100</v>
       </c>
       <c r="E91" s="3">
-        <v>-148300</v>
+        <v>-172900</v>
       </c>
       <c r="F91" s="3">
-        <v>-211700</v>
+        <v>-145900</v>
       </c>
       <c r="G91" s="3">
-        <v>367200</v>
+        <v>-208200</v>
       </c>
       <c r="H91" s="3">
-        <v>-168700</v>
+        <v>361200</v>
       </c>
       <c r="I91" s="3">
-        <v>-143500</v>
+        <v>-165900</v>
       </c>
       <c r="J91" s="3">
+        <v>-141200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-147100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>339500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-142900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-137300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-127400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>360200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-154800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-143600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-158500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-258200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-175800</v>
+        <v>-252900</v>
       </c>
       <c r="E94" s="3">
-        <v>-143500</v>
+        <v>-172900</v>
       </c>
       <c r="F94" s="3">
-        <v>-238000</v>
+        <v>-141200</v>
       </c>
       <c r="G94" s="3">
-        <v>-256000</v>
+        <v>-234100</v>
       </c>
       <c r="H94" s="3">
-        <v>-189000</v>
+        <v>-251700</v>
       </c>
       <c r="I94" s="3">
-        <v>-693800</v>
+        <v>-185900</v>
       </c>
       <c r="J94" s="3">
+        <v>-682300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-149500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-197500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-152800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-94400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-116400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-304100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-218800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-140200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-123300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-77500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,19 +5315,20 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-123500</v>
       </c>
       <c r="E96" s="3">
-        <v>-141200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-138800</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -5107,11 +5340,11 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-471300</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,120 +5549,129 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>73000</v>
+        <v>158800</v>
       </c>
       <c r="E100" s="3">
-        <v>163900</v>
+        <v>71800</v>
       </c>
       <c r="F100" s="3">
-        <v>25100</v>
+        <v>161200</v>
       </c>
       <c r="G100" s="3">
-        <v>-309800</v>
+        <v>24700</v>
       </c>
       <c r="H100" s="3">
-        <v>-479700</v>
+        <v>-304700</v>
       </c>
       <c r="I100" s="3">
-        <v>-330200</v>
+        <v>-471700</v>
       </c>
       <c r="J100" s="3">
+        <v>-324700</v>
+      </c>
+      <c r="K100" s="3">
         <v>95700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>45000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>111900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-294300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>61500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-278300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-640700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-219500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4800</v>
+        <v>-3500</v>
       </c>
       <c r="E101" s="3">
-        <v>-1200</v>
+        <v>-4700</v>
       </c>
       <c r="F101" s="3">
         <v>-1200</v>
       </c>
       <c r="G101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H101" s="3">
         <v>1200</v>
       </c>
-      <c r="H101" s="3">
-        <v>6000</v>
-      </c>
       <c r="I101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>17900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-18000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>11700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5428,51 +5679,54 @@
         <v>351700</v>
       </c>
       <c r="E102" s="3">
-        <v>367200</v>
+        <v>345900</v>
       </c>
       <c r="F102" s="3">
-        <v>-129200</v>
+        <v>361200</v>
       </c>
       <c r="G102" s="3">
-        <v>202200</v>
+        <v>-127100</v>
       </c>
       <c r="H102" s="3">
-        <v>-159100</v>
+        <v>198800</v>
       </c>
       <c r="I102" s="3">
-        <v>-472500</v>
+        <v>-156500</v>
       </c>
       <c r="J102" s="3">
+        <v>-464700</v>
+      </c>
+      <c r="K102" s="3">
         <v>112400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>172700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>402100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-69200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>87800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>213200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-92000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-481300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-29300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>204200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2532800</v>
+        <v>2788100</v>
       </c>
       <c r="E8" s="3">
-        <v>2445700</v>
+        <v>2637400</v>
       </c>
       <c r="F8" s="3">
-        <v>2486900</v>
+        <v>2546800</v>
       </c>
       <c r="G8" s="3">
-        <v>2596300</v>
+        <v>2589600</v>
       </c>
       <c r="H8" s="3">
-        <v>2836300</v>
+        <v>2703600</v>
       </c>
       <c r="I8" s="3">
-        <v>2825700</v>
+        <v>2953500</v>
       </c>
       <c r="J8" s="3">
+        <v>2942400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3068100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3152000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3144100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2863100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2925100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2831700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2817300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2815100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2836400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2931000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2861700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2203400</v>
+        <v>2284600</v>
       </c>
       <c r="E9" s="3">
-        <v>2044600</v>
+        <v>2294400</v>
       </c>
       <c r="F9" s="3">
-        <v>2072800</v>
+        <v>2129000</v>
       </c>
       <c r="G9" s="3">
-        <v>2151600</v>
+        <v>2158400</v>
       </c>
       <c r="H9" s="3">
-        <v>2464600</v>
+        <v>2240500</v>
       </c>
       <c r="I9" s="3">
-        <v>2328100</v>
+        <v>2566400</v>
       </c>
       <c r="J9" s="3">
+        <v>2424300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2503400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2512000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2572800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2225200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2333300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2179500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1934300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1910700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1950000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2019000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2006000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>329400</v>
+        <v>503500</v>
       </c>
       <c r="E10" s="3">
-        <v>401200</v>
+        <v>343000</v>
       </c>
       <c r="F10" s="3">
-        <v>414100</v>
+        <v>417700</v>
       </c>
       <c r="G10" s="3">
-        <v>444700</v>
+        <v>431200</v>
       </c>
       <c r="H10" s="3">
-        <v>371700</v>
+        <v>463000</v>
       </c>
       <c r="I10" s="3">
-        <v>497600</v>
+        <v>387100</v>
       </c>
       <c r="J10" s="3">
+        <v>518200</v>
+      </c>
+      <c r="K10" s="3">
         <v>564700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>640000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>571300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>638000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>591800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>652200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>883000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>904300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>886400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>912100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>855700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,49 +1084,52 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-247000</v>
+        <v>132300</v>
       </c>
       <c r="E14" s="3">
-        <v>16500</v>
+        <v>-257200</v>
       </c>
       <c r="F14" s="3">
-        <v>-75300</v>
+        <v>17100</v>
       </c>
       <c r="G14" s="3">
-        <v>-137600</v>
+        <v>-78400</v>
       </c>
       <c r="H14" s="3">
-        <v>-517600</v>
+        <v>-143300</v>
       </c>
       <c r="I14" s="3">
-        <v>35300</v>
+        <v>-539000</v>
       </c>
       <c r="J14" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K14" s="3">
         <v>5900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>20100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>15400</v>
-      </c>
-      <c r="P14" s="3">
-        <v>22400</v>
       </c>
       <c r="Q14" s="3">
         <v>22400</v>
@@ -1118,75 +1138,81 @@
         <v>22400</v>
       </c>
       <c r="S14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="T14" s="3">
         <v>14100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>237100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>176500</v>
+        <v>170300</v>
       </c>
       <c r="E15" s="3">
-        <v>158800</v>
+        <v>183700</v>
       </c>
       <c r="F15" s="3">
-        <v>160000</v>
+        <v>165400</v>
       </c>
       <c r="G15" s="3">
-        <v>162300</v>
+        <v>166600</v>
       </c>
       <c r="H15" s="3">
-        <v>172900</v>
+        <v>169000</v>
       </c>
       <c r="I15" s="3">
-        <v>154100</v>
+        <v>180100</v>
       </c>
       <c r="J15" s="3">
+        <v>160500</v>
+      </c>
+      <c r="K15" s="3">
         <v>157600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>159100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>134900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>135100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>132900</v>
       </c>
       <c r="O15" s="3">
         <v>132900</v>
       </c>
       <c r="P15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="Q15" s="3">
         <v>145900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>139100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>133500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>166700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>71600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2192800</v>
+        <v>2590900</v>
       </c>
       <c r="E17" s="3">
-        <v>2275200</v>
+        <v>2283400</v>
       </c>
       <c r="F17" s="3">
-        <v>2221000</v>
+        <v>2369100</v>
       </c>
       <c r="G17" s="3">
-        <v>2288100</v>
+        <v>2312800</v>
       </c>
       <c r="H17" s="3">
-        <v>2035200</v>
+        <v>2382600</v>
       </c>
       <c r="I17" s="3">
-        <v>2625700</v>
+        <v>2119200</v>
       </c>
       <c r="J17" s="3">
+        <v>2734200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2901000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2777600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2723000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2461100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2577000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2442000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2552500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2512100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2606400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2704500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2691500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>340000</v>
+        <v>197200</v>
       </c>
       <c r="E18" s="3">
-        <v>170600</v>
+        <v>354000</v>
       </c>
       <c r="F18" s="3">
-        <v>265900</v>
+        <v>177600</v>
       </c>
       <c r="G18" s="3">
-        <v>308200</v>
+        <v>276800</v>
       </c>
       <c r="H18" s="3">
-        <v>801100</v>
+        <v>320900</v>
       </c>
       <c r="I18" s="3">
-        <v>200000</v>
+        <v>834200</v>
       </c>
       <c r="J18" s="3">
+        <v>208200</v>
+      </c>
+      <c r="K18" s="3">
         <v>167000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>374400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>421100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>402100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>348100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>389800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>264800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>302900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>230000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>226500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>170200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-34100</v>
+        <v>-44100</v>
       </c>
       <c r="E20" s="3">
-        <v>-35300</v>
+        <v>-35500</v>
       </c>
       <c r="F20" s="3">
-        <v>-42400</v>
+        <v>-36700</v>
       </c>
       <c r="G20" s="3">
-        <v>-62300</v>
+        <v>-44100</v>
       </c>
       <c r="H20" s="3">
-        <v>-40000</v>
+        <v>-64900</v>
       </c>
       <c r="I20" s="3">
-        <v>-64700</v>
+        <v>-41600</v>
       </c>
       <c r="J20" s="3">
+        <v>-67400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-57600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-37100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-48500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-64200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-65900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-30300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-51600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-67300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-34000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-81000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>863500</v>
+        <v>323400</v>
       </c>
       <c r="E21" s="3">
-        <v>134100</v>
+        <v>899100</v>
       </c>
       <c r="F21" s="3">
-        <v>221200</v>
+        <v>139600</v>
       </c>
       <c r="G21" s="3">
-        <v>408200</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
+        <v>230300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>425100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>110600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>496400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>363200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>338900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>282200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>498500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>241200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>256900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>136900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>359200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>403800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>305900</v>
+        <v>153100</v>
       </c>
       <c r="E23" s="3">
-        <v>135300</v>
+        <v>318500</v>
       </c>
       <c r="F23" s="3">
-        <v>223500</v>
+        <v>140900</v>
       </c>
       <c r="G23" s="3">
-        <v>245900</v>
+        <v>232700</v>
       </c>
       <c r="H23" s="3">
-        <v>761100</v>
+        <v>256000</v>
       </c>
       <c r="I23" s="3">
-        <v>135300</v>
+        <v>792600</v>
       </c>
       <c r="J23" s="3">
+        <v>140900</v>
+      </c>
+      <c r="K23" s="3">
         <v>109400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>337300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>372600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>337800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>282200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>365600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>234500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>251300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>162700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>192500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>89200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>27100</v>
+        <v>-24500</v>
       </c>
       <c r="E24" s="3">
-        <v>32900</v>
+        <v>28200</v>
       </c>
       <c r="F24" s="3">
-        <v>54100</v>
+        <v>34300</v>
       </c>
       <c r="G24" s="3">
-        <v>69400</v>
+        <v>56300</v>
       </c>
       <c r="H24" s="3">
-        <v>149400</v>
+        <v>72300</v>
       </c>
       <c r="I24" s="3">
-        <v>67100</v>
+        <v>155600</v>
       </c>
       <c r="J24" s="3">
+        <v>69800</v>
+      </c>
+      <c r="K24" s="3">
         <v>48200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>67000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>111900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>48300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>65900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>37000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>66900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>23500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>278800</v>
+        <v>177600</v>
       </c>
       <c r="E26" s="3">
-        <v>102300</v>
+        <v>290300</v>
       </c>
       <c r="F26" s="3">
-        <v>169400</v>
+        <v>106600</v>
       </c>
       <c r="G26" s="3">
-        <v>176500</v>
+        <v>176400</v>
       </c>
       <c r="H26" s="3">
-        <v>611700</v>
+        <v>183700</v>
       </c>
       <c r="I26" s="3">
-        <v>68200</v>
+        <v>637000</v>
       </c>
       <c r="J26" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K26" s="3">
         <v>61200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>270300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>353700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>226000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>233900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>299800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>194100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>214300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>160400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>125600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>65700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>281200</v>
+        <v>176400</v>
       </c>
       <c r="E27" s="3">
-        <v>103500</v>
+        <v>292800</v>
       </c>
       <c r="F27" s="3">
-        <v>172900</v>
+        <v>107800</v>
       </c>
       <c r="G27" s="3">
-        <v>178800</v>
+        <v>180100</v>
       </c>
       <c r="H27" s="3">
-        <v>611700</v>
+        <v>186200</v>
       </c>
       <c r="I27" s="3">
-        <v>82300</v>
+        <v>637000</v>
       </c>
       <c r="J27" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K27" s="3">
         <v>69400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>277500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>359600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>237000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>242700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>195200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>214300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>163800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>133800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>106800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>34100</v>
+        <v>44100</v>
       </c>
       <c r="E32" s="3">
-        <v>35300</v>
+        <v>35500</v>
       </c>
       <c r="F32" s="3">
-        <v>42400</v>
+        <v>36700</v>
       </c>
       <c r="G32" s="3">
-        <v>62300</v>
+        <v>44100</v>
       </c>
       <c r="H32" s="3">
-        <v>40000</v>
+        <v>64900</v>
       </c>
       <c r="I32" s="3">
-        <v>64700</v>
+        <v>41600</v>
       </c>
       <c r="J32" s="3">
+        <v>67400</v>
+      </c>
+      <c r="K32" s="3">
         <v>57600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>37100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>48500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>64200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>65900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>30300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>51600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>67300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>34000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>81000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>281200</v>
+        <v>176400</v>
       </c>
       <c r="E33" s="3">
-        <v>103500</v>
+        <v>292800</v>
       </c>
       <c r="F33" s="3">
-        <v>172900</v>
+        <v>107800</v>
       </c>
       <c r="G33" s="3">
-        <v>178800</v>
+        <v>180100</v>
       </c>
       <c r="H33" s="3">
-        <v>611700</v>
+        <v>186200</v>
       </c>
       <c r="I33" s="3">
-        <v>82300</v>
+        <v>637000</v>
       </c>
       <c r="J33" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K33" s="3">
         <v>69400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>277500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>359600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>237000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>242700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>195200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>214300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>163800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>133800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>106800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>281200</v>
+        <v>176400</v>
       </c>
       <c r="E35" s="3">
-        <v>103500</v>
+        <v>292800</v>
       </c>
       <c r="F35" s="3">
-        <v>172900</v>
+        <v>107800</v>
       </c>
       <c r="G35" s="3">
-        <v>178800</v>
+        <v>180100</v>
       </c>
       <c r="H35" s="3">
-        <v>611700</v>
+        <v>186200</v>
       </c>
       <c r="I35" s="3">
-        <v>82300</v>
+        <v>637000</v>
       </c>
       <c r="J35" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K35" s="3">
         <v>69400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>277500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>359600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>237000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>242700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>195200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>214300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>163800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>133800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>106800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1954000</v>
+        <v>1554500</v>
       </c>
       <c r="E41" s="3">
-        <v>1604600</v>
+        <v>2034700</v>
       </c>
       <c r="F41" s="3">
-        <v>1249300</v>
+        <v>1670900</v>
       </c>
       <c r="G41" s="3">
-        <v>889400</v>
+        <v>1300900</v>
       </c>
       <c r="H41" s="3">
-        <v>1030500</v>
+        <v>926100</v>
       </c>
       <c r="I41" s="3">
-        <v>838800</v>
+        <v>1073100</v>
       </c>
       <c r="J41" s="3">
+        <v>873400</v>
+      </c>
+      <c r="K41" s="3">
         <v>979900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1463000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1336700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1113100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>690600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>754300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>681000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>469000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>559900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1094000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1118600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,155 +2608,164 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1364600</v>
+        <v>1646400</v>
       </c>
       <c r="E43" s="3">
-        <v>1392900</v>
+        <v>1421000</v>
       </c>
       <c r="F43" s="3">
-        <v>1435200</v>
+        <v>1450400</v>
       </c>
       <c r="G43" s="3">
-        <v>1507000</v>
+        <v>1494500</v>
       </c>
       <c r="H43" s="3">
-        <v>1532800</v>
+        <v>1569200</v>
       </c>
       <c r="I43" s="3">
-        <v>1568100</v>
+        <v>1596200</v>
       </c>
       <c r="J43" s="3">
+        <v>1632900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1765800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1897200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1834700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1680200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1681000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1631600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1579800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1576400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1580900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1618700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1558800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1494000</v>
+        <v>1645200</v>
       </c>
       <c r="E44" s="3">
-        <v>1531700</v>
+        <v>1555700</v>
       </c>
       <c r="F44" s="3">
-        <v>1604600</v>
+        <v>1594900</v>
       </c>
       <c r="G44" s="3">
-        <v>1643400</v>
+        <v>1670900</v>
       </c>
       <c r="H44" s="3">
-        <v>1636400</v>
+        <v>1711300</v>
       </c>
       <c r="I44" s="3">
-        <v>1787000</v>
+        <v>1704000</v>
       </c>
       <c r="J44" s="3">
+        <v>1860800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1832800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1992900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1853600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1664700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1559200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1592100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1482100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1493400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1515800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1687900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1579900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>75300</v>
+        <v>7300</v>
       </c>
       <c r="E45" s="3">
+        <v>78400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>20800</v>
+      </c>
+      <c r="G45" s="3">
+        <v>29400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>12200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>24500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="K45" s="3">
         <v>20000</v>
       </c>
-      <c r="F45" s="3">
-        <v>28200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>11800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>23500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>12900</v>
-      </c>
-      <c r="J45" s="3">
-        <v>20000</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>25100</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
@@ -2677,8 +2776,8 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2695,244 +2794,259 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4887900</v>
+        <v>4853400</v>
       </c>
       <c r="E46" s="3">
-        <v>4549100</v>
+        <v>5089800</v>
       </c>
       <c r="F46" s="3">
-        <v>4317400</v>
+        <v>4737000</v>
       </c>
       <c r="G46" s="3">
-        <v>4051500</v>
+        <v>4495700</v>
       </c>
       <c r="H46" s="3">
-        <v>4223300</v>
+        <v>4218900</v>
       </c>
       <c r="I46" s="3">
-        <v>4206800</v>
+        <v>4397700</v>
       </c>
       <c r="J46" s="3">
+        <v>4380600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4598500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5378100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5025000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4458100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3930800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3978100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3743000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3538800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3656600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4400600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4257400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1136400</v>
+        <v>1193100</v>
       </c>
       <c r="E47" s="3">
-        <v>1082300</v>
+        <v>1183300</v>
       </c>
       <c r="F47" s="3">
-        <v>1027000</v>
+        <v>1127000</v>
       </c>
       <c r="G47" s="3">
-        <v>970500</v>
+        <v>1069400</v>
       </c>
       <c r="H47" s="3">
-        <v>1285800</v>
+        <v>1010600</v>
       </c>
       <c r="I47" s="3">
-        <v>1372900</v>
+        <v>1338900</v>
       </c>
       <c r="J47" s="3">
+        <v>1429600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1271700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2598100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2623700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2372500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2127900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2109300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2237200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2186800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2076800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2217300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2225500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13780300</v>
+        <v>14081300</v>
       </c>
       <c r="E48" s="3">
-        <v>11368700</v>
+        <v>14349500</v>
       </c>
       <c r="F48" s="3">
-        <v>11514600</v>
+        <v>11838300</v>
       </c>
       <c r="G48" s="3">
-        <v>11194600</v>
+        <v>11990200</v>
       </c>
       <c r="H48" s="3">
-        <v>11464000</v>
+        <v>11657000</v>
       </c>
       <c r="I48" s="3">
-        <v>10637000</v>
+        <v>11937500</v>
       </c>
       <c r="J48" s="3">
+        <v>11076400</v>
+      </c>
+      <c r="K48" s="3">
         <v>10686400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7542000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6731900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6154900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6126800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6149900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6460400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6440200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6509800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7095700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7160200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>530600</v>
+        <v>652900</v>
       </c>
       <c r="E49" s="3">
-        <v>555300</v>
+        <v>552500</v>
       </c>
       <c r="F49" s="3">
-        <v>575300</v>
+        <v>578200</v>
       </c>
       <c r="G49" s="3">
+        <v>599000</v>
+      </c>
+      <c r="H49" s="3">
+        <v>656600</v>
+      </c>
+      <c r="I49" s="3">
+        <v>622300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>635800</v>
+      </c>
+      <c r="K49" s="3">
         <v>630600</v>
       </c>
-      <c r="H49" s="3">
-        <v>597600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>610600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>630600</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>590900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>618700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>569300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>565500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>557800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>536300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>476800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>490300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>521200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>507100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>170600</v>
+        <v>192300</v>
       </c>
       <c r="E52" s="3">
-        <v>152900</v>
+        <v>177600</v>
       </c>
       <c r="F52" s="3">
-        <v>178800</v>
+        <v>159200</v>
       </c>
       <c r="G52" s="3">
-        <v>162300</v>
+        <v>186200</v>
       </c>
       <c r="H52" s="3">
-        <v>137600</v>
+        <v>169000</v>
       </c>
       <c r="I52" s="3">
-        <v>150600</v>
+        <v>143300</v>
       </c>
       <c r="J52" s="3">
+        <v>156800</v>
+      </c>
+      <c r="K52" s="3">
         <v>155300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>168700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>199900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>139600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>175700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>186700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>228900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>226600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>270400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>301700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>318100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20505800</v>
+        <v>20973100</v>
       </c>
       <c r="E54" s="3">
-        <v>17708300</v>
+        <v>21352800</v>
       </c>
       <c r="F54" s="3">
-        <v>17613100</v>
+        <v>18439800</v>
       </c>
       <c r="G54" s="3">
-        <v>17009600</v>
+        <v>18340600</v>
       </c>
       <c r="H54" s="3">
-        <v>17708300</v>
+        <v>17712100</v>
       </c>
       <c r="I54" s="3">
-        <v>16977800</v>
+        <v>18439800</v>
       </c>
       <c r="J54" s="3">
+        <v>17679100</v>
+      </c>
+      <c r="K54" s="3">
         <v>17342500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16277900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15199100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13694400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12926800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12981700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13205800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12869200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13003900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>14536500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14468400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,303 +3462,321 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1048200</v>
+        <v>648000</v>
       </c>
       <c r="E58" s="3">
-        <v>563500</v>
+        <v>1091500</v>
       </c>
       <c r="F58" s="3">
-        <v>322300</v>
+        <v>586800</v>
       </c>
       <c r="G58" s="3">
-        <v>414100</v>
+        <v>335600</v>
       </c>
       <c r="H58" s="3">
-        <v>1064600</v>
+        <v>431200</v>
       </c>
       <c r="I58" s="3">
-        <v>412900</v>
+        <v>1108600</v>
       </c>
       <c r="J58" s="3">
+        <v>430000</v>
+      </c>
+      <c r="K58" s="3">
         <v>424700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>385200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>477900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>494000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>428200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>457900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1088300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1067000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1128700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1629200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1313500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2357500</v>
+        <v>3040400</v>
       </c>
       <c r="E59" s="3">
-        <v>2739800</v>
+        <v>2454900</v>
       </c>
       <c r="F59" s="3">
-        <v>2682200</v>
+        <v>2853000</v>
       </c>
       <c r="G59" s="3">
-        <v>3042200</v>
+        <v>2793000</v>
       </c>
       <c r="H59" s="3">
-        <v>2366900</v>
+        <v>3167800</v>
       </c>
       <c r="I59" s="3">
-        <v>2855100</v>
+        <v>2464700</v>
       </c>
       <c r="J59" s="3">
+        <v>2973100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2977500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3314700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3244700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2825500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2747200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2742800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2236100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2022900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2008400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2225500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2195000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3405700</v>
+        <v>3688400</v>
       </c>
       <c r="E60" s="3">
-        <v>3303300</v>
+        <v>3546300</v>
       </c>
       <c r="F60" s="3">
-        <v>3004500</v>
+        <v>3439800</v>
       </c>
       <c r="G60" s="3">
-        <v>3456300</v>
+        <v>3128600</v>
       </c>
       <c r="H60" s="3">
-        <v>3431600</v>
+        <v>3599000</v>
       </c>
       <c r="I60" s="3">
-        <v>3268000</v>
+        <v>3573300</v>
       </c>
       <c r="J60" s="3">
+        <v>3403000</v>
+      </c>
+      <c r="K60" s="3">
         <v>3402100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3699800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3722600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3319500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3175400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3200700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3324500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3090000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3137100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3854800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3508500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4496200</v>
+        <v>4435700</v>
       </c>
       <c r="E61" s="3">
-        <v>4079800</v>
+        <v>4681900</v>
       </c>
       <c r="F61" s="3">
-        <v>4251500</v>
+        <v>4248300</v>
       </c>
       <c r="G61" s="3">
-        <v>3698600</v>
+        <v>4427100</v>
       </c>
       <c r="H61" s="3">
-        <v>3802100</v>
+        <v>3851400</v>
       </c>
       <c r="I61" s="3">
-        <v>4126800</v>
+        <v>3959200</v>
       </c>
       <c r="J61" s="3">
+        <v>4297300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4497400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3942700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2679300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2484300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2375000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2269600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2295600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2347200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2597400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2739700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3116500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2259900</v>
+        <v>2197600</v>
       </c>
       <c r="E62" s="3">
-        <v>1821100</v>
+        <v>2353200</v>
       </c>
       <c r="F62" s="3">
-        <v>1850500</v>
+        <v>1896300</v>
       </c>
       <c r="G62" s="3">
-        <v>1612800</v>
+        <v>1926900</v>
       </c>
       <c r="H62" s="3">
-        <v>1742200</v>
+        <v>1679500</v>
       </c>
       <c r="I62" s="3">
-        <v>1516400</v>
+        <v>1814200</v>
       </c>
       <c r="J62" s="3">
+        <v>1579000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1534000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>818200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>833900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>736600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>699400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>717000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>792100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>871800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>916700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>936700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>955500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10142900</v>
+        <v>10304600</v>
       </c>
       <c r="E66" s="3">
-        <v>9187700</v>
+        <v>10561900</v>
       </c>
       <c r="F66" s="3">
-        <v>9091200</v>
+        <v>9567200</v>
       </c>
       <c r="G66" s="3">
-        <v>8754800</v>
+        <v>9466700</v>
       </c>
       <c r="H66" s="3">
-        <v>8967700</v>
+        <v>9116400</v>
       </c>
       <c r="I66" s="3">
-        <v>8890100</v>
+        <v>9338100</v>
       </c>
       <c r="J66" s="3">
+        <v>9257200</v>
+      </c>
+      <c r="K66" s="3">
         <v>9434700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8476300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7257100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6565900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6291500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6237700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6464900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6362800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6707300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7594600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7653200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8261900</v>
+        <v>6717800</v>
       </c>
       <c r="E72" s="3">
-        <v>6271400</v>
+        <v>8603100</v>
       </c>
       <c r="F72" s="3">
-        <v>6185500</v>
+        <v>6530400</v>
       </c>
       <c r="G72" s="3">
-        <v>6212600</v>
+        <v>6441000</v>
       </c>
       <c r="H72" s="3">
-        <v>6485500</v>
+        <v>6469200</v>
       </c>
       <c r="I72" s="3">
-        <v>5486700</v>
+        <v>6753400</v>
       </c>
       <c r="J72" s="3">
+        <v>5713400</v>
+      </c>
+      <c r="K72" s="3">
         <v>5409100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5428400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5567900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>4893400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4618200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4729100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4526100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4275900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4057100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4415900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4284400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10362900</v>
+        <v>10668400</v>
       </c>
       <c r="E76" s="3">
-        <v>8520700</v>
+        <v>10790900</v>
       </c>
       <c r="F76" s="3">
-        <v>8521800</v>
+        <v>8872600</v>
       </c>
       <c r="G76" s="3">
-        <v>8254800</v>
+        <v>8873800</v>
       </c>
       <c r="H76" s="3">
-        <v>8740700</v>
+        <v>8595800</v>
       </c>
       <c r="I76" s="3">
-        <v>8087800</v>
+        <v>9101700</v>
       </c>
       <c r="J76" s="3">
+        <v>8421800</v>
+      </c>
+      <c r="K76" s="3">
         <v>7907800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7801600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7942000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7128500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6635200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6743900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6740900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6506400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6296600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6941900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6815100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>281200</v>
+        <v>176400</v>
       </c>
       <c r="E81" s="3">
-        <v>103500</v>
+        <v>292800</v>
       </c>
       <c r="F81" s="3">
-        <v>172900</v>
+        <v>107800</v>
       </c>
       <c r="G81" s="3">
-        <v>178800</v>
+        <v>180100</v>
       </c>
       <c r="H81" s="3">
-        <v>611700</v>
+        <v>186200</v>
       </c>
       <c r="I81" s="3">
-        <v>82300</v>
+        <v>637000</v>
       </c>
       <c r="J81" s="3">
+        <v>85700</v>
+      </c>
+      <c r="K81" s="3">
         <v>69400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>277500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>359600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>237000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>242700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>195200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>214300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>163800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>133800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>106800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>449400</v>
+        <v>175200</v>
       </c>
       <c r="E89" s="3">
-        <v>451700</v>
+        <v>467900</v>
       </c>
       <c r="F89" s="3">
-        <v>342300</v>
+        <v>470400</v>
       </c>
       <c r="G89" s="3">
-        <v>83500</v>
+        <v>356500</v>
       </c>
       <c r="H89" s="3">
-        <v>758800</v>
+        <v>87000</v>
       </c>
       <c r="I89" s="3">
-        <v>503500</v>
+        <v>790100</v>
       </c>
       <c r="J89" s="3">
+        <v>524300</v>
+      </c>
+      <c r="K89" s="3">
         <v>544700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>148300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>322900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>451900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>312900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>138300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>529600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>408400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>317500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>97400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>489500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>434100</v>
+        <v>-235200</v>
       </c>
       <c r="E91" s="3">
-        <v>-172900</v>
+        <v>452000</v>
       </c>
       <c r="F91" s="3">
-        <v>-145900</v>
+        <v>-180100</v>
       </c>
       <c r="G91" s="3">
-        <v>-208200</v>
+        <v>-151900</v>
       </c>
       <c r="H91" s="3">
-        <v>361200</v>
+        <v>-216800</v>
       </c>
       <c r="I91" s="3">
-        <v>-165900</v>
+        <v>376100</v>
       </c>
       <c r="J91" s="3">
+        <v>-172700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-141200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-147100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>339500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-142900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-137300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-127400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>360200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-154800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-143600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-158500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-258200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-252900</v>
+        <v>-117600</v>
       </c>
       <c r="E94" s="3">
-        <v>-172900</v>
+        <v>-263400</v>
       </c>
       <c r="F94" s="3">
-        <v>-141200</v>
+        <v>-180100</v>
       </c>
       <c r="G94" s="3">
-        <v>-234100</v>
+        <v>-147000</v>
       </c>
       <c r="H94" s="3">
-        <v>-251700</v>
+        <v>-243800</v>
       </c>
       <c r="I94" s="3">
-        <v>-185900</v>
+        <v>-262100</v>
       </c>
       <c r="J94" s="3">
+        <v>-193500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-682300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-149500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-197500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-152800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-94400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-116400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-304100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-218800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-140200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-123300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-77500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,22 +5549,23 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-123500</v>
+        <v>-254800</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-128600</v>
       </c>
       <c r="F96" s="3">
-        <v>-138800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-144500</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -5343,11 +5577,11 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-471300</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>158800</v>
+        <v>-530400</v>
       </c>
       <c r="E100" s="3">
-        <v>71800</v>
+        <v>165400</v>
       </c>
       <c r="F100" s="3">
-        <v>161200</v>
+        <v>74700</v>
       </c>
       <c r="G100" s="3">
-        <v>24700</v>
+        <v>167800</v>
       </c>
       <c r="H100" s="3">
-        <v>-304700</v>
+        <v>25700</v>
       </c>
       <c r="I100" s="3">
-        <v>-471700</v>
+        <v>-317300</v>
       </c>
       <c r="J100" s="3">
+        <v>-491200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-324700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>95700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>45000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>111900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-294300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>61500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-278300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-640700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-219500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3500</v>
+        <v>-1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-4700</v>
+        <v>-3700</v>
       </c>
       <c r="F101" s="3">
-        <v>-1200</v>
+        <v>-4900</v>
       </c>
       <c r="G101" s="3">
         <v>-1200</v>
       </c>
       <c r="H101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I101" s="3">
         <v>1200</v>
       </c>
-      <c r="I101" s="3">
-        <v>5900</v>
-      </c>
       <c r="J101" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>17900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-18000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>11700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>351700</v>
+        <v>-474100</v>
       </c>
       <c r="E102" s="3">
-        <v>345900</v>
+        <v>366300</v>
       </c>
       <c r="F102" s="3">
-        <v>361200</v>
+        <v>360100</v>
       </c>
       <c r="G102" s="3">
-        <v>-127100</v>
+        <v>376100</v>
       </c>
       <c r="H102" s="3">
-        <v>198800</v>
+        <v>-132300</v>
       </c>
       <c r="I102" s="3">
-        <v>-156500</v>
+        <v>207000</v>
       </c>
       <c r="J102" s="3">
+        <v>-162900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-464700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>112400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>172700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>402100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-69200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>87800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>213200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-92000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-481300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-29300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>204200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2788100</v>
+        <v>3025900</v>
       </c>
       <c r="E8" s="3">
-        <v>2637400</v>
+        <v>2657000</v>
       </c>
       <c r="F8" s="3">
-        <v>2546800</v>
+        <v>2513400</v>
       </c>
       <c r="G8" s="3">
-        <v>2589600</v>
+        <v>2427000</v>
       </c>
       <c r="H8" s="3">
-        <v>2703600</v>
+        <v>2467900</v>
       </c>
       <c r="I8" s="3">
-        <v>2953500</v>
+        <v>2576500</v>
       </c>
       <c r="J8" s="3">
+        <v>2814600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2942400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3068100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3152000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3144100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2863100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2925100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2831700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2817300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2815100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2836400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2931000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2861700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2284600</v>
+        <v>2409500</v>
       </c>
       <c r="E9" s="3">
-        <v>2294400</v>
+        <v>2177200</v>
       </c>
       <c r="F9" s="3">
-        <v>2129000</v>
+        <v>2186600</v>
       </c>
       <c r="G9" s="3">
-        <v>2158400</v>
+        <v>2029000</v>
       </c>
       <c r="H9" s="3">
-        <v>2240500</v>
+        <v>2057000</v>
       </c>
       <c r="I9" s="3">
-        <v>2566400</v>
+        <v>2135200</v>
       </c>
       <c r="J9" s="3">
+        <v>2445700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2424300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2503400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2512000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2572800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2225200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2333300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2179500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1934300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1910700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1950000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2019000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2006000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>503500</v>
+        <v>616400</v>
       </c>
       <c r="E10" s="3">
-        <v>343000</v>
+        <v>479800</v>
       </c>
       <c r="F10" s="3">
-        <v>417700</v>
+        <v>326900</v>
       </c>
       <c r="G10" s="3">
-        <v>431200</v>
+        <v>398100</v>
       </c>
       <c r="H10" s="3">
-        <v>463000</v>
+        <v>410900</v>
       </c>
       <c r="I10" s="3">
-        <v>387100</v>
+        <v>441300</v>
       </c>
       <c r="J10" s="3">
+        <v>368900</v>
+      </c>
+      <c r="K10" s="3">
         <v>518200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>564700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>640000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>571300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>638000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>591800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>652200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>883000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>904300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>886400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>912100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>855700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,52 +1104,55 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>132300</v>
+        <v>44400</v>
       </c>
       <c r="E14" s="3">
-        <v>-257200</v>
+        <v>126100</v>
       </c>
       <c r="F14" s="3">
-        <v>17100</v>
+        <v>-245200</v>
       </c>
       <c r="G14" s="3">
-        <v>-78400</v>
+        <v>16300</v>
       </c>
       <c r="H14" s="3">
-        <v>-143300</v>
+        <v>-74700</v>
       </c>
       <c r="I14" s="3">
-        <v>-539000</v>
+        <v>-136600</v>
       </c>
       <c r="J14" s="3">
+        <v>-513700</v>
+      </c>
+      <c r="K14" s="3">
         <v>36700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>20100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>22200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>15400</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>22400</v>
       </c>
       <c r="R14" s="3">
         <v>22400</v>
@@ -1141,78 +1161,84 @@
         <v>22400</v>
       </c>
       <c r="T14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="U14" s="3">
         <v>14100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>237100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>170300</v>
+        <v>157600</v>
       </c>
       <c r="E15" s="3">
-        <v>183700</v>
+        <v>162300</v>
       </c>
       <c r="F15" s="3">
-        <v>165400</v>
+        <v>175100</v>
       </c>
       <c r="G15" s="3">
-        <v>166600</v>
+        <v>157600</v>
       </c>
       <c r="H15" s="3">
-        <v>169000</v>
+        <v>158800</v>
       </c>
       <c r="I15" s="3">
-        <v>180100</v>
+        <v>161100</v>
       </c>
       <c r="J15" s="3">
+        <v>171600</v>
+      </c>
+      <c r="K15" s="3">
         <v>160500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>157600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>159100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>134900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>135100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>132900</v>
       </c>
       <c r="P15" s="3">
         <v>132900</v>
       </c>
       <c r="Q15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="R15" s="3">
         <v>145900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>139100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>133500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>166700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>71600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2590900</v>
+        <v>2813500</v>
       </c>
       <c r="E17" s="3">
-        <v>2283400</v>
+        <v>2469100</v>
       </c>
       <c r="F17" s="3">
-        <v>2369100</v>
+        <v>2176100</v>
       </c>
       <c r="G17" s="3">
-        <v>2312800</v>
+        <v>2257800</v>
       </c>
       <c r="H17" s="3">
-        <v>2382600</v>
+        <v>2204100</v>
       </c>
       <c r="I17" s="3">
-        <v>2119200</v>
+        <v>2270600</v>
       </c>
       <c r="J17" s="3">
+        <v>2019600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2734200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2901000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2777600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2723000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2461100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2577000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2442000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2552500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2512100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2606400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2704500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2691500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>197200</v>
+        <v>212500</v>
       </c>
       <c r="E18" s="3">
-        <v>354000</v>
+        <v>188000</v>
       </c>
       <c r="F18" s="3">
-        <v>177600</v>
+        <v>337400</v>
       </c>
       <c r="G18" s="3">
-        <v>276800</v>
+        <v>169300</v>
       </c>
       <c r="H18" s="3">
-        <v>320900</v>
+        <v>263800</v>
       </c>
       <c r="I18" s="3">
-        <v>834200</v>
+        <v>305900</v>
       </c>
       <c r="J18" s="3">
+        <v>795000</v>
+      </c>
+      <c r="K18" s="3">
         <v>208200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>167000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>374400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>421100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>402100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>348100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>389800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>264800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>302900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>230000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>226500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>170200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-44100</v>
+        <v>-35000</v>
       </c>
       <c r="E20" s="3">
-        <v>-35500</v>
+        <v>-42000</v>
       </c>
       <c r="F20" s="3">
-        <v>-36700</v>
+        <v>-33900</v>
       </c>
       <c r="G20" s="3">
-        <v>-44100</v>
+        <v>-35000</v>
       </c>
       <c r="H20" s="3">
-        <v>-64900</v>
+        <v>-42000</v>
       </c>
       <c r="I20" s="3">
-        <v>-41600</v>
+        <v>-61900</v>
       </c>
       <c r="J20" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-67400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-57600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-37100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-48500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-64200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-65900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-30300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-51600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-67300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-34000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-81000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>323400</v>
+        <v>172800</v>
       </c>
       <c r="E21" s="3">
-        <v>899100</v>
+        <v>308200</v>
       </c>
       <c r="F21" s="3">
-        <v>139600</v>
+        <v>856900</v>
       </c>
       <c r="G21" s="3">
-        <v>230300</v>
+        <v>133100</v>
       </c>
       <c r="H21" s="3">
-        <v>425100</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
+        <v>219500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>405100</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>110600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>496400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>363200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>338900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>282200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>498500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>241200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>256900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>136900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>359200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>403800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>153100</v>
+        <v>177400</v>
       </c>
       <c r="E23" s="3">
-        <v>318500</v>
+        <v>145900</v>
       </c>
       <c r="F23" s="3">
+        <v>303500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>134300</v>
+      </c>
+      <c r="H23" s="3">
+        <v>221800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>244000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>755300</v>
+      </c>
+      <c r="K23" s="3">
         <v>140900</v>
       </c>
-      <c r="G23" s="3">
-        <v>232700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>256000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>792600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>140900</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>109400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>337300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>372600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>337800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>282200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>365600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>234500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>251300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>162700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>192500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>89200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-24500</v>
+        <v>-65400</v>
       </c>
       <c r="E24" s="3">
-        <v>28200</v>
+        <v>-23300</v>
       </c>
       <c r="F24" s="3">
-        <v>34300</v>
+        <v>26900</v>
       </c>
       <c r="G24" s="3">
-        <v>56300</v>
+        <v>32700</v>
       </c>
       <c r="H24" s="3">
-        <v>72300</v>
+        <v>53700</v>
       </c>
       <c r="I24" s="3">
-        <v>155600</v>
+        <v>68900</v>
       </c>
       <c r="J24" s="3">
+        <v>148300</v>
+      </c>
+      <c r="K24" s="3">
         <v>69800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>48200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>111900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>48300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>65900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>40400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>37000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>66900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>23500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>177600</v>
+        <v>242800</v>
       </c>
       <c r="E26" s="3">
-        <v>290300</v>
+        <v>169300</v>
       </c>
       <c r="F26" s="3">
-        <v>106600</v>
+        <v>276700</v>
       </c>
       <c r="G26" s="3">
-        <v>176400</v>
+        <v>101600</v>
       </c>
       <c r="H26" s="3">
-        <v>183700</v>
+        <v>168100</v>
       </c>
       <c r="I26" s="3">
-        <v>637000</v>
+        <v>175100</v>
       </c>
       <c r="J26" s="3">
+        <v>607100</v>
+      </c>
+      <c r="K26" s="3">
         <v>71000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>61200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>270300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>353700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>226000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>233900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>299800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>194100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>214300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>160400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>125600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>65700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>176400</v>
+        <v>241700</v>
       </c>
       <c r="E27" s="3">
-        <v>292800</v>
+        <v>168100</v>
       </c>
       <c r="F27" s="3">
-        <v>107800</v>
+        <v>279000</v>
       </c>
       <c r="G27" s="3">
-        <v>180100</v>
+        <v>102700</v>
       </c>
       <c r="H27" s="3">
-        <v>186200</v>
+        <v>171600</v>
       </c>
       <c r="I27" s="3">
-        <v>637000</v>
+        <v>177400</v>
       </c>
       <c r="J27" s="3">
+        <v>607100</v>
+      </c>
+      <c r="K27" s="3">
         <v>85700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>69400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>277500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>359600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>237000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>242700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>195200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>214300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>163800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>133800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>106800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>44100</v>
+        <v>35000</v>
       </c>
       <c r="E32" s="3">
-        <v>35500</v>
+        <v>42000</v>
       </c>
       <c r="F32" s="3">
-        <v>36700</v>
+        <v>33900</v>
       </c>
       <c r="G32" s="3">
-        <v>44100</v>
+        <v>35000</v>
       </c>
       <c r="H32" s="3">
-        <v>64900</v>
+        <v>42000</v>
       </c>
       <c r="I32" s="3">
-        <v>41600</v>
+        <v>61900</v>
       </c>
       <c r="J32" s="3">
+        <v>39700</v>
+      </c>
+      <c r="K32" s="3">
         <v>67400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>57600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>37100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>48500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>64200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>65900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>30300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>51600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>67300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>34000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>81000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>176400</v>
+        <v>241700</v>
       </c>
       <c r="E33" s="3">
-        <v>292800</v>
+        <v>168100</v>
       </c>
       <c r="F33" s="3">
-        <v>107800</v>
+        <v>279000</v>
       </c>
       <c r="G33" s="3">
-        <v>180100</v>
+        <v>102700</v>
       </c>
       <c r="H33" s="3">
-        <v>186200</v>
+        <v>171600</v>
       </c>
       <c r="I33" s="3">
-        <v>637000</v>
+        <v>177400</v>
       </c>
       <c r="J33" s="3">
+        <v>607100</v>
+      </c>
+      <c r="K33" s="3">
         <v>85700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>69400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>277500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>359600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>237000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>242700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>195200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>214300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>163800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>133800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>106800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>176400</v>
+        <v>241700</v>
       </c>
       <c r="E35" s="3">
-        <v>292800</v>
+        <v>168100</v>
       </c>
       <c r="F35" s="3">
-        <v>107800</v>
+        <v>279000</v>
       </c>
       <c r="G35" s="3">
-        <v>180100</v>
+        <v>102700</v>
       </c>
       <c r="H35" s="3">
-        <v>186200</v>
+        <v>171600</v>
       </c>
       <c r="I35" s="3">
-        <v>637000</v>
+        <v>177400</v>
       </c>
       <c r="J35" s="3">
+        <v>607100</v>
+      </c>
+      <c r="K35" s="3">
         <v>85700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>69400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>277500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>359600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>237000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>242700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>195200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>214300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>163800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>133800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>106800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1554500</v>
+        <v>1532800</v>
       </c>
       <c r="E41" s="3">
-        <v>2034700</v>
+        <v>1481400</v>
       </c>
       <c r="F41" s="3">
-        <v>1670900</v>
+        <v>1939100</v>
       </c>
       <c r="G41" s="3">
-        <v>1300900</v>
+        <v>1592300</v>
       </c>
       <c r="H41" s="3">
-        <v>926100</v>
+        <v>1239800</v>
       </c>
       <c r="I41" s="3">
-        <v>1073100</v>
+        <v>882600</v>
       </c>
       <c r="J41" s="3">
+        <v>1022700</v>
+      </c>
+      <c r="K41" s="3">
         <v>873400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>979900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1463000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1336700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1113100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>690600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>754300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>681000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>469000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>559900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1094000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1118600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,164 +2701,173 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1646400</v>
+        <v>1723100</v>
       </c>
       <c r="E43" s="3">
-        <v>1421000</v>
+        <v>1569000</v>
       </c>
       <c r="F43" s="3">
-        <v>1450400</v>
+        <v>1354200</v>
       </c>
       <c r="G43" s="3">
-        <v>1494500</v>
+        <v>1382200</v>
       </c>
       <c r="H43" s="3">
-        <v>1569200</v>
+        <v>1424200</v>
       </c>
       <c r="I43" s="3">
-        <v>1596200</v>
+        <v>1495500</v>
       </c>
       <c r="J43" s="3">
+        <v>1521100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1632900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1765800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1897200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1834700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1680200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1681000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1631600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1579800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1576400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1580900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1618700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1558800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1645200</v>
+        <v>1562000</v>
       </c>
       <c r="E44" s="3">
-        <v>1555700</v>
+        <v>1567800</v>
       </c>
       <c r="F44" s="3">
-        <v>1594900</v>
+        <v>1482600</v>
       </c>
       <c r="G44" s="3">
-        <v>1670900</v>
+        <v>1520000</v>
       </c>
       <c r="H44" s="3">
-        <v>1711300</v>
+        <v>1592300</v>
       </c>
       <c r="I44" s="3">
-        <v>1704000</v>
+        <v>1630900</v>
       </c>
       <c r="J44" s="3">
+        <v>1623900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1860800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1832800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1992900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1853600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1664700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1559200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1592100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1482100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1493400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1515800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1687900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1579900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7300</v>
+        <v>9300</v>
       </c>
       <c r="E45" s="3">
-        <v>78400</v>
+        <v>7000</v>
       </c>
       <c r="F45" s="3">
-        <v>20800</v>
+        <v>74700</v>
       </c>
       <c r="G45" s="3">
-        <v>29400</v>
+        <v>19800</v>
       </c>
       <c r="H45" s="3">
-        <v>12200</v>
+        <v>28000</v>
       </c>
       <c r="I45" s="3">
-        <v>24500</v>
+        <v>11700</v>
       </c>
       <c r="J45" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K45" s="3">
         <v>13500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25100</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
@@ -2779,8 +2878,8 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2797,256 +2896,271 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4853400</v>
+        <v>4827200</v>
       </c>
       <c r="E46" s="3">
-        <v>5089800</v>
+        <v>4625300</v>
       </c>
       <c r="F46" s="3">
-        <v>4737000</v>
+        <v>4850600</v>
       </c>
       <c r="G46" s="3">
-        <v>4495700</v>
+        <v>4514400</v>
       </c>
       <c r="H46" s="3">
-        <v>4218900</v>
+        <v>4284400</v>
       </c>
       <c r="I46" s="3">
-        <v>4397700</v>
+        <v>4020600</v>
       </c>
       <c r="J46" s="3">
+        <v>4191000</v>
+      </c>
+      <c r="K46" s="3">
         <v>4380600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4598500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5378100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5025000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4458100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3930800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3978100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3743000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3538800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3656600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4400600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4257400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1193100</v>
+        <v>1209400</v>
       </c>
       <c r="E47" s="3">
-        <v>1183300</v>
+        <v>1137100</v>
       </c>
       <c r="F47" s="3">
-        <v>1127000</v>
+        <v>1127700</v>
       </c>
       <c r="G47" s="3">
-        <v>1069400</v>
+        <v>1074000</v>
       </c>
       <c r="H47" s="3">
-        <v>1010600</v>
+        <v>1019100</v>
       </c>
       <c r="I47" s="3">
-        <v>1338900</v>
+        <v>963100</v>
       </c>
       <c r="J47" s="3">
+        <v>1276000</v>
+      </c>
+      <c r="K47" s="3">
         <v>1429600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1271700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2598100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2623700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2372500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2127900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2109300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2237200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2186800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2076800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2217300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2225500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>14081300</v>
+        <v>13650500</v>
       </c>
       <c r="E48" s="3">
-        <v>14349500</v>
+        <v>13419400</v>
       </c>
       <c r="F48" s="3">
-        <v>11838300</v>
+        <v>13675000</v>
       </c>
       <c r="G48" s="3">
-        <v>11990200</v>
+        <v>11281900</v>
       </c>
       <c r="H48" s="3">
-        <v>11657000</v>
+        <v>11426600</v>
       </c>
       <c r="I48" s="3">
-        <v>11937500</v>
+        <v>11109100</v>
       </c>
       <c r="J48" s="3">
+        <v>11376400</v>
+      </c>
+      <c r="K48" s="3">
         <v>11076400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10686400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7542000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6731900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6154900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6126800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6149900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6460400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6440200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6509800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7095700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7160200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>652900</v>
+        <v>617600</v>
       </c>
       <c r="E49" s="3">
-        <v>552500</v>
+        <v>622200</v>
       </c>
       <c r="F49" s="3">
-        <v>578200</v>
+        <v>526500</v>
       </c>
       <c r="G49" s="3">
-        <v>599000</v>
+        <v>551000</v>
       </c>
       <c r="H49" s="3">
-        <v>656600</v>
+        <v>570900</v>
       </c>
       <c r="I49" s="3">
-        <v>622300</v>
+        <v>625700</v>
       </c>
       <c r="J49" s="3">
+        <v>593000</v>
+      </c>
+      <c r="K49" s="3">
         <v>635800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>630600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>590900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>618700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>569300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>565500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>557800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>536300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>476800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>490300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>521200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>507100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>192300</v>
+        <v>252200</v>
       </c>
       <c r="E52" s="3">
-        <v>177600</v>
+        <v>183300</v>
       </c>
       <c r="F52" s="3">
-        <v>159200</v>
+        <v>169300</v>
       </c>
       <c r="G52" s="3">
-        <v>186200</v>
+        <v>151800</v>
       </c>
       <c r="H52" s="3">
-        <v>169000</v>
+        <v>177400</v>
       </c>
       <c r="I52" s="3">
-        <v>143300</v>
+        <v>161100</v>
       </c>
       <c r="J52" s="3">
+        <v>136600</v>
+      </c>
+      <c r="K52" s="3">
         <v>156800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>155300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>168700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>199900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>139600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>175700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>186700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>228900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>226600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>270400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>301700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>318100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20973100</v>
+        <v>20556900</v>
       </c>
       <c r="E54" s="3">
-        <v>21352800</v>
+        <v>19987200</v>
       </c>
       <c r="F54" s="3">
-        <v>18439800</v>
+        <v>20349100</v>
       </c>
       <c r="G54" s="3">
-        <v>18340600</v>
+        <v>17573000</v>
       </c>
       <c r="H54" s="3">
-        <v>17712100</v>
+        <v>17478500</v>
       </c>
       <c r="I54" s="3">
-        <v>18439800</v>
+        <v>16879600</v>
       </c>
       <c r="J54" s="3">
+        <v>17573000</v>
+      </c>
+      <c r="K54" s="3">
         <v>17679100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17342500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16277900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15199100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13694400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12926800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12981700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13205800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12869200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13003900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>14536500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14468400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,318 +3596,336 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>648000</v>
+        <v>586000</v>
       </c>
       <c r="E58" s="3">
-        <v>1091500</v>
+        <v>617600</v>
       </c>
       <c r="F58" s="3">
-        <v>586800</v>
+        <v>1040200</v>
       </c>
       <c r="G58" s="3">
-        <v>335600</v>
+        <v>559200</v>
       </c>
       <c r="H58" s="3">
-        <v>431200</v>
+        <v>319900</v>
       </c>
       <c r="I58" s="3">
-        <v>1108600</v>
+        <v>410900</v>
       </c>
       <c r="J58" s="3">
+        <v>1056500</v>
+      </c>
+      <c r="K58" s="3">
         <v>430000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>424700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>385200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>477900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>494000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>428200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>457900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1088300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1067000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1128700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1629200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1313500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3040400</v>
+        <v>2980400</v>
       </c>
       <c r="E59" s="3">
-        <v>2454900</v>
+        <v>2897500</v>
       </c>
       <c r="F59" s="3">
-        <v>2853000</v>
+        <v>2339500</v>
       </c>
       <c r="G59" s="3">
-        <v>2793000</v>
+        <v>2718900</v>
       </c>
       <c r="H59" s="3">
-        <v>3167800</v>
+        <v>2661700</v>
       </c>
       <c r="I59" s="3">
-        <v>2464700</v>
+        <v>3018900</v>
       </c>
       <c r="J59" s="3">
+        <v>2348800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2973100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2977500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3314700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3244700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2825500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2747200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2742800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2236100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2022900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2008400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2225500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2195000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3688400</v>
+        <v>3566400</v>
       </c>
       <c r="E60" s="3">
-        <v>3546300</v>
+        <v>3515100</v>
       </c>
       <c r="F60" s="3">
-        <v>3439800</v>
+        <v>3379700</v>
       </c>
       <c r="G60" s="3">
-        <v>3128600</v>
+        <v>3278100</v>
       </c>
       <c r="H60" s="3">
-        <v>3599000</v>
+        <v>2981600</v>
       </c>
       <c r="I60" s="3">
-        <v>3573300</v>
+        <v>3429900</v>
       </c>
       <c r="J60" s="3">
+        <v>3405300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3403000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3402100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3699800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3722600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3319500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3175400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3200700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3324500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3090000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3137100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3854800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3508500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4435700</v>
+        <v>4109300</v>
       </c>
       <c r="E61" s="3">
-        <v>4681900</v>
+        <v>4227200</v>
       </c>
       <c r="F61" s="3">
-        <v>4248300</v>
+        <v>4461800</v>
       </c>
       <c r="G61" s="3">
-        <v>4427100</v>
+        <v>4048600</v>
       </c>
       <c r="H61" s="3">
-        <v>3851400</v>
+        <v>4219000</v>
       </c>
       <c r="I61" s="3">
-        <v>3959200</v>
+        <v>3670300</v>
       </c>
       <c r="J61" s="3">
+        <v>3773100</v>
+      </c>
+      <c r="K61" s="3">
         <v>4297300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4497400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3942700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2679300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2484300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2375000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2269600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2295600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2347200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2597400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2739700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3116500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2197600</v>
+        <v>2148000</v>
       </c>
       <c r="E62" s="3">
-        <v>2353200</v>
+        <v>2094300</v>
       </c>
       <c r="F62" s="3">
-        <v>1896300</v>
+        <v>2242600</v>
       </c>
       <c r="G62" s="3">
-        <v>1926900</v>
+        <v>1807200</v>
       </c>
       <c r="H62" s="3">
-        <v>1679500</v>
+        <v>1836300</v>
       </c>
       <c r="I62" s="3">
-        <v>1814200</v>
+        <v>1600500</v>
       </c>
       <c r="J62" s="3">
+        <v>1728900</v>
+      </c>
+      <c r="K62" s="3">
         <v>1579000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1534000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>818200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>833900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>736600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>699400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>717000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>792100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>871800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>916700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>936700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>955500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>10304600</v>
+        <v>9808600</v>
       </c>
       <c r="E66" s="3">
-        <v>10561900</v>
+        <v>9820300</v>
       </c>
       <c r="F66" s="3">
-        <v>9567200</v>
+        <v>10065400</v>
       </c>
       <c r="G66" s="3">
-        <v>9466700</v>
+        <v>9117500</v>
       </c>
       <c r="H66" s="3">
-        <v>9116400</v>
+        <v>9021700</v>
       </c>
       <c r="I66" s="3">
-        <v>9338100</v>
+        <v>8687900</v>
       </c>
       <c r="J66" s="3">
+        <v>8899200</v>
+      </c>
+      <c r="K66" s="3">
         <v>9257200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9434700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8476300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7257100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6565900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6291500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6237700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6464900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6362800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6707300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7594600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7653200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6717800</v>
+        <v>6682300</v>
       </c>
       <c r="E72" s="3">
-        <v>8603100</v>
+        <v>6402100</v>
       </c>
       <c r="F72" s="3">
-        <v>6530400</v>
+        <v>8198700</v>
       </c>
       <c r="G72" s="3">
-        <v>6441000</v>
+        <v>6223500</v>
       </c>
       <c r="H72" s="3">
-        <v>6469200</v>
+        <v>6138200</v>
       </c>
       <c r="I72" s="3">
-        <v>6753400</v>
+        <v>6165100</v>
       </c>
       <c r="J72" s="3">
+        <v>6435900</v>
+      </c>
+      <c r="K72" s="3">
         <v>5713400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5409100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5428400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5567900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>4893400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4618200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4729100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4526100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4275900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4057100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4415900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4284400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10668400</v>
+        <v>10748300</v>
       </c>
       <c r="E76" s="3">
-        <v>10790900</v>
+        <v>10167000</v>
       </c>
       <c r="F76" s="3">
-        <v>8872600</v>
+        <v>10283700</v>
       </c>
       <c r="G76" s="3">
-        <v>8873800</v>
+        <v>8455600</v>
       </c>
       <c r="H76" s="3">
-        <v>8595800</v>
+        <v>8456700</v>
       </c>
       <c r="I76" s="3">
-        <v>9101700</v>
+        <v>8191700</v>
       </c>
       <c r="J76" s="3">
+        <v>8673900</v>
+      </c>
+      <c r="K76" s="3">
         <v>8421800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7907800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7801600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7942000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7128500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6635200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6743900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6740900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6506400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6296600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6941900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6815100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>176400</v>
+        <v>241700</v>
       </c>
       <c r="E81" s="3">
-        <v>292800</v>
+        <v>168100</v>
       </c>
       <c r="F81" s="3">
-        <v>107800</v>
+        <v>279000</v>
       </c>
       <c r="G81" s="3">
-        <v>180100</v>
+        <v>102700</v>
       </c>
       <c r="H81" s="3">
-        <v>186200</v>
+        <v>171600</v>
       </c>
       <c r="I81" s="3">
-        <v>637000</v>
+        <v>177400</v>
       </c>
       <c r="J81" s="3">
+        <v>607100</v>
+      </c>
+      <c r="K81" s="3">
         <v>85700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>69400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>277500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>359600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>237000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>242700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>195200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>214300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>163800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>133800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>106800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>175200</v>
+        <v>431900</v>
       </c>
       <c r="E89" s="3">
-        <v>467900</v>
+        <v>166900</v>
       </c>
       <c r="F89" s="3">
-        <v>470400</v>
+        <v>446000</v>
       </c>
       <c r="G89" s="3">
-        <v>356500</v>
+        <v>448300</v>
       </c>
       <c r="H89" s="3">
-        <v>87000</v>
+        <v>339700</v>
       </c>
       <c r="I89" s="3">
-        <v>790100</v>
+        <v>82900</v>
       </c>
       <c r="J89" s="3">
+        <v>753000</v>
+      </c>
+      <c r="K89" s="3">
         <v>524300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>544700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>148300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>322900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>451900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>312900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>138300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>529600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>408400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>317500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>97400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>489500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-235200</v>
+        <v>-142400</v>
       </c>
       <c r="E91" s="3">
-        <v>452000</v>
+        <v>-224100</v>
       </c>
       <c r="F91" s="3">
-        <v>-180100</v>
+        <v>430800</v>
       </c>
       <c r="G91" s="3">
-        <v>-151900</v>
+        <v>-171600</v>
       </c>
       <c r="H91" s="3">
-        <v>-216800</v>
+        <v>-144800</v>
       </c>
       <c r="I91" s="3">
-        <v>376100</v>
+        <v>-206600</v>
       </c>
       <c r="J91" s="3">
+        <v>358400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-172700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-141200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-147100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>339500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-142900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-137300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-127400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>360200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-154800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-143600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-158500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-258200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-117600</v>
+        <v>-143600</v>
       </c>
       <c r="E94" s="3">
-        <v>-263400</v>
+        <v>-112100</v>
       </c>
       <c r="F94" s="3">
-        <v>-180100</v>
+        <v>-251000</v>
       </c>
       <c r="G94" s="3">
-        <v>-147000</v>
+        <v>-171600</v>
       </c>
       <c r="H94" s="3">
-        <v>-243800</v>
+        <v>-140100</v>
       </c>
       <c r="I94" s="3">
-        <v>-262100</v>
+        <v>-232300</v>
       </c>
       <c r="J94" s="3">
+        <v>-249800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-193500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-682300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-149500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-197500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-152800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-94400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-116400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-304100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-218800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-140200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-123300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-77500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,25 +5783,26 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-254800</v>
+        <v>-33900</v>
       </c>
       <c r="E96" s="3">
-        <v>-128600</v>
+        <v>-242800</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-122600</v>
       </c>
       <c r="G96" s="3">
-        <v>-144500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-137800</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -5580,11 +5814,11 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-471300</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-530400</v>
+        <v>-240500</v>
       </c>
       <c r="E100" s="3">
-        <v>165400</v>
+        <v>-505500</v>
       </c>
       <c r="F100" s="3">
-        <v>74700</v>
+        <v>157600</v>
       </c>
       <c r="G100" s="3">
-        <v>167800</v>
+        <v>71200</v>
       </c>
       <c r="H100" s="3">
-        <v>25700</v>
+        <v>159900</v>
       </c>
       <c r="I100" s="3">
-        <v>-317300</v>
+        <v>24500</v>
       </c>
       <c r="J100" s="3">
+        <v>-302400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-491200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-324700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>95700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>45000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>111900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-294300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>61500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-278300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-640700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-219500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-3700</v>
-      </c>
       <c r="F101" s="3">
-        <v>-4900</v>
+        <v>-3500</v>
       </c>
       <c r="G101" s="3">
-        <v>-1200</v>
+        <v>-4700</v>
       </c>
       <c r="H101" s="3">
         <v>-1200</v>
       </c>
       <c r="I101" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J101" s="3">
         <v>1200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>6100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>17900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-6700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-18000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-474100</v>
+        <v>52500</v>
       </c>
       <c r="E102" s="3">
-        <v>366300</v>
+        <v>-451800</v>
       </c>
       <c r="F102" s="3">
-        <v>360100</v>
+        <v>349100</v>
       </c>
       <c r="G102" s="3">
-        <v>376100</v>
+        <v>343200</v>
       </c>
       <c r="H102" s="3">
-        <v>-132300</v>
+        <v>358400</v>
       </c>
       <c r="I102" s="3">
-        <v>207000</v>
+        <v>-126100</v>
       </c>
       <c r="J102" s="3">
+        <v>197300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-162900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-464700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>112400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>172700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>402100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-69200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>87800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>213200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-92000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-481300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-29300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>204200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3025900</v>
+        <v>2909700</v>
       </c>
       <c r="E8" s="3">
-        <v>2657000</v>
+        <v>2926600</v>
       </c>
       <c r="F8" s="3">
-        <v>2513400</v>
+        <v>2569800</v>
       </c>
       <c r="G8" s="3">
-        <v>2427000</v>
+        <v>2431000</v>
       </c>
       <c r="H8" s="3">
-        <v>2467900</v>
+        <v>2347400</v>
       </c>
       <c r="I8" s="3">
-        <v>2576500</v>
+        <v>2386900</v>
       </c>
       <c r="J8" s="3">
+        <v>2491900</v>
+      </c>
+      <c r="K8" s="3">
         <v>2814600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2942400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3068100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3152000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3144100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2863100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2925100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2831700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2817300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2815100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2836400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2931000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2861700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2409500</v>
+        <v>2286400</v>
       </c>
       <c r="E9" s="3">
-        <v>2177200</v>
+        <v>2330500</v>
       </c>
       <c r="F9" s="3">
-        <v>2186600</v>
+        <v>2105800</v>
       </c>
       <c r="G9" s="3">
-        <v>2029000</v>
+        <v>2114800</v>
       </c>
       <c r="H9" s="3">
-        <v>2057000</v>
+        <v>1962400</v>
       </c>
       <c r="I9" s="3">
-        <v>2135200</v>
+        <v>1989500</v>
       </c>
       <c r="J9" s="3">
+        <v>2065100</v>
+      </c>
+      <c r="K9" s="3">
         <v>2445700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2424300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2503400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2512000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2572800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2225200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2333300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2179500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1934300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1910700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1950000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2019000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2006000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>616400</v>
+        <v>623300</v>
       </c>
       <c r="E10" s="3">
-        <v>479800</v>
+        <v>596200</v>
       </c>
       <c r="F10" s="3">
-        <v>326900</v>
+        <v>464100</v>
       </c>
       <c r="G10" s="3">
-        <v>398100</v>
+        <v>316100</v>
       </c>
       <c r="H10" s="3">
-        <v>410900</v>
+        <v>385000</v>
       </c>
       <c r="I10" s="3">
-        <v>441300</v>
+        <v>397400</v>
       </c>
       <c r="J10" s="3">
+        <v>426800</v>
+      </c>
+      <c r="K10" s="3">
         <v>368900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>518200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>564700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>640000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>571300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>638000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>591800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>652200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>883000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>904300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>886400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>912100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>855700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,55 +1124,58 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>44400</v>
+        <v>-6800</v>
       </c>
       <c r="E14" s="3">
-        <v>126100</v>
+        <v>42900</v>
       </c>
       <c r="F14" s="3">
-        <v>-245200</v>
+        <v>121900</v>
       </c>
       <c r="G14" s="3">
-        <v>16300</v>
+        <v>-237100</v>
       </c>
       <c r="H14" s="3">
-        <v>-74700</v>
+        <v>15800</v>
       </c>
       <c r="I14" s="3">
-        <v>-136600</v>
+        <v>-72300</v>
       </c>
       <c r="J14" s="3">
+        <v>-132100</v>
+      </c>
+      <c r="K14" s="3">
         <v>-513700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>36700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>19100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>20100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>22200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15400</v>
-      </c>
-      <c r="R14" s="3">
-        <v>22400</v>
       </c>
       <c r="S14" s="3">
         <v>22400</v>
@@ -1164,81 +1184,87 @@
         <v>22400</v>
       </c>
       <c r="U14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="V14" s="3">
         <v>14100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>237100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>153600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>152400</v>
+      </c>
+      <c r="F15" s="3">
+        <v>156900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>169400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>152400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>153600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>155800</v>
+      </c>
+      <c r="K15" s="3">
+        <v>171600</v>
+      </c>
+      <c r="L15" s="3">
+        <v>160500</v>
+      </c>
+      <c r="M15" s="3">
         <v>157600</v>
       </c>
-      <c r="E15" s="3">
-        <v>162300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>175100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>157600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>158800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>161100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>171600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>160500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>157600</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>159100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>134900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>135100</v>
-      </c>
-      <c r="P15" s="3">
-        <v>132900</v>
       </c>
       <c r="Q15" s="3">
         <v>132900</v>
       </c>
       <c r="R15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="S15" s="3">
         <v>145900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>139100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>133500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>166700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>71600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2813500</v>
+        <v>2473900</v>
       </c>
       <c r="E17" s="3">
-        <v>2469100</v>
+        <v>2721100</v>
       </c>
       <c r="F17" s="3">
-        <v>2176100</v>
+        <v>2388000</v>
       </c>
       <c r="G17" s="3">
-        <v>2257800</v>
+        <v>2104600</v>
       </c>
       <c r="H17" s="3">
-        <v>2204100</v>
+        <v>2183700</v>
       </c>
       <c r="I17" s="3">
-        <v>2270600</v>
+        <v>2131700</v>
       </c>
       <c r="J17" s="3">
+        <v>2196100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2019600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2734200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2901000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2777600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2723000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2461100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2577000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2442000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2552500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2512100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2606400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2704500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2691500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>212500</v>
+        <v>435800</v>
       </c>
       <c r="E18" s="3">
-        <v>188000</v>
+        <v>205500</v>
       </c>
       <c r="F18" s="3">
-        <v>337400</v>
+        <v>181800</v>
       </c>
       <c r="G18" s="3">
-        <v>169300</v>
+        <v>326300</v>
       </c>
       <c r="H18" s="3">
-        <v>263800</v>
+        <v>163700</v>
       </c>
       <c r="I18" s="3">
-        <v>305900</v>
+        <v>255200</v>
       </c>
       <c r="J18" s="3">
+        <v>295800</v>
+      </c>
+      <c r="K18" s="3">
         <v>795000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>208200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>167000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>374400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>421100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>402100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>348100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>389800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>264800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>302900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>230000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>226500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>170200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-35000</v>
+        <v>-41800</v>
       </c>
       <c r="E20" s="3">
-        <v>-42000</v>
+        <v>-33900</v>
       </c>
       <c r="F20" s="3">
+        <v>-40600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-33900</v>
       </c>
-      <c r="G20" s="3">
-        <v>-35000</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-42000</v>
-      </c>
       <c r="I20" s="3">
-        <v>-61900</v>
+        <v>-40600</v>
       </c>
       <c r="J20" s="3">
+        <v>-59800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-39700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-67400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-57600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-37100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-48500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-64200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-65900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-30300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-51600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-67300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-34000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-81000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>172800</v>
+        <v>395200</v>
       </c>
       <c r="E21" s="3">
-        <v>308200</v>
+        <v>167100</v>
       </c>
       <c r="F21" s="3">
-        <v>856900</v>
+        <v>298100</v>
       </c>
       <c r="G21" s="3">
-        <v>133100</v>
+        <v>828800</v>
       </c>
       <c r="H21" s="3">
-        <v>219500</v>
+        <v>128700</v>
       </c>
       <c r="I21" s="3">
-        <v>405100</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>212300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>391800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>110600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>496400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>363200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>338900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>282200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>498500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>241200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>256900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>136900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>359200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>403800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>177400</v>
+        <v>394100</v>
       </c>
       <c r="E23" s="3">
-        <v>145900</v>
+        <v>171600</v>
       </c>
       <c r="F23" s="3">
-        <v>303500</v>
+        <v>141100</v>
       </c>
       <c r="G23" s="3">
-        <v>134300</v>
+        <v>293600</v>
       </c>
       <c r="H23" s="3">
-        <v>221800</v>
+        <v>129800</v>
       </c>
       <c r="I23" s="3">
-        <v>244000</v>
+        <v>214500</v>
       </c>
       <c r="J23" s="3">
+        <v>236000</v>
+      </c>
+      <c r="K23" s="3">
         <v>755300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>140900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>109400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>337300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>372600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>337800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>282200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>365600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>234500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>251300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>162700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>192500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>89200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-65400</v>
+        <v>56500</v>
       </c>
       <c r="E24" s="3">
-        <v>-23300</v>
+        <v>-63200</v>
       </c>
       <c r="F24" s="3">
-        <v>26900</v>
+        <v>-22600</v>
       </c>
       <c r="G24" s="3">
-        <v>32700</v>
+        <v>26000</v>
       </c>
       <c r="H24" s="3">
-        <v>53700</v>
+        <v>31600</v>
       </c>
       <c r="I24" s="3">
-        <v>68900</v>
+        <v>51900</v>
       </c>
       <c r="J24" s="3">
+        <v>66600</v>
+      </c>
+      <c r="K24" s="3">
         <v>148300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>69800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>48200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>111900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>48300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>65900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>40400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>37000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>66900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>242800</v>
+        <v>337600</v>
       </c>
       <c r="E26" s="3">
-        <v>169300</v>
+        <v>234900</v>
       </c>
       <c r="F26" s="3">
-        <v>276700</v>
+        <v>163700</v>
       </c>
       <c r="G26" s="3">
-        <v>101600</v>
+        <v>267600</v>
       </c>
       <c r="H26" s="3">
-        <v>168100</v>
+        <v>98200</v>
       </c>
       <c r="I26" s="3">
-        <v>175100</v>
+        <v>162600</v>
       </c>
       <c r="J26" s="3">
+        <v>169400</v>
+      </c>
+      <c r="K26" s="3">
         <v>607100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>71000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>61200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>270300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>353700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>226000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>233900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>299800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>194100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>214300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>160400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>125600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>65700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>241700</v>
+        <v>339900</v>
       </c>
       <c r="E27" s="3">
-        <v>168100</v>
+        <v>232600</v>
       </c>
       <c r="F27" s="3">
-        <v>279000</v>
+        <v>162600</v>
       </c>
       <c r="G27" s="3">
-        <v>102700</v>
+        <v>269900</v>
       </c>
       <c r="H27" s="3">
+        <v>99400</v>
+      </c>
+      <c r="I27" s="3">
+        <v>166000</v>
+      </c>
+      <c r="J27" s="3">
         <v>171600</v>
       </c>
-      <c r="I27" s="3">
-        <v>177400</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>607100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>85700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>69400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>277500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>359600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>237000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>242700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>195200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>214300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>163800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>133800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>106800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>35000</v>
+        <v>41800</v>
       </c>
       <c r="E32" s="3">
-        <v>42000</v>
+        <v>33900</v>
       </c>
       <c r="F32" s="3">
+        <v>40600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>32700</v>
+      </c>
+      <c r="H32" s="3">
         <v>33900</v>
       </c>
-      <c r="G32" s="3">
-        <v>35000</v>
-      </c>
-      <c r="H32" s="3">
-        <v>42000</v>
-      </c>
       <c r="I32" s="3">
-        <v>61900</v>
+        <v>40600</v>
       </c>
       <c r="J32" s="3">
+        <v>59800</v>
+      </c>
+      <c r="K32" s="3">
         <v>39700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>67400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>57600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>37100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>48500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>64200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>65900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>30300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>51600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>67300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>34000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>81000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>241700</v>
+        <v>339900</v>
       </c>
       <c r="E33" s="3">
-        <v>168100</v>
+        <v>232600</v>
       </c>
       <c r="F33" s="3">
-        <v>279000</v>
+        <v>162600</v>
       </c>
       <c r="G33" s="3">
-        <v>102700</v>
+        <v>269900</v>
       </c>
       <c r="H33" s="3">
+        <v>99400</v>
+      </c>
+      <c r="I33" s="3">
+        <v>166000</v>
+      </c>
+      <c r="J33" s="3">
         <v>171600</v>
       </c>
-      <c r="I33" s="3">
-        <v>177400</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>607100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>85700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>69400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>277500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>359600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>237000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>242700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>195200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>214300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>163800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>133800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>106800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>241700</v>
+        <v>339900</v>
       </c>
       <c r="E35" s="3">
-        <v>168100</v>
+        <v>232600</v>
       </c>
       <c r="F35" s="3">
-        <v>279000</v>
+        <v>162600</v>
       </c>
       <c r="G35" s="3">
-        <v>102700</v>
+        <v>269900</v>
       </c>
       <c r="H35" s="3">
+        <v>99400</v>
+      </c>
+      <c r="I35" s="3">
+        <v>166000</v>
+      </c>
+      <c r="J35" s="3">
         <v>171600</v>
       </c>
-      <c r="I35" s="3">
-        <v>177400</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>607100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>85700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>69400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>277500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>359600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>237000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>242700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>195200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>214300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>163800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>133800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>106800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1532800</v>
+        <v>1436200</v>
       </c>
       <c r="E41" s="3">
-        <v>1481400</v>
+        <v>1482500</v>
       </c>
       <c r="F41" s="3">
-        <v>1939100</v>
+        <v>1432800</v>
       </c>
       <c r="G41" s="3">
-        <v>1592300</v>
+        <v>1875400</v>
       </c>
       <c r="H41" s="3">
-        <v>1239800</v>
+        <v>1540100</v>
       </c>
       <c r="I41" s="3">
-        <v>882600</v>
+        <v>1199100</v>
       </c>
       <c r="J41" s="3">
+        <v>853600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1022700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>873400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>979900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1463000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1336700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1113100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>690600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>754300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>681000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>469000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>559900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1094000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1118600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,173 +2794,182 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1723100</v>
+        <v>1667700</v>
       </c>
       <c r="E43" s="3">
-        <v>1569000</v>
+        <v>1666600</v>
       </c>
       <c r="F43" s="3">
-        <v>1354200</v>
+        <v>1517500</v>
       </c>
       <c r="G43" s="3">
-        <v>1382200</v>
+        <v>1309800</v>
       </c>
       <c r="H43" s="3">
-        <v>1424200</v>
+        <v>1336900</v>
       </c>
       <c r="I43" s="3">
-        <v>1495500</v>
+        <v>1377500</v>
       </c>
       <c r="J43" s="3">
+        <v>1446400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1521100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1632900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1765800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1897200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1834700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1680200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1681000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1631600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1579800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1576400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1580900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1618700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1558800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1562000</v>
+        <v>1657500</v>
       </c>
       <c r="E44" s="3">
-        <v>1567800</v>
+        <v>1510700</v>
       </c>
       <c r="F44" s="3">
-        <v>1482600</v>
+        <v>1516400</v>
       </c>
       <c r="G44" s="3">
-        <v>1520000</v>
+        <v>1434000</v>
       </c>
       <c r="H44" s="3">
-        <v>1592300</v>
+        <v>1470100</v>
       </c>
       <c r="I44" s="3">
-        <v>1630900</v>
+        <v>1540100</v>
       </c>
       <c r="J44" s="3">
+        <v>1577400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1623900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1860800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1832800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1992900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1853600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1664700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1559200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1592100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1482100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1493400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1515800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1687900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1579900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9300</v>
+        <v>5600</v>
       </c>
       <c r="E45" s="3">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="F45" s="3">
-        <v>74700</v>
+        <v>6800</v>
       </c>
       <c r="G45" s="3">
-        <v>19800</v>
+        <v>72300</v>
       </c>
       <c r="H45" s="3">
-        <v>28000</v>
+        <v>19200</v>
       </c>
       <c r="I45" s="3">
-        <v>11700</v>
+        <v>27100</v>
       </c>
       <c r="J45" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K45" s="3">
         <v>23300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25100</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
@@ -2881,8 +2980,8 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2899,268 +2998,283 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4827200</v>
+        <v>4767100</v>
       </c>
       <c r="E46" s="3">
-        <v>4625300</v>
+        <v>4668800</v>
       </c>
       <c r="F46" s="3">
-        <v>4850600</v>
+        <v>4473500</v>
       </c>
       <c r="G46" s="3">
-        <v>4514400</v>
+        <v>4691400</v>
       </c>
       <c r="H46" s="3">
-        <v>4284400</v>
+        <v>4366200</v>
       </c>
       <c r="I46" s="3">
-        <v>4020600</v>
+        <v>4143800</v>
       </c>
       <c r="J46" s="3">
+        <v>3888600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4191000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4380600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4598500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5378100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5025000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4458100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3930800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3978100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3743000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3538800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3656600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4400600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4257400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1209400</v>
+        <v>1462200</v>
       </c>
       <c r="E47" s="3">
-        <v>1137100</v>
+        <v>1169700</v>
       </c>
       <c r="F47" s="3">
-        <v>1127700</v>
+        <v>1099700</v>
       </c>
       <c r="G47" s="3">
-        <v>1074000</v>
+        <v>1090700</v>
       </c>
       <c r="H47" s="3">
-        <v>1019100</v>
+        <v>1038800</v>
       </c>
       <c r="I47" s="3">
-        <v>963100</v>
+        <v>985700</v>
       </c>
       <c r="J47" s="3">
+        <v>931500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1276000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1429600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1271700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2598100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2623700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2372500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2127900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2109300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2237200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2186800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2076800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2217300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2225500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13650500</v>
+        <v>13177700</v>
       </c>
       <c r="E48" s="3">
-        <v>13419400</v>
+        <v>13202600</v>
       </c>
       <c r="F48" s="3">
-        <v>13675000</v>
+        <v>12979000</v>
       </c>
       <c r="G48" s="3">
-        <v>11281900</v>
+        <v>13226300</v>
       </c>
       <c r="H48" s="3">
-        <v>11426600</v>
+        <v>10911600</v>
       </c>
       <c r="I48" s="3">
-        <v>11109100</v>
+        <v>11051600</v>
       </c>
       <c r="J48" s="3">
+        <v>10744500</v>
+      </c>
+      <c r="K48" s="3">
         <v>11376400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11076400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10686400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7542000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6731900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6154900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6126800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6149900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6460400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6440200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6509800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7095700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7160200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>617600</v>
+        <v>616500</v>
       </c>
       <c r="E49" s="3">
-        <v>622200</v>
+        <v>597300</v>
       </c>
       <c r="F49" s="3">
-        <v>526500</v>
+        <v>601800</v>
       </c>
       <c r="G49" s="3">
-        <v>551000</v>
+        <v>509200</v>
       </c>
       <c r="H49" s="3">
-        <v>570900</v>
+        <v>532900</v>
       </c>
       <c r="I49" s="3">
-        <v>625700</v>
+        <v>552100</v>
       </c>
       <c r="J49" s="3">
+        <v>605200</v>
+      </c>
+      <c r="K49" s="3">
         <v>593000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>635800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>630600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>590900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>618700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>569300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>565500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>557800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>536300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>476800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>490300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>521200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>507100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>252200</v>
+        <v>212300</v>
       </c>
       <c r="E52" s="3">
-        <v>183300</v>
+        <v>243900</v>
       </c>
       <c r="F52" s="3">
-        <v>169300</v>
+        <v>177300</v>
       </c>
       <c r="G52" s="3">
-        <v>151800</v>
+        <v>163700</v>
       </c>
       <c r="H52" s="3">
-        <v>177400</v>
+        <v>146800</v>
       </c>
       <c r="I52" s="3">
-        <v>161100</v>
+        <v>171600</v>
       </c>
       <c r="J52" s="3">
+        <v>155800</v>
+      </c>
+      <c r="K52" s="3">
         <v>136600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>156800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>155300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>168700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>199900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>139600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>175700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>186700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>228900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>226600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>270400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>301700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>318100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20556900</v>
+        <v>20235700</v>
       </c>
       <c r="E54" s="3">
-        <v>19987200</v>
+        <v>19882300</v>
       </c>
       <c r="F54" s="3">
-        <v>20349100</v>
+        <v>19331300</v>
       </c>
       <c r="G54" s="3">
+        <v>19681300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>16996300</v>
+      </c>
+      <c r="I54" s="3">
+        <v>16904900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>16325700</v>
+      </c>
+      <c r="K54" s="3">
         <v>17573000</v>
       </c>
-      <c r="H54" s="3">
-        <v>17478500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>16879600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>17573000</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17679100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17342500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16277900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15199100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>13694400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12926800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12981700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13205800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12869200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13003900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>14536500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14468400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3599,333 +3730,351 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>586000</v>
+        <v>621000</v>
       </c>
       <c r="E58" s="3">
-        <v>617600</v>
+        <v>974400</v>
       </c>
       <c r="F58" s="3">
-        <v>1040200</v>
+        <v>1073800</v>
       </c>
       <c r="G58" s="3">
-        <v>559200</v>
+        <v>1006000</v>
       </c>
       <c r="H58" s="3">
-        <v>319900</v>
+        <v>540800</v>
       </c>
       <c r="I58" s="3">
-        <v>410900</v>
+        <v>916800</v>
       </c>
       <c r="J58" s="3">
+        <v>397400</v>
+      </c>
+      <c r="K58" s="3">
         <v>1056500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>430000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>424700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>385200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>477900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>494000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>428200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>457900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1088300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1067000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1128700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1629200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1313500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2980400</v>
+        <v>2656800</v>
       </c>
       <c r="E59" s="3">
-        <v>2897500</v>
+        <v>2475000</v>
       </c>
       <c r="F59" s="3">
-        <v>2339500</v>
+        <v>2325900</v>
       </c>
       <c r="G59" s="3">
-        <v>2718900</v>
+        <v>2262700</v>
       </c>
       <c r="H59" s="3">
-        <v>2661700</v>
+        <v>2629700</v>
       </c>
       <c r="I59" s="3">
-        <v>3018900</v>
+        <v>1966900</v>
       </c>
       <c r="J59" s="3">
+        <v>2919900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2348800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2973100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2977500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3314700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3244700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2825500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2747200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2742800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2236100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2022900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2008400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2225500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2195000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3566400</v>
+        <v>3277800</v>
       </c>
       <c r="E60" s="3">
-        <v>3515100</v>
+        <v>3449400</v>
       </c>
       <c r="F60" s="3">
-        <v>3379700</v>
+        <v>3399700</v>
       </c>
       <c r="G60" s="3">
-        <v>3278100</v>
+        <v>3268700</v>
       </c>
       <c r="H60" s="3">
-        <v>2981600</v>
+        <v>3170500</v>
       </c>
       <c r="I60" s="3">
-        <v>3429900</v>
+        <v>2883700</v>
       </c>
       <c r="J60" s="3">
+        <v>3317300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3405300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3403000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3402100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3699800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3722600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3319500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3175400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3200700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3324500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3090000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3137100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3854800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3508500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4109300</v>
+        <v>3912300</v>
       </c>
       <c r="E61" s="3">
-        <v>4227200</v>
+        <v>3974400</v>
       </c>
       <c r="F61" s="3">
-        <v>4461800</v>
+        <v>4088500</v>
       </c>
       <c r="G61" s="3">
-        <v>4048600</v>
+        <v>4315400</v>
       </c>
       <c r="H61" s="3">
-        <v>4219000</v>
+        <v>3915700</v>
       </c>
       <c r="I61" s="3">
-        <v>3670300</v>
+        <v>4080600</v>
       </c>
       <c r="J61" s="3">
+        <v>3549900</v>
+      </c>
+      <c r="K61" s="3">
         <v>3773100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4297300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4497400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3942700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2679300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2484300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2375000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2269600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2295600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2347200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2597400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2739700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>3116500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2148000</v>
+        <v>2032400</v>
       </c>
       <c r="E62" s="3">
-        <v>2094300</v>
+        <v>2077500</v>
       </c>
       <c r="F62" s="3">
-        <v>2242600</v>
+        <v>2025600</v>
       </c>
       <c r="G62" s="3">
-        <v>1807200</v>
+        <v>2169000</v>
       </c>
       <c r="H62" s="3">
-        <v>1836300</v>
+        <v>1747800</v>
       </c>
       <c r="I62" s="3">
-        <v>1600500</v>
+        <v>1776100</v>
       </c>
       <c r="J62" s="3">
+        <v>1548000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1728900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1579000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1534000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>818200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>833900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>736600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>699400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>717000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>792100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>871800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>916700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>936700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>955500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9808600</v>
+        <v>9205600</v>
       </c>
       <c r="E66" s="3">
-        <v>9820300</v>
+        <v>9486700</v>
       </c>
       <c r="F66" s="3">
-        <v>10065400</v>
+        <v>9498000</v>
       </c>
       <c r="G66" s="3">
-        <v>9117500</v>
+        <v>9735100</v>
       </c>
       <c r="H66" s="3">
-        <v>9021700</v>
+        <v>8818300</v>
       </c>
       <c r="I66" s="3">
-        <v>8687900</v>
+        <v>8725700</v>
       </c>
       <c r="J66" s="3">
+        <v>8402800</v>
+      </c>
+      <c r="K66" s="3">
         <v>8899200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9257200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9434700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8476300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>7257100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6565900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6291500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6237700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6464900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6362800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6707300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7594600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7653200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6682300</v>
+        <v>6828800</v>
       </c>
       <c r="E72" s="3">
-        <v>6402100</v>
+        <v>6463000</v>
       </c>
       <c r="F72" s="3">
-        <v>8198700</v>
+        <v>6192000</v>
       </c>
       <c r="G72" s="3">
-        <v>6223500</v>
+        <v>7929700</v>
       </c>
       <c r="H72" s="3">
-        <v>6138200</v>
+        <v>6019200</v>
       </c>
       <c r="I72" s="3">
-        <v>6165100</v>
+        <v>5936800</v>
       </c>
       <c r="J72" s="3">
+        <v>5962800</v>
+      </c>
+      <c r="K72" s="3">
         <v>6435900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5713400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5409100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5428400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5567900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>4893400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4618200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4729100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4526100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4275900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4057100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4415900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4284400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>10748300</v>
+        <v>11030200</v>
       </c>
       <c r="E76" s="3">
-        <v>10167000</v>
+        <v>10395600</v>
       </c>
       <c r="F76" s="3">
-        <v>10283700</v>
+        <v>9833300</v>
       </c>
       <c r="G76" s="3">
-        <v>8455600</v>
+        <v>9946200</v>
       </c>
       <c r="H76" s="3">
-        <v>8456700</v>
+        <v>8178100</v>
       </c>
       <c r="I76" s="3">
-        <v>8191700</v>
+        <v>8179200</v>
       </c>
       <c r="J76" s="3">
+        <v>7922900</v>
+      </c>
+      <c r="K76" s="3">
         <v>8673900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8421800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7907800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7801600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7942000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7128500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6635200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6743900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6740900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6506400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6296600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6941900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6815100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>241700</v>
+        <v>339900</v>
       </c>
       <c r="E81" s="3">
-        <v>168100</v>
+        <v>232600</v>
       </c>
       <c r="F81" s="3">
-        <v>279000</v>
+        <v>162600</v>
       </c>
       <c r="G81" s="3">
-        <v>102700</v>
+        <v>269900</v>
       </c>
       <c r="H81" s="3">
+        <v>99400</v>
+      </c>
+      <c r="I81" s="3">
+        <v>166000</v>
+      </c>
+      <c r="J81" s="3">
         <v>171600</v>
       </c>
-      <c r="I81" s="3">
-        <v>177400</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>607100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>85700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>69400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>277500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>359600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>237000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>242700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>195200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>214300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>163800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>133800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>106800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>431900</v>
+        <v>500200</v>
       </c>
       <c r="E89" s="3">
-        <v>166900</v>
+        <v>417800</v>
       </c>
       <c r="F89" s="3">
-        <v>446000</v>
+        <v>161500</v>
       </c>
       <c r="G89" s="3">
-        <v>448300</v>
+        <v>431300</v>
       </c>
       <c r="H89" s="3">
-        <v>339700</v>
+        <v>433600</v>
       </c>
       <c r="I89" s="3">
-        <v>82900</v>
+        <v>328600</v>
       </c>
       <c r="J89" s="3">
+        <v>80200</v>
+      </c>
+      <c r="K89" s="3">
         <v>753000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>524300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>544700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>148300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>322900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>451900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>312900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>138300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>529600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>408400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>317500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>97400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>489500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-142400</v>
+        <v>-155800</v>
       </c>
       <c r="E91" s="3">
-        <v>-224100</v>
+        <v>-137800</v>
       </c>
       <c r="F91" s="3">
-        <v>430800</v>
+        <v>-216800</v>
       </c>
       <c r="G91" s="3">
-        <v>-171600</v>
+        <v>416600</v>
       </c>
       <c r="H91" s="3">
-        <v>-144800</v>
+        <v>-166000</v>
       </c>
       <c r="I91" s="3">
-        <v>-206600</v>
+        <v>-140000</v>
       </c>
       <c r="J91" s="3">
+        <v>-199900</v>
+      </c>
+      <c r="K91" s="3">
         <v>358400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-172700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-141200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-147100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>339500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-142900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-137300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-127400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>360200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-154800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-143600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-158500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-258200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-143600</v>
+        <v>-92600</v>
       </c>
       <c r="E94" s="3">
-        <v>-112100</v>
+        <v>-138900</v>
       </c>
       <c r="F94" s="3">
-        <v>-251000</v>
+        <v>-108400</v>
       </c>
       <c r="G94" s="3">
-        <v>-171600</v>
+        <v>-242800</v>
       </c>
       <c r="H94" s="3">
-        <v>-140100</v>
+        <v>-166000</v>
       </c>
       <c r="I94" s="3">
-        <v>-232300</v>
+        <v>-135500</v>
       </c>
       <c r="J94" s="3">
+        <v>-224700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-249800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-193500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-682300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-149500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-197500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-152800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-94400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-116400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-304100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-218800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-140200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-123300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-77500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,28 +6017,29 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-33900</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-242800</v>
+        <v>-32700</v>
       </c>
       <c r="F96" s="3">
-        <v>-122600</v>
+        <v>-234900</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-118600</v>
       </c>
       <c r="H96" s="3">
-        <v>-137800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-133200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -5817,11 +6051,11 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-471300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-240500</v>
+        <v>-453900</v>
       </c>
       <c r="E100" s="3">
-        <v>-505500</v>
+        <v>-232600</v>
       </c>
       <c r="F100" s="3">
-        <v>157600</v>
+        <v>-488900</v>
       </c>
       <c r="G100" s="3">
-        <v>71200</v>
+        <v>152400</v>
       </c>
       <c r="H100" s="3">
-        <v>159900</v>
+        <v>68900</v>
       </c>
       <c r="I100" s="3">
-        <v>24500</v>
+        <v>154700</v>
       </c>
       <c r="J100" s="3">
+        <v>23700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-302400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-491200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-324700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>95700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>45000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>111900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-294300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>61500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-278300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-640700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-219500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4700</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-1200</v>
+        <v>4500</v>
       </c>
       <c r="F101" s="3">
-        <v>-3500</v>
+        <v>-1100</v>
       </c>
       <c r="G101" s="3">
-        <v>-4700</v>
+        <v>-3400</v>
       </c>
       <c r="H101" s="3">
-        <v>-1200</v>
+        <v>-4500</v>
       </c>
       <c r="I101" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="J101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K101" s="3">
         <v>1200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-8900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-18000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>11700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>52500</v>
+        <v>-46300</v>
       </c>
       <c r="E102" s="3">
-        <v>-451800</v>
+        <v>50800</v>
       </c>
       <c r="F102" s="3">
-        <v>349100</v>
+        <v>-437000</v>
       </c>
       <c r="G102" s="3">
-        <v>343200</v>
+        <v>337600</v>
       </c>
       <c r="H102" s="3">
-        <v>358400</v>
+        <v>332000</v>
       </c>
       <c r="I102" s="3">
-        <v>-126100</v>
+        <v>346600</v>
       </c>
       <c r="J102" s="3">
+        <v>-121900</v>
+      </c>
+      <c r="K102" s="3">
         <v>197300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-162900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-464700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>112400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>172700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>402100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-69200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>87800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>213200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-92000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-481300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-29300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>204200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2909700</v>
+        <v>2966200</v>
       </c>
       <c r="E8" s="3">
-        <v>2926600</v>
+        <v>2811300</v>
       </c>
       <c r="F8" s="3">
-        <v>2569800</v>
+        <v>2827600</v>
       </c>
       <c r="G8" s="3">
-        <v>2431000</v>
+        <v>2482900</v>
       </c>
       <c r="H8" s="3">
-        <v>2347400</v>
+        <v>2348700</v>
       </c>
       <c r="I8" s="3">
-        <v>2386900</v>
+        <v>2268000</v>
       </c>
       <c r="J8" s="3">
+        <v>2306200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2491900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2814600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2942400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3068100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3152000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3144100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2863100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2925100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2831700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2817300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2815100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2836400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2931000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2861700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2286400</v>
+        <v>2344400</v>
       </c>
       <c r="E9" s="3">
-        <v>2330500</v>
+        <v>2209100</v>
       </c>
       <c r="F9" s="3">
-        <v>2105800</v>
+        <v>2251600</v>
       </c>
       <c r="G9" s="3">
-        <v>2114800</v>
+        <v>2034500</v>
       </c>
       <c r="H9" s="3">
-        <v>1962400</v>
+        <v>2043300</v>
       </c>
       <c r="I9" s="3">
-        <v>1989500</v>
+        <v>1896000</v>
       </c>
       <c r="J9" s="3">
+        <v>1922200</v>
+      </c>
+      <c r="K9" s="3">
         <v>2065100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2445700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2424300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2503400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2512000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2572800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2225200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2333300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2179500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1934300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1910700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1950000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2019000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2006000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>623300</v>
+        <v>621800</v>
       </c>
       <c r="E10" s="3">
-        <v>596200</v>
+        <v>602200</v>
       </c>
       <c r="F10" s="3">
-        <v>464100</v>
+        <v>576000</v>
       </c>
       <c r="G10" s="3">
-        <v>316100</v>
+        <v>448400</v>
       </c>
       <c r="H10" s="3">
-        <v>385000</v>
+        <v>305500</v>
       </c>
       <c r="I10" s="3">
-        <v>397400</v>
+        <v>372000</v>
       </c>
       <c r="J10" s="3">
+        <v>384000</v>
+      </c>
+      <c r="K10" s="3">
         <v>426800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>368900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>518200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>564700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>640000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>571300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>638000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>591800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>652200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>883000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>904300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>886400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>912100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>855700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,58 +1143,61 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-6800</v>
+        <v>-356700</v>
       </c>
       <c r="E14" s="3">
-        <v>42900</v>
+        <v>-6500</v>
       </c>
       <c r="F14" s="3">
-        <v>121900</v>
+        <v>41500</v>
       </c>
       <c r="G14" s="3">
-        <v>-237100</v>
+        <v>117800</v>
       </c>
       <c r="H14" s="3">
-        <v>15800</v>
+        <v>-229100</v>
       </c>
       <c r="I14" s="3">
-        <v>-72300</v>
+        <v>15300</v>
       </c>
       <c r="J14" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="K14" s="3">
         <v>-132100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-513700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>36700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>19100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>20100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>22200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>18700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15400</v>
-      </c>
-      <c r="S14" s="3">
-        <v>22400</v>
       </c>
       <c r="T14" s="3">
         <v>22400</v>
@@ -1187,84 +1206,90 @@
         <v>22400</v>
       </c>
       <c r="V14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="W14" s="3">
         <v>14100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>237100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>153600</v>
+        <v>159300</v>
       </c>
       <c r="E15" s="3">
-        <v>152400</v>
+        <v>148400</v>
       </c>
       <c r="F15" s="3">
-        <v>156900</v>
+        <v>147300</v>
       </c>
       <c r="G15" s="3">
-        <v>169400</v>
+        <v>151600</v>
       </c>
       <c r="H15" s="3">
-        <v>152400</v>
+        <v>163600</v>
       </c>
       <c r="I15" s="3">
-        <v>153600</v>
+        <v>147300</v>
       </c>
       <c r="J15" s="3">
+        <v>148400</v>
+      </c>
+      <c r="K15" s="3">
         <v>155800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>171600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>160500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>157600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>159100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>134900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>135100</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>132900</v>
       </c>
       <c r="R15" s="3">
         <v>132900</v>
       </c>
       <c r="S15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="T15" s="3">
         <v>145900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>139100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>133500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>166700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>71600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2473900</v>
+        <v>2050900</v>
       </c>
       <c r="E17" s="3">
-        <v>2721100</v>
+        <v>2390200</v>
       </c>
       <c r="F17" s="3">
-        <v>2388000</v>
+        <v>2629100</v>
       </c>
       <c r="G17" s="3">
-        <v>2104600</v>
+        <v>2307300</v>
       </c>
       <c r="H17" s="3">
-        <v>2183700</v>
+        <v>2033500</v>
       </c>
       <c r="I17" s="3">
-        <v>2131700</v>
+        <v>2109800</v>
       </c>
       <c r="J17" s="3">
+        <v>2059600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2196100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2019600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2734200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2901000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2777600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2723000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2461100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2577000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2442000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2552500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2512100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2606400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2704500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2691500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>435800</v>
+        <v>915300</v>
       </c>
       <c r="E18" s="3">
-        <v>205500</v>
+        <v>421100</v>
       </c>
       <c r="F18" s="3">
-        <v>181800</v>
+        <v>198500</v>
       </c>
       <c r="G18" s="3">
-        <v>326300</v>
+        <v>175600</v>
       </c>
       <c r="H18" s="3">
-        <v>163700</v>
+        <v>315300</v>
       </c>
       <c r="I18" s="3">
-        <v>255200</v>
+        <v>158200</v>
       </c>
       <c r="J18" s="3">
+        <v>246500</v>
+      </c>
+      <c r="K18" s="3">
         <v>295800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>795000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>208200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>167000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>374400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>421100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>402100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>348100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>389800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>264800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>302900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>230000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>226500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>170200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-41800</v>
+        <v>-50200</v>
       </c>
       <c r="E20" s="3">
-        <v>-33900</v>
+        <v>-40400</v>
       </c>
       <c r="F20" s="3">
-        <v>-40600</v>
+        <v>-32700</v>
       </c>
       <c r="G20" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="I20" s="3">
         <v>-32700</v>
       </c>
-      <c r="H20" s="3">
-        <v>-33900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-40600</v>
-      </c>
       <c r="J20" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-59800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-39700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-67400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-57600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-37100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-48500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-65900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-24200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-30300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-51600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-67300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-34000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-81000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>395200</v>
+        <v>1477100</v>
       </c>
       <c r="E21" s="3">
-        <v>167100</v>
+        <v>381800</v>
       </c>
       <c r="F21" s="3">
-        <v>298100</v>
+        <v>161500</v>
       </c>
       <c r="G21" s="3">
-        <v>828800</v>
+        <v>288000</v>
       </c>
       <c r="H21" s="3">
-        <v>128700</v>
+        <v>800700</v>
       </c>
       <c r="I21" s="3">
-        <v>212300</v>
+        <v>124400</v>
       </c>
       <c r="J21" s="3">
+        <v>205100</v>
+      </c>
+      <c r="K21" s="3">
         <v>391800</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>110600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>496400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>363200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>338900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>282200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>498500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>241200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>256900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>136900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>359200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>403800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>394100</v>
+        <v>865100</v>
       </c>
       <c r="E23" s="3">
-        <v>171600</v>
+        <v>380700</v>
       </c>
       <c r="F23" s="3">
-        <v>141100</v>
+        <v>165800</v>
       </c>
       <c r="G23" s="3">
-        <v>293600</v>
+        <v>136400</v>
       </c>
       <c r="H23" s="3">
-        <v>129800</v>
+        <v>283600</v>
       </c>
       <c r="I23" s="3">
-        <v>214500</v>
+        <v>125500</v>
       </c>
       <c r="J23" s="3">
+        <v>207300</v>
+      </c>
+      <c r="K23" s="3">
         <v>236000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>755300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>140900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>109400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>337300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>372600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>337800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>282200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>365600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>234500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>251300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>162700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>192500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>89200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>56500</v>
+        <v>193100</v>
       </c>
       <c r="E24" s="3">
-        <v>-63200</v>
+        <v>54500</v>
       </c>
       <c r="F24" s="3">
-        <v>-22600</v>
+        <v>-61100</v>
       </c>
       <c r="G24" s="3">
-        <v>26000</v>
+        <v>-21800</v>
       </c>
       <c r="H24" s="3">
-        <v>31600</v>
+        <v>25100</v>
       </c>
       <c r="I24" s="3">
-        <v>51900</v>
+        <v>30500</v>
       </c>
       <c r="J24" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K24" s="3">
         <v>66600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>148300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>69800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>48200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>67000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>111900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>48300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>65900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>40400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>37000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>66900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>23500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>337600</v>
+        <v>672000</v>
       </c>
       <c r="E26" s="3">
-        <v>234900</v>
+        <v>326200</v>
       </c>
       <c r="F26" s="3">
-        <v>163700</v>
+        <v>226900</v>
       </c>
       <c r="G26" s="3">
-        <v>267600</v>
+        <v>158200</v>
       </c>
       <c r="H26" s="3">
-        <v>98200</v>
+        <v>258500</v>
       </c>
       <c r="I26" s="3">
-        <v>162600</v>
+        <v>94900</v>
       </c>
       <c r="J26" s="3">
+        <v>157100</v>
+      </c>
+      <c r="K26" s="3">
         <v>169400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>607100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>71000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>61200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>270300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>353700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>226000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>233900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>299800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>194100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>214300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>160400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>125600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>65700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>339900</v>
+        <v>672000</v>
       </c>
       <c r="E27" s="3">
-        <v>232600</v>
+        <v>328400</v>
       </c>
       <c r="F27" s="3">
-        <v>162600</v>
+        <v>224700</v>
       </c>
       <c r="G27" s="3">
-        <v>269900</v>
+        <v>157100</v>
       </c>
       <c r="H27" s="3">
-        <v>99400</v>
+        <v>260700</v>
       </c>
       <c r="I27" s="3">
-        <v>166000</v>
+        <v>96000</v>
       </c>
       <c r="J27" s="3">
+        <v>160400</v>
+      </c>
+      <c r="K27" s="3">
         <v>171600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>607100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>85700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>69400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>277500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>359600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>237000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>242700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>195200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>214300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>163800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>133800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>106800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>41800</v>
+        <v>50200</v>
       </c>
       <c r="E32" s="3">
-        <v>33900</v>
+        <v>40400</v>
       </c>
       <c r="F32" s="3">
-        <v>40600</v>
+        <v>32700</v>
       </c>
       <c r="G32" s="3">
+        <v>39300</v>
+      </c>
+      <c r="H32" s="3">
+        <v>31600</v>
+      </c>
+      <c r="I32" s="3">
         <v>32700</v>
       </c>
-      <c r="H32" s="3">
-        <v>33900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>40600</v>
-      </c>
       <c r="J32" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K32" s="3">
         <v>59800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>39700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>67400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>57600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>37100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>48500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>64200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>65900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>24200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>30300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>51600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>67300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>34000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>81000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>339900</v>
+        <v>672000</v>
       </c>
       <c r="E33" s="3">
-        <v>232600</v>
+        <v>328400</v>
       </c>
       <c r="F33" s="3">
-        <v>162600</v>
+        <v>224700</v>
       </c>
       <c r="G33" s="3">
-        <v>269900</v>
+        <v>157100</v>
       </c>
       <c r="H33" s="3">
-        <v>99400</v>
+        <v>260700</v>
       </c>
       <c r="I33" s="3">
-        <v>166000</v>
+        <v>96000</v>
       </c>
       <c r="J33" s="3">
+        <v>160400</v>
+      </c>
+      <c r="K33" s="3">
         <v>171600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>607100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>85700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>69400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>277500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>359600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>237000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>242700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>195200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>214300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>163800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>133800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>106800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>339900</v>
+        <v>672000</v>
       </c>
       <c r="E35" s="3">
-        <v>232600</v>
+        <v>328400</v>
       </c>
       <c r="F35" s="3">
-        <v>162600</v>
+        <v>224700</v>
       </c>
       <c r="G35" s="3">
-        <v>269900</v>
+        <v>157100</v>
       </c>
       <c r="H35" s="3">
-        <v>99400</v>
+        <v>260700</v>
       </c>
       <c r="I35" s="3">
-        <v>166000</v>
+        <v>96000</v>
       </c>
       <c r="J35" s="3">
+        <v>160400</v>
+      </c>
+      <c r="K35" s="3">
         <v>171600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>607100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>85700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>69400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>277500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>359600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>237000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>242700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>195200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>214300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>163800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>133800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>106800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1436200</v>
+        <v>1615600</v>
       </c>
       <c r="E41" s="3">
-        <v>1482500</v>
+        <v>1387600</v>
       </c>
       <c r="F41" s="3">
-        <v>1432800</v>
+        <v>1432400</v>
       </c>
       <c r="G41" s="3">
-        <v>1875400</v>
+        <v>1384400</v>
       </c>
       <c r="H41" s="3">
-        <v>1540100</v>
+        <v>1812000</v>
       </c>
       <c r="I41" s="3">
-        <v>1199100</v>
+        <v>1488000</v>
       </c>
       <c r="J41" s="3">
+        <v>1158500</v>
+      </c>
+      <c r="K41" s="3">
         <v>853600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1022700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>873400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>979900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1463000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1336700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1113100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>690600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>754300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>681000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>469000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>559900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1094000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1118600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,182 +2886,191 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1667700</v>
+        <v>1656000</v>
       </c>
       <c r="E43" s="3">
-        <v>1666600</v>
+        <v>1611300</v>
       </c>
       <c r="F43" s="3">
-        <v>1517500</v>
+        <v>1610200</v>
       </c>
       <c r="G43" s="3">
-        <v>1309800</v>
+        <v>1466200</v>
       </c>
       <c r="H43" s="3">
-        <v>1336900</v>
+        <v>1265500</v>
       </c>
       <c r="I43" s="3">
-        <v>1377500</v>
+        <v>1291600</v>
       </c>
       <c r="J43" s="3">
+        <v>1330900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1446400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1521100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1632900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1765800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1897200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1834700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1680200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1681000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1631600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1579800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1576400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1580900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1618700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1558800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1657500</v>
+        <v>1612400</v>
       </c>
       <c r="E44" s="3">
-        <v>1510700</v>
+        <v>1601500</v>
       </c>
       <c r="F44" s="3">
-        <v>1516400</v>
+        <v>1459600</v>
       </c>
       <c r="G44" s="3">
-        <v>1434000</v>
+        <v>1465100</v>
       </c>
       <c r="H44" s="3">
-        <v>1470100</v>
+        <v>1385500</v>
       </c>
       <c r="I44" s="3">
-        <v>1540100</v>
+        <v>1420400</v>
       </c>
       <c r="J44" s="3">
+        <v>1488000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1577400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1623900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1860800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1832800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1992900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1853600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1664700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1559200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1592100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1482100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1493400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1515800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1687900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1579900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5600</v>
+        <v>34900</v>
       </c>
       <c r="E45" s="3">
-        <v>9000</v>
+        <v>5500</v>
       </c>
       <c r="F45" s="3">
-        <v>6800</v>
+        <v>8700</v>
       </c>
       <c r="G45" s="3">
-        <v>72300</v>
+        <v>6500</v>
       </c>
       <c r="H45" s="3">
-        <v>19200</v>
+        <v>69800</v>
       </c>
       <c r="I45" s="3">
-        <v>27100</v>
+        <v>18500</v>
       </c>
       <c r="J45" s="3">
+        <v>26200</v>
+      </c>
+      <c r="K45" s="3">
         <v>11300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25100</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
@@ -2983,8 +3081,8 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="S45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -3001,280 +3099,295 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4767100</v>
+        <v>4918900</v>
       </c>
       <c r="E46" s="3">
-        <v>4668800</v>
+        <v>4605800</v>
       </c>
       <c r="F46" s="3">
-        <v>4473500</v>
+        <v>4510900</v>
       </c>
       <c r="G46" s="3">
-        <v>4691400</v>
+        <v>4322200</v>
       </c>
       <c r="H46" s="3">
-        <v>4366200</v>
+        <v>4532700</v>
       </c>
       <c r="I46" s="3">
-        <v>4143800</v>
+        <v>4218500</v>
       </c>
       <c r="J46" s="3">
+        <v>4003600</v>
+      </c>
+      <c r="K46" s="3">
         <v>3888600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4191000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4380600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4598500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5378100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5025000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4458100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3930800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3978100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3743000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3538800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3656600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4400600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4257400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1462200</v>
+        <v>1689800</v>
       </c>
       <c r="E47" s="3">
-        <v>1169700</v>
+        <v>1412700</v>
       </c>
       <c r="F47" s="3">
-        <v>1099700</v>
+        <v>1130200</v>
       </c>
       <c r="G47" s="3">
-        <v>1090700</v>
+        <v>1062500</v>
       </c>
       <c r="H47" s="3">
-        <v>1038800</v>
+        <v>1053800</v>
       </c>
       <c r="I47" s="3">
-        <v>985700</v>
+        <v>1003600</v>
       </c>
       <c r="J47" s="3">
+        <v>952400</v>
+      </c>
+      <c r="K47" s="3">
         <v>931500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1276000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1429600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1271700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2598100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2623700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2372500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2127900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2109300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2237200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2186800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2076800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2217300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2225500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13177700</v>
+        <v>13362600</v>
       </c>
       <c r="E48" s="3">
-        <v>13202600</v>
+        <v>12732000</v>
       </c>
       <c r="F48" s="3">
-        <v>12979000</v>
+        <v>12756000</v>
       </c>
       <c r="G48" s="3">
-        <v>13226300</v>
+        <v>12540000</v>
       </c>
       <c r="H48" s="3">
-        <v>10911600</v>
+        <v>12778900</v>
       </c>
       <c r="I48" s="3">
-        <v>11051600</v>
+        <v>10542600</v>
       </c>
       <c r="J48" s="3">
+        <v>10677800</v>
+      </c>
+      <c r="K48" s="3">
         <v>10744500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11376400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11076400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10686400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7542000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6731900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6154900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6126800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6149900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6460400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6440200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6509800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>7095700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7160200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>616500</v>
+        <v>592400</v>
       </c>
       <c r="E49" s="3">
-        <v>597300</v>
+        <v>595600</v>
       </c>
       <c r="F49" s="3">
-        <v>601800</v>
+        <v>577100</v>
       </c>
       <c r="G49" s="3">
-        <v>509200</v>
+        <v>581500</v>
       </c>
       <c r="H49" s="3">
-        <v>532900</v>
+        <v>492000</v>
       </c>
       <c r="I49" s="3">
-        <v>552100</v>
+        <v>514900</v>
       </c>
       <c r="J49" s="3">
+        <v>533500</v>
+      </c>
+      <c r="K49" s="3">
         <v>605200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>593000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>635800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>630600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>590900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>618700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>569300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>565500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>557800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>536300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>476800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>490300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>521200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>507100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>212300</v>
+        <v>192000</v>
       </c>
       <c r="E52" s="3">
-        <v>243900</v>
+        <v>205100</v>
       </c>
       <c r="F52" s="3">
-        <v>177300</v>
+        <v>235600</v>
       </c>
       <c r="G52" s="3">
-        <v>163700</v>
+        <v>171300</v>
       </c>
       <c r="H52" s="3">
-        <v>146800</v>
+        <v>158200</v>
       </c>
       <c r="I52" s="3">
-        <v>171600</v>
+        <v>141800</v>
       </c>
       <c r="J52" s="3">
+        <v>165800</v>
+      </c>
+      <c r="K52" s="3">
         <v>155800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>136600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>156800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>155300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>168700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>199900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>139600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>175700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>186700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>228900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>226600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>270400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>301700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>318100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20235700</v>
+        <v>20755700</v>
       </c>
       <c r="E54" s="3">
-        <v>19882300</v>
+        <v>19551300</v>
       </c>
       <c r="F54" s="3">
-        <v>19331300</v>
+        <v>19209800</v>
       </c>
       <c r="G54" s="3">
-        <v>19681300</v>
+        <v>18677500</v>
       </c>
       <c r="H54" s="3">
-        <v>16996300</v>
+        <v>19015700</v>
       </c>
       <c r="I54" s="3">
-        <v>16904900</v>
+        <v>16421500</v>
       </c>
       <c r="J54" s="3">
+        <v>16333100</v>
+      </c>
+      <c r="K54" s="3">
         <v>16325700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17573000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17679100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17342500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16277900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15199100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>13694400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12926800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12981700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13205800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12869200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13003900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>14536500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14468400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,348 +3863,366 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>621000</v>
+        <v>603300</v>
       </c>
       <c r="E58" s="3">
-        <v>974400</v>
+        <v>600000</v>
       </c>
       <c r="F58" s="3">
-        <v>1073800</v>
+        <v>941500</v>
       </c>
       <c r="G58" s="3">
-        <v>1006000</v>
+        <v>1037500</v>
       </c>
       <c r="H58" s="3">
-        <v>540800</v>
+        <v>972000</v>
       </c>
       <c r="I58" s="3">
-        <v>916800</v>
+        <v>522500</v>
       </c>
       <c r="J58" s="3">
+        <v>885800</v>
+      </c>
+      <c r="K58" s="3">
         <v>397400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1056500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>430000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>424700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>385200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>477900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>494000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>428200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>457900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1088300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1067000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1128700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1629200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1313500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2656800</v>
+        <v>2849500</v>
       </c>
       <c r="E59" s="3">
-        <v>2475000</v>
+        <v>2566900</v>
       </c>
       <c r="F59" s="3">
-        <v>2325900</v>
+        <v>2391300</v>
       </c>
       <c r="G59" s="3">
-        <v>2262700</v>
+        <v>2247300</v>
       </c>
       <c r="H59" s="3">
-        <v>2629700</v>
+        <v>2186200</v>
       </c>
       <c r="I59" s="3">
-        <v>1966900</v>
+        <v>2540700</v>
       </c>
       <c r="J59" s="3">
+        <v>1900400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2919900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2348800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2973100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2977500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3314700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3244700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2825500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2747200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2742800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2236100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2022900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2008400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2225500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2195000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3277800</v>
+        <v>3452700</v>
       </c>
       <c r="E60" s="3">
-        <v>3449400</v>
+        <v>3166900</v>
       </c>
       <c r="F60" s="3">
-        <v>3399700</v>
+        <v>3332700</v>
       </c>
       <c r="G60" s="3">
-        <v>3268700</v>
+        <v>3284700</v>
       </c>
       <c r="H60" s="3">
-        <v>3170500</v>
+        <v>3158200</v>
       </c>
       <c r="I60" s="3">
-        <v>2883700</v>
+        <v>3063300</v>
       </c>
       <c r="J60" s="3">
+        <v>2786200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3317300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3405300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3403000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3402100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3699800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3722600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3319500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3175400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3200700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3324500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3090000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3137100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3854800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3508500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3912300</v>
+        <v>3614200</v>
       </c>
       <c r="E61" s="3">
-        <v>3974400</v>
+        <v>3780000</v>
       </c>
       <c r="F61" s="3">
-        <v>4088500</v>
+        <v>3840000</v>
       </c>
       <c r="G61" s="3">
-        <v>4315400</v>
+        <v>3950200</v>
       </c>
       <c r="H61" s="3">
-        <v>3915700</v>
+        <v>4169500</v>
       </c>
       <c r="I61" s="3">
-        <v>4080600</v>
+        <v>3783300</v>
       </c>
       <c r="J61" s="3">
+        <v>3942500</v>
+      </c>
+      <c r="K61" s="3">
         <v>3549900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3773100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4297300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4497400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3942700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2679300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2484300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2375000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2269600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2295600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2347200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2597400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2739700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>3116500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2032400</v>
+        <v>2053100</v>
       </c>
       <c r="E62" s="3">
-        <v>2077500</v>
+        <v>1963600</v>
       </c>
       <c r="F62" s="3">
-        <v>2025600</v>
+        <v>2007300</v>
       </c>
       <c r="G62" s="3">
-        <v>2169000</v>
+        <v>1957100</v>
       </c>
       <c r="H62" s="3">
-        <v>1747800</v>
+        <v>2095600</v>
       </c>
       <c r="I62" s="3">
-        <v>1776100</v>
+        <v>1688700</v>
       </c>
       <c r="J62" s="3">
+        <v>1716000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1548000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1728900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1579000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1534000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>818200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>833900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>736600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>699400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>717000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>792100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>871800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>916700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>936700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>955500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9205600</v>
+        <v>9102600</v>
       </c>
       <c r="E66" s="3">
-        <v>9486700</v>
+        <v>8894200</v>
       </c>
       <c r="F66" s="3">
-        <v>9498000</v>
+        <v>9165800</v>
       </c>
       <c r="G66" s="3">
-        <v>9735100</v>
+        <v>9176700</v>
       </c>
       <c r="H66" s="3">
-        <v>8818300</v>
+        <v>9405800</v>
       </c>
       <c r="I66" s="3">
-        <v>8725700</v>
+        <v>8520000</v>
       </c>
       <c r="J66" s="3">
+        <v>8430600</v>
+      </c>
+      <c r="K66" s="3">
         <v>8402800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8899200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9257200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9434700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8476300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7257100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6565900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6291500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6237700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6464900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6362800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6707300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7594600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7653200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6828800</v>
+        <v>7254600</v>
       </c>
       <c r="E72" s="3">
-        <v>6463000</v>
+        <v>6597800</v>
       </c>
       <c r="F72" s="3">
-        <v>6192000</v>
+        <v>6244400</v>
       </c>
       <c r="G72" s="3">
-        <v>7929700</v>
+        <v>5982600</v>
       </c>
       <c r="H72" s="3">
-        <v>6019200</v>
+        <v>6017500</v>
       </c>
       <c r="I72" s="3">
-        <v>5936800</v>
+        <v>5815600</v>
       </c>
       <c r="J72" s="3">
+        <v>5736000</v>
+      </c>
+      <c r="K72" s="3">
         <v>5962800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6435900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5713400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5409100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5428400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5567900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>4893400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4618200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4729100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4526100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4275900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4057100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4415900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4284400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11030200</v>
+        <v>11653100</v>
       </c>
       <c r="E76" s="3">
-        <v>10395600</v>
+        <v>10657100</v>
       </c>
       <c r="F76" s="3">
-        <v>9833300</v>
+        <v>10044000</v>
       </c>
       <c r="G76" s="3">
-        <v>9946200</v>
+        <v>9500700</v>
       </c>
       <c r="H76" s="3">
-        <v>8178100</v>
+        <v>9609800</v>
       </c>
       <c r="I76" s="3">
-        <v>8179200</v>
+        <v>7901500</v>
       </c>
       <c r="J76" s="3">
+        <v>7902600</v>
+      </c>
+      <c r="K76" s="3">
         <v>7922900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8673900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8421800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7907800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7801600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7942000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7128500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6635200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6743900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6740900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6506400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6296600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6941900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6815100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>339900</v>
+        <v>672000</v>
       </c>
       <c r="E81" s="3">
-        <v>232600</v>
+        <v>328400</v>
       </c>
       <c r="F81" s="3">
-        <v>162600</v>
+        <v>224700</v>
       </c>
       <c r="G81" s="3">
-        <v>269900</v>
+        <v>157100</v>
       </c>
       <c r="H81" s="3">
-        <v>99400</v>
+        <v>260700</v>
       </c>
       <c r="I81" s="3">
-        <v>166000</v>
+        <v>96000</v>
       </c>
       <c r="J81" s="3">
+        <v>160400</v>
+      </c>
+      <c r="K81" s="3">
         <v>171600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>607100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>85700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>69400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>277500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>359600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>237000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>242700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>195200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>214300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>163800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>133800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>106800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>500200</v>
+        <v>567300</v>
       </c>
       <c r="E89" s="3">
-        <v>417800</v>
+        <v>483300</v>
       </c>
       <c r="F89" s="3">
-        <v>161500</v>
+        <v>403600</v>
       </c>
       <c r="G89" s="3">
-        <v>431300</v>
+        <v>156000</v>
       </c>
       <c r="H89" s="3">
-        <v>433600</v>
+        <v>416700</v>
       </c>
       <c r="I89" s="3">
-        <v>328600</v>
+        <v>418900</v>
       </c>
       <c r="J89" s="3">
+        <v>317500</v>
+      </c>
+      <c r="K89" s="3">
         <v>80200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>753000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>524300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>544700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>148300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>322900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>451900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>312900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>138300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>529600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>408400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>317500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>97400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>489500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-155800</v>
+        <v>406900</v>
       </c>
       <c r="E91" s="3">
-        <v>-137800</v>
+        <v>-150500</v>
       </c>
       <c r="F91" s="3">
-        <v>-216800</v>
+        <v>-133100</v>
       </c>
       <c r="G91" s="3">
-        <v>416600</v>
+        <v>-209500</v>
       </c>
       <c r="H91" s="3">
-        <v>-166000</v>
+        <v>402500</v>
       </c>
       <c r="I91" s="3">
-        <v>-140000</v>
+        <v>-160400</v>
       </c>
       <c r="J91" s="3">
+        <v>-135300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-199900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>358400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-172700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-141200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-147100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>339500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-142900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-137300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-127400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>360200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-154800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-143600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-158500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-258200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-92600</v>
+        <v>-161500</v>
       </c>
       <c r="E94" s="3">
-        <v>-138900</v>
+        <v>-89500</v>
       </c>
       <c r="F94" s="3">
-        <v>-108400</v>
+        <v>-134200</v>
       </c>
       <c r="G94" s="3">
-        <v>-242800</v>
+        <v>-104700</v>
       </c>
       <c r="H94" s="3">
-        <v>-166000</v>
+        <v>-234500</v>
       </c>
       <c r="I94" s="3">
-        <v>-135500</v>
+        <v>-160400</v>
       </c>
       <c r="J94" s="3">
+        <v>-130900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-224700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-249800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-193500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-682300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-149500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-197500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-152800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-94400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-116400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-304100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-218800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-140200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-123300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-77500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6027,22 +6260,22 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-32700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-234900</v>
+        <v>-31600</v>
       </c>
       <c r="G96" s="3">
-        <v>-118600</v>
+        <v>-226900</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-114500</v>
       </c>
       <c r="I96" s="3">
-        <v>-133200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-128700</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -6054,11 +6287,11 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-471300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-453900</v>
+        <v>-195300</v>
       </c>
       <c r="E100" s="3">
-        <v>-232600</v>
+        <v>-438500</v>
       </c>
       <c r="F100" s="3">
-        <v>-488900</v>
+        <v>-224700</v>
       </c>
       <c r="G100" s="3">
-        <v>152400</v>
+        <v>-472400</v>
       </c>
       <c r="H100" s="3">
-        <v>68900</v>
+        <v>147300</v>
       </c>
       <c r="I100" s="3">
-        <v>154700</v>
+        <v>66500</v>
       </c>
       <c r="J100" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K100" s="3">
         <v>23700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-302400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-491200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-324700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>95700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>45000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>111900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-294300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>61500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-278300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-640700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-219500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>16400</v>
       </c>
       <c r="E101" s="3">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G101" s="3">
         <v>-1100</v>
       </c>
-      <c r="G101" s="3">
-        <v>-3400</v>
-      </c>
       <c r="H101" s="3">
-        <v>-4500</v>
+        <v>-3300</v>
       </c>
       <c r="I101" s="3">
-        <v>-1100</v>
+        <v>-4400</v>
       </c>
       <c r="J101" s="3">
         <v>-1100</v>
       </c>
       <c r="K101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L101" s="3">
         <v>1200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-2400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>17900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>2400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-18000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>11700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-46300</v>
+        <v>226900</v>
       </c>
       <c r="E102" s="3">
-        <v>50800</v>
+        <v>-44700</v>
       </c>
       <c r="F102" s="3">
-        <v>-437000</v>
+        <v>49100</v>
       </c>
       <c r="G102" s="3">
-        <v>337600</v>
+        <v>-422200</v>
       </c>
       <c r="H102" s="3">
-        <v>332000</v>
+        <v>326200</v>
       </c>
       <c r="I102" s="3">
-        <v>346600</v>
+        <v>320700</v>
       </c>
       <c r="J102" s="3">
+        <v>334900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-121900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>197300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-162900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-464700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>112400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>172700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>402100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-69200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>87800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>213200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-92000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-481300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-29300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>204200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2966200</v>
+        <v>2904000</v>
       </c>
       <c r="E8" s="3">
-        <v>2811300</v>
+        <v>2822100</v>
       </c>
       <c r="F8" s="3">
-        <v>2827600</v>
+        <v>2674700</v>
       </c>
       <c r="G8" s="3">
-        <v>2482900</v>
+        <v>2690200</v>
       </c>
       <c r="H8" s="3">
-        <v>2348700</v>
+        <v>2362300</v>
       </c>
       <c r="I8" s="3">
-        <v>2268000</v>
+        <v>2234600</v>
       </c>
       <c r="J8" s="3">
+        <v>2157800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2306200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2491900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2814600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2942400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3068100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3152000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3144100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2863100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2925100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2831700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2817300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2815100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2836400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2931000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2861700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2344400</v>
+        <v>2243900</v>
       </c>
       <c r="E9" s="3">
-        <v>2209100</v>
+        <v>2230400</v>
       </c>
       <c r="F9" s="3">
-        <v>2251600</v>
+        <v>2101700</v>
       </c>
       <c r="G9" s="3">
-        <v>2034500</v>
+        <v>2142200</v>
       </c>
       <c r="H9" s="3">
-        <v>2043300</v>
+        <v>1935700</v>
       </c>
       <c r="I9" s="3">
-        <v>1896000</v>
+        <v>1944000</v>
       </c>
       <c r="J9" s="3">
+        <v>1803900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1922200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2065100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2445700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2424300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2503400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2512000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2572800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2225200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2333300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2179500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1934300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1910700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1950000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2019000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2006000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>621800</v>
+        <v>660100</v>
       </c>
       <c r="E10" s="3">
-        <v>602200</v>
+        <v>591600</v>
       </c>
       <c r="F10" s="3">
-        <v>576000</v>
+        <v>572900</v>
       </c>
       <c r="G10" s="3">
-        <v>448400</v>
+        <v>548000</v>
       </c>
       <c r="H10" s="3">
-        <v>305500</v>
+        <v>426600</v>
       </c>
       <c r="I10" s="3">
-        <v>372000</v>
+        <v>290600</v>
       </c>
       <c r="J10" s="3">
+        <v>353900</v>
+      </c>
+      <c r="K10" s="3">
         <v>384000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>426800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>368900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>518200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>564700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>640000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>571300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>638000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>591800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>652200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>883000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>904300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>886400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>912100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>855700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,61 +1163,64 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-356700</v>
+        <v>84100</v>
       </c>
       <c r="E14" s="3">
-        <v>-6500</v>
+        <v>-339400</v>
       </c>
       <c r="F14" s="3">
-        <v>41500</v>
+        <v>-6200</v>
       </c>
       <c r="G14" s="3">
-        <v>117800</v>
+        <v>39400</v>
       </c>
       <c r="H14" s="3">
-        <v>-229100</v>
+        <v>112100</v>
       </c>
       <c r="I14" s="3">
-        <v>15300</v>
+        <v>-218000</v>
       </c>
       <c r="J14" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-69800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-132100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-513700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>36700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>19100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>20100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>22200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>18700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15400</v>
-      </c>
-      <c r="T14" s="3">
-        <v>22400</v>
       </c>
       <c r="U14" s="3">
         <v>22400</v>
@@ -1209,87 +1229,93 @@
         <v>22400</v>
       </c>
       <c r="W14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="X14" s="3">
         <v>14100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>237100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>159300</v>
+        <v>140100</v>
       </c>
       <c r="E15" s="3">
+        <v>151500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>141200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>140100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>144300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>155700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>140100</v>
+      </c>
+      <c r="K15" s="3">
         <v>148400</v>
       </c>
-      <c r="F15" s="3">
-        <v>147300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>151600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>163600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>147300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>148400</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>155800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>171600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>160500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>157600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>159100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>134900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>135100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>132900</v>
       </c>
       <c r="S15" s="3">
         <v>132900</v>
       </c>
       <c r="T15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="U15" s="3">
         <v>145900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>139100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>133500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>166700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>71600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2050900</v>
+        <v>2495100</v>
       </c>
       <c r="E17" s="3">
-        <v>2390200</v>
+        <v>1951300</v>
       </c>
       <c r="F17" s="3">
-        <v>2629100</v>
+        <v>2274000</v>
       </c>
       <c r="G17" s="3">
-        <v>2307300</v>
+        <v>2501300</v>
       </c>
       <c r="H17" s="3">
-        <v>2033500</v>
+        <v>2195200</v>
       </c>
       <c r="I17" s="3">
-        <v>2109800</v>
+        <v>1934600</v>
       </c>
       <c r="J17" s="3">
+        <v>2007300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2059600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2196100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2019600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2734200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2901000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2777600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2723000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2461100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2577000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2442000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2552500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2512100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2606400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2704500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2691500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>915300</v>
+        <v>408900</v>
       </c>
       <c r="E18" s="3">
+        <v>870800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>400600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>188900</v>
+      </c>
+      <c r="H18" s="3">
+        <v>167100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>300000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>150500</v>
+      </c>
+      <c r="K18" s="3">
+        <v>246500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>295800</v>
+      </c>
+      <c r="M18" s="3">
+        <v>795000</v>
+      </c>
+      <c r="N18" s="3">
+        <v>208200</v>
+      </c>
+      <c r="O18" s="3">
+        <v>167000</v>
+      </c>
+      <c r="P18" s="3">
+        <v>374400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>421100</v>
       </c>
-      <c r="F18" s="3">
-        <v>198500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>175600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>315300</v>
-      </c>
-      <c r="I18" s="3">
-        <v>158200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>246500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>295800</v>
-      </c>
-      <c r="L18" s="3">
-        <v>795000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>208200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>167000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>374400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>421100</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>402100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>348100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>389800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>264800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>302900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>230000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>226500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>170200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-50200</v>
+        <v>-20800</v>
       </c>
       <c r="E20" s="3">
-        <v>-40400</v>
+        <v>-47700</v>
       </c>
       <c r="F20" s="3">
-        <v>-32700</v>
+        <v>-38400</v>
       </c>
       <c r="G20" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-31100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-39300</v>
       </c>
-      <c r="H20" s="3">
-        <v>-31600</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-32700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-39300</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-59800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-39700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-67400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-57600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-37100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-48500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-64200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-65900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-24200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-30300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-51600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-67300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-34000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-81000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1477100</v>
+        <v>740000</v>
       </c>
       <c r="E21" s="3">
-        <v>381800</v>
+        <v>1405300</v>
       </c>
       <c r="F21" s="3">
-        <v>161500</v>
+        <v>363300</v>
       </c>
       <c r="G21" s="3">
-        <v>288000</v>
+        <v>153600</v>
       </c>
       <c r="H21" s="3">
-        <v>800700</v>
+        <v>274000</v>
       </c>
       <c r="I21" s="3">
-        <v>124400</v>
+        <v>761800</v>
       </c>
       <c r="J21" s="3">
+        <v>118300</v>
+      </c>
+      <c r="K21" s="3">
         <v>205100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>391800</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>110600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>496400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>363200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>338900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>282200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>498500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>241200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>256900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>136900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>359200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>403800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>865100</v>
+        <v>388200</v>
       </c>
       <c r="E23" s="3">
-        <v>380700</v>
+        <v>823100</v>
       </c>
       <c r="F23" s="3">
-        <v>165800</v>
+        <v>362200</v>
       </c>
       <c r="G23" s="3">
-        <v>136400</v>
+        <v>157800</v>
       </c>
       <c r="H23" s="3">
-        <v>283600</v>
+        <v>129700</v>
       </c>
       <c r="I23" s="3">
-        <v>125500</v>
+        <v>269900</v>
       </c>
       <c r="J23" s="3">
+        <v>119400</v>
+      </c>
+      <c r="K23" s="3">
         <v>207300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>236000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>755300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>140900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>109400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>337300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>372600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>337800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>282200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>365600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>234500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>251300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>162700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>192500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>89200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>193100</v>
+        <v>91300</v>
       </c>
       <c r="E24" s="3">
-        <v>54500</v>
+        <v>183700</v>
       </c>
       <c r="F24" s="3">
-        <v>-61100</v>
+        <v>51900</v>
       </c>
       <c r="G24" s="3">
-        <v>-21800</v>
+        <v>-58100</v>
       </c>
       <c r="H24" s="3">
-        <v>25100</v>
+        <v>-20800</v>
       </c>
       <c r="I24" s="3">
-        <v>30500</v>
+        <v>23900</v>
       </c>
       <c r="J24" s="3">
+        <v>29100</v>
+      </c>
+      <c r="K24" s="3">
         <v>50200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>66600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>148300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>69800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>48200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>67000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>111900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>48300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>65900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>40400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>37000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>66900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>23500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>672000</v>
+        <v>296800</v>
       </c>
       <c r="E26" s="3">
-        <v>326200</v>
+        <v>639300</v>
       </c>
       <c r="F26" s="3">
-        <v>226900</v>
+        <v>310300</v>
       </c>
       <c r="G26" s="3">
-        <v>158200</v>
+        <v>215900</v>
       </c>
       <c r="H26" s="3">
-        <v>258500</v>
+        <v>150500</v>
       </c>
       <c r="I26" s="3">
-        <v>94900</v>
+        <v>246000</v>
       </c>
       <c r="J26" s="3">
+        <v>90300</v>
+      </c>
+      <c r="K26" s="3">
         <v>157100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>169400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>607100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>71000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>61200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>270300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>353700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>226000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>233900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>299800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>194100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>214300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>160400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>125600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>65700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>672000</v>
+        <v>300000</v>
       </c>
       <c r="E27" s="3">
-        <v>328400</v>
+        <v>639300</v>
       </c>
       <c r="F27" s="3">
-        <v>224700</v>
+        <v>312400</v>
       </c>
       <c r="G27" s="3">
-        <v>157100</v>
+        <v>213800</v>
       </c>
       <c r="H27" s="3">
-        <v>260700</v>
+        <v>149500</v>
       </c>
       <c r="I27" s="3">
-        <v>96000</v>
+        <v>248100</v>
       </c>
       <c r="J27" s="3">
+        <v>91300</v>
+      </c>
+      <c r="K27" s="3">
         <v>160400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>171600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>607100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>85700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>69400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>277500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>359600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>237000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>242700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>195200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>214300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>163800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>133800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>106800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>50200</v>
+        <v>20800</v>
       </c>
       <c r="E32" s="3">
-        <v>40400</v>
+        <v>47700</v>
       </c>
       <c r="F32" s="3">
-        <v>32700</v>
+        <v>38400</v>
       </c>
       <c r="G32" s="3">
+        <v>31100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>37400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>30100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K32" s="3">
         <v>39300</v>
       </c>
-      <c r="H32" s="3">
-        <v>31600</v>
-      </c>
-      <c r="I32" s="3">
-        <v>32700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>39300</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>59800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>39700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>67400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>57600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>37100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>48500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>64200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>65900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>24200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>30300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>51600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>67300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>34000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>81000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>672000</v>
+        <v>300000</v>
       </c>
       <c r="E33" s="3">
-        <v>328400</v>
+        <v>639300</v>
       </c>
       <c r="F33" s="3">
-        <v>224700</v>
+        <v>312400</v>
       </c>
       <c r="G33" s="3">
-        <v>157100</v>
+        <v>213800</v>
       </c>
       <c r="H33" s="3">
-        <v>260700</v>
+        <v>149500</v>
       </c>
       <c r="I33" s="3">
-        <v>96000</v>
+        <v>248100</v>
       </c>
       <c r="J33" s="3">
+        <v>91300</v>
+      </c>
+      <c r="K33" s="3">
         <v>160400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>171600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>607100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>85700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>69400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>277500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>359600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>237000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>242700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>195200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>214300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>163800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>133800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>106800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>672000</v>
+        <v>300000</v>
       </c>
       <c r="E35" s="3">
-        <v>328400</v>
+        <v>639300</v>
       </c>
       <c r="F35" s="3">
-        <v>224700</v>
+        <v>312400</v>
       </c>
       <c r="G35" s="3">
-        <v>157100</v>
+        <v>213800</v>
       </c>
       <c r="H35" s="3">
-        <v>260700</v>
+        <v>149500</v>
       </c>
       <c r="I35" s="3">
-        <v>96000</v>
+        <v>248100</v>
       </c>
       <c r="J35" s="3">
+        <v>91300</v>
+      </c>
+      <c r="K35" s="3">
         <v>160400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>171600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>607100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>85700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>69400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>277500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>359600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>237000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>242700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>195200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>214300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>163800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>133800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>106800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1615600</v>
+        <v>1020300</v>
       </c>
       <c r="E41" s="3">
-        <v>1387600</v>
+        <v>1537100</v>
       </c>
       <c r="F41" s="3">
-        <v>1432400</v>
+        <v>1320200</v>
       </c>
       <c r="G41" s="3">
-        <v>1384400</v>
+        <v>1362800</v>
       </c>
       <c r="H41" s="3">
-        <v>1812000</v>
+        <v>1317100</v>
       </c>
       <c r="I41" s="3">
-        <v>1488000</v>
+        <v>1724000</v>
       </c>
       <c r="J41" s="3">
+        <v>1415700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1158500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>853600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1022700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>873400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>979900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1463000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1336700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1113100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>690600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>754300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>681000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>469000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>559900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1094000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1118600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,191 +2979,200 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1656000</v>
+        <v>1726000</v>
       </c>
       <c r="E43" s="3">
-        <v>1611300</v>
+        <v>1575500</v>
       </c>
       <c r="F43" s="3">
-        <v>1610200</v>
+        <v>1533000</v>
       </c>
       <c r="G43" s="3">
-        <v>1466200</v>
+        <v>1531900</v>
       </c>
       <c r="H43" s="3">
-        <v>1265500</v>
+        <v>1394900</v>
       </c>
       <c r="I43" s="3">
-        <v>1291600</v>
+        <v>1204000</v>
       </c>
       <c r="J43" s="3">
+        <v>1228900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1330900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1446400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1521100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1632900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1765800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1897200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1834700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1680200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1681000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1631600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1579800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1576400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1580900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1618700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1558800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1612400</v>
+        <v>1680400</v>
       </c>
       <c r="E44" s="3">
-        <v>1601500</v>
+        <v>1534000</v>
       </c>
       <c r="F44" s="3">
-        <v>1459600</v>
+        <v>1523600</v>
       </c>
       <c r="G44" s="3">
-        <v>1465100</v>
+        <v>1388700</v>
       </c>
       <c r="H44" s="3">
-        <v>1385500</v>
+        <v>1393900</v>
       </c>
       <c r="I44" s="3">
-        <v>1420400</v>
+        <v>1318100</v>
       </c>
       <c r="J44" s="3">
+        <v>1351300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1488000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1577400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1623900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1860800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1832800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1992900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1853600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1664700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1559200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1592100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1482100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1493400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1515800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1687900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1579900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34900</v>
+        <v>15600</v>
       </c>
       <c r="E45" s="3">
-        <v>5500</v>
+        <v>33200</v>
       </c>
       <c r="F45" s="3">
-        <v>8700</v>
+        <v>5200</v>
       </c>
       <c r="G45" s="3">
-        <v>6500</v>
+        <v>8300</v>
       </c>
       <c r="H45" s="3">
-        <v>69800</v>
+        <v>6200</v>
       </c>
       <c r="I45" s="3">
-        <v>18500</v>
+        <v>66400</v>
       </c>
       <c r="J45" s="3">
+        <v>17600</v>
+      </c>
+      <c r="K45" s="3">
         <v>26200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>11300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25100</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
@@ -3084,8 +3183,8 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3102,292 +3201,307 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4918900</v>
+        <v>4442200</v>
       </c>
       <c r="E46" s="3">
-        <v>4605800</v>
+        <v>4679900</v>
       </c>
       <c r="F46" s="3">
-        <v>4510900</v>
+        <v>4382000</v>
       </c>
       <c r="G46" s="3">
-        <v>4322200</v>
+        <v>4291700</v>
       </c>
       <c r="H46" s="3">
-        <v>4532700</v>
+        <v>4112200</v>
       </c>
       <c r="I46" s="3">
-        <v>4218500</v>
+        <v>4312500</v>
       </c>
       <c r="J46" s="3">
+        <v>4013600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4003600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3888600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4191000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4380600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4598500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5378100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5025000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4458100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3930800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3978100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3743000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3538800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3656600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4400600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4257400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1689800</v>
+        <v>1693900</v>
       </c>
       <c r="E47" s="3">
-        <v>1412700</v>
+        <v>1607700</v>
       </c>
       <c r="F47" s="3">
-        <v>1130200</v>
+        <v>1344100</v>
       </c>
       <c r="G47" s="3">
-        <v>1062500</v>
+        <v>1075300</v>
       </c>
       <c r="H47" s="3">
-        <v>1053800</v>
+        <v>1010900</v>
       </c>
       <c r="I47" s="3">
-        <v>1003600</v>
+        <v>1002600</v>
       </c>
       <c r="J47" s="3">
+        <v>954900</v>
+      </c>
+      <c r="K47" s="3">
         <v>952400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>931500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1276000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1429600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1271700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2598100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2623700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2372500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2127900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2109300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2237200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2186800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2076800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2217300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2225500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13362600</v>
+        <v>12609400</v>
       </c>
       <c r="E48" s="3">
-        <v>12732000</v>
+        <v>12713200</v>
       </c>
       <c r="F48" s="3">
-        <v>12756000</v>
+        <v>12113300</v>
       </c>
       <c r="G48" s="3">
-        <v>12540000</v>
+        <v>12136200</v>
       </c>
       <c r="H48" s="3">
-        <v>12778900</v>
+        <v>11930700</v>
       </c>
       <c r="I48" s="3">
-        <v>10542600</v>
+        <v>12158000</v>
       </c>
       <c r="J48" s="3">
+        <v>10030300</v>
+      </c>
+      <c r="K48" s="3">
         <v>10677800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10744500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11376400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11076400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10686400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7542000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6731900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6154900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6126800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6149900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6460400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6440200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6509800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>7095700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7160200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>592400</v>
+        <v>703700</v>
       </c>
       <c r="E49" s="3">
-        <v>595600</v>
+        <v>563600</v>
       </c>
       <c r="F49" s="3">
-        <v>577100</v>
+        <v>566700</v>
       </c>
       <c r="G49" s="3">
-        <v>581500</v>
+        <v>549000</v>
       </c>
       <c r="H49" s="3">
-        <v>492000</v>
+        <v>553200</v>
       </c>
       <c r="I49" s="3">
-        <v>514900</v>
+        <v>468100</v>
       </c>
       <c r="J49" s="3">
+        <v>489900</v>
+      </c>
+      <c r="K49" s="3">
         <v>533500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>605200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>593000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>635800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>630600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>590900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>618700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>569300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>565500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>557800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>536300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>476800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>490300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>521200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>507100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>192000</v>
+        <v>168100</v>
       </c>
       <c r="E52" s="3">
-        <v>205100</v>
+        <v>182700</v>
       </c>
       <c r="F52" s="3">
-        <v>235600</v>
+        <v>195100</v>
       </c>
       <c r="G52" s="3">
-        <v>171300</v>
+        <v>224200</v>
       </c>
       <c r="H52" s="3">
-        <v>158200</v>
+        <v>163000</v>
       </c>
       <c r="I52" s="3">
-        <v>141800</v>
+        <v>150500</v>
       </c>
       <c r="J52" s="3">
+        <v>134900</v>
+      </c>
+      <c r="K52" s="3">
         <v>165800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>155800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>136600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>156800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>155300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>168700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>199900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>139600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>175700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>186700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>228900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>226600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>270400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>301700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>318100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>20755700</v>
+        <v>19617300</v>
       </c>
       <c r="E54" s="3">
-        <v>19551300</v>
+        <v>19747100</v>
       </c>
       <c r="F54" s="3">
-        <v>19209800</v>
+        <v>18601200</v>
       </c>
       <c r="G54" s="3">
-        <v>18677500</v>
+        <v>18276400</v>
       </c>
       <c r="H54" s="3">
-        <v>19015700</v>
+        <v>17769900</v>
       </c>
       <c r="I54" s="3">
-        <v>16421500</v>
+        <v>18091600</v>
       </c>
       <c r="J54" s="3">
+        <v>15623500</v>
+      </c>
+      <c r="K54" s="3">
         <v>16333100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16325700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17573000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17679100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17342500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16277900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>15199100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>13694400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12926800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12981700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13205800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12869200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13003900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>14536500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>14468400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3866,363 +3997,381 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>603300</v>
+        <v>637300</v>
       </c>
       <c r="E58" s="3">
-        <v>600000</v>
+        <v>574000</v>
       </c>
       <c r="F58" s="3">
-        <v>941500</v>
+        <v>570800</v>
       </c>
       <c r="G58" s="3">
-        <v>1037500</v>
+        <v>895700</v>
       </c>
       <c r="H58" s="3">
-        <v>972000</v>
+        <v>987000</v>
       </c>
       <c r="I58" s="3">
-        <v>522500</v>
+        <v>924800</v>
       </c>
       <c r="J58" s="3">
+        <v>497200</v>
+      </c>
+      <c r="K58" s="3">
         <v>885800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>397400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1056500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>430000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>424700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>385200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>477900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>494000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>428200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>457900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1088300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1067000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1128700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1629200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1313500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2849500</v>
+        <v>2805400</v>
       </c>
       <c r="E59" s="3">
-        <v>2566900</v>
+        <v>2711000</v>
       </c>
       <c r="F59" s="3">
-        <v>2391300</v>
+        <v>2442200</v>
       </c>
       <c r="G59" s="3">
-        <v>2247300</v>
+        <v>2275100</v>
       </c>
       <c r="H59" s="3">
-        <v>2186200</v>
+        <v>2138100</v>
       </c>
       <c r="I59" s="3">
-        <v>2540700</v>
+        <v>2080000</v>
       </c>
       <c r="J59" s="3">
+        <v>2417300</v>
+      </c>
+      <c r="K59" s="3">
         <v>1900400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2919900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2348800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2973100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2977500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3314700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3244700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2825500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2747200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2742800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2236100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2022900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2008400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2225500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2195000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3452700</v>
+        <v>3442700</v>
       </c>
       <c r="E60" s="3">
-        <v>3166900</v>
+        <v>3285000</v>
       </c>
       <c r="F60" s="3">
-        <v>3332700</v>
+        <v>3013000</v>
       </c>
       <c r="G60" s="3">
-        <v>3284700</v>
+        <v>3170800</v>
       </c>
       <c r="H60" s="3">
-        <v>3158200</v>
+        <v>3125100</v>
       </c>
       <c r="I60" s="3">
-        <v>3063300</v>
+        <v>3004700</v>
       </c>
       <c r="J60" s="3">
+        <v>2914400</v>
+      </c>
+      <c r="K60" s="3">
         <v>2786200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3317300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3405300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3403000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3402100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3699800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3722600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3319500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3175400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3200700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3324500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3090000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3137100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3854800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3508500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3614200</v>
+        <v>3198800</v>
       </c>
       <c r="E61" s="3">
-        <v>3780000</v>
+        <v>3438600</v>
       </c>
       <c r="F61" s="3">
-        <v>3840000</v>
+        <v>3596300</v>
       </c>
       <c r="G61" s="3">
-        <v>3950200</v>
+        <v>3653400</v>
       </c>
       <c r="H61" s="3">
-        <v>4169500</v>
+        <v>3758200</v>
       </c>
       <c r="I61" s="3">
-        <v>3783300</v>
+        <v>3966900</v>
       </c>
       <c r="J61" s="3">
+        <v>3599400</v>
+      </c>
+      <c r="K61" s="3">
         <v>3942500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3549900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3773100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4297300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4497400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3942700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2679300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2484300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2375000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2269600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2295600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2347200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2597400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2739700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>3116500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2053100</v>
+        <v>1864100</v>
       </c>
       <c r="E62" s="3">
-        <v>1963600</v>
+        <v>1953300</v>
       </c>
       <c r="F62" s="3">
-        <v>2007300</v>
+        <v>1868200</v>
       </c>
       <c r="G62" s="3">
-        <v>1957100</v>
+        <v>1909700</v>
       </c>
       <c r="H62" s="3">
-        <v>2095600</v>
+        <v>1862000</v>
       </c>
       <c r="I62" s="3">
-        <v>1688700</v>
+        <v>1993800</v>
       </c>
       <c r="J62" s="3">
+        <v>1606700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1716000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1548000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1728900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1579000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1534000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>818200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>833900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>736600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>699400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>717000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>792100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>871800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>916700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>936700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>955500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9102600</v>
+        <v>8485900</v>
       </c>
       <c r="E66" s="3">
-        <v>8894200</v>
+        <v>8660200</v>
       </c>
       <c r="F66" s="3">
-        <v>9165800</v>
+        <v>8462000</v>
       </c>
       <c r="G66" s="3">
-        <v>9176700</v>
+        <v>8720400</v>
       </c>
       <c r="H66" s="3">
-        <v>9405800</v>
+        <v>8730800</v>
       </c>
       <c r="I66" s="3">
-        <v>8520000</v>
+        <v>8948800</v>
       </c>
       <c r="J66" s="3">
+        <v>8106000</v>
+      </c>
+      <c r="K66" s="3">
         <v>8430600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8402800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8899200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9257200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9434700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8476300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7257100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6565900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6291500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6237700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6464900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6362800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6707300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>7594600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7653200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7254600</v>
+        <v>6821100</v>
       </c>
       <c r="E72" s="3">
-        <v>6597800</v>
+        <v>6902000</v>
       </c>
       <c r="F72" s="3">
-        <v>6244400</v>
+        <v>6277200</v>
       </c>
       <c r="G72" s="3">
-        <v>5982600</v>
+        <v>5940900</v>
       </c>
       <c r="H72" s="3">
-        <v>6017500</v>
+        <v>5691800</v>
       </c>
       <c r="I72" s="3">
-        <v>5815600</v>
+        <v>5725100</v>
       </c>
       <c r="J72" s="3">
+        <v>5533000</v>
+      </c>
+      <c r="K72" s="3">
         <v>5736000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5962800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6435900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5713400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5409100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5428400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5567900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>4893400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4618200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4729100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4526100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4275900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4057100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4415900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4284400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11653100</v>
+        <v>11131500</v>
       </c>
       <c r="E76" s="3">
-        <v>10657100</v>
+        <v>11086800</v>
       </c>
       <c r="F76" s="3">
-        <v>10044000</v>
+        <v>10139200</v>
       </c>
       <c r="G76" s="3">
-        <v>9500700</v>
+        <v>9555900</v>
       </c>
       <c r="H76" s="3">
-        <v>9609800</v>
+        <v>9039100</v>
       </c>
       <c r="I76" s="3">
-        <v>7901500</v>
+        <v>9142900</v>
       </c>
       <c r="J76" s="3">
+        <v>7517500</v>
+      </c>
+      <c r="K76" s="3">
         <v>7902600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7922900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8673900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8421800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7907800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7801600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7942000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7128500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6635200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6743900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6740900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6506400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6296600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6941900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6815100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>672000</v>
+        <v>300000</v>
       </c>
       <c r="E81" s="3">
-        <v>328400</v>
+        <v>639300</v>
       </c>
       <c r="F81" s="3">
-        <v>224700</v>
+        <v>312400</v>
       </c>
       <c r="G81" s="3">
-        <v>157100</v>
+        <v>213800</v>
       </c>
       <c r="H81" s="3">
-        <v>260700</v>
+        <v>149500</v>
       </c>
       <c r="I81" s="3">
-        <v>96000</v>
+        <v>248100</v>
       </c>
       <c r="J81" s="3">
+        <v>91300</v>
+      </c>
+      <c r="K81" s="3">
         <v>160400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>171600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>607100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>85700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>69400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>277500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>359600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>237000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>242700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>195200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>214300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>163800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>133800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>106800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>567300</v>
+        <v>337300</v>
       </c>
       <c r="E89" s="3">
-        <v>483300</v>
+        <v>539700</v>
       </c>
       <c r="F89" s="3">
-        <v>403600</v>
+        <v>459800</v>
       </c>
       <c r="G89" s="3">
-        <v>156000</v>
+        <v>384000</v>
       </c>
       <c r="H89" s="3">
-        <v>416700</v>
+        <v>148400</v>
       </c>
       <c r="I89" s="3">
-        <v>418900</v>
+        <v>396500</v>
       </c>
       <c r="J89" s="3">
+        <v>398600</v>
+      </c>
+      <c r="K89" s="3">
         <v>317500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>80200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>753000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>524300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>544700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>148300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>322900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>451900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>312900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>138300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>529600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>408400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>317500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>97400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>489500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>406900</v>
+        <v>-183700</v>
       </c>
       <c r="E91" s="3">
-        <v>-150500</v>
+        <v>387100</v>
       </c>
       <c r="F91" s="3">
-        <v>-133100</v>
+        <v>-143200</v>
       </c>
       <c r="G91" s="3">
-        <v>-209500</v>
+        <v>-126600</v>
       </c>
       <c r="H91" s="3">
-        <v>402500</v>
+        <v>-199300</v>
       </c>
       <c r="I91" s="3">
-        <v>-160400</v>
+        <v>383000</v>
       </c>
       <c r="J91" s="3">
+        <v>-152600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-135300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-199900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>358400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-172700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-141200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-147100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>339500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-142900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-137300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-127400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>360200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-154800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-143600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-158500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-258200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-161500</v>
+        <v>-183700</v>
       </c>
       <c r="E94" s="3">
-        <v>-89500</v>
+        <v>-153600</v>
       </c>
       <c r="F94" s="3">
-        <v>-134200</v>
+        <v>-85100</v>
       </c>
       <c r="G94" s="3">
-        <v>-104700</v>
+        <v>-127700</v>
       </c>
       <c r="H94" s="3">
-        <v>-234500</v>
+        <v>-99600</v>
       </c>
       <c r="I94" s="3">
-        <v>-160400</v>
+        <v>-223100</v>
       </c>
       <c r="J94" s="3">
+        <v>-152600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-130900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-224700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-249800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-193500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-682300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-149500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-197500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-152800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-94400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-116400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-304100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-218800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-140200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-123300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-77500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,35 +6484,36 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-372600</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-31600</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-226900</v>
+        <v>-30100</v>
       </c>
       <c r="H96" s="3">
-        <v>-114500</v>
+        <v>-215900</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-109000</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-128700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6290,11 +6524,11 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-471300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-195300</v>
+        <v>-673600</v>
       </c>
       <c r="E100" s="3">
-        <v>-438500</v>
+        <v>-185800</v>
       </c>
       <c r="F100" s="3">
-        <v>-224700</v>
+        <v>-417200</v>
       </c>
       <c r="G100" s="3">
-        <v>-472400</v>
+        <v>-213800</v>
       </c>
       <c r="H100" s="3">
-        <v>147300</v>
+        <v>-449400</v>
       </c>
       <c r="I100" s="3">
-        <v>66500</v>
+        <v>140100</v>
       </c>
       <c r="J100" s="3">
+        <v>63300</v>
+      </c>
+      <c r="K100" s="3">
         <v>149500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>23700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-302400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-491200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-324700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>95700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>45000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>111900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-294300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>61500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-278300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-640700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-219500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16400</v>
+        <v>4200</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>15600</v>
       </c>
       <c r="F101" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-1100</v>
+        <v>4200</v>
       </c>
       <c r="H101" s="3">
-        <v>-3300</v>
+        <v>-1000</v>
       </c>
       <c r="I101" s="3">
-        <v>-4400</v>
+        <v>-3100</v>
       </c>
       <c r="J101" s="3">
-        <v>-1100</v>
+        <v>-4200</v>
       </c>
       <c r="K101" s="3">
         <v>-1100</v>
       </c>
       <c r="L101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M101" s="3">
         <v>1200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>6100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>17900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-6700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-18000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>2300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>11700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>226900</v>
+        <v>-515800</v>
       </c>
       <c r="E102" s="3">
-        <v>-44700</v>
+        <v>215900</v>
       </c>
       <c r="F102" s="3">
-        <v>49100</v>
+        <v>-42600</v>
       </c>
       <c r="G102" s="3">
-        <v>-422200</v>
+        <v>46700</v>
       </c>
       <c r="H102" s="3">
-        <v>326200</v>
+        <v>-401700</v>
       </c>
       <c r="I102" s="3">
-        <v>320700</v>
+        <v>310300</v>
       </c>
       <c r="J102" s="3">
+        <v>305100</v>
+      </c>
+      <c r="K102" s="3">
         <v>334900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-121900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>197300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-162900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-464700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>112400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>172700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>402100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-69200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>87800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>213200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-92000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-481300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-29300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>204200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2904000</v>
+        <v>3046100</v>
       </c>
       <c r="E8" s="3">
-        <v>2822100</v>
+        <v>2790700</v>
       </c>
       <c r="F8" s="3">
-        <v>2674700</v>
+        <v>2711900</v>
       </c>
       <c r="G8" s="3">
-        <v>2690200</v>
+        <v>2570300</v>
       </c>
       <c r="H8" s="3">
-        <v>2362300</v>
+        <v>2585300</v>
       </c>
       <c r="I8" s="3">
-        <v>2234600</v>
+        <v>2270100</v>
       </c>
       <c r="J8" s="3">
+        <v>2147400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2157800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2306200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2491900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2814600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2942400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3068100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3152000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3144100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2863100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2925100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2831700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2817300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2815100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2836400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2931000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2861700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2243900</v>
+        <v>2385800</v>
       </c>
       <c r="E9" s="3">
-        <v>2230400</v>
+        <v>2156400</v>
       </c>
       <c r="F9" s="3">
-        <v>2101700</v>
+        <v>2143400</v>
       </c>
       <c r="G9" s="3">
-        <v>2142200</v>
+        <v>2019700</v>
       </c>
       <c r="H9" s="3">
-        <v>1935700</v>
+        <v>2058600</v>
       </c>
       <c r="I9" s="3">
-        <v>1944000</v>
+        <v>1860200</v>
       </c>
       <c r="J9" s="3">
+        <v>1868100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1803900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1922200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2065100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2445700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2424300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2503400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2512000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2572800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2225200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2333300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2179500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1934300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1910700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1950000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2019000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2006000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>660100</v>
+        <v>660300</v>
       </c>
       <c r="E10" s="3">
-        <v>591600</v>
+        <v>634300</v>
       </c>
       <c r="F10" s="3">
-        <v>572900</v>
+        <v>568500</v>
       </c>
       <c r="G10" s="3">
-        <v>548000</v>
+        <v>550600</v>
       </c>
       <c r="H10" s="3">
-        <v>426600</v>
+        <v>526600</v>
       </c>
       <c r="I10" s="3">
-        <v>290600</v>
+        <v>409900</v>
       </c>
       <c r="J10" s="3">
+        <v>279300</v>
+      </c>
+      <c r="K10" s="3">
         <v>353900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>384000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>426800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>368900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>518200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>564700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>640000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>571300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>638000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>591800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>652200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>883000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>904300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>886400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>912100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>855700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,64 +1183,67 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>84100</v>
+        <v>65800</v>
       </c>
       <c r="E14" s="3">
-        <v>-339400</v>
+        <v>80800</v>
       </c>
       <c r="F14" s="3">
-        <v>-6200</v>
+        <v>-326100</v>
       </c>
       <c r="G14" s="3">
-        <v>39400</v>
+        <v>-6000</v>
       </c>
       <c r="H14" s="3">
-        <v>112100</v>
+        <v>37900</v>
       </c>
       <c r="I14" s="3">
-        <v>-218000</v>
+        <v>107700</v>
       </c>
       <c r="J14" s="3">
+        <v>-209500</v>
+      </c>
+      <c r="K14" s="3">
         <v>14500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-69800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-132100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-513700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>36700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>19100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>20100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>22200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>18700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15400</v>
-      </c>
-      <c r="U14" s="3">
-        <v>22400</v>
       </c>
       <c r="V14" s="3">
         <v>22400</v>
@@ -1232,90 +1252,96 @@
         <v>22400</v>
       </c>
       <c r="X14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="Y14" s="3">
         <v>14100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>237100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>129700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>134600</v>
+      </c>
+      <c r="F15" s="3">
+        <v>145600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>135600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>134600</v>
+      </c>
+      <c r="I15" s="3">
+        <v>138600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>149600</v>
+      </c>
+      <c r="K15" s="3">
         <v>140100</v>
       </c>
-      <c r="E15" s="3">
-        <v>151500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>141200</v>
-      </c>
-      <c r="G15" s="3">
-        <v>140100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>144300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>155700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>140100</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>148400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>155800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>171600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>160500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>157600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>159100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>134900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>135100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>132900</v>
       </c>
       <c r="T15" s="3">
         <v>132900</v>
       </c>
       <c r="U15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="V15" s="3">
         <v>145900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>139100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>133500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>166700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>71600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2495100</v>
+        <v>2648100</v>
       </c>
       <c r="E17" s="3">
-        <v>1951300</v>
+        <v>2397700</v>
       </c>
       <c r="F17" s="3">
-        <v>2274000</v>
+        <v>1875100</v>
       </c>
       <c r="G17" s="3">
-        <v>2501300</v>
+        <v>2185300</v>
       </c>
       <c r="H17" s="3">
-        <v>2195200</v>
+        <v>2403700</v>
       </c>
       <c r="I17" s="3">
-        <v>1934600</v>
+        <v>2109500</v>
       </c>
       <c r="J17" s="3">
+        <v>1859200</v>
+      </c>
+      <c r="K17" s="3">
         <v>2007300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2059600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2196100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2019600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2734200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2901000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2777600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2723000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2461100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2577000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2442000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2552500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2512100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2606400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2704500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2691500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>408900</v>
+        <v>398000</v>
       </c>
       <c r="E18" s="3">
-        <v>870800</v>
+        <v>393000</v>
       </c>
       <c r="F18" s="3">
-        <v>400600</v>
+        <v>836800</v>
       </c>
       <c r="G18" s="3">
-        <v>188900</v>
+        <v>385000</v>
       </c>
       <c r="H18" s="3">
-        <v>167100</v>
+        <v>181500</v>
       </c>
       <c r="I18" s="3">
-        <v>300000</v>
+        <v>160600</v>
       </c>
       <c r="J18" s="3">
+        <v>288200</v>
+      </c>
+      <c r="K18" s="3">
         <v>150500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>246500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>295800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>795000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>208200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>167000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>374400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>421100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>402100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>348100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>389800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>264800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>302900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>230000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>226500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>170200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20800</v>
+        <v>-28900</v>
       </c>
       <c r="E20" s="3">
-        <v>-47700</v>
+        <v>-19900</v>
       </c>
       <c r="F20" s="3">
-        <v>-38400</v>
+        <v>-45900</v>
       </c>
       <c r="G20" s="3">
+        <v>-36900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-28900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-31100</v>
       </c>
-      <c r="H20" s="3">
-        <v>-37400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-30100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-31100</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-39300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-59800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-39700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-67400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-57600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-37100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-48500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-64200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-65900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-24200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-30300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-51600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-67300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-34000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-81000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>740000</v>
+        <v>293200</v>
       </c>
       <c r="E21" s="3">
-        <v>1405300</v>
+        <v>711100</v>
       </c>
       <c r="F21" s="3">
-        <v>363300</v>
+        <v>1350500</v>
       </c>
       <c r="G21" s="3">
-        <v>153600</v>
+        <v>349100</v>
       </c>
       <c r="H21" s="3">
-        <v>274000</v>
+        <v>147600</v>
       </c>
       <c r="I21" s="3">
-        <v>761800</v>
+        <v>263300</v>
       </c>
       <c r="J21" s="3">
+        <v>732100</v>
+      </c>
+      <c r="K21" s="3">
         <v>118300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>205100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>391800</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>110600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>496400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>363200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>338900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>282200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>498500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>241200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>256900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>136900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>359200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>403800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>388200</v>
+        <v>369000</v>
       </c>
       <c r="E23" s="3">
-        <v>823100</v>
+        <v>373000</v>
       </c>
       <c r="F23" s="3">
-        <v>362200</v>
+        <v>790900</v>
       </c>
       <c r="G23" s="3">
-        <v>157800</v>
+        <v>348100</v>
       </c>
       <c r="H23" s="3">
-        <v>129700</v>
+        <v>151600</v>
       </c>
       <c r="I23" s="3">
-        <v>269900</v>
+        <v>124700</v>
       </c>
       <c r="J23" s="3">
+        <v>259300</v>
+      </c>
+      <c r="K23" s="3">
         <v>119400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>207300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>236000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>755300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>140900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>109400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>337300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>372600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>337800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>282200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>365600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>234500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>251300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>162700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>192500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>89200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>91300</v>
+        <v>70800</v>
       </c>
       <c r="E24" s="3">
-        <v>183700</v>
+        <v>87800</v>
       </c>
       <c r="F24" s="3">
-        <v>51900</v>
+        <v>176500</v>
       </c>
       <c r="G24" s="3">
-        <v>-58100</v>
+        <v>49900</v>
       </c>
       <c r="H24" s="3">
-        <v>-20800</v>
+        <v>-55900</v>
       </c>
       <c r="I24" s="3">
-        <v>23900</v>
+        <v>-19900</v>
       </c>
       <c r="J24" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K24" s="3">
         <v>29100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>66600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>148300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>69800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>48200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>67000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>111900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>48300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>65900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>40400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>37000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>66900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>23500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>296800</v>
+        <v>298200</v>
       </c>
       <c r="E26" s="3">
-        <v>639300</v>
+        <v>285300</v>
       </c>
       <c r="F26" s="3">
-        <v>310300</v>
+        <v>614400</v>
       </c>
       <c r="G26" s="3">
-        <v>215900</v>
+        <v>298200</v>
       </c>
       <c r="H26" s="3">
-        <v>150500</v>
+        <v>207500</v>
       </c>
       <c r="I26" s="3">
-        <v>246000</v>
+        <v>144600</v>
       </c>
       <c r="J26" s="3">
+        <v>236400</v>
+      </c>
+      <c r="K26" s="3">
         <v>90300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>157100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>169400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>607100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>71000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>61200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>270300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>353700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>226000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>233900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>299800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>194100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>214300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>160400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>125600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>65700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>300000</v>
+        <v>302200</v>
       </c>
       <c r="E27" s="3">
-        <v>639300</v>
+        <v>288200</v>
       </c>
       <c r="F27" s="3">
-        <v>312400</v>
+        <v>614400</v>
       </c>
       <c r="G27" s="3">
-        <v>213800</v>
+        <v>300200</v>
       </c>
       <c r="H27" s="3">
-        <v>149500</v>
+        <v>205500</v>
       </c>
       <c r="I27" s="3">
-        <v>248100</v>
+        <v>143600</v>
       </c>
       <c r="J27" s="3">
+        <v>238400</v>
+      </c>
+      <c r="K27" s="3">
         <v>91300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>160400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>171600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>607100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>85700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>69400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>277500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>359600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>237000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>242700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>195200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>214300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>163800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>133800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>106800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20800</v>
+        <v>28900</v>
       </c>
       <c r="E32" s="3">
-        <v>47700</v>
+        <v>19900</v>
       </c>
       <c r="F32" s="3">
-        <v>38400</v>
+        <v>45900</v>
       </c>
       <c r="G32" s="3">
+        <v>36900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>29900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>35900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K32" s="3">
         <v>31100</v>
       </c>
-      <c r="H32" s="3">
-        <v>37400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>30100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>31100</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>39300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>59800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>39700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>67400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>57600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>37100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>48500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>64200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>65900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>24200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>30300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>51600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>67300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>34000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>81000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>300000</v>
+        <v>302200</v>
       </c>
       <c r="E33" s="3">
-        <v>639300</v>
+        <v>288200</v>
       </c>
       <c r="F33" s="3">
-        <v>312400</v>
+        <v>614400</v>
       </c>
       <c r="G33" s="3">
-        <v>213800</v>
+        <v>300200</v>
       </c>
       <c r="H33" s="3">
-        <v>149500</v>
+        <v>205500</v>
       </c>
       <c r="I33" s="3">
-        <v>248100</v>
+        <v>143600</v>
       </c>
       <c r="J33" s="3">
+        <v>238400</v>
+      </c>
+      <c r="K33" s="3">
         <v>91300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>160400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>171600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>607100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>85700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>69400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>277500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>359600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>237000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>242700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>195200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>214300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>163800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>133800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>106800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>300000</v>
+        <v>302200</v>
       </c>
       <c r="E35" s="3">
-        <v>639300</v>
+        <v>288200</v>
       </c>
       <c r="F35" s="3">
-        <v>312400</v>
+        <v>614400</v>
       </c>
       <c r="G35" s="3">
-        <v>213800</v>
+        <v>300200</v>
       </c>
       <c r="H35" s="3">
-        <v>149500</v>
+        <v>205500</v>
       </c>
       <c r="I35" s="3">
-        <v>248100</v>
+        <v>143600</v>
       </c>
       <c r="J35" s="3">
+        <v>238400</v>
+      </c>
+      <c r="K35" s="3">
         <v>91300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>160400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>171600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>607100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>85700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>69400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>277500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>359600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>237000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>242700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>195200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>214300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>163800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>133800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>106800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1020300</v>
+        <v>1354500</v>
       </c>
       <c r="E41" s="3">
-        <v>1537100</v>
+        <v>980400</v>
       </c>
       <c r="F41" s="3">
-        <v>1320200</v>
+        <v>1477100</v>
       </c>
       <c r="G41" s="3">
-        <v>1362800</v>
+        <v>1268700</v>
       </c>
       <c r="H41" s="3">
-        <v>1317100</v>
+        <v>1309600</v>
       </c>
       <c r="I41" s="3">
-        <v>1724000</v>
+        <v>1265700</v>
       </c>
       <c r="J41" s="3">
+        <v>1656700</v>
+      </c>
+      <c r="K41" s="3">
         <v>1415700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1158500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>853600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1022700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>873400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>979900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1463000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1336700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1113100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>690600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>754300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>681000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>469000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>559900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1094000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1118600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,200 +3072,209 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1726000</v>
+        <v>1779400</v>
       </c>
       <c r="E43" s="3">
-        <v>1575500</v>
+        <v>1658700</v>
       </c>
       <c r="F43" s="3">
-        <v>1533000</v>
+        <v>1514100</v>
       </c>
       <c r="G43" s="3">
-        <v>1531900</v>
+        <v>1473200</v>
       </c>
       <c r="H43" s="3">
-        <v>1394900</v>
+        <v>1472200</v>
       </c>
       <c r="I43" s="3">
-        <v>1204000</v>
+        <v>1340500</v>
       </c>
       <c r="J43" s="3">
+        <v>1157000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1228900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1330900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1446400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1521100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1632900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1765800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1897200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1834700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1680200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1681000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1631600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1579800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1576400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1580900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1618700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1558800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1680400</v>
+        <v>1714500</v>
       </c>
       <c r="E44" s="3">
-        <v>1534000</v>
+        <v>1614800</v>
       </c>
       <c r="F44" s="3">
-        <v>1523600</v>
+        <v>1474200</v>
       </c>
       <c r="G44" s="3">
-        <v>1388700</v>
+        <v>1464200</v>
       </c>
       <c r="H44" s="3">
-        <v>1393900</v>
+        <v>1334500</v>
       </c>
       <c r="I44" s="3">
-        <v>1318100</v>
+        <v>1339500</v>
       </c>
       <c r="J44" s="3">
+        <v>1266700</v>
+      </c>
+      <c r="K44" s="3">
         <v>1351300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1488000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1577400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1623900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1860800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1832800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1992900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1853600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1664700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1559200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1592100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1482100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1493400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1515800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1687900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1579900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15600</v>
+        <v>6000</v>
       </c>
       <c r="E45" s="3">
-        <v>33200</v>
+        <v>15000</v>
       </c>
       <c r="F45" s="3">
-        <v>5200</v>
+        <v>31900</v>
       </c>
       <c r="G45" s="3">
-        <v>8300</v>
+        <v>5000</v>
       </c>
       <c r="H45" s="3">
-        <v>6200</v>
+        <v>8000</v>
       </c>
       <c r="I45" s="3">
-        <v>66400</v>
+        <v>6000</v>
       </c>
       <c r="J45" s="3">
+        <v>63800</v>
+      </c>
+      <c r="K45" s="3">
         <v>17600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25100</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
@@ -3186,8 +3285,8 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
+      <c r="U45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3204,304 +3303,319 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4442200</v>
+        <v>4854300</v>
       </c>
       <c r="E46" s="3">
-        <v>4679900</v>
+        <v>4268900</v>
       </c>
       <c r="F46" s="3">
-        <v>4382000</v>
+        <v>4497300</v>
       </c>
       <c r="G46" s="3">
-        <v>4291700</v>
+        <v>4211000</v>
       </c>
       <c r="H46" s="3">
-        <v>4112200</v>
+        <v>4124200</v>
       </c>
       <c r="I46" s="3">
-        <v>4312500</v>
+        <v>3951700</v>
       </c>
       <c r="J46" s="3">
+        <v>4144200</v>
+      </c>
+      <c r="K46" s="3">
         <v>4013600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4003600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3888600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4191000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4380600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4598500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5378100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5025000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4458100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3930800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3978100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3743000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3538800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3656600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4400600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4257400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1693900</v>
+        <v>1613800</v>
       </c>
       <c r="E47" s="3">
-        <v>1607700</v>
+        <v>1627800</v>
       </c>
       <c r="F47" s="3">
-        <v>1344100</v>
+        <v>1545000</v>
       </c>
       <c r="G47" s="3">
-        <v>1075300</v>
+        <v>1291600</v>
       </c>
       <c r="H47" s="3">
-        <v>1010900</v>
+        <v>1033300</v>
       </c>
       <c r="I47" s="3">
-        <v>1002600</v>
+        <v>971500</v>
       </c>
       <c r="J47" s="3">
+        <v>963500</v>
+      </c>
+      <c r="K47" s="3">
         <v>954900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>952400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>931500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1276000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1429600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1271700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2598100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2623700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2372500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2127900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2109300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2237200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2186800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2076800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2217300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2225500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12609400</v>
+        <v>12368800</v>
       </c>
       <c r="E48" s="3">
-        <v>12713200</v>
+        <v>12117400</v>
       </c>
       <c r="F48" s="3">
-        <v>12113300</v>
+        <v>12217200</v>
       </c>
       <c r="G48" s="3">
-        <v>12136200</v>
+        <v>11640700</v>
       </c>
       <c r="H48" s="3">
-        <v>11930700</v>
+        <v>11662600</v>
       </c>
       <c r="I48" s="3">
-        <v>12158000</v>
+        <v>11465100</v>
       </c>
       <c r="J48" s="3">
+        <v>11683500</v>
+      </c>
+      <c r="K48" s="3">
         <v>10030300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10677800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10744500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11376400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11076400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10686400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7542000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6731900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6154900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6126800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6149900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6460400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6440200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6509800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>7095700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7160200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>703700</v>
+        <v>611400</v>
       </c>
       <c r="E49" s="3">
-        <v>563600</v>
+        <v>676200</v>
       </c>
       <c r="F49" s="3">
-        <v>566700</v>
+        <v>541600</v>
       </c>
       <c r="G49" s="3">
-        <v>549000</v>
+        <v>544600</v>
       </c>
       <c r="H49" s="3">
-        <v>553200</v>
+        <v>527600</v>
       </c>
       <c r="I49" s="3">
-        <v>468100</v>
+        <v>531600</v>
       </c>
       <c r="J49" s="3">
+        <v>449800</v>
+      </c>
+      <c r="K49" s="3">
         <v>489900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>533500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>605200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>593000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>635800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>630600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>590900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>618700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>569300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>565500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>557800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>536300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>476800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>490300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>521200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>507100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>168100</v>
+        <v>175500</v>
       </c>
       <c r="E52" s="3">
-        <v>182700</v>
+        <v>161600</v>
       </c>
       <c r="F52" s="3">
-        <v>195100</v>
+        <v>175500</v>
       </c>
       <c r="G52" s="3">
-        <v>224200</v>
+        <v>187500</v>
       </c>
       <c r="H52" s="3">
-        <v>163000</v>
+        <v>215400</v>
       </c>
       <c r="I52" s="3">
-        <v>150500</v>
+        <v>156600</v>
       </c>
       <c r="J52" s="3">
+        <v>144600</v>
+      </c>
+      <c r="K52" s="3">
         <v>134900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>165800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>155800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>136600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>156800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>155300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>168700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>199900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>139600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>175700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>186700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>228900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>226600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>270400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>301700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>318100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19617300</v>
+        <v>19623800</v>
       </c>
       <c r="E54" s="3">
-        <v>19747100</v>
+        <v>18851900</v>
       </c>
       <c r="F54" s="3">
-        <v>18601200</v>
+        <v>18976500</v>
       </c>
       <c r="G54" s="3">
-        <v>18276400</v>
+        <v>17875400</v>
       </c>
       <c r="H54" s="3">
-        <v>17769900</v>
+        <v>17563200</v>
       </c>
       <c r="I54" s="3">
-        <v>18091600</v>
+        <v>17076500</v>
       </c>
       <c r="J54" s="3">
+        <v>17385700</v>
+      </c>
+      <c r="K54" s="3">
         <v>15623500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>16333100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16325700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17573000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17679100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17342500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16277900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15199100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13694400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12926800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12981700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13205800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12869200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13003900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>14536500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>14468400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4000,378 +4131,396 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>637300</v>
+        <v>884700</v>
       </c>
       <c r="E58" s="3">
-        <v>574000</v>
+        <v>612400</v>
       </c>
       <c r="F58" s="3">
-        <v>570800</v>
+        <v>551600</v>
       </c>
       <c r="G58" s="3">
-        <v>895700</v>
+        <v>548600</v>
       </c>
       <c r="H58" s="3">
-        <v>987000</v>
+        <v>860800</v>
       </c>
       <c r="I58" s="3">
-        <v>924800</v>
+        <v>948500</v>
       </c>
       <c r="J58" s="3">
+        <v>888700</v>
+      </c>
+      <c r="K58" s="3">
         <v>497200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>885800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>397400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1056500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>430000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>424700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>385200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>477900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>494000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>428200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>457900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1088300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1067000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1128700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1629200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1313500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2805400</v>
+        <v>2643100</v>
       </c>
       <c r="E59" s="3">
-        <v>2711000</v>
+        <v>2696000</v>
       </c>
       <c r="F59" s="3">
-        <v>2442200</v>
+        <v>2605200</v>
       </c>
       <c r="G59" s="3">
-        <v>2275100</v>
+        <v>2346900</v>
       </c>
       <c r="H59" s="3">
-        <v>2138100</v>
+        <v>2186300</v>
       </c>
       <c r="I59" s="3">
-        <v>2080000</v>
+        <v>2054600</v>
       </c>
       <c r="J59" s="3">
+        <v>1998800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2417300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2919900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2348800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2973100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2977500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3314700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3244700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2825500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2747200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2742800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2236100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2022900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2008400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2225500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2195000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3442700</v>
+        <v>3527800</v>
       </c>
       <c r="E60" s="3">
-        <v>3285000</v>
+        <v>3308400</v>
       </c>
       <c r="F60" s="3">
-        <v>3013000</v>
+        <v>3156800</v>
       </c>
       <c r="G60" s="3">
-        <v>3170800</v>
+        <v>2895500</v>
       </c>
       <c r="H60" s="3">
-        <v>3125100</v>
+        <v>3047100</v>
       </c>
       <c r="I60" s="3">
-        <v>3004700</v>
+        <v>3003200</v>
       </c>
       <c r="J60" s="3">
+        <v>2887500</v>
+      </c>
+      <c r="K60" s="3">
         <v>2914400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2786200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3317300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3405300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3403000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3402100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3699800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3722600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3319500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3175400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3200700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3324500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3090000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3137100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3854800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3508500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3198800</v>
+        <v>3031100</v>
       </c>
       <c r="E61" s="3">
-        <v>3438600</v>
+        <v>3074000</v>
       </c>
       <c r="F61" s="3">
-        <v>3596300</v>
+        <v>3304400</v>
       </c>
       <c r="G61" s="3">
-        <v>3653400</v>
+        <v>3456000</v>
       </c>
       <c r="H61" s="3">
-        <v>3758200</v>
+        <v>3510800</v>
       </c>
       <c r="I61" s="3">
-        <v>3966900</v>
+        <v>3611600</v>
       </c>
       <c r="J61" s="3">
+        <v>3812100</v>
+      </c>
+      <c r="K61" s="3">
         <v>3599400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3942500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3549900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3773100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4297300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4497400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3942700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2679300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2484300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2375000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2269600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2295600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2347200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2597400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2739700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>3116500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1864100</v>
+        <v>1769400</v>
       </c>
       <c r="E62" s="3">
-        <v>1953300</v>
+        <v>1791300</v>
       </c>
       <c r="F62" s="3">
-        <v>1868200</v>
+        <v>1877100</v>
       </c>
       <c r="G62" s="3">
-        <v>1909700</v>
+        <v>1795300</v>
       </c>
       <c r="H62" s="3">
-        <v>1862000</v>
+        <v>1835200</v>
       </c>
       <c r="I62" s="3">
-        <v>1993800</v>
+        <v>1789300</v>
       </c>
       <c r="J62" s="3">
+        <v>1916000</v>
+      </c>
+      <c r="K62" s="3">
         <v>1606700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1716000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1548000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1728900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1579000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1534000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>818200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>833900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>736600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>699400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>717000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>792100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>871800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>916700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>936700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>955500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8485900</v>
+        <v>8303400</v>
       </c>
       <c r="E66" s="3">
-        <v>8660200</v>
+        <v>8154700</v>
       </c>
       <c r="F66" s="3">
-        <v>8462000</v>
+        <v>8322300</v>
       </c>
       <c r="G66" s="3">
-        <v>8720400</v>
+        <v>8131800</v>
       </c>
       <c r="H66" s="3">
-        <v>8730800</v>
+        <v>8380200</v>
       </c>
       <c r="I66" s="3">
-        <v>8948800</v>
+        <v>8390100</v>
       </c>
       <c r="J66" s="3">
+        <v>8599600</v>
+      </c>
+      <c r="K66" s="3">
         <v>8106000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8430600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8402800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8899200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9257200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9434700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8476300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7257100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6565900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6291500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6237700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6464900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6362800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6707300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>7594600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7653200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6821100</v>
+        <v>6952900</v>
       </c>
       <c r="E72" s="3">
-        <v>6902000</v>
+        <v>6554900</v>
       </c>
       <c r="F72" s="3">
-        <v>6277200</v>
+        <v>6632700</v>
       </c>
       <c r="G72" s="3">
-        <v>5940900</v>
+        <v>6032300</v>
       </c>
       <c r="H72" s="3">
-        <v>5691800</v>
+        <v>5709100</v>
       </c>
       <c r="I72" s="3">
-        <v>5725100</v>
+        <v>5469700</v>
       </c>
       <c r="J72" s="3">
+        <v>5501700</v>
+      </c>
+      <c r="K72" s="3">
         <v>5533000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5736000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5962800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>6435900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5713400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5409100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5428400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5567900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>4893400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4618200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4729100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4526100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4275900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4057100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4415900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4284400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11131500</v>
+        <v>11320500</v>
       </c>
       <c r="E76" s="3">
-        <v>11086800</v>
+        <v>10697100</v>
       </c>
       <c r="F76" s="3">
-        <v>10139200</v>
+        <v>10654200</v>
       </c>
       <c r="G76" s="3">
-        <v>9555900</v>
+        <v>9743600</v>
       </c>
       <c r="H76" s="3">
-        <v>9039100</v>
+        <v>9183100</v>
       </c>
       <c r="I76" s="3">
-        <v>9142900</v>
+        <v>8686400</v>
       </c>
       <c r="J76" s="3">
+        <v>8786100</v>
+      </c>
+      <c r="K76" s="3">
         <v>7517500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7902600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7922900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8673900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8421800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7907800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7801600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7942000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7128500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>6635200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6743900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6740900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6506400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6296600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6941900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6815100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>300000</v>
+        <v>302200</v>
       </c>
       <c r="E81" s="3">
-        <v>639300</v>
+        <v>288200</v>
       </c>
       <c r="F81" s="3">
-        <v>312400</v>
+        <v>614400</v>
       </c>
       <c r="G81" s="3">
-        <v>213800</v>
+        <v>300200</v>
       </c>
       <c r="H81" s="3">
-        <v>149500</v>
+        <v>205500</v>
       </c>
       <c r="I81" s="3">
-        <v>248100</v>
+        <v>143600</v>
       </c>
       <c r="J81" s="3">
+        <v>238400</v>
+      </c>
+      <c r="K81" s="3">
         <v>91300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>160400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>171600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>607100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>85700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>69400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>277500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>359600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>237000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>242700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>195200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>214300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>163800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>133800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>106800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>337300</v>
+        <v>343100</v>
       </c>
       <c r="E89" s="3">
-        <v>539700</v>
+        <v>324200</v>
       </c>
       <c r="F89" s="3">
-        <v>459800</v>
+        <v>518600</v>
       </c>
       <c r="G89" s="3">
-        <v>384000</v>
+        <v>441800</v>
       </c>
       <c r="H89" s="3">
-        <v>148400</v>
+        <v>369000</v>
       </c>
       <c r="I89" s="3">
-        <v>396500</v>
+        <v>142600</v>
       </c>
       <c r="J89" s="3">
+        <v>381000</v>
+      </c>
+      <c r="K89" s="3">
         <v>398600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>317500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>80200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>753000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>524300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>544700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>148300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>322900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>451900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>312900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>138300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>529600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>408400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>317500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>97400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>489500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-183700</v>
+        <v>-152600</v>
       </c>
       <c r="E91" s="3">
-        <v>387100</v>
+        <v>-176500</v>
       </c>
       <c r="F91" s="3">
-        <v>-143200</v>
+        <v>372000</v>
       </c>
       <c r="G91" s="3">
-        <v>-126600</v>
+        <v>-137600</v>
       </c>
       <c r="H91" s="3">
-        <v>-199300</v>
+        <v>-121700</v>
       </c>
       <c r="I91" s="3">
-        <v>383000</v>
+        <v>-191500</v>
       </c>
       <c r="J91" s="3">
+        <v>368000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-152600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-135300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-199900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>358400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-172700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-141200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-147100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>339500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-142900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-137300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-127400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>360200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-154800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-143600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-158500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-258200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-183700</v>
+        <v>-176500</v>
       </c>
       <c r="E94" s="3">
-        <v>-153600</v>
+        <v>-176500</v>
       </c>
       <c r="F94" s="3">
-        <v>-85100</v>
+        <v>-147600</v>
       </c>
       <c r="G94" s="3">
-        <v>-127700</v>
+        <v>-81800</v>
       </c>
       <c r="H94" s="3">
-        <v>-99600</v>
+        <v>-122700</v>
       </c>
       <c r="I94" s="3">
-        <v>-223100</v>
+        <v>-95800</v>
       </c>
       <c r="J94" s="3">
+        <v>-214400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-152600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-130900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-224700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-249800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-193500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-682300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-149500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-197500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-152800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-94400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-116400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-304100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-218800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-140200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-123300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-77500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,38 +6718,39 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-372600</v>
+        <v>-74800</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-358100</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-30100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-215900</v>
+        <v>-28900</v>
       </c>
       <c r="I96" s="3">
-        <v>-109000</v>
+        <v>-207500</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-104700</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-128700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -6527,11 +6761,11 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-471300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-673600</v>
+        <v>177500</v>
       </c>
       <c r="E100" s="3">
-        <v>-185800</v>
+        <v>-647300</v>
       </c>
       <c r="F100" s="3">
-        <v>-417200</v>
+        <v>-178500</v>
       </c>
       <c r="G100" s="3">
-        <v>-213800</v>
+        <v>-401000</v>
       </c>
       <c r="H100" s="3">
-        <v>-449400</v>
+        <v>-205500</v>
       </c>
       <c r="I100" s="3">
-        <v>140100</v>
+        <v>-431900</v>
       </c>
       <c r="J100" s="3">
+        <v>134600</v>
+      </c>
+      <c r="K100" s="3">
         <v>63300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>149500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>23700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-302400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-491200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-324700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>95700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>45000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>111900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-294300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>61500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-278300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-640700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-219500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4200</v>
+        <v>29900</v>
       </c>
       <c r="E101" s="3">
-        <v>15600</v>
+        <v>4000</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G101" s="3">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
-        <v>-3100</v>
-      </c>
       <c r="J101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-4200</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-1100</v>
       </c>
       <c r="L101" s="3">
         <v>-1100</v>
       </c>
       <c r="M101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N101" s="3">
         <v>1200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>6100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>17900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-8900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-6700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-18000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>2300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>11700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-515800</v>
+        <v>374000</v>
       </c>
       <c r="E102" s="3">
-        <v>215900</v>
+        <v>-495700</v>
       </c>
       <c r="F102" s="3">
-        <v>-42600</v>
+        <v>207500</v>
       </c>
       <c r="G102" s="3">
-        <v>46700</v>
+        <v>-40900</v>
       </c>
       <c r="H102" s="3">
-        <v>-401700</v>
+        <v>44900</v>
       </c>
       <c r="I102" s="3">
-        <v>310300</v>
+        <v>-386000</v>
       </c>
       <c r="J102" s="3">
+        <v>298200</v>
+      </c>
+      <c r="K102" s="3">
         <v>305100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>334900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-121900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>197300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-162900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-464700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>112400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>172700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>402100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-69200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>87800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>213200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-92000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-481300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-29300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>204200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3046100</v>
+        <v>3024600</v>
       </c>
       <c r="E8" s="3">
-        <v>2790700</v>
+        <v>3117500</v>
       </c>
       <c r="F8" s="3">
-        <v>2711900</v>
+        <v>2856200</v>
       </c>
       <c r="G8" s="3">
-        <v>2570300</v>
+        <v>2775600</v>
       </c>
       <c r="H8" s="3">
-        <v>2585300</v>
+        <v>2630600</v>
       </c>
       <c r="I8" s="3">
-        <v>2270100</v>
+        <v>2645900</v>
       </c>
       <c r="J8" s="3">
+        <v>2323300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2147400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2157800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2306200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2491900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2814600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2942400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3068100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3152000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3144100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2863100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2925100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2831700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2817300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2815100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2836400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2931000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2861700</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2385800</v>
+        <v>2303900</v>
       </c>
       <c r="E9" s="3">
-        <v>2156400</v>
+        <v>2441800</v>
       </c>
       <c r="F9" s="3">
-        <v>2143400</v>
+        <v>2207000</v>
       </c>
       <c r="G9" s="3">
-        <v>2019700</v>
+        <v>2193700</v>
       </c>
       <c r="H9" s="3">
-        <v>2058600</v>
+        <v>2067100</v>
       </c>
       <c r="I9" s="3">
-        <v>1860200</v>
+        <v>2106900</v>
       </c>
       <c r="J9" s="3">
+        <v>1903800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1868100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1803900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1922200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2065100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2445700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2424300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2503400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2512000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2572800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2225200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2333300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2179500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1934300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1910700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1950000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2019000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2006000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>660300</v>
+        <v>720700</v>
       </c>
       <c r="E10" s="3">
-        <v>634300</v>
+        <v>675800</v>
       </c>
       <c r="F10" s="3">
-        <v>568500</v>
+        <v>649200</v>
       </c>
       <c r="G10" s="3">
-        <v>550600</v>
+        <v>581900</v>
       </c>
       <c r="H10" s="3">
-        <v>526600</v>
+        <v>563500</v>
       </c>
       <c r="I10" s="3">
-        <v>409900</v>
+        <v>539000</v>
       </c>
       <c r="J10" s="3">
+        <v>419500</v>
+      </c>
+      <c r="K10" s="3">
         <v>279300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>353900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>384000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>426800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>368900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>518200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>564700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>640000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>571300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>638000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>591800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>652200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>883000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>904300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>886400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>912100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>855700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,67 +1203,70 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>65800</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>80800</v>
+        <v>67400</v>
       </c>
       <c r="F14" s="3">
-        <v>-326100</v>
+        <v>82700</v>
       </c>
       <c r="G14" s="3">
-        <v>-6000</v>
+        <v>-333800</v>
       </c>
       <c r="H14" s="3">
-        <v>37900</v>
+        <v>-6100</v>
       </c>
       <c r="I14" s="3">
-        <v>107700</v>
+        <v>38800</v>
       </c>
       <c r="J14" s="3">
+        <v>110200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-209500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-69800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-132100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-513700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>36700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>19100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>20100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>22200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>18700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15400</v>
-      </c>
-      <c r="V14" s="3">
-        <v>22400</v>
       </c>
       <c r="W14" s="3">
         <v>22400</v>
@@ -1255,93 +1275,99 @@
         <v>22400</v>
       </c>
       <c r="Y14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="Z14" s="3">
         <v>14100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>237100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>129700</v>
+        <v>134700</v>
       </c>
       <c r="E15" s="3">
-        <v>134600</v>
+        <v>132700</v>
       </c>
       <c r="F15" s="3">
-        <v>145600</v>
+        <v>137800</v>
       </c>
       <c r="G15" s="3">
-        <v>135600</v>
+        <v>149000</v>
       </c>
       <c r="H15" s="3">
-        <v>134600</v>
+        <v>138800</v>
       </c>
       <c r="I15" s="3">
-        <v>138600</v>
+        <v>137800</v>
       </c>
       <c r="J15" s="3">
+        <v>141900</v>
+      </c>
+      <c r="K15" s="3">
         <v>149600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>140100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>148400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>155800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>171600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>160500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>157600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>159100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>134900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>135100</v>
-      </c>
-      <c r="T15" s="3">
-        <v>132900</v>
       </c>
       <c r="U15" s="3">
         <v>132900</v>
       </c>
       <c r="V15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="W15" s="3">
         <v>145900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>139100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>133500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>166700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>71600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2648100</v>
+        <v>2503000</v>
       </c>
       <c r="E17" s="3">
-        <v>2397700</v>
+        <v>2710200</v>
       </c>
       <c r="F17" s="3">
-        <v>1875100</v>
+        <v>2454000</v>
       </c>
       <c r="G17" s="3">
-        <v>2185300</v>
+        <v>1919100</v>
       </c>
       <c r="H17" s="3">
-        <v>2403700</v>
+        <v>2236600</v>
       </c>
       <c r="I17" s="3">
-        <v>2109500</v>
+        <v>2460100</v>
       </c>
       <c r="J17" s="3">
+        <v>2159000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1859200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2007300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2059600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2196100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2019600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2734200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2901000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2777600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2723000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2461100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2577000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2442000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2552500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2512100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2606400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2704500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2691500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>398000</v>
+        <v>521600</v>
       </c>
       <c r="E18" s="3">
-        <v>393000</v>
+        <v>407300</v>
       </c>
       <c r="F18" s="3">
-        <v>836800</v>
+        <v>402200</v>
       </c>
       <c r="G18" s="3">
-        <v>385000</v>
+        <v>856500</v>
       </c>
       <c r="H18" s="3">
-        <v>181500</v>
+        <v>394000</v>
       </c>
       <c r="I18" s="3">
-        <v>160600</v>
+        <v>185800</v>
       </c>
       <c r="J18" s="3">
+        <v>164300</v>
+      </c>
+      <c r="K18" s="3">
         <v>288200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>150500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>246500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>295800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>795000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>208200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>167000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>374400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>421100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>402100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>348100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>389800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>264800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>302900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>230000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>226500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>170200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-64300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-29600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-36700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-28900</v>
       </c>
-      <c r="E20" s="3">
-        <v>-19900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-45900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-36900</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-35900</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-28900</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-31100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-39300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-59800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-39700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-67400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-57600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-37100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-48500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-64200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-65900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-24200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-30300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-51600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-67300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-34000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-81000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>293200</v>
+        <v>457300</v>
       </c>
       <c r="E21" s="3">
-        <v>711100</v>
+        <v>373600</v>
       </c>
       <c r="F21" s="3">
-        <v>1350500</v>
+        <v>519600</v>
       </c>
       <c r="G21" s="3">
-        <v>349100</v>
+        <v>1382200</v>
       </c>
       <c r="H21" s="3">
-        <v>147600</v>
+        <v>357300</v>
       </c>
       <c r="I21" s="3">
-        <v>263300</v>
+        <v>151100</v>
       </c>
       <c r="J21" s="3">
+        <v>269500</v>
+      </c>
+      <c r="K21" s="3">
         <v>732100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>118300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>205100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>391800</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>110600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>496400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>363200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>338900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>282200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>498500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>241200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>256900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>136900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>359200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>403800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>369000</v>
+        <v>457300</v>
       </c>
       <c r="E23" s="3">
-        <v>373000</v>
+        <v>377700</v>
       </c>
       <c r="F23" s="3">
-        <v>790900</v>
+        <v>381800</v>
       </c>
       <c r="G23" s="3">
-        <v>348100</v>
+        <v>809500</v>
       </c>
       <c r="H23" s="3">
-        <v>151600</v>
+        <v>356300</v>
       </c>
       <c r="I23" s="3">
-        <v>124700</v>
+        <v>155200</v>
       </c>
       <c r="J23" s="3">
+        <v>127600</v>
+      </c>
+      <c r="K23" s="3">
         <v>259300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>119400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>207300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>236000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>755300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>140900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>109400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>337300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>372600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>337800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>282200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>365600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>234500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>251300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>162700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>192500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>89200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>70800</v>
+        <v>82700</v>
       </c>
       <c r="E24" s="3">
-        <v>87800</v>
+        <v>72500</v>
       </c>
       <c r="F24" s="3">
-        <v>176500</v>
+        <v>89800</v>
       </c>
       <c r="G24" s="3">
-        <v>49900</v>
+        <v>180700</v>
       </c>
       <c r="H24" s="3">
-        <v>-55900</v>
+        <v>51000</v>
       </c>
       <c r="I24" s="3">
-        <v>-19900</v>
+        <v>-57200</v>
       </c>
       <c r="J24" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="K24" s="3">
         <v>22900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>50200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>66600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>148300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>69800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>48200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>67000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>111900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>48300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>65900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>40400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>37000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>66900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>23500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>298200</v>
+        <v>374600</v>
       </c>
       <c r="E26" s="3">
-        <v>285300</v>
+        <v>305200</v>
       </c>
       <c r="F26" s="3">
-        <v>614400</v>
+        <v>291900</v>
       </c>
       <c r="G26" s="3">
-        <v>298200</v>
+        <v>628800</v>
       </c>
       <c r="H26" s="3">
-        <v>207500</v>
+        <v>305200</v>
       </c>
       <c r="I26" s="3">
-        <v>144600</v>
+        <v>212300</v>
       </c>
       <c r="J26" s="3">
+        <v>148000</v>
+      </c>
+      <c r="K26" s="3">
         <v>236400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>90300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>157100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>169400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>607100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>71000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>61200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>270300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>353700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>226000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>233900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>299800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>194100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>214300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>160400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>125600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>65700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>302200</v>
+        <v>379700</v>
       </c>
       <c r="E27" s="3">
-        <v>288200</v>
+        <v>309300</v>
       </c>
       <c r="F27" s="3">
-        <v>614400</v>
+        <v>295000</v>
       </c>
       <c r="G27" s="3">
-        <v>300200</v>
+        <v>628800</v>
       </c>
       <c r="H27" s="3">
-        <v>205500</v>
+        <v>307300</v>
       </c>
       <c r="I27" s="3">
-        <v>143600</v>
+        <v>210300</v>
       </c>
       <c r="J27" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K27" s="3">
         <v>238400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>91300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>160400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>171600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>607100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>85700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>69400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>277500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>359600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>237000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>242700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>195200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>214300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>163800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>133800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>106800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>29600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>20400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>47000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>37800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>30600</v>
+      </c>
+      <c r="J32" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K32" s="3">
         <v>28900</v>
       </c>
-      <c r="E32" s="3">
-        <v>19900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>45900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>36900</v>
-      </c>
-      <c r="H32" s="3">
-        <v>29900</v>
-      </c>
-      <c r="I32" s="3">
-        <v>35900</v>
-      </c>
-      <c r="J32" s="3">
-        <v>28900</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>31100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>39300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>59800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>39700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>67400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>57600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>37100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>48500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>64200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>65900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>24200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>30300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>51600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>67300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>34000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>81000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>302200</v>
+        <v>379700</v>
       </c>
       <c r="E33" s="3">
-        <v>288200</v>
+        <v>309300</v>
       </c>
       <c r="F33" s="3">
-        <v>614400</v>
+        <v>295000</v>
       </c>
       <c r="G33" s="3">
-        <v>300200</v>
+        <v>628800</v>
       </c>
       <c r="H33" s="3">
-        <v>205500</v>
+        <v>307300</v>
       </c>
       <c r="I33" s="3">
-        <v>143600</v>
+        <v>210300</v>
       </c>
       <c r="J33" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K33" s="3">
         <v>238400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>91300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>160400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>171600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>607100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>85700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>69400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>277500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>359600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>237000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>242700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>195200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>214300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>163800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>133800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>106800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>302200</v>
+        <v>379700</v>
       </c>
       <c r="E35" s="3">
-        <v>288200</v>
+        <v>309300</v>
       </c>
       <c r="F35" s="3">
-        <v>614400</v>
+        <v>295000</v>
       </c>
       <c r="G35" s="3">
-        <v>300200</v>
+        <v>628800</v>
       </c>
       <c r="H35" s="3">
-        <v>205500</v>
+        <v>307300</v>
       </c>
       <c r="I35" s="3">
-        <v>143600</v>
+        <v>210300</v>
       </c>
       <c r="J35" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K35" s="3">
         <v>238400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>91300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>160400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>171600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>607100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>85700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>69400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>277500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>359600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>237000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>242700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>195200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>214300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>163800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>133800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>106800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1354500</v>
+        <v>1657800</v>
       </c>
       <c r="E41" s="3">
-        <v>980400</v>
+        <v>1386200</v>
       </c>
       <c r="F41" s="3">
-        <v>1477100</v>
+        <v>1003400</v>
       </c>
       <c r="G41" s="3">
-        <v>1268700</v>
+        <v>1511800</v>
       </c>
       <c r="H41" s="3">
-        <v>1309600</v>
+        <v>1298500</v>
       </c>
       <c r="I41" s="3">
-        <v>1265700</v>
+        <v>1340300</v>
       </c>
       <c r="J41" s="3">
+        <v>1295400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1656700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1415700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1158500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>853600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1022700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>873400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>979900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1463000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1336700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1113100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>690600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>754300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>681000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>469000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>559900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1094000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1118600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,209 +3165,218 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1779400</v>
+        <v>1709800</v>
       </c>
       <c r="E43" s="3">
-        <v>1658700</v>
+        <v>1821100</v>
       </c>
       <c r="F43" s="3">
-        <v>1514100</v>
+        <v>1697600</v>
       </c>
       <c r="G43" s="3">
-        <v>1473200</v>
+        <v>1549600</v>
       </c>
       <c r="H43" s="3">
-        <v>1472200</v>
+        <v>1507700</v>
       </c>
       <c r="I43" s="3">
-        <v>1340500</v>
+        <v>1506700</v>
       </c>
       <c r="J43" s="3">
+        <v>1372000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1157000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1228900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1330900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1446400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1521100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1632900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1765800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1897200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1834700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1680200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1681000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1631600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1579800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1576400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1580900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1618700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1558800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1714500</v>
+        <v>1802700</v>
       </c>
       <c r="E44" s="3">
-        <v>1614800</v>
+        <v>1754800</v>
       </c>
       <c r="F44" s="3">
-        <v>1474200</v>
+        <v>1652700</v>
       </c>
       <c r="G44" s="3">
-        <v>1464200</v>
+        <v>1508700</v>
       </c>
       <c r="H44" s="3">
-        <v>1334500</v>
+        <v>1498500</v>
       </c>
       <c r="I44" s="3">
-        <v>1339500</v>
+        <v>1365800</v>
       </c>
       <c r="J44" s="3">
+        <v>1370900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1266700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1351300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1488000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1577400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1623900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1860800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1832800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1992900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1853600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1664700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1559200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1592100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1482100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1493400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1515800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1687900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1579900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6000</v>
+        <v>18400</v>
       </c>
       <c r="E45" s="3">
-        <v>15000</v>
+        <v>6100</v>
       </c>
       <c r="F45" s="3">
-        <v>31900</v>
+        <v>15300</v>
       </c>
       <c r="G45" s="3">
-        <v>5000</v>
+        <v>32700</v>
       </c>
       <c r="H45" s="3">
-        <v>8000</v>
+        <v>5100</v>
       </c>
       <c r="I45" s="3">
-        <v>6000</v>
+        <v>8200</v>
       </c>
       <c r="J45" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K45" s="3">
         <v>63800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>17600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>23300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25100</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
@@ -3288,8 +3387,8 @@
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
+      <c r="V45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
@@ -3306,316 +3405,331 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4854300</v>
+        <v>5188700</v>
       </c>
       <c r="E46" s="3">
-        <v>4268900</v>
+        <v>4968200</v>
       </c>
       <c r="F46" s="3">
-        <v>4497300</v>
+        <v>4369000</v>
       </c>
       <c r="G46" s="3">
-        <v>4211000</v>
+        <v>4602800</v>
       </c>
       <c r="H46" s="3">
-        <v>4124200</v>
+        <v>4309800</v>
       </c>
       <c r="I46" s="3">
-        <v>3951700</v>
+        <v>4221000</v>
       </c>
       <c r="J46" s="3">
+        <v>4044400</v>
+      </c>
+      <c r="K46" s="3">
         <v>4144200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4013600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4003600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3888600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4191000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4380600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4598500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5378100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5025000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4458100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3930800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3978100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3743000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3538800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3656600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>4400600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4257400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1613800</v>
+        <v>2469300</v>
       </c>
       <c r="E47" s="3">
-        <v>1627800</v>
+        <v>1651700</v>
       </c>
       <c r="F47" s="3">
-        <v>1545000</v>
+        <v>1665900</v>
       </c>
       <c r="G47" s="3">
-        <v>1291600</v>
+        <v>1581200</v>
       </c>
       <c r="H47" s="3">
-        <v>1033300</v>
+        <v>1321900</v>
       </c>
       <c r="I47" s="3">
-        <v>971500</v>
+        <v>1057500</v>
       </c>
       <c r="J47" s="3">
+        <v>994300</v>
+      </c>
+      <c r="K47" s="3">
         <v>963500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>954900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>952400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>931500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1276000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1429600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1271700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2598100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2623700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2372500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2127900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2109300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2237200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2186800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2076800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2217300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2225500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12368800</v>
+        <v>12410900</v>
       </c>
       <c r="E48" s="3">
-        <v>12117400</v>
+        <v>12658900</v>
       </c>
       <c r="F48" s="3">
-        <v>12217200</v>
+        <v>12401700</v>
       </c>
       <c r="G48" s="3">
-        <v>11640700</v>
+        <v>12503800</v>
       </c>
       <c r="H48" s="3">
-        <v>11662600</v>
+        <v>11913800</v>
       </c>
       <c r="I48" s="3">
-        <v>11465100</v>
+        <v>11936200</v>
       </c>
       <c r="J48" s="3">
+        <v>11734100</v>
+      </c>
+      <c r="K48" s="3">
         <v>11683500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10030300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10677800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10744500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11376400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11076400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10686400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7542000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6731900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6154900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6126800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6149900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6460400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6440200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6509800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>7095700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7160200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>611400</v>
+        <v>579800</v>
       </c>
       <c r="E49" s="3">
-        <v>676200</v>
+        <v>625800</v>
       </c>
       <c r="F49" s="3">
-        <v>541600</v>
+        <v>692100</v>
       </c>
       <c r="G49" s="3">
-        <v>544600</v>
+        <v>554300</v>
       </c>
       <c r="H49" s="3">
-        <v>527600</v>
+        <v>557400</v>
       </c>
       <c r="I49" s="3">
-        <v>531600</v>
+        <v>540000</v>
       </c>
       <c r="J49" s="3">
+        <v>544100</v>
+      </c>
+      <c r="K49" s="3">
         <v>449800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>489900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>533500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>605200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>593000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>635800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>630600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>590900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>618700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>569300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>565500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>557800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>536300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>476800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>490300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>521200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>507100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>175500</v>
+        <v>665600</v>
       </c>
       <c r="E52" s="3">
-        <v>161600</v>
+        <v>179700</v>
       </c>
       <c r="F52" s="3">
-        <v>175500</v>
+        <v>165400</v>
       </c>
       <c r="G52" s="3">
-        <v>187500</v>
+        <v>179700</v>
       </c>
       <c r="H52" s="3">
-        <v>215400</v>
+        <v>191900</v>
       </c>
       <c r="I52" s="3">
-        <v>156600</v>
+        <v>220500</v>
       </c>
       <c r="J52" s="3">
+        <v>160300</v>
+      </c>
+      <c r="K52" s="3">
         <v>144600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>134900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>165800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>155800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>136600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>156800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>155300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>168700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>199900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>139600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>175700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>186700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>228900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>226600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>270400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>301700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>318100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19623800</v>
+        <v>21314300</v>
       </c>
       <c r="E54" s="3">
-        <v>18851900</v>
+        <v>20084200</v>
       </c>
       <c r="F54" s="3">
-        <v>18976500</v>
+        <v>19294100</v>
       </c>
       <c r="G54" s="3">
-        <v>17875400</v>
+        <v>19421700</v>
       </c>
       <c r="H54" s="3">
-        <v>17563200</v>
+        <v>18294800</v>
       </c>
       <c r="I54" s="3">
-        <v>17076500</v>
+        <v>17975300</v>
       </c>
       <c r="J54" s="3">
+        <v>17477100</v>
+      </c>
+      <c r="K54" s="3">
         <v>17385700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15623500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16333100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16325700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17573000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17679100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17342500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16277900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15199100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13694400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12926800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12981700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13205800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12869200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>13003900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>14536500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>14468400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4134,393 +4265,411 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>884700</v>
+        <v>870700</v>
       </c>
       <c r="E58" s="3">
-        <v>612400</v>
+        <v>905400</v>
       </c>
       <c r="F58" s="3">
-        <v>551600</v>
+        <v>626800</v>
       </c>
       <c r="G58" s="3">
-        <v>548600</v>
+        <v>564500</v>
       </c>
       <c r="H58" s="3">
-        <v>860800</v>
+        <v>561400</v>
       </c>
       <c r="I58" s="3">
-        <v>948500</v>
+        <v>881000</v>
       </c>
       <c r="J58" s="3">
+        <v>970800</v>
+      </c>
+      <c r="K58" s="3">
         <v>888700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>497200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>885800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>397400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1056500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>430000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>424700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>385200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>477900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>494000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>428200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>457900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1088300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1067000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1128700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1629200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1313500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2643100</v>
+        <v>2714300</v>
       </c>
       <c r="E59" s="3">
-        <v>2696000</v>
+        <v>2705100</v>
       </c>
       <c r="F59" s="3">
-        <v>2605200</v>
+        <v>2759200</v>
       </c>
       <c r="G59" s="3">
-        <v>2346900</v>
+        <v>2666300</v>
       </c>
       <c r="H59" s="3">
-        <v>2186300</v>
+        <v>2401900</v>
       </c>
       <c r="I59" s="3">
-        <v>2054600</v>
+        <v>2237600</v>
       </c>
       <c r="J59" s="3">
+        <v>2102800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1998800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2417300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2919900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2348800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2973100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2977500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3314700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3244700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2825500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2747200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2742800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2236100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2022900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2008400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2225500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2195000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3527800</v>
+        <v>3585000</v>
       </c>
       <c r="E60" s="3">
-        <v>3308400</v>
+        <v>3610600</v>
       </c>
       <c r="F60" s="3">
-        <v>3156800</v>
+        <v>3386000</v>
       </c>
       <c r="G60" s="3">
-        <v>2895500</v>
+        <v>3230800</v>
       </c>
       <c r="H60" s="3">
-        <v>3047100</v>
+        <v>2963400</v>
       </c>
       <c r="I60" s="3">
-        <v>3003200</v>
+        <v>3118500</v>
       </c>
       <c r="J60" s="3">
+        <v>3073600</v>
+      </c>
+      <c r="K60" s="3">
         <v>2887500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2914400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2786200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3317300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3405300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3403000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3402100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3699800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3722600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3319500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3175400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3200700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3324500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3090000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3137100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3854800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3508500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3031100</v>
+        <v>3072600</v>
       </c>
       <c r="E61" s="3">
-        <v>3074000</v>
+        <v>3102200</v>
       </c>
       <c r="F61" s="3">
-        <v>3304400</v>
+        <v>3146100</v>
       </c>
       <c r="G61" s="3">
-        <v>3456000</v>
+        <v>3381900</v>
       </c>
       <c r="H61" s="3">
-        <v>3510800</v>
+        <v>3537100</v>
       </c>
       <c r="I61" s="3">
-        <v>3611600</v>
+        <v>3593200</v>
       </c>
       <c r="J61" s="3">
+        <v>3696300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3812100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3599400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3942500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3549900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3773100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4297300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4497400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3942700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2679300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2484300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2375000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2269600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2295600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2347200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2597400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2739700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>3116500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1769400</v>
+        <v>1938500</v>
       </c>
       <c r="E62" s="3">
-        <v>1791300</v>
+        <v>1810900</v>
       </c>
       <c r="F62" s="3">
-        <v>1877100</v>
+        <v>1833400</v>
       </c>
       <c r="G62" s="3">
-        <v>1795300</v>
+        <v>1921100</v>
       </c>
       <c r="H62" s="3">
-        <v>1835200</v>
+        <v>1837400</v>
       </c>
       <c r="I62" s="3">
-        <v>1789300</v>
+        <v>1878300</v>
       </c>
       <c r="J62" s="3">
+        <v>1831300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1916000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1606700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1716000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1548000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1728900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1579000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1534000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>818200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>833900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>736600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>699400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>717000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>792100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>871800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>916700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>936700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>955500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8303400</v>
+        <v>8565500</v>
       </c>
       <c r="E66" s="3">
-        <v>8154700</v>
+        <v>8498200</v>
       </c>
       <c r="F66" s="3">
-        <v>8322300</v>
+        <v>8346100</v>
       </c>
       <c r="G66" s="3">
-        <v>8131800</v>
+        <v>8517600</v>
       </c>
       <c r="H66" s="3">
-        <v>8380200</v>
+        <v>8322600</v>
       </c>
       <c r="I66" s="3">
-        <v>8390100</v>
+        <v>8576800</v>
       </c>
       <c r="J66" s="3">
+        <v>8587000</v>
+      </c>
+      <c r="K66" s="3">
         <v>8599600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8106000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8430600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8402800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8899200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9257200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9434700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8476300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7257100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6565900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6291500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6237700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6464900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6362800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6707300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7594600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7653200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6952900</v>
+        <v>7549800</v>
       </c>
       <c r="E72" s="3">
-        <v>6554900</v>
+        <v>7116000</v>
       </c>
       <c r="F72" s="3">
-        <v>6632700</v>
+        <v>6708700</v>
       </c>
       <c r="G72" s="3">
-        <v>6032300</v>
+        <v>6788300</v>
       </c>
       <c r="H72" s="3">
-        <v>5709100</v>
+        <v>6173800</v>
       </c>
       <c r="I72" s="3">
-        <v>5469700</v>
+        <v>5843100</v>
       </c>
       <c r="J72" s="3">
+        <v>5598100</v>
+      </c>
+      <c r="K72" s="3">
         <v>5501700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5533000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5736000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5962800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>6435900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5713400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5409100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5428400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5567900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>4893400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4618200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4729100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4526100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4275900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4057100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4415900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4284400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11320500</v>
+        <v>12748800</v>
       </c>
       <c r="E76" s="3">
-        <v>10697100</v>
+        <v>11586100</v>
       </c>
       <c r="F76" s="3">
-        <v>10654200</v>
+        <v>10948100</v>
       </c>
       <c r="G76" s="3">
-        <v>9743600</v>
+        <v>10904200</v>
       </c>
       <c r="H76" s="3">
-        <v>9183100</v>
+        <v>9972200</v>
       </c>
       <c r="I76" s="3">
-        <v>8686400</v>
+        <v>9398500</v>
       </c>
       <c r="J76" s="3">
+        <v>8890100</v>
+      </c>
+      <c r="K76" s="3">
         <v>8786100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7517500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7902600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7922900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8673900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8421800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7907800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7801600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7942000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7128500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>6635200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6743900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6740900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6506400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6296600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6941900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6815100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>302200</v>
+        <v>379700</v>
       </c>
       <c r="E81" s="3">
-        <v>288200</v>
+        <v>309300</v>
       </c>
       <c r="F81" s="3">
-        <v>614400</v>
+        <v>295000</v>
       </c>
       <c r="G81" s="3">
-        <v>300200</v>
+        <v>628800</v>
       </c>
       <c r="H81" s="3">
-        <v>205500</v>
+        <v>307300</v>
       </c>
       <c r="I81" s="3">
-        <v>143600</v>
+        <v>210300</v>
       </c>
       <c r="J81" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K81" s="3">
         <v>238400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>91300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>160400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>171600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>607100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>85700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>69400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>277500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>359600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>237000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>242700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>195200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>214300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>163800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>133800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>106800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>343100</v>
+        <v>560400</v>
       </c>
       <c r="E89" s="3">
-        <v>324200</v>
+        <v>351200</v>
       </c>
       <c r="F89" s="3">
-        <v>518600</v>
+        <v>331800</v>
       </c>
       <c r="G89" s="3">
-        <v>441800</v>
+        <v>530800</v>
       </c>
       <c r="H89" s="3">
-        <v>369000</v>
+        <v>452200</v>
       </c>
       <c r="I89" s="3">
-        <v>142600</v>
+        <v>377700</v>
       </c>
       <c r="J89" s="3">
+        <v>146000</v>
+      </c>
+      <c r="K89" s="3">
         <v>381000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>398600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>317500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>80200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>753000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>524300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>544700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>148300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>322900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>451900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>312900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>138300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>529600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>408400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>317500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>97400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>489500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-153100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-180700</v>
+      </c>
+      <c r="G91" s="3">
+        <v>380800</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-140900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-124500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-196000</v>
+      </c>
+      <c r="K91" s="3">
+        <v>368000</v>
+      </c>
+      <c r="L91" s="3">
         <v>-152600</v>
       </c>
-      <c r="E91" s="3">
-        <v>-176500</v>
-      </c>
-      <c r="F91" s="3">
-        <v>372000</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-137600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-121700</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-191500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>368000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-152600</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-135300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-199900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>358400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-172700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-141200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-147100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>339500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-142900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-137300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-127400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>360200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-154800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-143600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-158500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-258200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-176500</v>
+        <v>-206200</v>
       </c>
       <c r="E94" s="3">
-        <v>-176500</v>
+        <v>-180700</v>
       </c>
       <c r="F94" s="3">
-        <v>-147600</v>
+        <v>-180700</v>
       </c>
       <c r="G94" s="3">
-        <v>-81800</v>
+        <v>-151100</v>
       </c>
       <c r="H94" s="3">
-        <v>-122700</v>
+        <v>-83700</v>
       </c>
       <c r="I94" s="3">
-        <v>-95800</v>
+        <v>-125600</v>
       </c>
       <c r="J94" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-214400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-152600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-130900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-224700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-249800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-193500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-682300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-149500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-197500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-152800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-94400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-116400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-304100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-218800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-140200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-123300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-77500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,41 +6952,42 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-74800</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-358100</v>
+        <v>-76600</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-366500</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-28900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-207500</v>
+        <v>-29600</v>
       </c>
       <c r="J96" s="3">
+        <v>-212300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-104700</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-128700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -6764,11 +6998,11 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-471300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>177500</v>
+        <v>-73500</v>
       </c>
       <c r="E100" s="3">
-        <v>-647300</v>
+        <v>181700</v>
       </c>
       <c r="F100" s="3">
-        <v>-178500</v>
+        <v>-662500</v>
       </c>
       <c r="G100" s="3">
-        <v>-401000</v>
+        <v>-182700</v>
       </c>
       <c r="H100" s="3">
-        <v>-205500</v>
+        <v>-410400</v>
       </c>
       <c r="I100" s="3">
-        <v>-431900</v>
+        <v>-210300</v>
       </c>
       <c r="J100" s="3">
+        <v>-442000</v>
+      </c>
+      <c r="K100" s="3">
         <v>134600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>63300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>149500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>23700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-302400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-491200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-324700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>95700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>45000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>111900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-294300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>61500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-278300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-640700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-219500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>29900</v>
+        <v>-9200</v>
       </c>
       <c r="E101" s="3">
-        <v>4000</v>
+        <v>30600</v>
       </c>
       <c r="F101" s="3">
-        <v>15000</v>
+        <v>4100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>15300</v>
       </c>
       <c r="H101" s="3">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-1100</v>
       </c>
       <c r="M101" s="3">
         <v>-1100</v>
       </c>
       <c r="N101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="O101" s="3">
         <v>1200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>17900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-8900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-6700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-18000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>2300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>11700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>374000</v>
+        <v>271500</v>
       </c>
       <c r="E102" s="3">
-        <v>-495700</v>
+        <v>382800</v>
       </c>
       <c r="F102" s="3">
-        <v>207500</v>
+        <v>-507300</v>
       </c>
       <c r="G102" s="3">
-        <v>-40900</v>
+        <v>212300</v>
       </c>
       <c r="H102" s="3">
-        <v>44900</v>
+        <v>-41900</v>
       </c>
       <c r="I102" s="3">
-        <v>-386000</v>
+        <v>45900</v>
       </c>
       <c r="J102" s="3">
+        <v>-395000</v>
+      </c>
+      <c r="K102" s="3">
         <v>298200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>305100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>334900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-121900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>197300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-162900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-464700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>112400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>172700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>402100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-69200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>87800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>213200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-92000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-481300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-29300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>204200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3024600</v>
+        <v>3030100</v>
       </c>
       <c r="E8" s="3">
-        <v>3117500</v>
+        <v>3134900</v>
       </c>
       <c r="F8" s="3">
-        <v>2856200</v>
+        <v>3231100</v>
       </c>
       <c r="G8" s="3">
-        <v>2775600</v>
+        <v>2960300</v>
       </c>
       <c r="H8" s="3">
-        <v>2630600</v>
+        <v>2876700</v>
       </c>
       <c r="I8" s="3">
-        <v>2645900</v>
+        <v>2726500</v>
       </c>
       <c r="J8" s="3">
+        <v>2742300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2323300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2147400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2157800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2306200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2491900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2814600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2942400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3068100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3152000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3144100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2863100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2925100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2831700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2817300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2815100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2836400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2931000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2861700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2303900</v>
+        <v>2509600</v>
       </c>
       <c r="E9" s="3">
-        <v>2441800</v>
+        <v>2387900</v>
       </c>
       <c r="F9" s="3">
-        <v>2207000</v>
+        <v>2530700</v>
       </c>
       <c r="G9" s="3">
-        <v>2193700</v>
+        <v>2287400</v>
       </c>
       <c r="H9" s="3">
-        <v>2067100</v>
+        <v>2273600</v>
       </c>
       <c r="I9" s="3">
-        <v>2106900</v>
+        <v>2142500</v>
       </c>
       <c r="J9" s="3">
+        <v>2183700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1903800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1868100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1803900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1922200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2065100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2445700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2424300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2503400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2512000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2572800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2225200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2333300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2179500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1934300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1910700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1950000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2019000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2006000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>720700</v>
+        <v>520500</v>
       </c>
       <c r="E10" s="3">
-        <v>675800</v>
+        <v>746900</v>
       </c>
       <c r="F10" s="3">
-        <v>649200</v>
+        <v>700400</v>
       </c>
       <c r="G10" s="3">
-        <v>581900</v>
+        <v>672900</v>
       </c>
       <c r="H10" s="3">
-        <v>563500</v>
+        <v>603100</v>
       </c>
       <c r="I10" s="3">
-        <v>539000</v>
+        <v>584000</v>
       </c>
       <c r="J10" s="3">
+        <v>558600</v>
+      </c>
+      <c r="K10" s="3">
         <v>419500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>279300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>353900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>384000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>426800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>368900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>518200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>564700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>640000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>571300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>638000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>591800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>652200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>883000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>904300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>886400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>912100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>855700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,70 +1222,73 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-230600</v>
       </c>
       <c r="E14" s="3">
-        <v>67400</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>82700</v>
+        <v>69800</v>
       </c>
       <c r="G14" s="3">
-        <v>-333800</v>
+        <v>85700</v>
       </c>
       <c r="H14" s="3">
-        <v>-6100</v>
+        <v>-346000</v>
       </c>
       <c r="I14" s="3">
-        <v>38800</v>
+        <v>-6300</v>
       </c>
       <c r="J14" s="3">
+        <v>40200</v>
+      </c>
+      <c r="K14" s="3">
         <v>110200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-209500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-69800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-132100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-513700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>36700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>19100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>20100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>22200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>18700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15400</v>
-      </c>
-      <c r="W14" s="3">
-        <v>22400</v>
       </c>
       <c r="X14" s="3">
         <v>22400</v>
@@ -1278,96 +1297,102 @@
         <v>22400</v>
       </c>
       <c r="Z14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="AA14" s="3">
         <v>14100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>237100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>134700</v>
+        <v>120600</v>
       </c>
       <c r="E15" s="3">
-        <v>132700</v>
+        <v>138600</v>
       </c>
       <c r="F15" s="3">
-        <v>137800</v>
+        <v>138600</v>
       </c>
       <c r="G15" s="3">
-        <v>149000</v>
+        <v>142800</v>
       </c>
       <c r="H15" s="3">
-        <v>138800</v>
+        <v>154500</v>
       </c>
       <c r="I15" s="3">
-        <v>137800</v>
+        <v>143900</v>
       </c>
       <c r="J15" s="3">
+        <v>142800</v>
+      </c>
+      <c r="K15" s="3">
         <v>141900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>149600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>140100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>148400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>155800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>171600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>160500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>157600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>159100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>134900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>135100</v>
-      </c>
-      <c r="U15" s="3">
-        <v>132900</v>
       </c>
       <c r="V15" s="3">
         <v>132900</v>
       </c>
       <c r="W15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="X15" s="3">
         <v>145900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>139100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>133500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>166700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>71600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2503000</v>
+        <v>2284200</v>
       </c>
       <c r="E17" s="3">
-        <v>2710200</v>
+        <v>2594200</v>
       </c>
       <c r="F17" s="3">
-        <v>2454000</v>
+        <v>2809000</v>
       </c>
       <c r="G17" s="3">
-        <v>1919100</v>
+        <v>2543400</v>
       </c>
       <c r="H17" s="3">
-        <v>2236600</v>
+        <v>1989000</v>
       </c>
       <c r="I17" s="3">
-        <v>2460100</v>
+        <v>2318100</v>
       </c>
       <c r="J17" s="3">
+        <v>2549800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2159000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1859200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2007300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2059600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2196100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2019600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2734200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2901000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2777600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2723000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2461100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2577000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2442000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2552500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2512100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2606400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2704500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2691500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>521600</v>
+        <v>745900</v>
       </c>
       <c r="E18" s="3">
-        <v>407300</v>
+        <v>540600</v>
       </c>
       <c r="F18" s="3">
-        <v>402200</v>
+        <v>422100</v>
       </c>
       <c r="G18" s="3">
-        <v>856500</v>
+        <v>416900</v>
       </c>
       <c r="H18" s="3">
-        <v>394000</v>
+        <v>887700</v>
       </c>
       <c r="I18" s="3">
-        <v>185800</v>
+        <v>408400</v>
       </c>
       <c r="J18" s="3">
+        <v>192600</v>
+      </c>
+      <c r="K18" s="3">
         <v>164300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>288200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>150500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>246500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>295800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>795000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>208200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>167000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>374400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>421100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>402100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>348100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>389800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>264800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>302900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>230000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>226500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>170200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-64300</v>
+        <v>-41300</v>
       </c>
       <c r="E20" s="3">
-        <v>-29600</v>
+        <v>-66700</v>
       </c>
       <c r="F20" s="3">
-        <v>-20400</v>
+        <v>-30700</v>
       </c>
       <c r="G20" s="3">
-        <v>-47000</v>
+        <v>-21200</v>
       </c>
       <c r="H20" s="3">
-        <v>-37800</v>
+        <v>-48700</v>
       </c>
       <c r="I20" s="3">
-        <v>-30600</v>
+        <v>-39100</v>
       </c>
       <c r="J20" s="3">
+        <v>-31700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-36700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-31100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-39300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-59800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-39700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-67400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-57600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-37100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-48500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-64200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-65900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-24200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-30300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-51600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-67300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-34000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-81000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>457300</v>
+        <v>686600</v>
       </c>
       <c r="E21" s="3">
-        <v>373600</v>
+        <v>474000</v>
       </c>
       <c r="F21" s="3">
-        <v>519600</v>
+        <v>387200</v>
       </c>
       <c r="G21" s="3">
-        <v>1382200</v>
+        <v>538500</v>
       </c>
       <c r="H21" s="3">
-        <v>357300</v>
+        <v>1432500</v>
       </c>
       <c r="I21" s="3">
-        <v>151100</v>
+        <v>370300</v>
       </c>
       <c r="J21" s="3">
+        <v>156600</v>
+      </c>
+      <c r="K21" s="3">
         <v>269500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>732100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>118300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>205100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>391800</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>110600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>496400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>363200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>338900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>282200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>498500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>241200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>256900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>136900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>359200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>403800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1862,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>457300</v>
+        <v>704600</v>
       </c>
       <c r="E23" s="3">
-        <v>377700</v>
+        <v>474000</v>
       </c>
       <c r="F23" s="3">
-        <v>381800</v>
+        <v>391500</v>
       </c>
       <c r="G23" s="3">
-        <v>809500</v>
+        <v>395700</v>
       </c>
       <c r="H23" s="3">
-        <v>356300</v>
+        <v>839000</v>
       </c>
       <c r="I23" s="3">
-        <v>155200</v>
+        <v>369200</v>
       </c>
       <c r="J23" s="3">
+        <v>160800</v>
+      </c>
+      <c r="K23" s="3">
         <v>127600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>259300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>119400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>207300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>236000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>755300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>140900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>109400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>337300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>372600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>337800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>282200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>365600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>234500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>251300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>162700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>192500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>89200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>82700</v>
+        <v>86800</v>
       </c>
       <c r="E24" s="3">
-        <v>72500</v>
+        <v>85700</v>
       </c>
       <c r="F24" s="3">
-        <v>89800</v>
+        <v>75100</v>
       </c>
       <c r="G24" s="3">
-        <v>180700</v>
+        <v>93100</v>
       </c>
       <c r="H24" s="3">
-        <v>51000</v>
+        <v>187300</v>
       </c>
       <c r="I24" s="3">
-        <v>-57200</v>
+        <v>52900</v>
       </c>
       <c r="J24" s="3">
+        <v>-59200</v>
+      </c>
+      <c r="K24" s="3">
         <v>-20400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>22900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>29100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>50200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>66600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>148300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>69800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>48200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>67000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>111900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>48300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>65900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>40400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>37000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>66900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>23500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>374600</v>
+        <v>617900</v>
       </c>
       <c r="E26" s="3">
-        <v>305200</v>
+        <v>388300</v>
       </c>
       <c r="F26" s="3">
-        <v>291900</v>
+        <v>316300</v>
       </c>
       <c r="G26" s="3">
-        <v>628800</v>
+        <v>302600</v>
       </c>
       <c r="H26" s="3">
-        <v>305200</v>
+        <v>651700</v>
       </c>
       <c r="I26" s="3">
-        <v>212300</v>
+        <v>316300</v>
       </c>
       <c r="J26" s="3">
+        <v>220100</v>
+      </c>
+      <c r="K26" s="3">
         <v>148000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>236400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>90300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>157100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>169400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>607100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>71000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>61200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>270300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>353700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>226000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>233900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>299800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>194100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>214300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>160400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>125600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>65700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>379700</v>
+        <v>620000</v>
       </c>
       <c r="E27" s="3">
-        <v>309300</v>
+        <v>393600</v>
       </c>
       <c r="F27" s="3">
-        <v>295000</v>
+        <v>320600</v>
       </c>
       <c r="G27" s="3">
-        <v>628800</v>
+        <v>305800</v>
       </c>
       <c r="H27" s="3">
-        <v>307300</v>
+        <v>651700</v>
       </c>
       <c r="I27" s="3">
-        <v>210300</v>
+        <v>318500</v>
       </c>
       <c r="J27" s="3">
+        <v>217900</v>
+      </c>
+      <c r="K27" s="3">
         <v>147000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>238400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>91300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>160400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>171600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>607100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>85700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>69400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>277500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>359600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>237000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>242700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>300900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>195200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>214300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>163800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>133800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>106800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>64300</v>
+        <v>41300</v>
       </c>
       <c r="E32" s="3">
-        <v>29600</v>
+        <v>66700</v>
       </c>
       <c r="F32" s="3">
-        <v>20400</v>
+        <v>30700</v>
       </c>
       <c r="G32" s="3">
-        <v>47000</v>
+        <v>21200</v>
       </c>
       <c r="H32" s="3">
-        <v>37800</v>
+        <v>48700</v>
       </c>
       <c r="I32" s="3">
-        <v>30600</v>
+        <v>39100</v>
       </c>
       <c r="J32" s="3">
+        <v>31700</v>
+      </c>
+      <c r="K32" s="3">
         <v>36700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>31100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>39300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>59800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>39700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>67400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>57600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>37100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>48500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>64200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>65900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>24200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>30300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>51600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>67300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>34000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>81000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>379700</v>
+        <v>620000</v>
       </c>
       <c r="E33" s="3">
-        <v>309300</v>
+        <v>393600</v>
       </c>
       <c r="F33" s="3">
-        <v>295000</v>
+        <v>320600</v>
       </c>
       <c r="G33" s="3">
-        <v>628800</v>
+        <v>305800</v>
       </c>
       <c r="H33" s="3">
-        <v>307300</v>
+        <v>651700</v>
       </c>
       <c r="I33" s="3">
-        <v>210300</v>
+        <v>318500</v>
       </c>
       <c r="J33" s="3">
+        <v>217900</v>
+      </c>
+      <c r="K33" s="3">
         <v>147000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>238400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>91300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>160400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>171600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>607100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>85700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>69400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>277500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>359600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>237000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>242700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>195200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>214300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>163800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>133800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>106800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>379700</v>
+        <v>620000</v>
       </c>
       <c r="E35" s="3">
-        <v>309300</v>
+        <v>393600</v>
       </c>
       <c r="F35" s="3">
-        <v>295000</v>
+        <v>320600</v>
       </c>
       <c r="G35" s="3">
-        <v>628800</v>
+        <v>305800</v>
       </c>
       <c r="H35" s="3">
-        <v>307300</v>
+        <v>651700</v>
       </c>
       <c r="I35" s="3">
-        <v>210300</v>
+        <v>318500</v>
       </c>
       <c r="J35" s="3">
+        <v>217900</v>
+      </c>
+      <c r="K35" s="3">
         <v>147000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>238400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>91300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>160400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>171600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>607100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>85700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>69400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>277500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>359600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>237000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>242700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>195200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>214300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>163800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>133800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>106800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1657800</v>
+        <v>2028200</v>
       </c>
       <c r="E41" s="3">
-        <v>1386200</v>
+        <v>1718200</v>
       </c>
       <c r="F41" s="3">
-        <v>1003400</v>
+        <v>1436800</v>
       </c>
       <c r="G41" s="3">
-        <v>1511800</v>
+        <v>1040000</v>
       </c>
       <c r="H41" s="3">
-        <v>1298500</v>
+        <v>1566900</v>
       </c>
       <c r="I41" s="3">
-        <v>1340300</v>
+        <v>1345800</v>
       </c>
       <c r="J41" s="3">
+        <v>1389200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1295400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1656700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1415700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1158500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>853600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1022700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>873400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>979900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1463000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1336700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1113100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>690600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>754300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>681000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>469000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>559900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1094000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1118600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,218 +3257,227 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1709800</v>
+        <v>1581700</v>
       </c>
       <c r="E43" s="3">
-        <v>1821100</v>
+        <v>1772200</v>
       </c>
       <c r="F43" s="3">
-        <v>1697600</v>
+        <v>1887500</v>
       </c>
       <c r="G43" s="3">
-        <v>1549600</v>
+        <v>1759500</v>
       </c>
       <c r="H43" s="3">
-        <v>1507700</v>
+        <v>1606000</v>
       </c>
       <c r="I43" s="3">
-        <v>1506700</v>
+        <v>1562700</v>
       </c>
       <c r="J43" s="3">
+        <v>1561600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1372000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1157000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1228900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1330900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1446400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1521100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1632900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1765800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1897200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1834700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1680200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1681000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1631600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1579800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1576400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1580900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1618700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1558800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1802700</v>
+        <v>1915000</v>
       </c>
       <c r="E44" s="3">
-        <v>1754800</v>
+        <v>1868400</v>
       </c>
       <c r="F44" s="3">
-        <v>1652700</v>
+        <v>1818700</v>
       </c>
       <c r="G44" s="3">
-        <v>1508700</v>
+        <v>1712900</v>
       </c>
       <c r="H44" s="3">
-        <v>1498500</v>
+        <v>1563700</v>
       </c>
       <c r="I44" s="3">
-        <v>1365800</v>
+        <v>1553100</v>
       </c>
       <c r="J44" s="3">
+        <v>1415600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1370900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1266700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1351300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1488000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1577400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1623900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1860800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1832800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1992900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1853600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1664700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1559200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1592100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1482100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1493400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1515800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1687900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1579900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>18400</v>
+        <v>68800</v>
       </c>
       <c r="E45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G45" s="3">
+        <v>15900</v>
+      </c>
+      <c r="H45" s="3">
+        <v>33900</v>
+      </c>
+      <c r="I45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K45" s="3">
         <v>6100</v>
       </c>
-      <c r="F45" s="3">
-        <v>15300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>32700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>8200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>63800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>17600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>11300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>23300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25100</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>8</v>
@@ -3390,8 +3488,8 @@
       <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3408,328 +3506,343 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5188700</v>
+        <v>5593600</v>
       </c>
       <c r="E46" s="3">
-        <v>4968200</v>
+        <v>5377800</v>
       </c>
       <c r="F46" s="3">
-        <v>4369000</v>
+        <v>5149300</v>
       </c>
       <c r="G46" s="3">
-        <v>4602800</v>
+        <v>4528200</v>
       </c>
       <c r="H46" s="3">
-        <v>4309800</v>
+        <v>4770500</v>
       </c>
       <c r="I46" s="3">
-        <v>4221000</v>
+        <v>4466900</v>
       </c>
       <c r="J46" s="3">
+        <v>4374800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4044400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4144200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4013600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4003600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3888600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4191000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4380600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4598500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5378100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5025000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4458100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3930800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3978100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3743000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3538800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3656600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>4400600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4257400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2469300</v>
+        <v>2536000</v>
       </c>
       <c r="E47" s="3">
-        <v>1651700</v>
+        <v>2559300</v>
       </c>
       <c r="F47" s="3">
-        <v>1665900</v>
+        <v>1711800</v>
       </c>
       <c r="G47" s="3">
-        <v>1581200</v>
+        <v>1726700</v>
       </c>
       <c r="H47" s="3">
-        <v>1321900</v>
+        <v>1638800</v>
       </c>
       <c r="I47" s="3">
-        <v>1057500</v>
+        <v>1370100</v>
       </c>
       <c r="J47" s="3">
+        <v>1096100</v>
+      </c>
+      <c r="K47" s="3">
         <v>994300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>963500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>954900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>952400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>931500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1276000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1429600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1271700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2598100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2623700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2372500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2127900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2109300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2237200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2186800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2076800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2217300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2225500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12410900</v>
+        <v>12827200</v>
       </c>
       <c r="E48" s="3">
-        <v>12658900</v>
+        <v>12863200</v>
       </c>
       <c r="F48" s="3">
-        <v>12401700</v>
+        <v>13120300</v>
       </c>
       <c r="G48" s="3">
-        <v>12503800</v>
+        <v>12853600</v>
       </c>
       <c r="H48" s="3">
-        <v>11913800</v>
+        <v>12959400</v>
       </c>
       <c r="I48" s="3">
-        <v>11936200</v>
+        <v>12347900</v>
       </c>
       <c r="J48" s="3">
+        <v>12371200</v>
+      </c>
+      <c r="K48" s="3">
         <v>11734100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11683500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10030300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10677800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10744500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11376400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11076400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10686400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7542000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6731900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6154900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6126800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6149900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6460400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6440200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6509800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>7095700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>7160200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>579800</v>
+        <v>516300</v>
       </c>
       <c r="E49" s="3">
-        <v>625800</v>
+        <v>600900</v>
       </c>
       <c r="F49" s="3">
-        <v>692100</v>
+        <v>648600</v>
       </c>
       <c r="G49" s="3">
-        <v>554300</v>
+        <v>717300</v>
       </c>
       <c r="H49" s="3">
-        <v>557400</v>
+        <v>574500</v>
       </c>
       <c r="I49" s="3">
-        <v>540000</v>
+        <v>577700</v>
       </c>
       <c r="J49" s="3">
+        <v>559700</v>
+      </c>
+      <c r="K49" s="3">
         <v>544100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>449800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>489900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>533500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>605200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>593000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>635800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>630600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>590900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>618700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>569300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>565500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>557800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>536300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>476800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>490300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>521200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>507100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>665600</v>
+        <v>662300</v>
       </c>
       <c r="E52" s="3">
-        <v>179700</v>
+        <v>689800</v>
       </c>
       <c r="F52" s="3">
-        <v>165400</v>
+        <v>186200</v>
       </c>
       <c r="G52" s="3">
-        <v>179700</v>
+        <v>171400</v>
       </c>
       <c r="H52" s="3">
-        <v>191900</v>
+        <v>186200</v>
       </c>
       <c r="I52" s="3">
-        <v>220500</v>
+        <v>198900</v>
       </c>
       <c r="J52" s="3">
+        <v>228500</v>
+      </c>
+      <c r="K52" s="3">
         <v>160300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>144600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>134900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>165800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>155800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>136600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>156800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>155300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>168700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>199900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>139600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>175700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>186700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>228900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>226600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>270400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>301700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>318100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21314300</v>
+        <v>22135500</v>
       </c>
       <c r="E54" s="3">
-        <v>20084200</v>
+        <v>22091000</v>
       </c>
       <c r="F54" s="3">
-        <v>19294100</v>
+        <v>20816200</v>
       </c>
       <c r="G54" s="3">
-        <v>19421700</v>
+        <v>19997300</v>
       </c>
       <c r="H54" s="3">
-        <v>18294800</v>
+        <v>20129500</v>
       </c>
       <c r="I54" s="3">
-        <v>17975300</v>
+        <v>18961500</v>
       </c>
       <c r="J54" s="3">
+        <v>18630300</v>
+      </c>
+      <c r="K54" s="3">
         <v>17477100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17385700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15623500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>16333100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16325700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>17573000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17679100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17342500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>16277900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>15199100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>13694400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12926800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12981700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13205800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12869200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>13003900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>14536500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>14468400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,408 +4398,426 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>870700</v>
+        <v>1159600</v>
       </c>
       <c r="E58" s="3">
-        <v>905400</v>
+        <v>902500</v>
       </c>
       <c r="F58" s="3">
-        <v>626800</v>
+        <v>938400</v>
       </c>
       <c r="G58" s="3">
-        <v>564500</v>
+        <v>649600</v>
       </c>
       <c r="H58" s="3">
-        <v>561400</v>
+        <v>585100</v>
       </c>
       <c r="I58" s="3">
-        <v>881000</v>
+        <v>581900</v>
       </c>
       <c r="J58" s="3">
+        <v>913100</v>
+      </c>
+      <c r="K58" s="3">
         <v>970800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>888700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>497200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>885800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>397400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1056500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>430000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>424700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>385200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>477900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>494000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>428200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>457900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1088300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1067000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1128700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1629200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1313500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2714300</v>
+        <v>2751900</v>
       </c>
       <c r="E59" s="3">
-        <v>2705100</v>
+        <v>2813200</v>
       </c>
       <c r="F59" s="3">
-        <v>2759200</v>
+        <v>2803700</v>
       </c>
       <c r="G59" s="3">
-        <v>2666300</v>
+        <v>2859800</v>
       </c>
       <c r="H59" s="3">
-        <v>2401900</v>
+        <v>2763500</v>
       </c>
       <c r="I59" s="3">
-        <v>2237600</v>
+        <v>2489500</v>
       </c>
       <c r="J59" s="3">
+        <v>2319100</v>
+      </c>
+      <c r="K59" s="3">
         <v>2102800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1998800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2417300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2919900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2348800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2973100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2977500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3314700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3244700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2825500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2747200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2742800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2236100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2022900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2008400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2225500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2195000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3585000</v>
+        <v>3911400</v>
       </c>
       <c r="E60" s="3">
-        <v>3610600</v>
+        <v>3715700</v>
       </c>
       <c r="F60" s="3">
-        <v>3386000</v>
+        <v>3742100</v>
       </c>
       <c r="G60" s="3">
-        <v>3230800</v>
+        <v>3509400</v>
       </c>
       <c r="H60" s="3">
-        <v>2963400</v>
+        <v>3348600</v>
       </c>
       <c r="I60" s="3">
-        <v>3118500</v>
+        <v>3071400</v>
       </c>
       <c r="J60" s="3">
+        <v>3232200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3073600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2887500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2914400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2786200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3317300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3405300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3403000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3402100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3699800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3722600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3319500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3175400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3200700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3324500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3090000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3137100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3854800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3508500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3072600</v>
+        <v>2953900</v>
       </c>
       <c r="E61" s="3">
-        <v>3102200</v>
+        <v>3184600</v>
       </c>
       <c r="F61" s="3">
-        <v>3146100</v>
+        <v>3215300</v>
       </c>
       <c r="G61" s="3">
-        <v>3381900</v>
+        <v>3260800</v>
       </c>
       <c r="H61" s="3">
-        <v>3537100</v>
+        <v>3505200</v>
       </c>
       <c r="I61" s="3">
-        <v>3593200</v>
+        <v>3666000</v>
       </c>
       <c r="J61" s="3">
+        <v>3724200</v>
+      </c>
+      <c r="K61" s="3">
         <v>3696300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3812100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3599400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3942500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3549900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3773100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4297300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4497400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3942700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2679300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2484300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2375000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2269600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2295600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2347200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2597400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2739700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>3116500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1938500</v>
+        <v>2043000</v>
       </c>
       <c r="E62" s="3">
-        <v>1810900</v>
+        <v>2009100</v>
       </c>
       <c r="F62" s="3">
-        <v>1833400</v>
+        <v>1876900</v>
       </c>
       <c r="G62" s="3">
-        <v>1921100</v>
+        <v>1900200</v>
       </c>
       <c r="H62" s="3">
-        <v>1837400</v>
+        <v>1991200</v>
       </c>
       <c r="I62" s="3">
-        <v>1878300</v>
+        <v>1904400</v>
       </c>
       <c r="J62" s="3">
+        <v>1946700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1831300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1916000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1606700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1716000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1548000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1728900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1579000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1534000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>818200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>833900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>736600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>699400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>717000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>792100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>871800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>916700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>936700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>955500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8565500</v>
+        <v>8876600</v>
       </c>
       <c r="E66" s="3">
-        <v>8498200</v>
+        <v>8877700</v>
       </c>
       <c r="F66" s="3">
-        <v>8346100</v>
+        <v>8807900</v>
       </c>
       <c r="G66" s="3">
-        <v>8517600</v>
+        <v>8650200</v>
       </c>
       <c r="H66" s="3">
-        <v>8322600</v>
+        <v>8828000</v>
       </c>
       <c r="I66" s="3">
-        <v>8576800</v>
+        <v>8625900</v>
       </c>
       <c r="J66" s="3">
+        <v>8889300</v>
+      </c>
+      <c r="K66" s="3">
         <v>8587000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8599600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8106000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8430600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8402800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8899200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9257200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9434700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8476300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7257100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6565900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6291500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6237700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6464900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6362800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6707300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7594600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7653200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7549800</v>
+        <v>8350800</v>
       </c>
       <c r="E72" s="3">
-        <v>7116000</v>
+        <v>7825000</v>
       </c>
       <c r="F72" s="3">
-        <v>6708700</v>
+        <v>7375300</v>
       </c>
       <c r="G72" s="3">
-        <v>6788300</v>
+        <v>6953200</v>
       </c>
       <c r="H72" s="3">
-        <v>6173800</v>
+        <v>7035700</v>
       </c>
       <c r="I72" s="3">
-        <v>5843100</v>
+        <v>6398800</v>
       </c>
       <c r="J72" s="3">
+        <v>6056000</v>
+      </c>
+      <c r="K72" s="3">
         <v>5598100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5501700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5533000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5736000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5962800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>6435900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5713400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5409100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5428400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5567900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>4893400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4618200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4729100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4526100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4275900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4057100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4415900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4284400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12748800</v>
+        <v>13258900</v>
       </c>
       <c r="E76" s="3">
-        <v>11586100</v>
+        <v>13213400</v>
       </c>
       <c r="F76" s="3">
-        <v>10948100</v>
+        <v>12008300</v>
       </c>
       <c r="G76" s="3">
-        <v>10904200</v>
+        <v>11347100</v>
       </c>
       <c r="H76" s="3">
-        <v>9972200</v>
+        <v>11301600</v>
       </c>
       <c r="I76" s="3">
-        <v>9398500</v>
+        <v>10335600</v>
       </c>
       <c r="J76" s="3">
+        <v>9741000</v>
+      </c>
+      <c r="K76" s="3">
         <v>8890100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8786100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7517500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7902600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7922900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8673900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8421800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7907800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7801600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7942000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7128500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>6635200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6743900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6740900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6506400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6296600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6941900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6815100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>379700</v>
+        <v>620000</v>
       </c>
       <c r="E81" s="3">
-        <v>309300</v>
+        <v>393600</v>
       </c>
       <c r="F81" s="3">
-        <v>295000</v>
+        <v>320600</v>
       </c>
       <c r="G81" s="3">
-        <v>628800</v>
+        <v>305800</v>
       </c>
       <c r="H81" s="3">
-        <v>307300</v>
+        <v>651700</v>
       </c>
       <c r="I81" s="3">
-        <v>210300</v>
+        <v>318500</v>
       </c>
       <c r="J81" s="3">
+        <v>217900</v>
+      </c>
+      <c r="K81" s="3">
         <v>147000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>238400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>91300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>160400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>171600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>607100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>85700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>69400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>277500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>359600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>237000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>242700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>195200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>214300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>163800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>133800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>106800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>560400</v>
+        <v>385100</v>
       </c>
       <c r="E89" s="3">
-        <v>351200</v>
+        <v>580800</v>
       </c>
       <c r="F89" s="3">
-        <v>331800</v>
+        <v>364000</v>
       </c>
       <c r="G89" s="3">
-        <v>530800</v>
+        <v>343900</v>
       </c>
       <c r="H89" s="3">
-        <v>452200</v>
+        <v>550200</v>
       </c>
       <c r="I89" s="3">
-        <v>377700</v>
+        <v>468700</v>
       </c>
       <c r="J89" s="3">
+        <v>391500</v>
+      </c>
+      <c r="K89" s="3">
         <v>146000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>381000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>398600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>317500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>80200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>753000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>524300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>544700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>148300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>322900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>451900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>312900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>138300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>529600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>408400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>317500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>97400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>489500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-153100</v>
+        <v>401000</v>
       </c>
       <c r="E91" s="3">
-        <v>-156200</v>
+        <v>-158700</v>
       </c>
       <c r="F91" s="3">
-        <v>-180700</v>
+        <v>-161900</v>
       </c>
       <c r="G91" s="3">
-        <v>380800</v>
+        <v>-187300</v>
       </c>
       <c r="H91" s="3">
-        <v>-140900</v>
+        <v>394600</v>
       </c>
       <c r="I91" s="3">
-        <v>-124500</v>
+        <v>-146000</v>
       </c>
       <c r="J91" s="3">
+        <v>-129100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-196000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>368000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-152600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-135300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-199900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>358400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-172700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-141200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-147100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>339500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-142900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-137300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-127400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>360200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-154800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-143600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-158500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-258200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-206200</v>
+        <v>-196800</v>
       </c>
       <c r="E94" s="3">
-        <v>-180700</v>
+        <v>-213700</v>
       </c>
       <c r="F94" s="3">
-        <v>-180700</v>
+        <v>-187300</v>
       </c>
       <c r="G94" s="3">
-        <v>-151100</v>
+        <v>-187300</v>
       </c>
       <c r="H94" s="3">
-        <v>-83700</v>
+        <v>-156600</v>
       </c>
       <c r="I94" s="3">
-        <v>-125600</v>
+        <v>-86800</v>
       </c>
       <c r="J94" s="3">
+        <v>-130100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-98000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-214400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-152600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-130900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-224700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-249800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-193500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-682300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-149500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-197500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-152800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-94400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-116400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-304100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-218800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-140200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-123300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-77500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,35 +7195,35 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-76600</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-366500</v>
+        <v>-79400</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-379800</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-29600</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-212300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-104700</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-128700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7001,11 +7234,11 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-471300</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-73500</v>
+        <v>98400</v>
       </c>
       <c r="E100" s="3">
-        <v>181700</v>
+        <v>-76200</v>
       </c>
       <c r="F100" s="3">
-        <v>-662500</v>
+        <v>188300</v>
       </c>
       <c r="G100" s="3">
-        <v>-182700</v>
+        <v>-686600</v>
       </c>
       <c r="H100" s="3">
-        <v>-410400</v>
+        <v>-189400</v>
       </c>
       <c r="I100" s="3">
-        <v>-210300</v>
+        <v>-425300</v>
       </c>
       <c r="J100" s="3">
+        <v>-217900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-442000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>134600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>63300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>149500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>23700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-302400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-491200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-324700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>95700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>45000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>111900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-294300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>61500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-278300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-640700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-219500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-9200</v>
+        <v>24300</v>
       </c>
       <c r="E101" s="3">
-        <v>30600</v>
+        <v>-9500</v>
       </c>
       <c r="F101" s="3">
-        <v>4100</v>
+        <v>31700</v>
       </c>
       <c r="G101" s="3">
-        <v>15300</v>
+        <v>4200</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="I101" s="3">
-        <v>4100</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-1100</v>
       </c>
       <c r="N101" s="3">
         <v>-1100</v>
       </c>
       <c r="O101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P101" s="3">
         <v>1200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>17900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-8900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>6600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>4400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-6700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-18000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>2300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>11700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>271500</v>
+        <v>311100</v>
       </c>
       <c r="E102" s="3">
-        <v>382800</v>
+        <v>281400</v>
       </c>
       <c r="F102" s="3">
-        <v>-507300</v>
+        <v>396800</v>
       </c>
       <c r="G102" s="3">
-        <v>212300</v>
+        <v>-525800</v>
       </c>
       <c r="H102" s="3">
-        <v>-41900</v>
+        <v>220100</v>
       </c>
       <c r="I102" s="3">
-        <v>45900</v>
+        <v>-43400</v>
       </c>
       <c r="J102" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-395000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>298200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>305100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>334900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-121900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>197300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-162900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-464700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>112400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>172700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>402100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-69200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>87800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>213200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-92000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-481300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-29300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>204200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3030100</v>
+        <v>2930200</v>
       </c>
       <c r="E8" s="3">
-        <v>3134900</v>
+        <v>3084200</v>
       </c>
       <c r="F8" s="3">
-        <v>3231100</v>
+        <v>3190900</v>
       </c>
       <c r="G8" s="3">
-        <v>2960300</v>
+        <v>3288900</v>
       </c>
       <c r="H8" s="3">
-        <v>2876700</v>
+        <v>3013200</v>
       </c>
       <c r="I8" s="3">
-        <v>2726500</v>
+        <v>2928100</v>
       </c>
       <c r="J8" s="3">
+        <v>2775200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2742300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2323300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2147400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2157800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2306200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2491900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2814600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2942400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3068100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3152000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3144100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2863100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2925100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2831700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2817300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2815100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2836400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2931000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2861700</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2509600</v>
+        <v>2481200</v>
       </c>
       <c r="E9" s="3">
-        <v>2387900</v>
+        <v>2554400</v>
       </c>
       <c r="F9" s="3">
-        <v>2530700</v>
+        <v>2430600</v>
       </c>
       <c r="G9" s="3">
-        <v>2287400</v>
+        <v>2575900</v>
       </c>
       <c r="H9" s="3">
-        <v>2273600</v>
+        <v>2328300</v>
       </c>
       <c r="I9" s="3">
-        <v>2142500</v>
+        <v>2314300</v>
       </c>
       <c r="J9" s="3">
+        <v>2180700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2183700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1903800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1868100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1803900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1922200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2065100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2445700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2424300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2503400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2512000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2572800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2225200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2333300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2179500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1934300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1910700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1950000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2019000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2006000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>520500</v>
+        <v>449100</v>
       </c>
       <c r="E10" s="3">
-        <v>746900</v>
+        <v>529800</v>
       </c>
       <c r="F10" s="3">
-        <v>700400</v>
+        <v>760300</v>
       </c>
       <c r="G10" s="3">
-        <v>672900</v>
+        <v>712900</v>
       </c>
       <c r="H10" s="3">
-        <v>603100</v>
+        <v>684900</v>
       </c>
       <c r="I10" s="3">
-        <v>584000</v>
+        <v>613800</v>
       </c>
       <c r="J10" s="3">
+        <v>594400</v>
+      </c>
+      <c r="K10" s="3">
         <v>558600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>419500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>279300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>353900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>384000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>426800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>368900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>518200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>564700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>640000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>571300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>638000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>591800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>652200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>883000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>904300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>886400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>912100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>855700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,73 +1242,76 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-230600</v>
+        <v>20500</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-234800</v>
       </c>
       <c r="F14" s="3">
-        <v>69800</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>85700</v>
+        <v>71100</v>
       </c>
       <c r="H14" s="3">
-        <v>-346000</v>
+        <v>87200</v>
       </c>
       <c r="I14" s="3">
-        <v>-6300</v>
+        <v>-352100</v>
       </c>
       <c r="J14" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="K14" s="3">
         <v>40200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>110200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-209500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-69800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-132100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-513700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>36700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>5900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>19100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>20100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>22200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>18700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>15400</v>
-      </c>
-      <c r="X14" s="3">
-        <v>22400</v>
       </c>
       <c r="Y14" s="3">
         <v>22400</v>
@@ -1300,99 +1320,105 @@
         <v>22400</v>
       </c>
       <c r="AA14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="AB14" s="3">
         <v>14100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>237100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>120600</v>
+        <v>146500</v>
       </c>
       <c r="E15" s="3">
-        <v>138600</v>
+        <v>122800</v>
       </c>
       <c r="F15" s="3">
-        <v>138600</v>
+        <v>141100</v>
       </c>
       <c r="G15" s="3">
+        <v>141100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>145400</v>
+      </c>
+      <c r="I15" s="3">
+        <v>157200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>146500</v>
+      </c>
+      <c r="K15" s="3">
         <v>142800</v>
       </c>
-      <c r="H15" s="3">
-        <v>154500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>143900</v>
-      </c>
-      <c r="J15" s="3">
-        <v>142800</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>141900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>149600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>140100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>148400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>155800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>171600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>160500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>157600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>159100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>134900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>135100</v>
-      </c>
-      <c r="V15" s="3">
-        <v>132900</v>
       </c>
       <c r="W15" s="3">
         <v>132900</v>
       </c>
       <c r="X15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="Y15" s="3">
         <v>145900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>139100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>133500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>166700</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>71600</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2284200</v>
+        <v>2652400</v>
       </c>
       <c r="E17" s="3">
-        <v>2594200</v>
+        <v>2325000</v>
       </c>
       <c r="F17" s="3">
-        <v>2809000</v>
+        <v>2640600</v>
       </c>
       <c r="G17" s="3">
-        <v>2543400</v>
+        <v>2859200</v>
       </c>
       <c r="H17" s="3">
-        <v>1989000</v>
+        <v>2588900</v>
       </c>
       <c r="I17" s="3">
-        <v>2318100</v>
+        <v>2024600</v>
       </c>
       <c r="J17" s="3">
+        <v>2359500</v>
+      </c>
+      <c r="K17" s="3">
         <v>2549800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2159000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1859200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2007300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2059600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2196100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2019600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2734200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2901000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2777600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2723000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2461100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2577000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2442000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2552500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2512100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2606400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2704500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2691500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>745900</v>
+        <v>277800</v>
       </c>
       <c r="E18" s="3">
-        <v>540600</v>
+        <v>759200</v>
       </c>
       <c r="F18" s="3">
-        <v>422100</v>
+        <v>550300</v>
       </c>
       <c r="G18" s="3">
-        <v>416900</v>
+        <v>429700</v>
       </c>
       <c r="H18" s="3">
-        <v>887700</v>
+        <v>424300</v>
       </c>
       <c r="I18" s="3">
-        <v>408400</v>
+        <v>903500</v>
       </c>
       <c r="J18" s="3">
+        <v>415700</v>
+      </c>
+      <c r="K18" s="3">
         <v>192600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>164300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>288200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>150500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>246500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>295800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>795000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>208200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>167000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>374400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>421100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>402100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>348100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>389800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>264800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>302900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>230000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>226500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>170200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-41300</v>
+        <v>-32300</v>
       </c>
       <c r="E20" s="3">
-        <v>-66700</v>
+        <v>-42000</v>
       </c>
       <c r="F20" s="3">
-        <v>-30700</v>
+        <v>-67800</v>
       </c>
       <c r="G20" s="3">
-        <v>-21200</v>
+        <v>-31200</v>
       </c>
       <c r="H20" s="3">
-        <v>-48700</v>
+        <v>-21500</v>
       </c>
       <c r="I20" s="3">
-        <v>-39100</v>
+        <v>-49500</v>
       </c>
       <c r="J20" s="3">
+        <v>-39800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-31700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-36700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-28900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-31100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-39300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-59800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-39700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-67400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-57600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-37100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-48500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-64200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-65900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-24200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-30300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-51600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-67300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-34000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-81000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>686600</v>
+        <v>392000</v>
       </c>
       <c r="E21" s="3">
-        <v>474000</v>
+        <v>1260000</v>
       </c>
       <c r="F21" s="3">
-        <v>387200</v>
+        <v>482500</v>
       </c>
       <c r="G21" s="3">
-        <v>538500</v>
+        <v>394100</v>
       </c>
       <c r="H21" s="3">
-        <v>1432500</v>
+        <v>548100</v>
       </c>
       <c r="I21" s="3">
-        <v>370300</v>
+        <v>1458100</v>
       </c>
       <c r="J21" s="3">
+        <v>376900</v>
+      </c>
+      <c r="K21" s="3">
         <v>156600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>269500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>732100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>118300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>205100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>391800</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>110600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>496400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>363200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>338900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>282200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>498500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>241200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>256900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>136900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>359200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>403800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>704600</v>
+        <v>245500</v>
       </c>
       <c r="E23" s="3">
-        <v>474000</v>
+        <v>717200</v>
       </c>
       <c r="F23" s="3">
-        <v>391500</v>
+        <v>482500</v>
       </c>
       <c r="G23" s="3">
-        <v>395700</v>
+        <v>398500</v>
       </c>
       <c r="H23" s="3">
-        <v>839000</v>
+        <v>402800</v>
       </c>
       <c r="I23" s="3">
-        <v>369200</v>
+        <v>854000</v>
       </c>
       <c r="J23" s="3">
+        <v>375800</v>
+      </c>
+      <c r="K23" s="3">
         <v>160800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>127600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>259300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>119400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>207300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>236000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>755300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>140900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>109400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>337300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>372600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>337800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>282200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>365600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>234500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>251300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>162700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>192500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>89200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>86800</v>
+        <v>46300</v>
       </c>
       <c r="E24" s="3">
-        <v>85700</v>
+        <v>88300</v>
       </c>
       <c r="F24" s="3">
-        <v>75100</v>
+        <v>87200</v>
       </c>
       <c r="G24" s="3">
-        <v>93100</v>
+        <v>76500</v>
       </c>
       <c r="H24" s="3">
-        <v>187300</v>
+        <v>94800</v>
       </c>
       <c r="I24" s="3">
-        <v>52900</v>
+        <v>190600</v>
       </c>
       <c r="J24" s="3">
+        <v>53800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-59200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-20400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>22900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>29100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>50200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>66600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>148300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>69800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>48200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>67000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>111900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>48300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>65900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>40400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>37000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>66900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>23500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>617900</v>
+        <v>199200</v>
       </c>
       <c r="E26" s="3">
-        <v>388300</v>
+        <v>628900</v>
       </c>
       <c r="F26" s="3">
-        <v>316300</v>
+        <v>395200</v>
       </c>
       <c r="G26" s="3">
-        <v>302600</v>
+        <v>322000</v>
       </c>
       <c r="H26" s="3">
-        <v>651700</v>
+        <v>308000</v>
       </c>
       <c r="I26" s="3">
-        <v>316300</v>
+        <v>663400</v>
       </c>
       <c r="J26" s="3">
+        <v>322000</v>
+      </c>
+      <c r="K26" s="3">
         <v>220100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>148000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>236400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>90300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>157100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>169400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>607100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>71000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>61200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>270300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>353700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>226000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>233900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>299800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>194100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>214300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>160400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>125600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>65700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>620000</v>
+        <v>203500</v>
       </c>
       <c r="E27" s="3">
-        <v>393600</v>
+        <v>631100</v>
       </c>
       <c r="F27" s="3">
-        <v>320600</v>
+        <v>400600</v>
       </c>
       <c r="G27" s="3">
-        <v>305800</v>
+        <v>326300</v>
       </c>
       <c r="H27" s="3">
-        <v>651700</v>
+        <v>311200</v>
       </c>
       <c r="I27" s="3">
-        <v>318500</v>
+        <v>663400</v>
       </c>
       <c r="J27" s="3">
+        <v>324100</v>
+      </c>
+      <c r="K27" s="3">
         <v>217900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>147000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>238400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>91300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>160400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>171600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>607100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>85700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>69400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>277500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>359600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>237000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>242700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>300900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>195200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>214300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>163800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>133800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>106800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>41300</v>
+        <v>32300</v>
       </c>
       <c r="E32" s="3">
-        <v>66700</v>
+        <v>42000</v>
       </c>
       <c r="F32" s="3">
-        <v>30700</v>
+        <v>67800</v>
       </c>
       <c r="G32" s="3">
-        <v>21200</v>
+        <v>31200</v>
       </c>
       <c r="H32" s="3">
-        <v>48700</v>
+        <v>21500</v>
       </c>
       <c r="I32" s="3">
-        <v>39100</v>
+        <v>49500</v>
       </c>
       <c r="J32" s="3">
+        <v>39800</v>
+      </c>
+      <c r="K32" s="3">
         <v>31700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>36700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>28900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>31100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>39300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>59800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>39700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>67400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>57600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>37100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>48500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>64200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>65900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>24200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>30300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>51600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>67300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>34000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>81000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>620000</v>
+        <v>203500</v>
       </c>
       <c r="E33" s="3">
-        <v>393600</v>
+        <v>631100</v>
       </c>
       <c r="F33" s="3">
-        <v>320600</v>
+        <v>400600</v>
       </c>
       <c r="G33" s="3">
-        <v>305800</v>
+        <v>326300</v>
       </c>
       <c r="H33" s="3">
-        <v>651700</v>
+        <v>311200</v>
       </c>
       <c r="I33" s="3">
-        <v>318500</v>
+        <v>663400</v>
       </c>
       <c r="J33" s="3">
+        <v>324100</v>
+      </c>
+      <c r="K33" s="3">
         <v>217900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>147000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>238400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>91300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>160400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>171600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>607100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>85700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>69400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>277500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>359600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>237000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>242700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>300900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>195200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>214300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>163800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>133800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>106800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>620000</v>
+        <v>203500</v>
       </c>
       <c r="E35" s="3">
-        <v>393600</v>
+        <v>631100</v>
       </c>
       <c r="F35" s="3">
-        <v>320600</v>
+        <v>400600</v>
       </c>
       <c r="G35" s="3">
-        <v>305800</v>
+        <v>326300</v>
       </c>
       <c r="H35" s="3">
-        <v>651700</v>
+        <v>311200</v>
       </c>
       <c r="I35" s="3">
-        <v>318500</v>
+        <v>663400</v>
       </c>
       <c r="J35" s="3">
+        <v>324100</v>
+      </c>
+      <c r="K35" s="3">
         <v>217900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>147000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>238400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>91300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>160400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>171600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>607100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>85700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>69400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>277500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>359600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>237000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>242700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>300900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>195200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>214300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>163800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>133800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>106800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2028200</v>
+        <v>1353700</v>
       </c>
       <c r="E41" s="3">
-        <v>1718200</v>
+        <v>2064400</v>
       </c>
       <c r="F41" s="3">
-        <v>1436800</v>
+        <v>1748900</v>
       </c>
       <c r="G41" s="3">
-        <v>1040000</v>
+        <v>1462400</v>
       </c>
       <c r="H41" s="3">
-        <v>1566900</v>
+        <v>1058600</v>
       </c>
       <c r="I41" s="3">
-        <v>1345800</v>
+        <v>1594900</v>
       </c>
       <c r="J41" s="3">
+        <v>1369800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1389200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1295400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1656700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1415700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1158500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>853600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1022700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>873400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>979900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1463000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1336700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1113100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>690600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>754300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>681000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>469000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>559900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1094000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1118600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,227 +3350,236 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1581700</v>
+        <v>1624000</v>
       </c>
       <c r="E43" s="3">
-        <v>1772200</v>
+        <v>1610000</v>
       </c>
       <c r="F43" s="3">
-        <v>1887500</v>
+        <v>1803800</v>
       </c>
       <c r="G43" s="3">
-        <v>1759500</v>
+        <v>1921200</v>
       </c>
       <c r="H43" s="3">
-        <v>1606000</v>
+        <v>1790900</v>
       </c>
       <c r="I43" s="3">
-        <v>1562700</v>
+        <v>1634700</v>
       </c>
       <c r="J43" s="3">
+        <v>1590600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1561600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1372000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1157000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1228900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1330900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1446400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1521100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1632900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1765800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1897200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1834700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1680200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1681000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1631600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1579800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1576400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1580900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1618700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1558800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1915000</v>
+        <v>2049300</v>
       </c>
       <c r="E44" s="3">
-        <v>1868400</v>
+        <v>1949200</v>
       </c>
       <c r="F44" s="3">
-        <v>1818700</v>
+        <v>1901800</v>
       </c>
       <c r="G44" s="3">
-        <v>1712900</v>
+        <v>1851200</v>
       </c>
       <c r="H44" s="3">
-        <v>1563700</v>
+        <v>1743500</v>
       </c>
       <c r="I44" s="3">
-        <v>1553100</v>
+        <v>1591700</v>
       </c>
       <c r="J44" s="3">
+        <v>1580900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1415600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1370900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1266700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1351300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1488000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1577400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1623900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1860800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1832800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1992900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1853600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1664700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1559200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1592100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1482100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1493400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1515800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1687900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1579900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>68800</v>
+        <v>59200</v>
       </c>
       <c r="E45" s="3">
-        <v>19000</v>
+        <v>70000</v>
       </c>
       <c r="F45" s="3">
-        <v>6300</v>
+        <v>19400</v>
       </c>
       <c r="G45" s="3">
-        <v>15900</v>
+        <v>6500</v>
       </c>
       <c r="H45" s="3">
-        <v>33900</v>
+        <v>16200</v>
       </c>
       <c r="I45" s="3">
-        <v>5300</v>
+        <v>34500</v>
       </c>
       <c r="J45" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K45" s="3">
         <v>8500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>63800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>17600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>11300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>23300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25100</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
@@ -3491,8 +3590,8 @@
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
+      <c r="X45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3509,340 +3608,355 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5593600</v>
+        <v>5086200</v>
       </c>
       <c r="E46" s="3">
-        <v>5377800</v>
+        <v>5693600</v>
       </c>
       <c r="F46" s="3">
-        <v>5149300</v>
+        <v>5473900</v>
       </c>
       <c r="G46" s="3">
-        <v>4528200</v>
+        <v>5241300</v>
       </c>
       <c r="H46" s="3">
-        <v>4770500</v>
+        <v>4609100</v>
       </c>
       <c r="I46" s="3">
-        <v>4466900</v>
+        <v>4855700</v>
       </c>
       <c r="J46" s="3">
+        <v>4546700</v>
+      </c>
+      <c r="K46" s="3">
         <v>4374800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4044400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4144200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4013600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4003600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3888600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4191000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4380600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4598500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5378100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5025000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4458100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3930800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3978100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3743000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3538800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3656600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>4400600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4257400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2536000</v>
+        <v>2056900</v>
       </c>
       <c r="E47" s="3">
-        <v>2559300</v>
+        <v>2581300</v>
       </c>
       <c r="F47" s="3">
-        <v>1711800</v>
+        <v>2605000</v>
       </c>
       <c r="G47" s="3">
-        <v>1726700</v>
+        <v>1742400</v>
       </c>
       <c r="H47" s="3">
-        <v>1638800</v>
+        <v>1757500</v>
       </c>
       <c r="I47" s="3">
-        <v>1370100</v>
+        <v>1668100</v>
       </c>
       <c r="J47" s="3">
+        <v>1394600</v>
+      </c>
+      <c r="K47" s="3">
         <v>1096100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>994300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>963500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>954900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>952400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>931500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1276000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1429600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1271700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2598100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2623700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2372500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2127900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2109300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2237200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2186800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2076800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2217300</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2225500</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12827200</v>
+        <v>13350300</v>
       </c>
       <c r="E48" s="3">
-        <v>12863200</v>
+        <v>13056300</v>
       </c>
       <c r="F48" s="3">
-        <v>13120300</v>
+        <v>13093000</v>
       </c>
       <c r="G48" s="3">
-        <v>12853600</v>
+        <v>13354600</v>
       </c>
       <c r="H48" s="3">
-        <v>12959400</v>
+        <v>13083300</v>
       </c>
       <c r="I48" s="3">
-        <v>12347900</v>
+        <v>13190900</v>
       </c>
       <c r="J48" s="3">
+        <v>12568500</v>
+      </c>
+      <c r="K48" s="3">
         <v>12371200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11734100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11683500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10030300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10677800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10744500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11376400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11076400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10686400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>7542000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6731900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6154900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6126800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6149900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6460400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6440200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6509800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>7095700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>7160200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>516300</v>
+        <v>1209400</v>
       </c>
       <c r="E49" s="3">
-        <v>600900</v>
+        <v>525500</v>
       </c>
       <c r="F49" s="3">
-        <v>648600</v>
+        <v>611700</v>
       </c>
       <c r="G49" s="3">
-        <v>717300</v>
+        <v>660100</v>
       </c>
       <c r="H49" s="3">
-        <v>574500</v>
+        <v>730100</v>
       </c>
       <c r="I49" s="3">
-        <v>577700</v>
+        <v>584800</v>
       </c>
       <c r="J49" s="3">
+        <v>588000</v>
+      </c>
+      <c r="K49" s="3">
         <v>559700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>544100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>449800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>489900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>533500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>605200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>593000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>635800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>630600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>590900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>618700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>569300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>565500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>557800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>536300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>476800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>490300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>521200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>507100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>662300</v>
+        <v>145400</v>
       </c>
       <c r="E52" s="3">
-        <v>689800</v>
+        <v>674100</v>
       </c>
       <c r="F52" s="3">
-        <v>186200</v>
+        <v>702100</v>
       </c>
       <c r="G52" s="3">
-        <v>171400</v>
+        <v>189500</v>
       </c>
       <c r="H52" s="3">
-        <v>186200</v>
+        <v>174500</v>
       </c>
       <c r="I52" s="3">
-        <v>198900</v>
+        <v>189500</v>
       </c>
       <c r="J52" s="3">
+        <v>202500</v>
+      </c>
+      <c r="K52" s="3">
         <v>228500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>160300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>144600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>134900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>165800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>155800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>136600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>156800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>155300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>168700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>199900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>139600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>175700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>186700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>228900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>226600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>270400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>301700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>318100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>22135500</v>
+        <v>21848100</v>
       </c>
       <c r="E54" s="3">
-        <v>22091000</v>
+        <v>22530900</v>
       </c>
       <c r="F54" s="3">
-        <v>20816200</v>
+        <v>22485700</v>
       </c>
       <c r="G54" s="3">
-        <v>19997300</v>
+        <v>21188000</v>
       </c>
       <c r="H54" s="3">
-        <v>20129500</v>
+        <v>20354500</v>
       </c>
       <c r="I54" s="3">
-        <v>18961500</v>
+        <v>20489100</v>
       </c>
       <c r="J54" s="3">
+        <v>19300200</v>
+      </c>
+      <c r="K54" s="3">
         <v>18630300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>17477100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17385700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15623500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>16333100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16325700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>17573000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17679100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17342500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>16277900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>15199100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>13694400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12926800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12981700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>13205800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12869200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>13003900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>14536500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>14468400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4448,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4401,423 +4532,441 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1159600</v>
+        <v>1530300</v>
       </c>
       <c r="E58" s="3">
-        <v>902500</v>
+        <v>1180300</v>
       </c>
       <c r="F58" s="3">
-        <v>938400</v>
+        <v>918600</v>
       </c>
       <c r="G58" s="3">
-        <v>649600</v>
+        <v>955200</v>
       </c>
       <c r="H58" s="3">
-        <v>585100</v>
+        <v>661200</v>
       </c>
       <c r="I58" s="3">
-        <v>581900</v>
+        <v>595500</v>
       </c>
       <c r="J58" s="3">
+        <v>592300</v>
+      </c>
+      <c r="K58" s="3">
         <v>913100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>970800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>888700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>497200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>885800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>397400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1056500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>430000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>424700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>385200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>477900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>494000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>428200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>457900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1088300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1067000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1128700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1629200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1313500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2751900</v>
+        <v>2778400</v>
       </c>
       <c r="E59" s="3">
-        <v>2813200</v>
+        <v>2801000</v>
       </c>
       <c r="F59" s="3">
-        <v>2803700</v>
+        <v>2863500</v>
       </c>
       <c r="G59" s="3">
-        <v>2859800</v>
+        <v>2853800</v>
       </c>
       <c r="H59" s="3">
-        <v>2763500</v>
+        <v>2910900</v>
       </c>
       <c r="I59" s="3">
-        <v>2489500</v>
+        <v>2812900</v>
       </c>
       <c r="J59" s="3">
+        <v>2533900</v>
+      </c>
+      <c r="K59" s="3">
         <v>2319100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2102800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1998800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2417300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2919900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2348800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2973100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2977500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3314700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3244700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2825500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2747200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2742800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2236100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2022900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2008400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2225500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2195000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3911400</v>
+        <v>4308700</v>
       </c>
       <c r="E60" s="3">
-        <v>3715700</v>
+        <v>3981300</v>
       </c>
       <c r="F60" s="3">
-        <v>3742100</v>
+        <v>3782100</v>
       </c>
       <c r="G60" s="3">
-        <v>3509400</v>
+        <v>3809000</v>
       </c>
       <c r="H60" s="3">
-        <v>3348600</v>
+        <v>3572100</v>
       </c>
       <c r="I60" s="3">
-        <v>3071400</v>
+        <v>3408400</v>
       </c>
       <c r="J60" s="3">
+        <v>3126200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3232200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3073600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2887500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2914400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2786200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3317300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3405300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3403000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3402100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3699800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3722600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3319500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3175400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3200700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3324500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3090000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3137100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3854800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3508500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2953900</v>
+        <v>3084200</v>
       </c>
       <c r="E61" s="3">
-        <v>3184600</v>
+        <v>3006700</v>
       </c>
       <c r="F61" s="3">
-        <v>3215300</v>
+        <v>3241500</v>
       </c>
       <c r="G61" s="3">
-        <v>3260800</v>
+        <v>3272700</v>
       </c>
       <c r="H61" s="3">
-        <v>3505200</v>
+        <v>3319000</v>
       </c>
       <c r="I61" s="3">
-        <v>3666000</v>
+        <v>3567800</v>
       </c>
       <c r="J61" s="3">
+        <v>3731500</v>
+      </c>
+      <c r="K61" s="3">
         <v>3724200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3696300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3812100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3599400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3942500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3549900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3773100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4297300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4497400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>3942700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2679300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2484300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2375000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2269600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2295600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2347200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2597400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2739700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>3116500</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2043000</v>
+        <v>1902900</v>
       </c>
       <c r="E62" s="3">
-        <v>2009100</v>
+        <v>2079500</v>
       </c>
       <c r="F62" s="3">
-        <v>1876900</v>
+        <v>2045000</v>
       </c>
       <c r="G62" s="3">
-        <v>1900200</v>
+        <v>1910400</v>
       </c>
       <c r="H62" s="3">
-        <v>1991200</v>
+        <v>1934100</v>
       </c>
       <c r="I62" s="3">
-        <v>1904400</v>
+        <v>2026700</v>
       </c>
       <c r="J62" s="3">
+        <v>1938400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1946700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1831300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1916000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1606700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1716000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1548000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1728900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1579000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1534000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>818200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>833900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>736600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>699400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>717000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>792100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>871800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>916700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>936700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>955500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8876600</v>
+        <v>9262400</v>
       </c>
       <c r="E66" s="3">
-        <v>8877700</v>
+        <v>9035200</v>
       </c>
       <c r="F66" s="3">
-        <v>8807900</v>
+        <v>9036300</v>
       </c>
       <c r="G66" s="3">
-        <v>8650200</v>
+        <v>8965200</v>
       </c>
       <c r="H66" s="3">
-        <v>8828000</v>
+        <v>8804700</v>
       </c>
       <c r="I66" s="3">
-        <v>8625900</v>
+        <v>8985700</v>
       </c>
       <c r="J66" s="3">
+        <v>8780000</v>
+      </c>
+      <c r="K66" s="3">
         <v>8889300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8587000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8599600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8106000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8430600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8402800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8899200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9257200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9434700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8476300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7257100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6565900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6291500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6237700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6464900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6362800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6707300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7594600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7653200</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8350800</v>
+        <v>8175800</v>
       </c>
       <c r="E72" s="3">
-        <v>7825000</v>
+        <v>8500000</v>
       </c>
       <c r="F72" s="3">
-        <v>7375300</v>
+        <v>7964800</v>
       </c>
       <c r="G72" s="3">
-        <v>6953200</v>
+        <v>7507100</v>
       </c>
       <c r="H72" s="3">
-        <v>7035700</v>
+        <v>7077400</v>
       </c>
       <c r="I72" s="3">
-        <v>6398800</v>
+        <v>7161400</v>
       </c>
       <c r="J72" s="3">
+        <v>6513100</v>
+      </c>
+      <c r="K72" s="3">
         <v>6056000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5598100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5501700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5533000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5736000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5962800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>6435900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5713400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5409100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5428400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5567900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>4893400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4618200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4729100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4526100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4275900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4057100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4415900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4284400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13258900</v>
+        <v>12585700</v>
       </c>
       <c r="E76" s="3">
-        <v>13213400</v>
+        <v>13495700</v>
       </c>
       <c r="F76" s="3">
-        <v>12008300</v>
+        <v>13449400</v>
       </c>
       <c r="G76" s="3">
-        <v>11347100</v>
+        <v>12222800</v>
       </c>
       <c r="H76" s="3">
-        <v>11301600</v>
+        <v>11549800</v>
       </c>
       <c r="I76" s="3">
-        <v>10335600</v>
+        <v>11503400</v>
       </c>
       <c r="J76" s="3">
+        <v>10520200</v>
+      </c>
+      <c r="K76" s="3">
         <v>9741000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8890100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8786100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7517500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7902600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7922900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>8673900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8421800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7907800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7801600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7942000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7128500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>6635200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6743900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6740900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6506400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6296600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6941900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6815100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>620000</v>
+        <v>203500</v>
       </c>
       <c r="E81" s="3">
-        <v>393600</v>
+        <v>631100</v>
       </c>
       <c r="F81" s="3">
-        <v>320600</v>
+        <v>400600</v>
       </c>
       <c r="G81" s="3">
-        <v>305800</v>
+        <v>326300</v>
       </c>
       <c r="H81" s="3">
-        <v>651700</v>
+        <v>311200</v>
       </c>
       <c r="I81" s="3">
-        <v>318500</v>
+        <v>663400</v>
       </c>
       <c r="J81" s="3">
+        <v>324100</v>
+      </c>
+      <c r="K81" s="3">
         <v>217900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>147000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>238400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>91300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>160400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>171600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>607100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>85700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>69400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>277500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>359600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>237000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>242700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>300900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>195200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>214300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>163800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>133800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>106800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6493,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>385100</v>
+        <v>225100</v>
       </c>
       <c r="E89" s="3">
-        <v>580800</v>
+        <v>392000</v>
       </c>
       <c r="F89" s="3">
-        <v>364000</v>
+        <v>591200</v>
       </c>
       <c r="G89" s="3">
-        <v>343900</v>
+        <v>370500</v>
       </c>
       <c r="H89" s="3">
-        <v>550200</v>
+        <v>350000</v>
       </c>
       <c r="I89" s="3">
-        <v>468700</v>
+        <v>560000</v>
       </c>
       <c r="J89" s="3">
+        <v>477100</v>
+      </c>
+      <c r="K89" s="3">
         <v>391500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>146000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>381000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>398600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>317500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>80200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>753000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>524300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>544700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>148300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>322900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>451900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>312900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>138300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>529600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>408400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>317500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>97400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>489500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>401000</v>
+        <v>-253000</v>
       </c>
       <c r="E91" s="3">
-        <v>-158700</v>
+        <v>-224000</v>
       </c>
       <c r="F91" s="3">
-        <v>-161900</v>
+        <v>-150000</v>
       </c>
       <c r="G91" s="3">
-        <v>-187300</v>
+        <v>-153000</v>
       </c>
       <c r="H91" s="3">
-        <v>394600</v>
+        <v>-177000</v>
       </c>
       <c r="I91" s="3">
-        <v>-146000</v>
+        <v>-192000</v>
       </c>
       <c r="J91" s="3">
+        <v>-138000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-129100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-196000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>368000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-152600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-135300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-199900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>358400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-172700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-141200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-147100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>339500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-142900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-137300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-127400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>360200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-154800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-143600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-158500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-258200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-196800</v>
+        <v>-638600</v>
       </c>
       <c r="E94" s="3">
-        <v>-213700</v>
+        <v>-200300</v>
       </c>
       <c r="F94" s="3">
-        <v>-187300</v>
+        <v>-217500</v>
       </c>
       <c r="G94" s="3">
-        <v>-187300</v>
+        <v>-190600</v>
       </c>
       <c r="H94" s="3">
-        <v>-156600</v>
+        <v>-190600</v>
       </c>
       <c r="I94" s="3">
-        <v>-86800</v>
+        <v>-159400</v>
       </c>
       <c r="J94" s="3">
+        <v>-88300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-130100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-98000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-214400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-152600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-130900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-224700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-249800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-193500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-682300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-149500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-197500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-152800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-94400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-116400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-304100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-218800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-140200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-123300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-77500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,47 +7419,48 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-429700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-79400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-379800</v>
+        <v>-80800</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-386600</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-30700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-212300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-104700</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-128700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
@@ -7237,11 +7471,11 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-471300</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>98400</v>
+        <v>-305800</v>
       </c>
       <c r="E100" s="3">
-        <v>-76200</v>
+        <v>100200</v>
       </c>
       <c r="F100" s="3">
-        <v>188300</v>
+        <v>-77500</v>
       </c>
       <c r="G100" s="3">
-        <v>-686600</v>
+        <v>191700</v>
       </c>
       <c r="H100" s="3">
-        <v>-189400</v>
+        <v>-698900</v>
       </c>
       <c r="I100" s="3">
-        <v>-425300</v>
+        <v>-192800</v>
       </c>
       <c r="J100" s="3">
+        <v>-432900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-217900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-442000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>134600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>63300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>149500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>23700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-302400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-491200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-324700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>95700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>45000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>111900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-294300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>61500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-278300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-640700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-219500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>24300</v>
+        <v>7500</v>
       </c>
       <c r="E101" s="3">
-        <v>-9500</v>
+        <v>24800</v>
       </c>
       <c r="F101" s="3">
-        <v>31700</v>
+        <v>-9700</v>
       </c>
       <c r="G101" s="3">
+        <v>32300</v>
+      </c>
+      <c r="H101" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>16200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>4200</v>
       </c>
-      <c r="H101" s="3">
-        <v>15900</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-1100</v>
       </c>
       <c r="O101" s="3">
         <v>-1100</v>
       </c>
       <c r="P101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q101" s="3">
         <v>1200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>6100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>17900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-8900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>6600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-6700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-18000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>2300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>11700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>311100</v>
+        <v>-711800</v>
       </c>
       <c r="E102" s="3">
-        <v>281400</v>
+        <v>316600</v>
       </c>
       <c r="F102" s="3">
-        <v>396800</v>
+        <v>286500</v>
       </c>
       <c r="G102" s="3">
-        <v>-525800</v>
+        <v>403800</v>
       </c>
       <c r="H102" s="3">
-        <v>220100</v>
+        <v>-535200</v>
       </c>
       <c r="I102" s="3">
-        <v>-43400</v>
+        <v>224000</v>
       </c>
       <c r="J102" s="3">
+        <v>-44200</v>
+      </c>
+      <c r="K102" s="3">
         <v>47600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-395000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>298200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>305100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>334900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-121900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>197300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-162900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-464700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>112400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>172700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>402100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-69200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>87800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>213200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-92000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-481300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-29300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>204200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2930200</v>
+        <v>2573700</v>
       </c>
       <c r="E8" s="3">
-        <v>3084200</v>
+        <v>2949800</v>
       </c>
       <c r="F8" s="3">
-        <v>3190900</v>
+        <v>3104900</v>
       </c>
       <c r="G8" s="3">
-        <v>3288900</v>
+        <v>3212200</v>
       </c>
       <c r="H8" s="3">
-        <v>3013200</v>
+        <v>3310800</v>
       </c>
       <c r="I8" s="3">
-        <v>2928100</v>
+        <v>3033300</v>
       </c>
       <c r="J8" s="3">
+        <v>2947700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2775200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2742300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2323300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2147400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2157800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2306200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2491900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2814600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2942400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3068100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3152000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3144100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2863100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2925100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2831700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2817300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2815100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2836400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2931000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2861700</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2481200</v>
+        <v>2403400</v>
       </c>
       <c r="E9" s="3">
-        <v>2554400</v>
+        <v>2497800</v>
       </c>
       <c r="F9" s="3">
-        <v>2430600</v>
+        <v>2571500</v>
       </c>
       <c r="G9" s="3">
-        <v>2575900</v>
+        <v>2446800</v>
       </c>
       <c r="H9" s="3">
-        <v>2328300</v>
+        <v>2593200</v>
       </c>
       <c r="I9" s="3">
-        <v>2314300</v>
+        <v>2343800</v>
       </c>
       <c r="J9" s="3">
+        <v>2329700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2180700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2183700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1903800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1868100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1803900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1922200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2065100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2445700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2424300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2503400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2512000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2572800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2225200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2333300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2179500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1934300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1910700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1950000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2019000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2006000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>449100</v>
+        <v>170200</v>
       </c>
       <c r="E10" s="3">
-        <v>529800</v>
+        <v>452100</v>
       </c>
       <c r="F10" s="3">
-        <v>760300</v>
+        <v>533400</v>
       </c>
       <c r="G10" s="3">
-        <v>712900</v>
+        <v>765400</v>
       </c>
       <c r="H10" s="3">
-        <v>684900</v>
+        <v>717700</v>
       </c>
       <c r="I10" s="3">
-        <v>613800</v>
+        <v>689500</v>
       </c>
       <c r="J10" s="3">
+        <v>617900</v>
+      </c>
+      <c r="K10" s="3">
         <v>594400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>558600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>419500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>279300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>353900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>384000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>426800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>368900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>518200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>564700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>640000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>571300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>638000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>591800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>652200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>883000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>904300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>886400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>912100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>855700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,76 +1262,79 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20500</v>
+        <v>134400</v>
       </c>
       <c r="E14" s="3">
-        <v>-234800</v>
+        <v>20600</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-236300</v>
       </c>
       <c r="G14" s="3">
-        <v>71100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>87200</v>
+        <v>71600</v>
       </c>
       <c r="I14" s="3">
-        <v>-352100</v>
+        <v>87800</v>
       </c>
       <c r="J14" s="3">
+        <v>-354500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-6500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>40200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>110200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-209500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-69800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-132100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-513700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>36700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>5900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>19100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>20100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>22200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>18700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>15400</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>22400</v>
       </c>
       <c r="Z14" s="3">
         <v>22400</v>
@@ -1323,102 +1343,108 @@
         <v>22400</v>
       </c>
       <c r="AB14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="AC14" s="3">
         <v>14100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>237100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>152900</v>
+      </c>
+      <c r="E15" s="3">
+        <v>148500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>123600</v>
+      </c>
+      <c r="G15" s="3">
+        <v>142000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>142000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>146400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>158300</v>
+      </c>
+      <c r="K15" s="3">
         <v>146500</v>
       </c>
-      <c r="E15" s="3">
-        <v>122800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>141100</v>
-      </c>
-      <c r="G15" s="3">
-        <v>141100</v>
-      </c>
-      <c r="H15" s="3">
-        <v>145400</v>
-      </c>
-      <c r="I15" s="3">
-        <v>157200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>146500</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>142800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>141900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>149600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>140100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>148400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>155800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>171600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>160500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>157600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>159100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>134900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>135100</v>
-      </c>
-      <c r="W15" s="3">
-        <v>132900</v>
       </c>
       <c r="X15" s="3">
         <v>132900</v>
       </c>
       <c r="Y15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="Z15" s="3">
         <v>145900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>139100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>133500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>166700</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>71600</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2652400</v>
+        <v>2847900</v>
       </c>
       <c r="E17" s="3">
-        <v>2325000</v>
+        <v>2670100</v>
       </c>
       <c r="F17" s="3">
-        <v>2640600</v>
+        <v>2340600</v>
       </c>
       <c r="G17" s="3">
-        <v>2859200</v>
+        <v>2658200</v>
       </c>
       <c r="H17" s="3">
-        <v>2588900</v>
+        <v>2878300</v>
       </c>
       <c r="I17" s="3">
-        <v>2024600</v>
+        <v>2606200</v>
       </c>
       <c r="J17" s="3">
+        <v>2038100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2359500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2549800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2159000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1859200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2007300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2059600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2196100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2019600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2734200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2901000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2777600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2723000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2461100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2577000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2442000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2552500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2512100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2606400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2704500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2691500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>277800</v>
+        <v>-274300</v>
       </c>
       <c r="E18" s="3">
-        <v>759200</v>
+        <v>279700</v>
       </c>
       <c r="F18" s="3">
-        <v>550300</v>
+        <v>764300</v>
       </c>
       <c r="G18" s="3">
-        <v>429700</v>
+        <v>554000</v>
       </c>
       <c r="H18" s="3">
-        <v>424300</v>
+        <v>432600</v>
       </c>
       <c r="I18" s="3">
-        <v>903500</v>
+        <v>427100</v>
       </c>
       <c r="J18" s="3">
+        <v>909600</v>
+      </c>
+      <c r="K18" s="3">
         <v>415700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>192600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>164300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>288200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>150500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>246500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>295800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>795000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>208200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>167000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>374400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>421100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>402100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>348100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>389800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>264800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>302900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>230000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>226500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>170200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-32300</v>
+        <v>-55300</v>
       </c>
       <c r="E20" s="3">
-        <v>-42000</v>
+        <v>-32500</v>
       </c>
       <c r="F20" s="3">
-        <v>-67800</v>
+        <v>-42300</v>
       </c>
       <c r="G20" s="3">
-        <v>-31200</v>
+        <v>-68300</v>
       </c>
       <c r="H20" s="3">
-        <v>-21500</v>
+        <v>-31400</v>
       </c>
       <c r="I20" s="3">
-        <v>-49500</v>
+        <v>-21700</v>
       </c>
       <c r="J20" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-39800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-31700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-36700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-28900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-31100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-39300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-59800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-39700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-67400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-57600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-37100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-48500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-64200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-65900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-24200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-30300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-51600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-67300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-34000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-81000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>392000</v>
+        <v>-325200</v>
       </c>
       <c r="E21" s="3">
-        <v>1260000</v>
+        <v>395700</v>
       </c>
       <c r="F21" s="3">
-        <v>482500</v>
+        <v>1268400</v>
       </c>
       <c r="G21" s="3">
-        <v>394100</v>
+        <v>485700</v>
       </c>
       <c r="H21" s="3">
-        <v>548100</v>
+        <v>396800</v>
       </c>
       <c r="I21" s="3">
-        <v>1458100</v>
+        <v>551800</v>
       </c>
       <c r="J21" s="3">
+        <v>1467900</v>
+      </c>
+      <c r="K21" s="3">
         <v>376900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>156600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>269500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>732100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>118300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>205100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>391800</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>110600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>496400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>363200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>338900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>282200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>498500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>241200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>256900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>136900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>359200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>403800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>245500</v>
+        <v>-329600</v>
       </c>
       <c r="E23" s="3">
-        <v>717200</v>
+        <v>247200</v>
       </c>
       <c r="F23" s="3">
-        <v>482500</v>
+        <v>722000</v>
       </c>
       <c r="G23" s="3">
-        <v>398500</v>
+        <v>485700</v>
       </c>
       <c r="H23" s="3">
-        <v>402800</v>
+        <v>401100</v>
       </c>
       <c r="I23" s="3">
-        <v>854000</v>
+        <v>405500</v>
       </c>
       <c r="J23" s="3">
+        <v>859700</v>
+      </c>
+      <c r="K23" s="3">
         <v>375800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>160800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>127600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>259300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>119400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>207300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>236000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>755300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>140900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>109400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>337300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>372600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>337800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>282200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>365600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>234500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>251300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>162700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>192500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>89200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>46300</v>
+        <v>-51000</v>
       </c>
       <c r="E24" s="3">
-        <v>88300</v>
+        <v>46600</v>
       </c>
       <c r="F24" s="3">
-        <v>87200</v>
+        <v>88900</v>
       </c>
       <c r="G24" s="3">
-        <v>76500</v>
+        <v>87800</v>
       </c>
       <c r="H24" s="3">
-        <v>94800</v>
+        <v>77000</v>
       </c>
       <c r="I24" s="3">
-        <v>190600</v>
+        <v>95400</v>
       </c>
       <c r="J24" s="3">
+        <v>191900</v>
+      </c>
+      <c r="K24" s="3">
         <v>53800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-59200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-20400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>22900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>29100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>50200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>66600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>148300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>69800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>48200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>67000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>111900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>48300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>65900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>40400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>37000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>66900</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>23500</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>199200</v>
+        <v>-278600</v>
       </c>
       <c r="E26" s="3">
-        <v>628900</v>
+        <v>200600</v>
       </c>
       <c r="F26" s="3">
-        <v>395200</v>
+        <v>633100</v>
       </c>
       <c r="G26" s="3">
+        <v>397900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>324100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>310100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>667800</v>
+      </c>
+      <c r="K26" s="3">
         <v>322000</v>
       </c>
-      <c r="H26" s="3">
-        <v>308000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>663400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>322000</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>220100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>148000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>236400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>90300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>157100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>169400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>607100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>71000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>61200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>270300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>353700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>226000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>233900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>299800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>194100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>214300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>160400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>125600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>65700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>203500</v>
+        <v>-245000</v>
       </c>
       <c r="E27" s="3">
-        <v>631100</v>
+        <v>204900</v>
       </c>
       <c r="F27" s="3">
-        <v>400600</v>
+        <v>635300</v>
       </c>
       <c r="G27" s="3">
-        <v>326300</v>
+        <v>403300</v>
       </c>
       <c r="H27" s="3">
-        <v>311200</v>
+        <v>328500</v>
       </c>
       <c r="I27" s="3">
-        <v>663400</v>
+        <v>313300</v>
       </c>
       <c r="J27" s="3">
+        <v>667800</v>
+      </c>
+      <c r="K27" s="3">
         <v>324100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>217900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>147000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>238400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>91300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>160400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>171600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>607100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>85700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>69400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>277500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>359600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>237000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>242700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>300900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>195200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>214300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>163800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>133800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>106800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>32300</v>
+        <v>55300</v>
       </c>
       <c r="E32" s="3">
-        <v>42000</v>
+        <v>32500</v>
       </c>
       <c r="F32" s="3">
-        <v>67800</v>
+        <v>42300</v>
       </c>
       <c r="G32" s="3">
-        <v>31200</v>
+        <v>68300</v>
       </c>
       <c r="H32" s="3">
-        <v>21500</v>
+        <v>31400</v>
       </c>
       <c r="I32" s="3">
-        <v>49500</v>
+        <v>21700</v>
       </c>
       <c r="J32" s="3">
+        <v>49900</v>
+      </c>
+      <c r="K32" s="3">
         <v>39800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>31700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>36700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>28900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>31100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>39300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>59800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>39700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>67400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>57600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>37100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>48500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>64200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>65900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>24200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>30300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>51600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>67300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>34000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>81000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>203500</v>
+        <v>-245000</v>
       </c>
       <c r="E33" s="3">
-        <v>631100</v>
+        <v>204900</v>
       </c>
       <c r="F33" s="3">
-        <v>400600</v>
+        <v>635300</v>
       </c>
       <c r="G33" s="3">
-        <v>326300</v>
+        <v>403300</v>
       </c>
       <c r="H33" s="3">
-        <v>311200</v>
+        <v>328500</v>
       </c>
       <c r="I33" s="3">
-        <v>663400</v>
+        <v>313300</v>
       </c>
       <c r="J33" s="3">
+        <v>667800</v>
+      </c>
+      <c r="K33" s="3">
         <v>324100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>217900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>147000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>238400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>91300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>160400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>171600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>607100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>85700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>69400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>277500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>359600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>237000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>242700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>300900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>195200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>214300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>163800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>133800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>106800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>203500</v>
+        <v>-245000</v>
       </c>
       <c r="E35" s="3">
-        <v>631100</v>
+        <v>204900</v>
       </c>
       <c r="F35" s="3">
-        <v>400600</v>
+        <v>635300</v>
       </c>
       <c r="G35" s="3">
-        <v>326300</v>
+        <v>403300</v>
       </c>
       <c r="H35" s="3">
-        <v>311200</v>
+        <v>328500</v>
       </c>
       <c r="I35" s="3">
-        <v>663400</v>
+        <v>313300</v>
       </c>
       <c r="J35" s="3">
+        <v>667800</v>
+      </c>
+      <c r="K35" s="3">
         <v>324100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>217900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>147000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>238400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>91300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>160400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>171600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>607100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>85700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>69400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>277500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>359600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>237000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>242700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>300900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>195200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>214300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>163800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>133800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>106800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1353700</v>
+        <v>2138900</v>
       </c>
       <c r="E41" s="3">
-        <v>2064400</v>
+        <v>1362700</v>
       </c>
       <c r="F41" s="3">
-        <v>1748900</v>
+        <v>2078200</v>
       </c>
       <c r="G41" s="3">
-        <v>1462400</v>
+        <v>1760600</v>
       </c>
       <c r="H41" s="3">
-        <v>1058600</v>
+        <v>1472200</v>
       </c>
       <c r="I41" s="3">
-        <v>1594900</v>
+        <v>1065700</v>
       </c>
       <c r="J41" s="3">
+        <v>1605600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1369800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1389200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1295400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1656700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1415700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1158500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>853600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1022700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>873400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>979900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1463000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1336700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1113100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>690600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>754300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>681000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>469000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>559900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1094000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1118600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,236 +3443,245 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1624000</v>
+        <v>1474400</v>
       </c>
       <c r="E43" s="3">
-        <v>1610000</v>
+        <v>1634800</v>
       </c>
       <c r="F43" s="3">
-        <v>1803800</v>
+        <v>1620700</v>
       </c>
       <c r="G43" s="3">
-        <v>1921200</v>
+        <v>1815900</v>
       </c>
       <c r="H43" s="3">
-        <v>1790900</v>
+        <v>1934000</v>
       </c>
       <c r="I43" s="3">
-        <v>1634700</v>
+        <v>1802900</v>
       </c>
       <c r="J43" s="3">
+        <v>1645700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1590600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1561600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1372000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1157000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1228900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1330900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1446400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1521100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1632900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1765800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1897200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1834700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1680200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1681000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1631600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1579800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1576400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1580900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1618700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1558800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2049300</v>
+        <v>1909100</v>
       </c>
       <c r="E44" s="3">
-        <v>1949200</v>
+        <v>2063000</v>
       </c>
       <c r="F44" s="3">
-        <v>1901800</v>
+        <v>1962200</v>
       </c>
       <c r="G44" s="3">
-        <v>1851200</v>
+        <v>1914500</v>
       </c>
       <c r="H44" s="3">
-        <v>1743500</v>
+        <v>1863600</v>
       </c>
       <c r="I44" s="3">
-        <v>1591700</v>
+        <v>1755200</v>
       </c>
       <c r="J44" s="3">
+        <v>1602300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1580900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1415600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1370900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1266700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1351300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1488000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1577400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1623900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1860800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1832800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1992900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1853600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1664700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1559200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1592100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1482100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1493400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1515800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1687900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1579900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59200</v>
+        <v>43400</v>
       </c>
       <c r="E45" s="3">
-        <v>70000</v>
+        <v>59600</v>
       </c>
       <c r="F45" s="3">
-        <v>19400</v>
+        <v>70500</v>
       </c>
       <c r="G45" s="3">
+        <v>19500</v>
+      </c>
+      <c r="H45" s="3">
         <v>6500</v>
       </c>
-      <c r="H45" s="3">
-        <v>16200</v>
-      </c>
       <c r="I45" s="3">
-        <v>34500</v>
+        <v>16300</v>
       </c>
       <c r="J45" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K45" s="3">
         <v>5400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>63800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>17600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>23300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>25100</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>8</v>
@@ -3593,8 +3692,8 @@
       <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3611,352 +3710,367 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5086200</v>
+        <v>5565800</v>
       </c>
       <c r="E46" s="3">
-        <v>5693600</v>
+        <v>5120200</v>
       </c>
       <c r="F46" s="3">
-        <v>5473900</v>
+        <v>5731600</v>
       </c>
       <c r="G46" s="3">
-        <v>5241300</v>
+        <v>5510500</v>
       </c>
       <c r="H46" s="3">
-        <v>4609100</v>
+        <v>5276300</v>
       </c>
       <c r="I46" s="3">
-        <v>4855700</v>
+        <v>4639900</v>
       </c>
       <c r="J46" s="3">
+        <v>4888200</v>
+      </c>
+      <c r="K46" s="3">
         <v>4546700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4374800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4044400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4144200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4013600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4003600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3888600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4191000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4380600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4598500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5378100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5025000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4458100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3930800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3978100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3743000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3538800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3656600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>4400600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4257400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>2056900</v>
+        <v>1814800</v>
       </c>
       <c r="E47" s="3">
-        <v>2581300</v>
+        <v>2070600</v>
       </c>
       <c r="F47" s="3">
-        <v>2605000</v>
+        <v>2598600</v>
       </c>
       <c r="G47" s="3">
-        <v>1742400</v>
+        <v>2622400</v>
       </c>
       <c r="H47" s="3">
-        <v>1757500</v>
+        <v>1754100</v>
       </c>
       <c r="I47" s="3">
-        <v>1668100</v>
+        <v>1769300</v>
       </c>
       <c r="J47" s="3">
+        <v>1679300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1394600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1096100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>994300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>963500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>954900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>952400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>931500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1276000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1429600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1271700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2598100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2623700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2372500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2127900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2109300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2237200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2186800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2076800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2217300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2225500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13350300</v>
+        <v>13060200</v>
       </c>
       <c r="E48" s="3">
-        <v>13056300</v>
+        <v>13439600</v>
       </c>
       <c r="F48" s="3">
-        <v>13093000</v>
+        <v>13143600</v>
       </c>
       <c r="G48" s="3">
-        <v>13354600</v>
+        <v>13180500</v>
       </c>
       <c r="H48" s="3">
-        <v>13083300</v>
+        <v>13443900</v>
       </c>
       <c r="I48" s="3">
-        <v>13190900</v>
+        <v>13170700</v>
       </c>
       <c r="J48" s="3">
+        <v>13279100</v>
+      </c>
+      <c r="K48" s="3">
         <v>12568500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12371200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>11734100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11683500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10030300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10677800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10744500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>11376400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11076400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10686400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>7542000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6731900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6154900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6126800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6149900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6460400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6440200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6509800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>7095700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>7160200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1209400</v>
+        <v>1136100</v>
       </c>
       <c r="E49" s="3">
-        <v>525500</v>
+        <v>1217400</v>
       </c>
       <c r="F49" s="3">
-        <v>611700</v>
+        <v>529000</v>
       </c>
       <c r="G49" s="3">
-        <v>660100</v>
+        <v>615800</v>
       </c>
       <c r="H49" s="3">
-        <v>730100</v>
+        <v>664600</v>
       </c>
       <c r="I49" s="3">
-        <v>584800</v>
+        <v>735000</v>
       </c>
       <c r="J49" s="3">
+        <v>588700</v>
+      </c>
+      <c r="K49" s="3">
         <v>588000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>559700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>544100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>449800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>489900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>533500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>605200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>593000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>635800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>630600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>590900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>618700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>569300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>565500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>557800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>536300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>476800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>490300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>521200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>507100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>145400</v>
+        <v>189700</v>
       </c>
       <c r="E52" s="3">
-        <v>674100</v>
+        <v>146400</v>
       </c>
       <c r="F52" s="3">
-        <v>702100</v>
+        <v>678600</v>
       </c>
       <c r="G52" s="3">
-        <v>189500</v>
+        <v>706800</v>
       </c>
       <c r="H52" s="3">
-        <v>174500</v>
+        <v>190800</v>
       </c>
       <c r="I52" s="3">
-        <v>189500</v>
+        <v>175600</v>
       </c>
       <c r="J52" s="3">
+        <v>190800</v>
+      </c>
+      <c r="K52" s="3">
         <v>202500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>228500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>160300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>144600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>134900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>165800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>155800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>136600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>156800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>155300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>168700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>199900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>139600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>175700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>186700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>228900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>226600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>270400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>301700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>318100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21848100</v>
+        <v>21766600</v>
       </c>
       <c r="E54" s="3">
-        <v>22530900</v>
+        <v>21994200</v>
       </c>
       <c r="F54" s="3">
-        <v>22485700</v>
+        <v>22681500</v>
       </c>
       <c r="G54" s="3">
-        <v>21188000</v>
+        <v>22636000</v>
       </c>
       <c r="H54" s="3">
-        <v>20354500</v>
+        <v>21329700</v>
       </c>
       <c r="I54" s="3">
-        <v>20489100</v>
+        <v>20490600</v>
       </c>
       <c r="J54" s="3">
+        <v>20626100</v>
+      </c>
+      <c r="K54" s="3">
         <v>19300200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>18630300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>17477100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17385700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15623500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>16333100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16325700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>17573000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17679100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17342500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16277900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>15199100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13694400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12926800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12981700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>13205800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12869200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>13003900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>14536500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>14468400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4535,438 +4666,456 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1530300</v>
+        <v>1096000</v>
       </c>
       <c r="E58" s="3">
-        <v>1180300</v>
+        <v>1540500</v>
       </c>
       <c r="F58" s="3">
-        <v>918600</v>
+        <v>1188200</v>
       </c>
       <c r="G58" s="3">
-        <v>955200</v>
+        <v>924700</v>
       </c>
       <c r="H58" s="3">
-        <v>661200</v>
+        <v>961600</v>
       </c>
       <c r="I58" s="3">
-        <v>595500</v>
+        <v>665600</v>
       </c>
       <c r="J58" s="3">
+        <v>599500</v>
+      </c>
+      <c r="K58" s="3">
         <v>592300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>913100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>970800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>888700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>497200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>885800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>397400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1056500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>430000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>424700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>385200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>477900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>494000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>428200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>457900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1088300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1067000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1128700</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1629200</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1313500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2778400</v>
+        <v>2460900</v>
       </c>
       <c r="E59" s="3">
-        <v>2801000</v>
+        <v>2797000</v>
       </c>
       <c r="F59" s="3">
-        <v>2863500</v>
+        <v>2819700</v>
       </c>
       <c r="G59" s="3">
-        <v>2853800</v>
+        <v>2882600</v>
       </c>
       <c r="H59" s="3">
-        <v>2910900</v>
+        <v>2872900</v>
       </c>
       <c r="I59" s="3">
-        <v>2812900</v>
+        <v>2930300</v>
       </c>
       <c r="J59" s="3">
+        <v>2831700</v>
+      </c>
+      <c r="K59" s="3">
         <v>2533900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2319100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2102800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1998800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2417300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2919900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2348800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2973100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2977500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3314700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3244700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2825500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2747200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2742800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2236100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2022900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2008400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2225500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2195000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4308700</v>
+        <v>3556900</v>
       </c>
       <c r="E60" s="3">
-        <v>3981300</v>
+        <v>4337500</v>
       </c>
       <c r="F60" s="3">
-        <v>3782100</v>
+        <v>4007900</v>
       </c>
       <c r="G60" s="3">
-        <v>3809000</v>
+        <v>3807400</v>
       </c>
       <c r="H60" s="3">
-        <v>3572100</v>
+        <v>3834500</v>
       </c>
       <c r="I60" s="3">
-        <v>3408400</v>
+        <v>3596000</v>
       </c>
       <c r="J60" s="3">
+        <v>3431200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3126200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3232200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3073600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2887500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2914400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2786200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3317300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3405300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3403000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3402100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3699800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3722600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3319500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3175400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3200700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3324500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3090000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3137100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3854800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3508500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3084200</v>
+        <v>4431800</v>
       </c>
       <c r="E61" s="3">
-        <v>3006700</v>
+        <v>3104900</v>
       </c>
       <c r="F61" s="3">
-        <v>3241500</v>
+        <v>3026800</v>
       </c>
       <c r="G61" s="3">
-        <v>3272700</v>
+        <v>3263100</v>
       </c>
       <c r="H61" s="3">
-        <v>3319000</v>
+        <v>3294600</v>
       </c>
       <c r="I61" s="3">
-        <v>3567800</v>
+        <v>3341200</v>
       </c>
       <c r="J61" s="3">
+        <v>3591600</v>
+      </c>
+      <c r="K61" s="3">
         <v>3731500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3724200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3696300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3812100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3599400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3942500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3549900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3773100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4297300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4497400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>3942700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2679300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2484300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2375000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2269600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2295600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2347200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2597400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2739700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>3116500</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1902900</v>
+        <v>1843000</v>
       </c>
       <c r="E62" s="3">
-        <v>2079500</v>
+        <v>1915600</v>
       </c>
       <c r="F62" s="3">
-        <v>2045000</v>
+        <v>2093400</v>
       </c>
       <c r="G62" s="3">
-        <v>1910400</v>
+        <v>2058700</v>
       </c>
       <c r="H62" s="3">
-        <v>1934100</v>
+        <v>1923200</v>
       </c>
       <c r="I62" s="3">
-        <v>2026700</v>
+        <v>1947000</v>
       </c>
       <c r="J62" s="3">
+        <v>2040300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1938400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1946700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1831300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1916000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1606700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1716000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1548000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1728900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1579000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1534000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>818200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>833900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>736600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>699400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>717000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>792100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>871800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>916700</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>936700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>955500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9262400</v>
+        <v>9768800</v>
       </c>
       <c r="E66" s="3">
-        <v>9035200</v>
+        <v>9324300</v>
       </c>
       <c r="F66" s="3">
-        <v>9036300</v>
+        <v>9095600</v>
       </c>
       <c r="G66" s="3">
-        <v>8965200</v>
+        <v>9096700</v>
       </c>
       <c r="H66" s="3">
-        <v>8804700</v>
+        <v>9025100</v>
       </c>
       <c r="I66" s="3">
-        <v>8985700</v>
+        <v>8863600</v>
       </c>
       <c r="J66" s="3">
+        <v>9045700</v>
+      </c>
+      <c r="K66" s="3">
         <v>8780000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8889300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8587000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8599600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8106000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8430600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8402800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8899200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9257200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9434700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8476300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7257100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6565900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6291500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6237700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6464900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6362800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6707300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>7594600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7653200</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8175800</v>
+        <v>8010400</v>
       </c>
       <c r="E72" s="3">
-        <v>8500000</v>
+        <v>8230500</v>
       </c>
       <c r="F72" s="3">
-        <v>7964800</v>
+        <v>8556800</v>
       </c>
       <c r="G72" s="3">
-        <v>7507100</v>
+        <v>8018000</v>
       </c>
       <c r="H72" s="3">
-        <v>7077400</v>
+        <v>7557300</v>
       </c>
       <c r="I72" s="3">
-        <v>7161400</v>
+        <v>7124700</v>
       </c>
       <c r="J72" s="3">
+        <v>7209300</v>
+      </c>
+      <c r="K72" s="3">
         <v>6513100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6056000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5598100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5501700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5533000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5736000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5962800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>6435900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>5713400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5409100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5428400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5567900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>4893400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4618200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4729100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4526100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4275900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4057100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4415900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>4284400</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>12585700</v>
+        <v>11997700</v>
       </c>
       <c r="E76" s="3">
-        <v>13495700</v>
+        <v>12669900</v>
       </c>
       <c r="F76" s="3">
-        <v>13449400</v>
+        <v>13585900</v>
       </c>
       <c r="G76" s="3">
-        <v>12222800</v>
+        <v>13539300</v>
       </c>
       <c r="H76" s="3">
-        <v>11549800</v>
+        <v>12304500</v>
       </c>
       <c r="I76" s="3">
-        <v>11503400</v>
+        <v>11627000</v>
       </c>
       <c r="J76" s="3">
+        <v>11580400</v>
+      </c>
+      <c r="K76" s="3">
         <v>10520200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>9741000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8890100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8786100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7517500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7902600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7922900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>8673900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8421800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7907800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7801600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7942000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7128500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6635200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6743900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6740900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6506400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6296600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6941900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6815100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>203500</v>
+        <v>-245000</v>
       </c>
       <c r="E81" s="3">
-        <v>631100</v>
+        <v>204900</v>
       </c>
       <c r="F81" s="3">
-        <v>400600</v>
+        <v>635300</v>
       </c>
       <c r="G81" s="3">
-        <v>326300</v>
+        <v>403300</v>
       </c>
       <c r="H81" s="3">
-        <v>311200</v>
+        <v>328500</v>
       </c>
       <c r="I81" s="3">
-        <v>663400</v>
+        <v>313300</v>
       </c>
       <c r="J81" s="3">
+        <v>667800</v>
+      </c>
+      <c r="K81" s="3">
         <v>324100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>217900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>147000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>238400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>91300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>160400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>171600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>607100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>85700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>69400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>277500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>359600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>237000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>242700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>300900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>195200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>214300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>163800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>133800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>106800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>225100</v>
+        <v>71600</v>
       </c>
       <c r="E89" s="3">
-        <v>392000</v>
+        <v>226600</v>
       </c>
       <c r="F89" s="3">
-        <v>591200</v>
+        <v>394600</v>
       </c>
       <c r="G89" s="3">
-        <v>370500</v>
+        <v>595200</v>
       </c>
       <c r="H89" s="3">
-        <v>350000</v>
+        <v>372900</v>
       </c>
       <c r="I89" s="3">
-        <v>560000</v>
+        <v>352300</v>
       </c>
       <c r="J89" s="3">
+        <v>563700</v>
+      </c>
+      <c r="K89" s="3">
         <v>477100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>391500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>146000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>381000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>398600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>317500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>80200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>753000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>524300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>544700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>148300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>322900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>451900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>312900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>138300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>529600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>408400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>317500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>97400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>489500</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-215000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-253000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-224000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-150000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-153000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-177000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-192000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-138000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-129100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-196000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>368000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-152600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-135300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-199900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>358400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-172700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-141200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-147100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>339500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-142900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-137300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-127400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>360200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-154800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-143600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-158500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-258200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-638600</v>
+        <v>-198400</v>
       </c>
       <c r="E94" s="3">
-        <v>-200300</v>
+        <v>-642900</v>
       </c>
       <c r="F94" s="3">
-        <v>-217500</v>
+        <v>-201600</v>
       </c>
       <c r="G94" s="3">
-        <v>-190600</v>
+        <v>-219000</v>
       </c>
       <c r="H94" s="3">
-        <v>-190600</v>
+        <v>-191900</v>
       </c>
       <c r="I94" s="3">
-        <v>-159400</v>
+        <v>-191900</v>
       </c>
       <c r="J94" s="3">
+        <v>-160400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-88300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-130100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-98000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-214400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-152600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-130900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-224700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-249800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-193500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-682300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-149500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-197500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-152800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-94400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-116400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-304100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-218800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-140200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-123300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-77500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,50 +7653,51 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-429700</v>
+        <v>-80200</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-432600</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-80800</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-386600</v>
+        <v>-81300</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-389200</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-30700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-212300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-104700</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-128700</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
@@ -7474,11 +7708,11 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-471300</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-305800</v>
+        <v>895500</v>
       </c>
       <c r="E100" s="3">
-        <v>100200</v>
+        <v>-307900</v>
       </c>
       <c r="F100" s="3">
-        <v>-77500</v>
+        <v>100800</v>
       </c>
       <c r="G100" s="3">
-        <v>191700</v>
+        <v>-78100</v>
       </c>
       <c r="H100" s="3">
-        <v>-698900</v>
+        <v>193000</v>
       </c>
       <c r="I100" s="3">
-        <v>-192800</v>
+        <v>-703600</v>
       </c>
       <c r="J100" s="3">
+        <v>-194100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-432900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-217900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-442000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>134600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>63300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>149500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>23700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-302400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-491200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-324700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>95700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>45000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>111900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-294300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>61500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-278300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-640700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-219500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>7500</v>
+        <v>8700</v>
       </c>
       <c r="E101" s="3">
-        <v>24800</v>
+        <v>7600</v>
       </c>
       <c r="F101" s="3">
-        <v>-9700</v>
+        <v>24900</v>
       </c>
       <c r="G101" s="3">
-        <v>32300</v>
+        <v>-9800</v>
       </c>
       <c r="H101" s="3">
+        <v>32500</v>
+      </c>
+      <c r="I101" s="3">
         <v>4300</v>
       </c>
-      <c r="I101" s="3">
-        <v>16200</v>
-      </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>16300</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>4200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4200</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-1100</v>
       </c>
       <c r="P101" s="3">
         <v>-1100</v>
       </c>
       <c r="Q101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R101" s="3">
         <v>1200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>6100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>17900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-8900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-6700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-18000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>2300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>11700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-711800</v>
+        <v>777300</v>
       </c>
       <c r="E102" s="3">
-        <v>316600</v>
+        <v>-716600</v>
       </c>
       <c r="F102" s="3">
-        <v>286500</v>
+        <v>318700</v>
       </c>
       <c r="G102" s="3">
-        <v>403800</v>
+        <v>288400</v>
       </c>
       <c r="H102" s="3">
-        <v>-535200</v>
+        <v>406500</v>
       </c>
       <c r="I102" s="3">
-        <v>224000</v>
+        <v>-538800</v>
       </c>
       <c r="J102" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-44200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>47600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-395000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>298200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>305100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>334900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-121900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>197300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-162900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-464700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>112400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>172700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>402100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-69200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>87800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>213200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-92000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-481300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-29300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>204200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>309900</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SEOAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>SEOAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2573700</v>
+        <v>2307800</v>
       </c>
       <c r="E8" s="3">
-        <v>2949800</v>
+        <v>2575800</v>
       </c>
       <c r="F8" s="3">
-        <v>3104900</v>
+        <v>2952300</v>
       </c>
       <c r="G8" s="3">
-        <v>3212200</v>
+        <v>3107400</v>
       </c>
       <c r="H8" s="3">
-        <v>3310800</v>
+        <v>3214900</v>
       </c>
       <c r="I8" s="3">
-        <v>3033300</v>
+        <v>3313600</v>
       </c>
       <c r="J8" s="3">
+        <v>3035800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2947700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2775200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2742300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2323300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2147400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2157800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2306200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2491900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2814600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2942400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3068100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3152000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3144100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2863100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2925100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2831700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2817300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>2815100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2836400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2931000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2861700</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2808900</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2403400</v>
+        <v>2112500</v>
       </c>
       <c r="E9" s="3">
-        <v>2497800</v>
+        <v>2405400</v>
       </c>
       <c r="F9" s="3">
-        <v>2571500</v>
+        <v>2499800</v>
       </c>
       <c r="G9" s="3">
-        <v>2446800</v>
+        <v>2573600</v>
       </c>
       <c r="H9" s="3">
-        <v>2593200</v>
+        <v>2448800</v>
       </c>
       <c r="I9" s="3">
-        <v>2343800</v>
+        <v>2595300</v>
       </c>
       <c r="J9" s="3">
+        <v>2345800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2329700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2180700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2183700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1903800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1868100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1803900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1922200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2065100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2445700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2424300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2503400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2512000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2572800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2225200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2333300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2179500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1934300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1910700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1950000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2019000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2006000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1946200</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>170200</v>
+        <v>195300</v>
       </c>
       <c r="E10" s="3">
-        <v>452100</v>
+        <v>170300</v>
       </c>
       <c r="F10" s="3">
-        <v>533400</v>
+        <v>452400</v>
       </c>
       <c r="G10" s="3">
-        <v>765400</v>
+        <v>533800</v>
       </c>
       <c r="H10" s="3">
-        <v>717700</v>
+        <v>766000</v>
       </c>
       <c r="I10" s="3">
-        <v>689500</v>
+        <v>718300</v>
       </c>
       <c r="J10" s="3">
+        <v>690100</v>
+      </c>
+      <c r="K10" s="3">
         <v>617900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>594400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>558600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>419500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>279300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>353900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>384000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>426800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>368900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>518200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>564700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>640000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>571300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>638000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>591800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>652200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>883000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>904300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>886400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>912100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>855700</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>862800</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,79 +1282,82 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>134400</v>
+        <v>15200</v>
       </c>
       <c r="E14" s="3">
+        <v>134500</v>
+      </c>
+      <c r="F14" s="3">
         <v>20600</v>
       </c>
-      <c r="F14" s="3">
-        <v>-236300</v>
-      </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-236500</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>71600</v>
       </c>
-      <c r="I14" s="3">
-        <v>87800</v>
-      </c>
       <c r="J14" s="3">
+        <v>87900</v>
+      </c>
+      <c r="K14" s="3">
         <v>-354500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-6500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>40200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>110200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-209500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-69800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-132100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-513700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>36700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>19100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>20100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>22200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>18700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>15400</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>22400</v>
       </c>
       <c r="AA14" s="3">
         <v>22400</v>
@@ -1346,105 +1366,111 @@
         <v>22400</v>
       </c>
       <c r="AC14" s="3">
+        <v>22400</v>
+      </c>
+      <c r="AD14" s="3">
         <v>14100</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>237100</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>25800</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>152900</v>
+        <v>141100</v>
       </c>
       <c r="E15" s="3">
-        <v>148500</v>
+        <v>153000</v>
       </c>
       <c r="F15" s="3">
-        <v>123600</v>
+        <v>148600</v>
       </c>
       <c r="G15" s="3">
-        <v>142000</v>
+        <v>123700</v>
       </c>
       <c r="H15" s="3">
-        <v>142000</v>
+        <v>142100</v>
       </c>
       <c r="I15" s="3">
-        <v>146400</v>
+        <v>142100</v>
       </c>
       <c r="J15" s="3">
+        <v>146500</v>
+      </c>
+      <c r="K15" s="3">
         <v>158300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>146500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>142800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>141900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>149600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>140100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>148400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>155800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>171600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>160500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>157600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>159100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>134900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>135100</v>
-      </c>
-      <c r="X15" s="3">
-        <v>132900</v>
       </c>
       <c r="Y15" s="3">
         <v>132900</v>
       </c>
       <c r="Z15" s="3">
+        <v>132900</v>
+      </c>
+      <c r="AA15" s="3">
         <v>145900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>139100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>133500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>166700</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>71600</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2847900</v>
+        <v>2308900</v>
       </c>
       <c r="E17" s="3">
-        <v>2670100</v>
+        <v>2850300</v>
       </c>
       <c r="F17" s="3">
-        <v>2340600</v>
+        <v>2672400</v>
       </c>
       <c r="G17" s="3">
-        <v>2658200</v>
+        <v>2342500</v>
       </c>
       <c r="H17" s="3">
-        <v>2878300</v>
+        <v>2660400</v>
       </c>
       <c r="I17" s="3">
-        <v>2606200</v>
+        <v>2880700</v>
       </c>
       <c r="J17" s="3">
+        <v>2608300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2038100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2359500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2549800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2159000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1859200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2007300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2059600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2196100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2019600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2734200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2901000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2777600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2723000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2461100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2577000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2442000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2552500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2512100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2606400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2704500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2691500</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>2578900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-274300</v>
+        <v>-1100</v>
       </c>
       <c r="E18" s="3">
-        <v>279700</v>
+        <v>-274500</v>
       </c>
       <c r="F18" s="3">
-        <v>764300</v>
+        <v>279900</v>
       </c>
       <c r="G18" s="3">
-        <v>554000</v>
+        <v>764900</v>
       </c>
       <c r="H18" s="3">
-        <v>432600</v>
+        <v>554400</v>
       </c>
       <c r="I18" s="3">
-        <v>427100</v>
+        <v>432900</v>
       </c>
       <c r="J18" s="3">
+        <v>427500</v>
+      </c>
+      <c r="K18" s="3">
         <v>909600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>415700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>192600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>164300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>288200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>150500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>246500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>295800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>795000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>208200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>167000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>374400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>421100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>402100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>348100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>389800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>264800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>302900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>230000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>226500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>170200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>230100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,186 +1717,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-55300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-32500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-42300</v>
       </c>
-      <c r="G20" s="3">
-        <v>-68300</v>
-      </c>
       <c r="H20" s="3">
-        <v>-31400</v>
+        <v>-68400</v>
       </c>
       <c r="I20" s="3">
+        <v>-31500</v>
+      </c>
+      <c r="J20" s="3">
         <v>-21700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-49900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-39800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-31700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-36700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-28900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-31100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-39300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-59800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-39700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-67400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-57600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-37100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-48500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-64200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-65900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-24200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-30300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-51600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-67300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-34000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-81000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-41100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-325200</v>
+        <v>-56400</v>
       </c>
       <c r="E21" s="3">
-        <v>395700</v>
+        <v>-325500</v>
       </c>
       <c r="F21" s="3">
-        <v>1268400</v>
+        <v>396000</v>
       </c>
       <c r="G21" s="3">
-        <v>485700</v>
+        <v>1269500</v>
       </c>
       <c r="H21" s="3">
-        <v>396800</v>
+        <v>486100</v>
       </c>
       <c r="I21" s="3">
-        <v>551800</v>
+        <v>397100</v>
       </c>
       <c r="J21" s="3">
+        <v>552300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1467900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>376900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>156600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>269500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>732100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>118300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>205100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>391800</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>110600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>496400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>363200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>338900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>282200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>498500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>241200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>256900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>136900</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>359200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>403800</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>245300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,186 +1991,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-329600</v>
+        <v>-44500</v>
       </c>
       <c r="E23" s="3">
-        <v>247200</v>
+        <v>-329800</v>
       </c>
       <c r="F23" s="3">
-        <v>722000</v>
+        <v>247400</v>
       </c>
       <c r="G23" s="3">
-        <v>485700</v>
+        <v>722600</v>
       </c>
       <c r="H23" s="3">
-        <v>401100</v>
+        <v>486100</v>
       </c>
       <c r="I23" s="3">
-        <v>405500</v>
+        <v>401500</v>
       </c>
       <c r="J23" s="3">
+        <v>405800</v>
+      </c>
+      <c r="K23" s="3">
         <v>859700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>375800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>160800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>127600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>259300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>119400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>207300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>236000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>755300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>140900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>109400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>337300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>372600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>337800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>282200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>365600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>234500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>251300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>162700</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>192500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>89200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>189000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-51000</v>
       </c>
-      <c r="E24" s="3">
-        <v>46600</v>
-      </c>
       <c r="F24" s="3">
-        <v>88900</v>
+        <v>46700</v>
       </c>
       <c r="G24" s="3">
-        <v>87800</v>
+        <v>89000</v>
       </c>
       <c r="H24" s="3">
+        <v>87900</v>
+      </c>
+      <c r="I24" s="3">
         <v>77000</v>
       </c>
-      <c r="I24" s="3">
-        <v>95400</v>
-      </c>
       <c r="J24" s="3">
+        <v>95500</v>
+      </c>
+      <c r="K24" s="3">
         <v>191900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>53800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-59200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-20400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>22900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>29100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>50200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>66600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>148300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>69800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>48200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>67000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>111900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>48300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>65900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>40400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>37000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>66900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>23500</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>49300</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-278600</v>
+        <v>-36900</v>
       </c>
       <c r="E26" s="3">
-        <v>200600</v>
+        <v>-278800</v>
       </c>
       <c r="F26" s="3">
-        <v>633100</v>
+        <v>200700</v>
       </c>
       <c r="G26" s="3">
-        <v>397900</v>
+        <v>633600</v>
       </c>
       <c r="H26" s="3">
-        <v>324100</v>
+        <v>398200</v>
       </c>
       <c r="I26" s="3">
-        <v>310100</v>
+        <v>324400</v>
       </c>
       <c r="J26" s="3">
+        <v>310300</v>
+      </c>
+      <c r="K26" s="3">
         <v>667800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>322000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>220100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>148000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>236400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>90300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>157100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>169400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>607100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>71000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>61200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>270300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>353700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>226000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>233900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>299800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>194100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>214300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>160400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>125600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>65700</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>139700</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-245000</v>
+        <v>-35800</v>
       </c>
       <c r="E27" s="3">
-        <v>204900</v>
+        <v>-245200</v>
       </c>
       <c r="F27" s="3">
-        <v>635300</v>
+        <v>205100</v>
       </c>
       <c r="G27" s="3">
-        <v>403300</v>
+        <v>635800</v>
       </c>
       <c r="H27" s="3">
-        <v>328500</v>
+        <v>403600</v>
       </c>
       <c r="I27" s="3">
-        <v>313300</v>
+        <v>328800</v>
       </c>
       <c r="J27" s="3">
+        <v>313600</v>
+      </c>
+      <c r="K27" s="3">
         <v>667800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>324100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>217900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>147000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>238400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>91300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>160400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>171600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>607100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>85700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>69400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>277500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>359600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>237000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>242700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>300900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>195200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>214300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>163800</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>133800</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>106800</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E32" s="3">
         <v>55300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>32500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>42300</v>
       </c>
-      <c r="G32" s="3">
-        <v>68300</v>
-      </c>
       <c r="H32" s="3">
-        <v>31400</v>
+        <v>68400</v>
       </c>
       <c r="I32" s="3">
+        <v>31500</v>
+      </c>
+      <c r="J32" s="3">
         <v>21700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>49900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>39800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>31700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>36700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>28900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>31100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>39300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>59800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>39700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>67400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>57600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>37100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>48500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>64200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>65900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>24200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>30300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>51600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>67300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>34000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>81000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>41100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-245000</v>
+        <v>-35800</v>
       </c>
       <c r="E33" s="3">
-        <v>204900</v>
+        <v>-245200</v>
       </c>
       <c r="F33" s="3">
-        <v>635300</v>
+        <v>205100</v>
       </c>
       <c r="G33" s="3">
-        <v>403300</v>
+        <v>635800</v>
       </c>
       <c r="H33" s="3">
-        <v>328500</v>
+        <v>403600</v>
       </c>
       <c r="I33" s="3">
-        <v>313300</v>
+        <v>328800</v>
       </c>
       <c r="J33" s="3">
+        <v>313600</v>
+      </c>
+      <c r="K33" s="3">
         <v>667800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>324100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>217900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>147000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>238400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>91300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>160400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>171600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>607100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>85700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>69400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>277500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>359600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>237000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>242700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>300900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>195200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>214300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>163800</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>133800</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>106800</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-245000</v>
+        <v>-35800</v>
       </c>
       <c r="E35" s="3">
-        <v>204900</v>
+        <v>-245200</v>
       </c>
       <c r="F35" s="3">
-        <v>635300</v>
+        <v>205100</v>
       </c>
       <c r="G35" s="3">
-        <v>403300</v>
+        <v>635800</v>
       </c>
       <c r="H35" s="3">
-        <v>328500</v>
+        <v>403600</v>
       </c>
       <c r="I35" s="3">
-        <v>313300</v>
+        <v>328800</v>
       </c>
       <c r="J35" s="3">
+        <v>313600</v>
+      </c>
+      <c r="K35" s="3">
         <v>667800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>324100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>217900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>147000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>238400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>91300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>160400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>171600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>607100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>85700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>69400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>277500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>359600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>237000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>242700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>300900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>195200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>214300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>163800</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>133800</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>106800</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,97 +3354,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2138900</v>
+        <v>2253500</v>
       </c>
       <c r="E41" s="3">
-        <v>1362700</v>
+        <v>2140700</v>
       </c>
       <c r="F41" s="3">
-        <v>2078200</v>
+        <v>1363800</v>
       </c>
       <c r="G41" s="3">
-        <v>1760600</v>
+        <v>2079900</v>
       </c>
       <c r="H41" s="3">
-        <v>1472200</v>
+        <v>1762000</v>
       </c>
       <c r="I41" s="3">
-        <v>1065700</v>
+        <v>1473400</v>
       </c>
       <c r="J41" s="3">
+        <v>1066600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1605600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1369800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1389200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1295400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1656700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1415700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1158500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>853600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1022700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>873400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>979900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1463000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1336700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1113100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>690600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>754300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>681000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>469000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>559900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1094000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1118600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>916700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,245 +3536,254 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1474400</v>
+        <v>1413800</v>
       </c>
       <c r="E43" s="3">
-        <v>1634800</v>
+        <v>1475600</v>
       </c>
       <c r="F43" s="3">
-        <v>1620700</v>
+        <v>1636200</v>
       </c>
       <c r="G43" s="3">
-        <v>1815900</v>
+        <v>1622100</v>
       </c>
       <c r="H43" s="3">
-        <v>1934000</v>
+        <v>1817400</v>
       </c>
       <c r="I43" s="3">
-        <v>1802900</v>
+        <v>1935600</v>
       </c>
       <c r="J43" s="3">
+        <v>1804400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1645700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1590600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1561600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1372000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1157000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1228900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1330900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1446400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1521100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1632900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1765800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1897200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1834700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1680200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1681000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1631600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1579800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1576400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1580900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1618700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1558800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1659800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1909100</v>
+        <v>1792400</v>
       </c>
       <c r="E44" s="3">
-        <v>2063000</v>
+        <v>1910700</v>
       </c>
       <c r="F44" s="3">
-        <v>1962200</v>
+        <v>2064800</v>
       </c>
       <c r="G44" s="3">
-        <v>1914500</v>
+        <v>1963900</v>
       </c>
       <c r="H44" s="3">
-        <v>1863600</v>
+        <v>1916100</v>
       </c>
       <c r="I44" s="3">
-        <v>1755200</v>
+        <v>1865100</v>
       </c>
       <c r="J44" s="3">
+        <v>1756600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1602300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1580900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1415600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1370900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1266700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1351300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1488000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1577400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1623900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1860800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1832800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1992900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1853600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1664700</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1559200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1592100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1482100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1493400</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1515800</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1687900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1579900</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>1514200</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E45" s="3">
         <v>43400</v>
       </c>
-      <c r="E45" s="3">
-        <v>59600</v>
-      </c>
       <c r="F45" s="3">
+        <v>59700</v>
+      </c>
+      <c r="G45" s="3">
         <v>70500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>16300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>6100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>63800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>17600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>23300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>25100</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
@@ -3695,8 +3794,8 @@
       <c r="Y45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
+      <c r="Z45" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3713,364 +3812,379 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5565800</v>
+        <v>5480300</v>
       </c>
       <c r="E46" s="3">
-        <v>5120200</v>
+        <v>5570400</v>
       </c>
       <c r="F46" s="3">
-        <v>5731600</v>
+        <v>5124500</v>
       </c>
       <c r="G46" s="3">
-        <v>5510500</v>
+        <v>5736400</v>
       </c>
       <c r="H46" s="3">
-        <v>5276300</v>
+        <v>5515100</v>
       </c>
       <c r="I46" s="3">
-        <v>4639900</v>
+        <v>5280700</v>
       </c>
       <c r="J46" s="3">
+        <v>4643800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4888200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4546700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4374800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4044400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4144200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4013600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4003600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3888600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4191000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4380600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4598500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5378100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5025000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4458100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3930800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3978100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3743000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3538800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3656600</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>4400600</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>4257400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>4090700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1814800</v>
+        <v>1753400</v>
       </c>
       <c r="E47" s="3">
-        <v>2070600</v>
+        <v>1816300</v>
       </c>
       <c r="F47" s="3">
-        <v>2598600</v>
+        <v>2072400</v>
       </c>
       <c r="G47" s="3">
-        <v>2622400</v>
+        <v>2600700</v>
       </c>
       <c r="H47" s="3">
-        <v>1754100</v>
+        <v>2624600</v>
       </c>
       <c r="I47" s="3">
-        <v>1769300</v>
+        <v>1755500</v>
       </c>
       <c r="J47" s="3">
+        <v>1770700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1679300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1394600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1096100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>994300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>963500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>954900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>952400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>931500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1276000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1429600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1271700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2598100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2623700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2372500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2127900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2109300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2237200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2186800</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2076800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2217300</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2225500</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>2027200</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13060200</v>
+        <v>13378100</v>
       </c>
       <c r="E48" s="3">
-        <v>13439600</v>
+        <v>13071000</v>
       </c>
       <c r="F48" s="3">
-        <v>13143600</v>
+        <v>13450700</v>
       </c>
       <c r="G48" s="3">
-        <v>13180500</v>
+        <v>13154500</v>
       </c>
       <c r="H48" s="3">
-        <v>13443900</v>
+        <v>13191400</v>
       </c>
       <c r="I48" s="3">
-        <v>13170700</v>
+        <v>13455100</v>
       </c>
       <c r="J48" s="3">
+        <v>13181700</v>
+      </c>
+      <c r="K48" s="3">
         <v>13279100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>12568500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12371200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>11734100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11683500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10030300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10677800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10744500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>11376400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11076400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10686400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>7542000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6731900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6154900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6126800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>6149900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>6460400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>6440200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>6509800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>7095700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>7160200</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>7358600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1136100</v>
+        <v>1132700</v>
       </c>
       <c r="E49" s="3">
-        <v>1217400</v>
+        <v>1137100</v>
       </c>
       <c r="F49" s="3">
-        <v>529000</v>
+        <v>1218500</v>
       </c>
       <c r="G49" s="3">
-        <v>615800</v>
+        <v>529500</v>
       </c>
       <c r="H49" s="3">
-        <v>664600</v>
+        <v>616300</v>
       </c>
       <c r="I49" s="3">
-        <v>735000</v>
+        <v>665100</v>
       </c>
       <c r="J49" s="3">
+        <v>735600</v>
+      </c>
+      <c r="K49" s="3">
         <v>588700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>588000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>559700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>544100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>449800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>489900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>533500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>605200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>593000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>635800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>630600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>590900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>618700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>569300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>565500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>557800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>536300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>476800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>490300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>521200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>507100</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>516500</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>189700</v>
+        <v>200700</v>
       </c>
       <c r="E52" s="3">
-        <v>146400</v>
+        <v>189900</v>
       </c>
       <c r="F52" s="3">
-        <v>678600</v>
+        <v>146500</v>
       </c>
       <c r="G52" s="3">
-        <v>706800</v>
+        <v>679200</v>
       </c>
       <c r="H52" s="3">
+        <v>707400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>191000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>175800</v>
+      </c>
+      <c r="K52" s="3">
         <v>190800</v>
       </c>
-      <c r="I52" s="3">
-        <v>175600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>190800</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>202500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>228500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>160300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>144600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>134900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>165800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>155800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>136600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>156800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>155300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>168700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>199900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>139600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>175700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>186700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>228900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>226600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>270400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>301700</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>318100</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>293500</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>21766600</v>
+        <v>21945200</v>
       </c>
       <c r="E54" s="3">
-        <v>21994200</v>
+        <v>21784600</v>
       </c>
       <c r="F54" s="3">
-        <v>22681500</v>
+        <v>22012500</v>
       </c>
       <c r="G54" s="3">
-        <v>22636000</v>
+        <v>22700400</v>
       </c>
       <c r="H54" s="3">
-        <v>21329700</v>
+        <v>22654800</v>
       </c>
       <c r="I54" s="3">
-        <v>20490600</v>
+        <v>21347400</v>
       </c>
       <c r="J54" s="3">
+        <v>20507600</v>
+      </c>
+      <c r="K54" s="3">
         <v>20626100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19300200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18630300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>17477100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>17385700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>15623500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16333100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16325700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>17573000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>17679100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>17342500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>16277900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>15199100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>13694400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12926800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12981700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>13205800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>12869200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>13003900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>14536500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>14468400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>14286400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4669,453 +4800,471 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1096000</v>
+        <v>1159900</v>
       </c>
       <c r="E58" s="3">
-        <v>1540500</v>
+        <v>1096900</v>
       </c>
       <c r="F58" s="3">
-        <v>1188200</v>
+        <v>1541800</v>
       </c>
       <c r="G58" s="3">
-        <v>924700</v>
+        <v>1189200</v>
       </c>
       <c r="H58" s="3">
-        <v>961600</v>
+        <v>925500</v>
       </c>
       <c r="I58" s="3">
-        <v>665600</v>
+        <v>962400</v>
       </c>
       <c r="J58" s="3">
+        <v>666200</v>
+      </c>
+      <c r="K58" s="3">
         <v>599500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>592300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>913100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>970800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>888700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>497200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>885800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>397400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1056500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>430000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>424700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>385200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>477900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>494000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>428200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>457900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1088300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1067000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1128700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1629200</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1313500</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1460200</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2460900</v>
+        <v>2480300</v>
       </c>
       <c r="E59" s="3">
-        <v>2797000</v>
+        <v>2463000</v>
       </c>
       <c r="F59" s="3">
-        <v>2819700</v>
+        <v>2799300</v>
       </c>
       <c r="G59" s="3">
-        <v>2882600</v>
+        <v>2822100</v>
       </c>
       <c r="H59" s="3">
-        <v>2872900</v>
+        <v>2885000</v>
       </c>
       <c r="I59" s="3">
-        <v>2930300</v>
+        <v>2875300</v>
       </c>
       <c r="J59" s="3">
+        <v>2932800</v>
+      </c>
+      <c r="K59" s="3">
         <v>2831700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2533900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2319100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2102800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1998800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2417300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1900400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2919900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2348800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2973100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2977500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3314700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3244700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2825500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2747200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2742800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2236100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2022900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2008400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2225500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2195000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>2132800</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3556900</v>
+        <v>3640200</v>
       </c>
       <c r="E60" s="3">
-        <v>4337500</v>
+        <v>3559900</v>
       </c>
       <c r="F60" s="3">
-        <v>4007900</v>
+        <v>4341100</v>
       </c>
       <c r="G60" s="3">
-        <v>3807400</v>
+        <v>4011200</v>
       </c>
       <c r="H60" s="3">
-        <v>3834500</v>
+        <v>3810500</v>
       </c>
       <c r="I60" s="3">
-        <v>3596000</v>
+        <v>3837600</v>
       </c>
       <c r="J60" s="3">
+        <v>3598900</v>
+      </c>
+      <c r="K60" s="3">
         <v>3431200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3126200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3232200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3073600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2887500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2914400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2786200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3317300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3405300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3403000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3402100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3699800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3722600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3319500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3175400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3200700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3324500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3090000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3137100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>3854800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>3508500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>3593000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4431800</v>
+        <v>4537500</v>
       </c>
       <c r="E61" s="3">
-        <v>3104900</v>
+        <v>4435500</v>
       </c>
       <c r="F61" s="3">
-        <v>3026800</v>
+        <v>3107400</v>
       </c>
       <c r="G61" s="3">
-        <v>3263100</v>
+        <v>3029300</v>
       </c>
       <c r="H61" s="3">
-        <v>3294600</v>
+        <v>3265900</v>
       </c>
       <c r="I61" s="3">
-        <v>3341200</v>
+        <v>3297300</v>
       </c>
       <c r="J61" s="3">
+        <v>3344000</v>
+      </c>
+      <c r="K61" s="3">
         <v>3591600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3731500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3724200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3696300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3812100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>3599400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>3942500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>3549900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>3773100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4297300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4497400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>3942700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2679300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2484300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>2375000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2269600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2295600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2347200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2597400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>2739700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>3116500</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>3056600</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1843000</v>
+        <v>1825000</v>
       </c>
       <c r="E62" s="3">
-        <v>1915600</v>
+        <v>1844500</v>
       </c>
       <c r="F62" s="3">
-        <v>2093400</v>
+        <v>1917200</v>
       </c>
       <c r="G62" s="3">
-        <v>2058700</v>
+        <v>2095100</v>
       </c>
       <c r="H62" s="3">
-        <v>1923200</v>
+        <v>2060400</v>
       </c>
       <c r="I62" s="3">
-        <v>1947000</v>
+        <v>1924800</v>
       </c>
       <c r="J62" s="3">
+        <v>1948700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2040300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1938400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1946700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1831300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1916000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1606700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1716000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1548000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1728900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1579000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1534000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>818200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>833900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>736600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>699400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>717000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>792100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>871800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>916700</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>936700</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>955500</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>923800</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9768800</v>
+        <v>9936400</v>
       </c>
       <c r="E66" s="3">
-        <v>9324300</v>
+        <v>9776900</v>
       </c>
       <c r="F66" s="3">
-        <v>9095600</v>
+        <v>9332100</v>
       </c>
       <c r="G66" s="3">
-        <v>9096700</v>
+        <v>9103200</v>
       </c>
       <c r="H66" s="3">
-        <v>9025100</v>
+        <v>9104200</v>
       </c>
       <c r="I66" s="3">
-        <v>8863600</v>
+        <v>9032600</v>
       </c>
       <c r="J66" s="3">
+        <v>8871000</v>
+      </c>
+      <c r="K66" s="3">
         <v>9045700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8780000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8889300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8587000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8599600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8106000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8430600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8402800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8899200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9257200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9434700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8476300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7257100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6565900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6291500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6237700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>6464900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>6362800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>6707300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>7594600</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>7653200</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>7684900</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8010400</v>
+        <v>7982300</v>
       </c>
       <c r="E72" s="3">
-        <v>8230500</v>
+        <v>8017100</v>
       </c>
       <c r="F72" s="3">
-        <v>8556800</v>
+        <v>8237300</v>
       </c>
       <c r="G72" s="3">
-        <v>8018000</v>
+        <v>8563900</v>
       </c>
       <c r="H72" s="3">
-        <v>7557300</v>
+        <v>8024700</v>
       </c>
       <c r="I72" s="3">
-        <v>7124700</v>
+        <v>7563500</v>
       </c>
       <c r="J72" s="3">
+        <v>7130600</v>
+      </c>
+      <c r="K72" s="3">
         <v>7209300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6513100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>6056000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>5598100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>5501700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>5533000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>5736000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>5962800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>6435900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>5713400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>5409100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>5428400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>5567900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>4893400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>4618200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>4729100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>4526100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>4275900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>4057100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>4415900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>4284400</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>4223400</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11997700</v>
+        <v>12008800</v>
       </c>
       <c r="E76" s="3">
-        <v>12669900</v>
+        <v>12007700</v>
       </c>
       <c r="F76" s="3">
-        <v>13585900</v>
+        <v>12680400</v>
       </c>
       <c r="G76" s="3">
-        <v>13539300</v>
+        <v>13597200</v>
       </c>
       <c r="H76" s="3">
-        <v>12304500</v>
+        <v>13550600</v>
       </c>
       <c r="I76" s="3">
-        <v>11627000</v>
+        <v>12314800</v>
       </c>
       <c r="J76" s="3">
+        <v>11636600</v>
+      </c>
+      <c r="K76" s="3">
         <v>11580400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10520200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9741000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8890100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8786100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7517500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7902600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7922900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8673900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8421800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>7907800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>7801600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>7942000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>7128500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6635200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>6743900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>6740900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>6506400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>6296600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>6941900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>6815100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>6601500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-245000</v>
+        <v>-35800</v>
       </c>
       <c r="E81" s="3">
-        <v>204900</v>
+        <v>-245200</v>
       </c>
       <c r="F81" s="3">
-        <v>635300</v>
+        <v>205100</v>
       </c>
       <c r="G81" s="3">
-        <v>403300</v>
+        <v>635800</v>
       </c>
       <c r="H81" s="3">
-        <v>328500</v>
+        <v>403600</v>
       </c>
       <c r="I81" s="3">
-        <v>313300</v>
+        <v>328800</v>
       </c>
       <c r="J81" s="3">
+        <v>313600</v>
+      </c>
+      <c r="K81" s="3">
         <v>667800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>324100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>217900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>147000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>238400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>91300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>160400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>171600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>607100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>85700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>69400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>277500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>359600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>237000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>242700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>300900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>195200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>214300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>163800</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>133800</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>106800</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>151400</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>222400</v>
+      </c>
+      <c r="E89" s="3">
         <v>71600</v>
       </c>
-      <c r="E89" s="3">
-        <v>226600</v>
-      </c>
       <c r="F89" s="3">
-        <v>394600</v>
+        <v>226800</v>
       </c>
       <c r="G89" s="3">
-        <v>595200</v>
+        <v>394900</v>
       </c>
       <c r="H89" s="3">
-        <v>372900</v>
+        <v>595700</v>
       </c>
       <c r="I89" s="3">
-        <v>352300</v>
+        <v>373200</v>
       </c>
       <c r="J89" s="3">
+        <v>352600</v>
+      </c>
+      <c r="K89" s="3">
         <v>563700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>477100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>391500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>146000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>381000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>398600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>317500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>80200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>753000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>524300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>544700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>148300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>322900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>451900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>312900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>138300</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>529600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>408400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>317500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>97400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>489500</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>389700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-193000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-215000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-253000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-224000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-150000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-153000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-177000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-192000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-138000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-129100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-196000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>368000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-152600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-135300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-199900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>358400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-172700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-141200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-147100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>339500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-142900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-137300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-127400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>360200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-154800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-143600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-158500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-258200</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-250000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-198400</v>
+        <v>-225700</v>
       </c>
       <c r="E94" s="3">
-        <v>-642900</v>
+        <v>-198600</v>
       </c>
       <c r="F94" s="3">
-        <v>-201600</v>
+        <v>-643400</v>
       </c>
       <c r="G94" s="3">
-        <v>-219000</v>
+        <v>-201800</v>
       </c>
       <c r="H94" s="3">
-        <v>-191900</v>
+        <v>-219200</v>
       </c>
       <c r="I94" s="3">
-        <v>-191900</v>
+        <v>-192000</v>
       </c>
       <c r="J94" s="3">
+        <v>-192000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-160400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-88300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-130100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-98000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-214400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-152600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-130900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-224700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-249800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-193500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-682300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-149500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-197500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-152800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-94400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-116400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-304100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-218800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-140200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-123300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-77500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-85700</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,53 +7887,54 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-80200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-432600</v>
+        <v>-80300</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-432900</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-81300</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-389200</v>
+        <v>-81400</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-389500</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-30700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-212300</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-104700</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-128700</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
@@ -7711,11 +7945,11 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-471300</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>895500</v>
+        <v>115000</v>
       </c>
       <c r="E100" s="3">
-        <v>-307900</v>
+        <v>896200</v>
       </c>
       <c r="F100" s="3">
-        <v>100800</v>
+        <v>-308100</v>
       </c>
       <c r="G100" s="3">
+        <v>100900</v>
+      </c>
+      <c r="H100" s="3">
         <v>-78100</v>
       </c>
-      <c r="H100" s="3">
-        <v>193000</v>
-      </c>
       <c r="I100" s="3">
-        <v>-703600</v>
+        <v>193100</v>
       </c>
       <c r="J100" s="3">
+        <v>-704200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-194100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-432900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-217900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-442000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>134600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>63300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>149500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>23700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-302400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-491200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-324700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>95700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>45000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>111900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-294300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>61500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-278300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-640700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-5900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-219500</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>8700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7600</v>
       </c>
-      <c r="F101" s="3">
-        <v>24900</v>
-      </c>
       <c r="G101" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H101" s="3">
         <v>-9800</v>
       </c>
-      <c r="H101" s="3">
-        <v>32500</v>
-      </c>
       <c r="I101" s="3">
+        <v>32600</v>
+      </c>
+      <c r="J101" s="3">
         <v>4300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>16300</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>4200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-1100</v>
       </c>
       <c r="Q101" s="3">
         <v>-1100</v>
       </c>
       <c r="R101" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="S101" s="3">
         <v>1200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-2400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>17900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-8900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-6700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-3400</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-18000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>2300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>11700</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>777300</v>
+        <v>111800</v>
       </c>
       <c r="E102" s="3">
-        <v>-716600</v>
+        <v>777900</v>
       </c>
       <c r="F102" s="3">
-        <v>318700</v>
+        <v>-717200</v>
       </c>
       <c r="G102" s="3">
-        <v>288400</v>
+        <v>319000</v>
       </c>
       <c r="H102" s="3">
-        <v>406500</v>
+        <v>288600</v>
       </c>
       <c r="I102" s="3">
-        <v>-538800</v>
+        <v>406900</v>
       </c>
       <c r="J102" s="3">
+        <v>-539200</v>
+      </c>
+      <c r="K102" s="3">
         <v>225500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-44200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>47600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-395000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>298200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>305100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>334900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-121900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>197300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-162900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-464700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>112400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>172700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>402100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-69200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>87800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>213200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-92000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-481300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-29300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>204200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>309900</v>
       </c>
     </row>
